--- a/Test Execution/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Execution/Rijo/Test Case - Nursing Station.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="581">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1867,6 +1867,38 @@
   </si>
   <si>
     <t>Medicine is not listed out.Drop down is empty</t>
+  </si>
+  <si>
+    <t>dosage is accpet only two digit numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add and verify medicine to schedule 
+Generic Name
+Brand Name
+Strength
+Dosage
+UOM
+Frequency
+Route
+First Dose Time
+Remarks
+Period
+</t>
+  </si>
+  <si>
+    <t>User is not able to save the data</t>
+  </si>
+  <si>
+    <t>Click on "View Today" to view the previous intake output details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today details should be displayed </t>
+  </si>
+  <si>
+    <t>View previous button ia not working</t>
+  </si>
+  <si>
+    <t>Save is not wokring.</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1961,6 +1993,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,7 +2039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2123,6 +2161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,7 +2182,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2298,7 +2345,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2362,7 +2409,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2426,7 +2473,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2573,11 +2620,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="79661312"/>
-        <c:axId val="79675392"/>
+        <c:axId val="71141248"/>
+        <c:axId val="71142784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79661312"/>
+        <c:axId val="71141248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,14 +2632,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79675392"/>
+        <c:crossAx val="71142784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79675392"/>
+        <c:axId val="71142784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2648,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79661312"/>
+        <c:crossAx val="71141248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,7 +2661,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2640,7 +2687,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3093,15 +3140,15 @@
       </c>
       <c r="C2" s="18">
         <f>'Nursing Station'!P3</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D2" s="18">
         <f>'Nursing Station'!S2</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E2" s="18">
         <f>'Nursing Station'!S3</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" s="18">
         <f>'Nursing Station'!S4</f>
@@ -3151,15 +3198,15 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
@@ -3183,16 +3230,16 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3208,9 +3255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L420" sqref="L420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3288,7 +3335,7 @@
       <c r="C2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="20">
@@ -3318,14 +3365,14 @@
       </c>
       <c r="S2" s="30">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="30">
       <c r="A3" s="36"/>
       <c r="B3" s="19"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="44"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -3348,21 +3395,21 @@
       </c>
       <c r="P3" s="17">
         <f>COUNTA(L:L)-1</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="30">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="30">
       <c r="A4" s="36"/>
       <c r="B4" s="19"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="20">
         <v>3</v>
       </c>
@@ -3395,7 +3442,7 @@
     <row r="5" spans="1:19" ht="45">
       <c r="A5" s="36"/>
       <c r="B5" s="19"/>
-      <c r="D5" s="44"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="20">
         <v>4</v>
       </c>
@@ -3428,7 +3475,7 @@
     <row r="6" spans="1:19" ht="30">
       <c r="A6" s="36"/>
       <c r="B6" s="19"/>
-      <c r="D6" s="44"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="20">
         <v>5</v>
       </c>
@@ -3456,7 +3503,7 @@
       <c r="C8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="44" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="20">
@@ -3473,7 +3520,7 @@
     </row>
     <row r="9" spans="1:19" ht="30">
       <c r="B9" s="19"/>
-      <c r="D9" s="42"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="20">
         <v>2</v>
       </c>
@@ -3491,7 +3538,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="19"/>
-      <c r="D10" s="42"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="20">
         <v>3</v>
       </c>
@@ -3512,7 +3559,7 @@
     </row>
     <row r="11" spans="1:19" ht="45">
       <c r="B11" s="19"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="20">
         <v>4</v>
       </c>
@@ -3550,7 +3597,7 @@
       <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="44" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="20">
@@ -3570,7 +3617,7 @@
     </row>
     <row r="14" spans="1:19" ht="30">
       <c r="B14" s="19"/>
-      <c r="D14" s="42"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="20">
         <v>2</v>
       </c>
@@ -3588,7 +3635,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="19"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="20">
         <v>3</v>
       </c>
@@ -3606,7 +3653,7 @@
     </row>
     <row r="16" spans="1:19" ht="30">
       <c r="B16" s="19"/>
-      <c r="D16" s="42"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="20">
         <v>3</v>
       </c>
@@ -3641,7 +3688,7 @@
       <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="44" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="20">
@@ -3661,7 +3708,7 @@
     </row>
     <row r="19" spans="1:12" ht="30">
       <c r="B19" s="19"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="20">
         <v>2</v>
       </c>
@@ -3679,7 +3726,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="19"/>
-      <c r="D20" s="42"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="20">
         <v>3</v>
       </c>
@@ -3697,7 +3744,7 @@
     </row>
     <row r="21" spans="1:12" ht="30">
       <c r="B21" s="19"/>
-      <c r="D21" s="42"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="20">
         <v>4</v>
       </c>
@@ -3732,7 +3779,7 @@
       <c r="C23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="44" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="20">
@@ -3749,7 +3796,7 @@
     </row>
     <row r="24" spans="1:12" ht="30">
       <c r="B24" s="19"/>
-      <c r="D24" s="42"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="20">
         <v>2</v>
       </c>
@@ -3767,7 +3814,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="19"/>
-      <c r="D25" s="42"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="20">
         <v>3</v>
       </c>
@@ -3785,7 +3832,7 @@
     </row>
     <row r="26" spans="1:12" ht="60">
       <c r="B26" s="19"/>
-      <c r="D26" s="42"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="20">
         <v>4</v>
       </c>
@@ -3823,7 +3870,7 @@
       <c r="C28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="44" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="20">
@@ -3840,7 +3887,7 @@
     </row>
     <row r="29" spans="1:12" ht="30">
       <c r="B29" s="19"/>
-      <c r="D29" s="42"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="20">
         <v>2</v>
       </c>
@@ -3858,7 +3905,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="19"/>
-      <c r="D30" s="42"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="20">
         <v>3</v>
       </c>
@@ -3876,7 +3923,7 @@
     </row>
     <row r="31" spans="1:12" ht="60">
       <c r="B31" s="19"/>
-      <c r="D31" s="42"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="20">
         <v>4</v>
       </c>
@@ -3914,7 +3961,7 @@
       <c r="C33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="44" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="20">
@@ -3931,7 +3978,7 @@
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="B34" s="19"/>
-      <c r="D34" s="42"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="20">
         <v>2</v>
       </c>
@@ -3949,7 +3996,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="19"/>
-      <c r="D35" s="42"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="20">
         <v>3</v>
       </c>
@@ -3967,7 +4014,7 @@
     </row>
     <row r="36" spans="1:12" ht="60">
       <c r="B36" s="19"/>
-      <c r="D36" s="42"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="20">
         <v>4</v>
       </c>
@@ -3988,7 +4035,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="B37" s="19"/>
-      <c r="D37" s="42"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="20">
         <v>5</v>
       </c>
@@ -4006,7 +4053,7 @@
     </row>
     <row r="38" spans="1:12" ht="30">
       <c r="B38" s="19"/>
-      <c r="D38" s="42"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="20">
         <v>6</v>
       </c>
@@ -4041,7 +4088,7 @@
       <c r="C40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="44" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="20">
@@ -4058,7 +4105,7 @@
     </row>
     <row r="41" spans="1:12" ht="30">
       <c r="B41" s="19"/>
-      <c r="D41" s="42"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="20">
         <v>2</v>
       </c>
@@ -4076,7 +4123,7 @@
     </row>
     <row r="42" spans="1:12" ht="30">
       <c r="B42" s="19"/>
-      <c r="D42" s="42"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="20">
         <v>3</v>
       </c>
@@ -4094,7 +4141,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="B43" s="19"/>
-      <c r="D43" s="42"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="20">
         <v>4</v>
       </c>
@@ -4112,7 +4159,7 @@
     </row>
     <row r="44" spans="1:12" ht="45">
       <c r="B44" s="19"/>
-      <c r="D44" s="42"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="20">
         <v>5</v>
       </c>
@@ -4150,7 +4197,7 @@
       <c r="C46" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="44" t="s">
         <v>88</v>
       </c>
       <c r="E46" s="20">
@@ -4167,7 +4214,7 @@
     </row>
     <row r="47" spans="1:12" ht="30">
       <c r="B47" s="19"/>
-      <c r="D47" s="42"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="20">
         <v>2</v>
       </c>
@@ -4185,7 +4232,7 @@
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="B48" s="19"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="20">
         <v>3</v>
       </c>
@@ -4203,7 +4250,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="B49" s="19"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="20">
         <v>4</v>
       </c>
@@ -4221,7 +4268,7 @@
     </row>
     <row r="50" spans="1:12" ht="45">
       <c r="B50" s="19"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="20">
         <v>5</v>
       </c>
@@ -4242,7 +4289,7 @@
     </row>
     <row r="51" spans="1:12" ht="30">
       <c r="B51" s="19"/>
-      <c r="D51" s="42"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="20">
         <v>6</v>
       </c>
@@ -4260,7 +4307,7 @@
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="B52" s="19"/>
-      <c r="D52" s="42"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="20">
         <v>7</v>
       </c>
@@ -4295,7 +4342,7 @@
       <c r="C54" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="44" t="s">
         <v>94</v>
       </c>
       <c r="E54" s="20">
@@ -4312,7 +4359,7 @@
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="B55" s="19"/>
-      <c r="D55" s="42"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="20">
         <v>2</v>
       </c>
@@ -4330,7 +4377,7 @@
     </row>
     <row r="56" spans="1:12" ht="45">
       <c r="B56" s="19"/>
-      <c r="D56" s="42"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="20">
         <v>3</v>
       </c>
@@ -4351,7 +4398,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="B57" s="19"/>
-      <c r="D57" s="42"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="20">
         <v>4</v>
       </c>
@@ -4386,7 +4433,7 @@
       <c r="C59" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="44" t="s">
         <v>103</v>
       </c>
       <c r="E59" s="20">
@@ -4403,7 +4450,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="B60" s="19"/>
-      <c r="D60" s="42"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="20">
         <v>2</v>
       </c>
@@ -4421,7 +4468,7 @@
     </row>
     <row r="61" spans="1:12" ht="120">
       <c r="B61" s="19"/>
-      <c r="D61" s="42"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="20">
         <v>3</v>
       </c>
@@ -4459,7 +4506,7 @@
       <c r="C63" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="44" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="20">
@@ -4476,7 +4523,7 @@
     </row>
     <row r="64" spans="1:12" ht="30">
       <c r="B64" s="19"/>
-      <c r="D64" s="42"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="20">
         <v>2</v>
       </c>
@@ -4494,7 +4541,7 @@
     </row>
     <row r="65" spans="1:12" ht="120">
       <c r="B65" s="19"/>
-      <c r="D65" s="42"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="20">
         <v>3</v>
       </c>
@@ -4532,7 +4579,7 @@
       <c r="C67" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="20">
@@ -4549,7 +4596,7 @@
     </row>
     <row r="68" spans="1:12" ht="30">
       <c r="B68" s="19"/>
-      <c r="D68" s="42"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="20">
         <v>2</v>
       </c>
@@ -4567,7 +4614,7 @@
     </row>
     <row r="69" spans="1:12" ht="30">
       <c r="B69" s="19"/>
-      <c r="D69" s="42"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="20">
         <v>3</v>
       </c>
@@ -4585,7 +4632,7 @@
     </row>
     <row r="70" spans="1:12" ht="30">
       <c r="B70" s="19"/>
-      <c r="D70" s="42"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="20">
         <v>4</v>
       </c>
@@ -4620,7 +4667,7 @@
       <c r="C72" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="44" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="20">
@@ -4637,7 +4684,7 @@
     </row>
     <row r="73" spans="1:12" ht="30">
       <c r="B73" s="19"/>
-      <c r="D73" s="42"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="20">
         <v>2</v>
       </c>
@@ -4655,7 +4702,7 @@
     </row>
     <row r="74" spans="1:12" ht="30">
       <c r="B74" s="19"/>
-      <c r="D74" s="42"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="20">
         <v>3</v>
       </c>
@@ -4673,7 +4720,7 @@
     </row>
     <row r="75" spans="1:12" ht="45">
       <c r="B75" s="19"/>
-      <c r="D75" s="42"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="20">
         <v>4</v>
       </c>
@@ -4699,7 +4746,7 @@
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="45" customHeight="1">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="49" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -4708,7 +4755,7 @@
       <c r="C77" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="44" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="20">
@@ -4725,7 +4772,7 @@
     </row>
     <row r="78" spans="1:12" ht="30">
       <c r="B78" s="19"/>
-      <c r="D78" s="42"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="20">
         <v>2</v>
       </c>
@@ -4743,7 +4790,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="B79" s="19"/>
-      <c r="D79" s="42"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="20">
         <v>3</v>
       </c>
@@ -4761,7 +4808,7 @@
     </row>
     <row r="80" spans="1:12" ht="45">
       <c r="B80" s="19"/>
-      <c r="D80" s="42"/>
+      <c r="D80" s="44"/>
       <c r="E80" s="20">
         <v>4</v>
       </c>
@@ -4771,11 +4818,18 @@
       <c r="G80" s="20" t="s">
         <v>130</v>
       </c>
+      <c r="H80" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I80" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="K80" s="28"/>
-      <c r="L80" s="2"/>
+      <c r="K80" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="81" spans="1:12">
       <c r="B81" s="19"/>
@@ -4783,7 +4837,7 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="60" customHeight="1">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="41" t="s">
         <v>145</v>
       </c>
       <c r="B82" s="19" t="s">
@@ -4792,7 +4846,7 @@
       <c r="C82" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="D82" s="47" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="20">
@@ -4809,7 +4863,7 @@
     </row>
     <row r="83" spans="1:12" ht="30">
       <c r="B83" s="19"/>
-      <c r="D83" s="45"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="20">
         <v>2</v>
       </c>
@@ -4819,12 +4873,15 @@
       <c r="G83" s="20" t="s">
         <v>126</v>
       </c>
+      <c r="H83" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K83" s="28"/>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12">
       <c r="B84" s="19"/>
-      <c r="D84" s="45"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="20">
         <v>3</v>
       </c>
@@ -4834,12 +4891,15 @@
       <c r="G84" s="20" t="s">
         <v>128</v>
       </c>
+      <c r="H84" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K84" s="28"/>
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" ht="45">
       <c r="B85" s="19"/>
-      <c r="D85" s="45"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="20">
         <v>4</v>
       </c>
@@ -4849,11 +4909,18 @@
       <c r="G85" s="20" t="s">
         <v>141</v>
       </c>
+      <c r="H85" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I85" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="K85" s="28"/>
-      <c r="L85" s="2"/>
+      <c r="K85" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="86" spans="1:12">
       <c r="B86" s="19"/>
@@ -4861,7 +4928,7 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="45" customHeight="1">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="49" t="s">
         <v>132</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -4870,7 +4937,7 @@
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="42" t="s">
+      <c r="D87" s="44" t="s">
         <v>133</v>
       </c>
       <c r="E87" s="20">
@@ -4887,7 +4954,7 @@
     </row>
     <row r="88" spans="1:12" ht="30">
       <c r="B88" s="19"/>
-      <c r="D88" s="42"/>
+      <c r="D88" s="44"/>
       <c r="E88" s="20">
         <v>2</v>
       </c>
@@ -4897,12 +4964,15 @@
       <c r="G88" s="20" t="s">
         <v>152</v>
       </c>
+      <c r="H88" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K88" s="28"/>
       <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="19"/>
-      <c r="D89" s="42"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="20">
         <v>3</v>
       </c>
@@ -4912,12 +4982,15 @@
       <c r="G89" s="20" t="s">
         <v>136</v>
       </c>
+      <c r="H89" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K89" s="28"/>
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" ht="45">
       <c r="B90" s="19"/>
-      <c r="D90" s="42"/>
+      <c r="D90" s="44"/>
       <c r="E90" s="20">
         <v>4</v>
       </c>
@@ -4927,11 +5000,18 @@
       <c r="G90" s="20" t="s">
         <v>153</v>
       </c>
+      <c r="H90" s="20" t="s">
+        <v>576</v>
+      </c>
       <c r="I90" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="K90" s="28"/>
-      <c r="L90" s="2"/>
+      <c r="K90" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="91" spans="1:12">
       <c r="B91" s="19"/>
@@ -4939,7 +5019,7 @@
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" ht="30" customHeight="1">
-      <c r="A92" s="37" t="s">
+      <c r="A92" s="42" t="s">
         <v>138</v>
       </c>
       <c r="B92" s="19" t="s">
@@ -4948,7 +5028,7 @@
       <c r="C92" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="44" t="s">
         <v>139</v>
       </c>
       <c r="E92" s="20">
@@ -4965,7 +5045,7 @@
     </row>
     <row r="93" spans="1:12" ht="30">
       <c r="B93" s="19"/>
-      <c r="D93" s="42"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="20">
         <v>2</v>
       </c>
@@ -4975,12 +5055,15 @@
       <c r="G93" s="20" t="s">
         <v>152</v>
       </c>
+      <c r="H93" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K93" s="28"/>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12">
       <c r="B94" s="19"/>
-      <c r="D94" s="42"/>
+      <c r="D94" s="44"/>
       <c r="E94" s="20">
         <v>3</v>
       </c>
@@ -4990,12 +5073,15 @@
       <c r="G94" s="20" t="s">
         <v>136</v>
       </c>
+      <c r="H94" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K94" s="28"/>
       <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" ht="45">
       <c r="B95" s="19"/>
-      <c r="D95" s="42"/>
+      <c r="D95" s="44"/>
       <c r="E95" s="20">
         <v>4</v>
       </c>
@@ -5005,6 +5091,9 @@
       <c r="G95" s="20" t="s">
         <v>153</v>
       </c>
+      <c r="H95" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I95" s="20" t="s">
         <v>129</v>
       </c>
@@ -5013,7 +5102,7 @@
     </row>
     <row r="96" spans="1:12" ht="30">
       <c r="B96" s="19"/>
-      <c r="D96" s="42"/>
+      <c r="D96" s="44"/>
       <c r="E96" s="20">
         <v>5</v>
       </c>
@@ -5023,8 +5112,15 @@
       <c r="G96" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="K96" s="28"/>
-      <c r="L96" s="2"/>
+      <c r="H96" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="K96" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="97" spans="1:12">
       <c r="B97" s="19"/>
@@ -5032,7 +5128,7 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" ht="45" customHeight="1">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="49" t="s">
         <v>142</v>
       </c>
       <c r="B98" s="19" t="s">
@@ -5041,7 +5137,7 @@
       <c r="C98" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="42" t="s">
+      <c r="D98" s="44" t="s">
         <v>139</v>
       </c>
       <c r="E98" s="20">
@@ -5058,7 +5154,7 @@
     </row>
     <row r="99" spans="1:12" ht="30">
       <c r="B99" s="19"/>
-      <c r="D99" s="42"/>
+      <c r="D99" s="44"/>
       <c r="E99" s="20">
         <v>2</v>
       </c>
@@ -5068,12 +5164,15 @@
       <c r="G99" s="20" t="s">
         <v>152</v>
       </c>
+      <c r="H99" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K99" s="28"/>
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12">
       <c r="B100" s="19"/>
-      <c r="D100" s="42"/>
+      <c r="D100" s="44"/>
       <c r="E100" s="20">
         <v>3</v>
       </c>
@@ -5083,12 +5182,15 @@
       <c r="G100" s="20" t="s">
         <v>136</v>
       </c>
+      <c r="H100" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K100" s="28"/>
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" ht="45">
       <c r="B101" s="19"/>
-      <c r="D101" s="42"/>
+      <c r="D101" s="44"/>
       <c r="E101" s="20">
         <v>4</v>
       </c>
@@ -5098,6 +5200,9 @@
       <c r="G101" s="20" t="s">
         <v>153</v>
       </c>
+      <c r="H101" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I101" s="20" t="s">
         <v>129</v>
       </c>
@@ -5106,18 +5211,25 @@
     </row>
     <row r="102" spans="1:12" ht="30">
       <c r="B102" s="19"/>
-      <c r="D102" s="42"/>
+      <c r="D102" s="44"/>
       <c r="E102" s="20">
         <v>5</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>140</v>
+        <v>577</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="K102" s="28"/>
-      <c r="L102" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K102" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="1:12">
       <c r="B103" s="19"/>
@@ -5125,7 +5237,7 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="75" customHeight="1">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="49" t="s">
         <v>149</v>
       </c>
       <c r="B104" s="19" t="s">
@@ -5134,7 +5246,7 @@
       <c r="C104" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="44" t="s">
         <v>146</v>
       </c>
       <c r="E104" s="20">
@@ -5151,7 +5263,7 @@
     </row>
     <row r="105" spans="1:12" ht="30">
       <c r="B105" s="19"/>
-      <c r="D105" s="42"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="20">
         <v>2</v>
       </c>
@@ -5161,12 +5273,15 @@
       <c r="G105" s="20" t="s">
         <v>152</v>
       </c>
+      <c r="H105" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K105" s="28"/>
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12">
       <c r="B106" s="19"/>
-      <c r="D106" s="42"/>
+      <c r="D106" s="44"/>
       <c r="E106" s="20">
         <v>3</v>
       </c>
@@ -5176,12 +5291,15 @@
       <c r="G106" s="20" t="s">
         <v>136</v>
       </c>
+      <c r="H106" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K106" s="28"/>
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="45">
       <c r="B107" s="19"/>
-      <c r="D107" s="42"/>
+      <c r="D107" s="44"/>
       <c r="E107" s="20">
         <v>4</v>
       </c>
@@ -5191,15 +5309,22 @@
       <c r="G107" s="20" t="s">
         <v>153</v>
       </c>
+      <c r="H107" s="20" t="s">
+        <v>580</v>
+      </c>
       <c r="I107" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="K107" s="28"/>
-      <c r="L107" s="2"/>
+      <c r="K107" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="43.5" customHeight="1">
       <c r="B108" s="19"/>
-      <c r="D108" s="42"/>
+      <c r="D108" s="44"/>
       <c r="E108" s="20">
         <v>5</v>
       </c>
@@ -5227,7 +5352,7 @@
       <c r="C110" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="44" t="s">
         <v>150</v>
       </c>
       <c r="E110" s="20">
@@ -5244,7 +5369,7 @@
     </row>
     <row r="111" spans="1:12" ht="51.75" customHeight="1">
       <c r="B111" s="19"/>
-      <c r="D111" s="42"/>
+      <c r="D111" s="44"/>
       <c r="E111" s="20">
         <v>2</v>
       </c>
@@ -5254,12 +5379,15 @@
       <c r="G111" s="20" t="s">
         <v>154</v>
       </c>
+      <c r="H111" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K111" s="28"/>
       <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" ht="75">
       <c r="B112" s="19"/>
-      <c r="D112" s="42"/>
+      <c r="D112" s="44"/>
       <c r="E112" s="20">
         <v>3</v>
       </c>
@@ -5269,8 +5397,15 @@
       <c r="G112" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="K112" s="28"/>
-      <c r="L112" s="2"/>
+      <c r="H112" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K112" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="113" spans="1:12">
       <c r="B113" s="19"/>
@@ -5278,7 +5413,7 @@
       <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" ht="45" customHeight="1">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="48" t="s">
         <v>161</v>
       </c>
       <c r="B114" s="19" t="s">
@@ -5287,7 +5422,7 @@
       <c r="C114" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="42" t="s">
+      <c r="D114" s="44" t="s">
         <v>163</v>
       </c>
       <c r="E114" s="20">
@@ -5304,7 +5439,7 @@
     </row>
     <row r="115" spans="1:12" ht="30">
       <c r="B115" s="19"/>
-      <c r="D115" s="42"/>
+      <c r="D115" s="44"/>
       <c r="E115" s="20">
         <v>2</v>
       </c>
@@ -5319,7 +5454,7 @@
     </row>
     <row r="116" spans="1:12" ht="225">
       <c r="B116" s="19"/>
-      <c r="D116" s="42"/>
+      <c r="D116" s="44"/>
       <c r="E116" s="20">
         <v>3</v>
       </c>
@@ -5341,7 +5476,7 @@
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="30" customHeight="1">
-      <c r="A118" s="37" t="s">
+      <c r="A118" s="48" t="s">
         <v>166</v>
       </c>
       <c r="B118" s="19" t="s">
@@ -5350,7 +5485,7 @@
       <c r="C118" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="42" t="s">
+      <c r="D118" s="44" t="s">
         <v>162</v>
       </c>
       <c r="E118" s="20">
@@ -5367,7 +5502,7 @@
     </row>
     <row r="119" spans="1:12" ht="30">
       <c r="B119" s="19"/>
-      <c r="D119" s="42"/>
+      <c r="D119" s="44"/>
       <c r="E119" s="20">
         <v>2</v>
       </c>
@@ -5382,7 +5517,7 @@
     </row>
     <row r="120" spans="1:12" ht="225">
       <c r="B120" s="19"/>
-      <c r="D120" s="42"/>
+      <c r="D120" s="44"/>
       <c r="E120" s="20">
         <v>3</v>
       </c>
@@ -5397,7 +5532,7 @@
     </row>
     <row r="121" spans="1:12" ht="30">
       <c r="B121" s="19"/>
-      <c r="D121" s="42"/>
+      <c r="D121" s="44"/>
       <c r="E121" s="20">
         <v>4</v>
       </c>
@@ -5416,7 +5551,7 @@
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" ht="30" customHeight="1">
-      <c r="A123" s="37" t="s">
+      <c r="A123" s="48" t="s">
         <v>170</v>
       </c>
       <c r="B123" s="19" t="s">
@@ -5425,7 +5560,7 @@
       <c r="C123" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D123" s="42" t="s">
+      <c r="D123" s="44" t="s">
         <v>167</v>
       </c>
       <c r="E123" s="20">
@@ -5442,7 +5577,7 @@
     </row>
     <row r="124" spans="1:12" ht="30">
       <c r="B124" s="19"/>
-      <c r="D124" s="42"/>
+      <c r="D124" s="44"/>
       <c r="E124" s="20">
         <v>2</v>
       </c>
@@ -5457,7 +5592,7 @@
     </row>
     <row r="125" spans="1:12" ht="225">
       <c r="B125" s="19"/>
-      <c r="D125" s="42"/>
+      <c r="D125" s="44"/>
       <c r="E125" s="20">
         <v>3</v>
       </c>
@@ -5475,7 +5610,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="B126" s="19"/>
-      <c r="D126" s="42"/>
+      <c r="D126" s="44"/>
       <c r="E126" s="20">
         <v>4</v>
       </c>
@@ -5494,7 +5629,7 @@
       <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" ht="45" customHeight="1">
-      <c r="A128" s="37" t="s">
+      <c r="A128" s="48" t="s">
         <v>176</v>
       </c>
       <c r="B128" s="19" t="s">
@@ -5503,7 +5638,7 @@
       <c r="C128" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="42" t="s">
+      <c r="D128" s="44" t="s">
         <v>171</v>
       </c>
       <c r="E128" s="20">
@@ -5520,7 +5655,7 @@
     </row>
     <row r="129" spans="1:12" ht="30">
       <c r="B129" s="19"/>
-      <c r="D129" s="42"/>
+      <c r="D129" s="44"/>
       <c r="E129" s="20">
         <v>2</v>
       </c>
@@ -5535,7 +5670,7 @@
     </row>
     <row r="130" spans="1:12" ht="165">
       <c r="B130" s="19"/>
-      <c r="D130" s="42"/>
+      <c r="D130" s="44"/>
       <c r="E130" s="20">
         <v>3</v>
       </c>
@@ -5554,7 +5689,7 @@
       <c r="L131" s="2"/>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="48" t="s">
         <v>181</v>
       </c>
       <c r="B132" s="19" t="s">
@@ -5563,7 +5698,7 @@
       <c r="C132" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D132" s="42" t="s">
+      <c r="D132" s="44" t="s">
         <v>177</v>
       </c>
       <c r="E132" s="20">
@@ -5580,7 +5715,7 @@
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="B133" s="19"/>
-      <c r="D133" s="42"/>
+      <c r="D133" s="44"/>
       <c r="E133" s="20">
         <v>2</v>
       </c>
@@ -5595,7 +5730,7 @@
     </row>
     <row r="134" spans="1:12" ht="165">
       <c r="B134" s="19"/>
-      <c r="D134" s="42"/>
+      <c r="D134" s="44"/>
       <c r="E134" s="20">
         <v>3</v>
       </c>
@@ -5610,7 +5745,7 @@
     </row>
     <row r="135" spans="1:12" ht="30">
       <c r="B135" s="19"/>
-      <c r="D135" s="42"/>
+      <c r="D135" s="44"/>
       <c r="E135" s="20">
         <v>4</v>
       </c>
@@ -5629,7 +5764,7 @@
       <c r="L136" s="2"/>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="48" t="s">
         <v>182</v>
       </c>
       <c r="B137" s="19" t="s">
@@ -5638,7 +5773,7 @@
       <c r="C137" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D137" s="42" t="s">
+      <c r="D137" s="44" t="s">
         <v>180</v>
       </c>
       <c r="E137" s="20">
@@ -5655,7 +5790,7 @@
     </row>
     <row r="138" spans="1:12" ht="30">
       <c r="B138" s="19"/>
-      <c r="D138" s="42"/>
+      <c r="D138" s="44"/>
       <c r="E138" s="20">
         <v>2</v>
       </c>
@@ -5670,7 +5805,7 @@
     </row>
     <row r="139" spans="1:12" ht="165">
       <c r="B139" s="19"/>
-      <c r="D139" s="42"/>
+      <c r="D139" s="44"/>
       <c r="E139" s="20">
         <v>3</v>
       </c>
@@ -5685,7 +5820,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="B140" s="19"/>
-      <c r="D140" s="42"/>
+      <c r="D140" s="44"/>
       <c r="E140" s="20">
         <v>4</v>
       </c>
@@ -5704,7 +5839,7 @@
       <c r="L141" s="2"/>
     </row>
     <row r="142" spans="1:12" ht="30" customHeight="1">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="48" t="s">
         <v>186</v>
       </c>
       <c r="B142" s="19" t="s">
@@ -5713,7 +5848,7 @@
       <c r="C142" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="42" t="s">
+      <c r="D142" s="44" t="s">
         <v>183</v>
       </c>
       <c r="E142" s="20">
@@ -5730,7 +5865,7 @@
     </row>
     <row r="143" spans="1:12" ht="30">
       <c r="B143" s="19"/>
-      <c r="D143" s="42"/>
+      <c r="D143" s="44"/>
       <c r="E143" s="20">
         <v>2</v>
       </c>
@@ -5745,7 +5880,7 @@
     </row>
     <row r="144" spans="1:12" ht="165">
       <c r="B144" s="19"/>
-      <c r="D144" s="42"/>
+      <c r="D144" s="44"/>
       <c r="E144" s="20">
         <v>3</v>
       </c>
@@ -5760,7 +5895,7 @@
     </row>
     <row r="145" spans="1:12" ht="30">
       <c r="B145" s="19"/>
-      <c r="D145" s="42"/>
+      <c r="D145" s="44"/>
       <c r="E145" s="20">
         <v>4</v>
       </c>
@@ -5775,7 +5910,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="B146" s="19"/>
-      <c r="D146" s="42"/>
+      <c r="D146" s="44"/>
       <c r="E146" s="20">
         <v>5</v>
       </c>
@@ -5794,7 +5929,7 @@
       <c r="L147" s="2"/>
     </row>
     <row r="148" spans="1:12" ht="45" customHeight="1">
-      <c r="A148" s="37" t="s">
+      <c r="A148" s="48" t="s">
         <v>199</v>
       </c>
       <c r="B148" s="19" t="s">
@@ -5803,7 +5938,7 @@
       <c r="C148" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="42" t="s">
+      <c r="D148" s="44" t="s">
         <v>189</v>
       </c>
       <c r="E148" s="20">
@@ -5820,7 +5955,7 @@
     </row>
     <row r="149" spans="1:12" ht="45" customHeight="1">
       <c r="B149" s="19"/>
-      <c r="D149" s="42"/>
+      <c r="D149" s="44"/>
       <c r="E149" s="20">
         <v>2</v>
       </c>
@@ -5835,7 +5970,7 @@
     </row>
     <row r="150" spans="1:12" ht="30">
       <c r="B150" s="19"/>
-      <c r="D150" s="42"/>
+      <c r="D150" s="44"/>
       <c r="E150" s="20">
         <v>3</v>
       </c>
@@ -5850,7 +5985,7 @@
     </row>
     <row r="151" spans="1:12" ht="30">
       <c r="B151" s="19"/>
-      <c r="D151" s="42"/>
+      <c r="D151" s="44"/>
       <c r="E151" s="20">
         <v>4</v>
       </c>
@@ -5865,7 +6000,7 @@
     </row>
     <row r="152" spans="1:12" ht="30">
       <c r="B152" s="19"/>
-      <c r="D152" s="42"/>
+      <c r="D152" s="44"/>
       <c r="E152" s="20">
         <v>5</v>
       </c>
@@ -5880,7 +6015,7 @@
     </row>
     <row r="153" spans="1:12" ht="30">
       <c r="B153" s="19"/>
-      <c r="D153" s="42"/>
+      <c r="D153" s="44"/>
       <c r="E153" s="20">
         <v>6</v>
       </c>
@@ -5895,7 +6030,7 @@
     </row>
     <row r="154" spans="1:12" ht="30">
       <c r="B154" s="19"/>
-      <c r="D154" s="42"/>
+      <c r="D154" s="44"/>
       <c r="E154" s="20">
         <v>7</v>
       </c>
@@ -5910,7 +6045,7 @@
     </row>
     <row r="155" spans="1:12" ht="30">
       <c r="B155" s="19"/>
-      <c r="D155" s="42"/>
+      <c r="D155" s="44"/>
       <c r="E155" s="20">
         <v>8</v>
       </c>
@@ -5929,7 +6064,7 @@
       <c r="L156" s="2"/>
     </row>
     <row r="157" spans="1:12" ht="45" customHeight="1">
-      <c r="A157" s="37" t="s">
+      <c r="A157" s="48" t="s">
         <v>205</v>
       </c>
       <c r="B157" s="19" t="s">
@@ -5938,7 +6073,7 @@
       <c r="C157" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D157" s="42" t="s">
+      <c r="D157" s="44" t="s">
         <v>200</v>
       </c>
       <c r="E157" s="20">
@@ -5955,7 +6090,7 @@
     </row>
     <row r="158" spans="1:12" ht="30">
       <c r="B158" s="19"/>
-      <c r="D158" s="42"/>
+      <c r="D158" s="44"/>
       <c r="E158" s="20">
         <v>2</v>
       </c>
@@ -5970,7 +6105,7 @@
     </row>
     <row r="159" spans="1:12" ht="30">
       <c r="B159" s="19"/>
-      <c r="D159" s="42"/>
+      <c r="D159" s="44"/>
       <c r="E159" s="20">
         <v>3</v>
       </c>
@@ -5985,7 +6120,7 @@
     </row>
     <row r="160" spans="1:12" ht="30">
       <c r="B160" s="19"/>
-      <c r="D160" s="42"/>
+      <c r="D160" s="44"/>
       <c r="E160" s="20">
         <v>4</v>
       </c>
@@ -6000,7 +6135,7 @@
     </row>
     <row r="161" spans="1:12" ht="30">
       <c r="B161" s="19"/>
-      <c r="D161" s="42"/>
+      <c r="D161" s="44"/>
       <c r="E161" s="20">
         <v>5</v>
       </c>
@@ -6015,7 +6150,7 @@
     </row>
     <row r="162" spans="1:12" ht="30">
       <c r="B162" s="19"/>
-      <c r="D162" s="42"/>
+      <c r="D162" s="44"/>
       <c r="E162" s="20">
         <v>6</v>
       </c>
@@ -6030,7 +6165,7 @@
     </row>
     <row r="163" spans="1:12" ht="30">
       <c r="B163" s="19"/>
-      <c r="D163" s="42"/>
+      <c r="D163" s="44"/>
       <c r="E163" s="20">
         <v>7</v>
       </c>
@@ -6045,7 +6180,7 @@
     </row>
     <row r="164" spans="1:12" ht="30">
       <c r="B164" s="19"/>
-      <c r="D164" s="42"/>
+      <c r="D164" s="44"/>
       <c r="E164" s="20">
         <v>8</v>
       </c>
@@ -6060,7 +6195,7 @@
     </row>
     <row r="165" spans="1:12" ht="30">
       <c r="B165" s="19"/>
-      <c r="D165" s="42"/>
+      <c r="D165" s="44"/>
       <c r="E165" s="20">
         <v>9</v>
       </c>
@@ -6079,7 +6214,7 @@
       <c r="L166" s="2"/>
     </row>
     <row r="167" spans="1:12" ht="45" customHeight="1">
-      <c r="A167" s="37" t="s">
+      <c r="A167" s="48" t="s">
         <v>207</v>
       </c>
       <c r="B167" s="19" t="s">
@@ -6088,7 +6223,7 @@
       <c r="C167" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D167" s="42" t="s">
+      <c r="D167" s="44" t="s">
         <v>206</v>
       </c>
       <c r="E167" s="20">
@@ -6105,7 +6240,7 @@
     </row>
     <row r="168" spans="1:12" ht="30">
       <c r="B168" s="19"/>
-      <c r="D168" s="42"/>
+      <c r="D168" s="44"/>
       <c r="E168" s="20">
         <v>2</v>
       </c>
@@ -6120,7 +6255,7 @@
     </row>
     <row r="169" spans="1:12" ht="30">
       <c r="B169" s="19"/>
-      <c r="D169" s="42"/>
+      <c r="D169" s="44"/>
       <c r="E169" s="20">
         <v>3</v>
       </c>
@@ -6135,7 +6270,7 @@
     </row>
     <row r="170" spans="1:12" ht="30">
       <c r="B170" s="19"/>
-      <c r="D170" s="42"/>
+      <c r="D170" s="44"/>
       <c r="E170" s="20">
         <v>4</v>
       </c>
@@ -6150,7 +6285,7 @@
     </row>
     <row r="171" spans="1:12" ht="30">
       <c r="B171" s="19"/>
-      <c r="D171" s="42"/>
+      <c r="D171" s="44"/>
       <c r="E171" s="20">
         <v>5</v>
       </c>
@@ -6165,7 +6300,7 @@
     </row>
     <row r="172" spans="1:12" ht="30">
       <c r="B172" s="19"/>
-      <c r="D172" s="42"/>
+      <c r="D172" s="44"/>
       <c r="E172" s="20">
         <v>6</v>
       </c>
@@ -6180,7 +6315,7 @@
     </row>
     <row r="173" spans="1:12" ht="30">
       <c r="B173" s="19"/>
-      <c r="D173" s="42"/>
+      <c r="D173" s="44"/>
       <c r="E173" s="20">
         <v>7</v>
       </c>
@@ -6195,7 +6330,7 @@
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="B174" s="19"/>
-      <c r="D174" s="42"/>
+      <c r="D174" s="44"/>
       <c r="E174" s="20">
         <v>8</v>
       </c>
@@ -6210,7 +6345,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="B175" s="19"/>
-      <c r="D175" s="42"/>
+      <c r="D175" s="44"/>
       <c r="E175" s="20">
         <v>9</v>
       </c>
@@ -6229,7 +6364,7 @@
       <c r="L176" s="2"/>
     </row>
     <row r="177" spans="1:12" ht="30" customHeight="1">
-      <c r="A177" s="37" t="s">
+      <c r="A177" s="48" t="s">
         <v>209</v>
       </c>
       <c r="B177" s="19" t="s">
@@ -6238,7 +6373,7 @@
       <c r="C177" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D177" s="42" t="s">
+      <c r="D177" s="44" t="s">
         <v>208</v>
       </c>
       <c r="E177" s="20">
@@ -6255,7 +6390,7 @@
     </row>
     <row r="178" spans="1:12" ht="30">
       <c r="B178" s="19"/>
-      <c r="D178" s="42"/>
+      <c r="D178" s="44"/>
       <c r="E178" s="20">
         <v>2</v>
       </c>
@@ -6270,7 +6405,7 @@
     </row>
     <row r="179" spans="1:12" ht="30">
       <c r="B179" s="19"/>
-      <c r="D179" s="42"/>
+      <c r="D179" s="44"/>
       <c r="E179" s="20">
         <v>3</v>
       </c>
@@ -6285,7 +6420,7 @@
     </row>
     <row r="180" spans="1:12" ht="30">
       <c r="B180" s="19"/>
-      <c r="D180" s="42"/>
+      <c r="D180" s="44"/>
       <c r="E180" s="20">
         <v>4</v>
       </c>
@@ -6300,7 +6435,7 @@
     </row>
     <row r="181" spans="1:12" ht="30">
       <c r="B181" s="19"/>
-      <c r="D181" s="42"/>
+      <c r="D181" s="44"/>
       <c r="E181" s="20">
         <v>5</v>
       </c>
@@ -6315,7 +6450,7 @@
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="B182" s="19"/>
-      <c r="D182" s="42"/>
+      <c r="D182" s="44"/>
       <c r="E182" s="20">
         <v>6</v>
       </c>
@@ -6330,7 +6465,7 @@
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="B183" s="19"/>
-      <c r="D183" s="42"/>
+      <c r="D183" s="44"/>
       <c r="E183" s="20">
         <v>7</v>
       </c>
@@ -6345,7 +6480,7 @@
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="B184" s="19"/>
-      <c r="D184" s="42"/>
+      <c r="D184" s="44"/>
       <c r="E184" s="20">
         <v>8</v>
       </c>
@@ -6360,7 +6495,7 @@
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="B185" s="19"/>
-      <c r="D185" s="42"/>
+      <c r="D185" s="44"/>
       <c r="E185" s="20">
         <v>9</v>
       </c>
@@ -6375,7 +6510,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="B186" s="19"/>
-      <c r="D186" s="42"/>
+      <c r="D186" s="44"/>
       <c r="E186" s="20">
         <v>10</v>
       </c>
@@ -6394,7 +6529,7 @@
       <c r="L187" s="2"/>
     </row>
     <row r="188" spans="1:12" ht="45" customHeight="1">
-      <c r="A188" s="37" t="s">
+      <c r="A188" s="48" t="s">
         <v>217</v>
       </c>
       <c r="B188" s="19" t="s">
@@ -6403,7 +6538,7 @@
       <c r="C188" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D188" s="42" t="s">
+      <c r="D188" s="44" t="s">
         <v>210</v>
       </c>
       <c r="E188" s="20">
@@ -6420,7 +6555,7 @@
     </row>
     <row r="189" spans="1:12" ht="30">
       <c r="B189" s="19"/>
-      <c r="D189" s="42"/>
+      <c r="D189" s="44"/>
       <c r="E189" s="20">
         <v>2</v>
       </c>
@@ -6435,7 +6570,7 @@
     </row>
     <row r="190" spans="1:12" ht="140.25" customHeight="1">
       <c r="B190" s="19"/>
-      <c r="D190" s="42"/>
+      <c r="D190" s="44"/>
       <c r="E190" s="20">
         <v>3</v>
       </c>
@@ -6454,7 +6589,7 @@
       <c r="L191" s="2"/>
     </row>
     <row r="192" spans="1:12" ht="30" customHeight="1">
-      <c r="A192" s="37" t="s">
+      <c r="A192" s="48" t="s">
         <v>218</v>
       </c>
       <c r="B192" s="19" t="s">
@@ -6463,7 +6598,7 @@
       <c r="C192" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D192" s="42" t="s">
+      <c r="D192" s="44" t="s">
         <v>214</v>
       </c>
       <c r="E192" s="20">
@@ -6480,7 +6615,7 @@
     </row>
     <row r="193" spans="1:12" ht="30">
       <c r="B193" s="19"/>
-      <c r="D193" s="42"/>
+      <c r="D193" s="44"/>
       <c r="E193" s="20">
         <v>2</v>
       </c>
@@ -6495,7 +6630,7 @@
     </row>
     <row r="194" spans="1:12" ht="135.75" customHeight="1">
       <c r="B194" s="19"/>
-      <c r="D194" s="42"/>
+      <c r="D194" s="44"/>
       <c r="E194" s="20">
         <v>3</v>
       </c>
@@ -6510,7 +6645,7 @@
     </row>
     <row r="195" spans="1:12" ht="30">
       <c r="B195" s="19"/>
-      <c r="D195" s="42"/>
+      <c r="D195" s="44"/>
       <c r="E195" s="20">
         <v>4</v>
       </c>
@@ -6529,7 +6664,7 @@
       <c r="L196" s="2"/>
     </row>
     <row r="197" spans="1:12" ht="30" customHeight="1">
-      <c r="A197" s="37" t="s">
+      <c r="A197" s="48" t="s">
         <v>222</v>
       </c>
       <c r="B197" s="19" t="s">
@@ -6538,7 +6673,7 @@
       <c r="C197" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D197" s="42" t="s">
+      <c r="D197" s="44" t="s">
         <v>219</v>
       </c>
       <c r="E197" s="20">
@@ -6555,7 +6690,7 @@
     </row>
     <row r="198" spans="1:12" ht="30">
       <c r="B198" s="19"/>
-      <c r="D198" s="42"/>
+      <c r="D198" s="44"/>
       <c r="E198" s="20">
         <v>2</v>
       </c>
@@ -6570,7 +6705,7 @@
     </row>
     <row r="199" spans="1:12" ht="135.75" customHeight="1">
       <c r="B199" s="19"/>
-      <c r="D199" s="42"/>
+      <c r="D199" s="44"/>
       <c r="E199" s="20">
         <v>3</v>
       </c>
@@ -6585,7 +6720,7 @@
     </row>
     <row r="200" spans="1:12" ht="30">
       <c r="B200" s="19"/>
-      <c r="D200" s="42"/>
+      <c r="D200" s="44"/>
       <c r="E200" s="20">
         <v>4</v>
       </c>
@@ -6600,7 +6735,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="B201" s="19"/>
-      <c r="D201" s="42"/>
+      <c r="D201" s="44"/>
       <c r="E201" s="20">
         <v>5</v>
       </c>
@@ -6619,7 +6754,7 @@
       <c r="L202" s="2"/>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="48" t="s">
         <v>259</v>
       </c>
       <c r="B203" s="19" t="s">
@@ -6628,7 +6763,7 @@
       <c r="C203" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="42" t="s">
+      <c r="D203" s="44" t="s">
         <v>220</v>
       </c>
       <c r="E203" s="20">
@@ -6645,7 +6780,7 @@
     </row>
     <row r="204" spans="1:12" ht="30">
       <c r="B204" s="19"/>
-      <c r="D204" s="42"/>
+      <c r="D204" s="44"/>
       <c r="E204" s="20">
         <v>2</v>
       </c>
@@ -6660,7 +6795,7 @@
     </row>
     <row r="205" spans="1:12" ht="141" customHeight="1">
       <c r="B205" s="19"/>
-      <c r="D205" s="42"/>
+      <c r="D205" s="44"/>
       <c r="E205" s="20">
         <v>3</v>
       </c>
@@ -6675,7 +6810,7 @@
     </row>
     <row r="206" spans="1:12" ht="30">
       <c r="B206" s="19"/>
-      <c r="D206" s="42"/>
+      <c r="D206" s="44"/>
       <c r="E206" s="20">
         <v>4</v>
       </c>
@@ -6690,7 +6825,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="B207" s="19"/>
-      <c r="D207" s="42"/>
+      <c r="D207" s="44"/>
       <c r="E207" s="20">
         <v>5</v>
       </c>
@@ -6709,7 +6844,7 @@
       <c r="L208" s="2"/>
     </row>
     <row r="209" spans="1:12" ht="30" customHeight="1">
-      <c r="A209" s="37" t="s">
+      <c r="A209" s="48" t="s">
         <v>265</v>
       </c>
       <c r="B209" s="19" t="s">
@@ -6718,7 +6853,7 @@
       <c r="C209" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D209" s="42" t="s">
+      <c r="D209" s="44" t="s">
         <v>223</v>
       </c>
       <c r="E209" s="20">
@@ -6735,7 +6870,7 @@
     </row>
     <row r="210" spans="1:12" ht="30">
       <c r="B210" s="19"/>
-      <c r="D210" s="42"/>
+      <c r="D210" s="44"/>
       <c r="E210" s="20">
         <v>2</v>
       </c>
@@ -6750,7 +6885,7 @@
     </row>
     <row r="211" spans="1:12" ht="30">
       <c r="B211" s="19"/>
-      <c r="D211" s="42"/>
+      <c r="D211" s="44"/>
       <c r="E211" s="20">
         <v>3</v>
       </c>
@@ -6765,7 +6900,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="B212" s="19"/>
-      <c r="D212" s="42"/>
+      <c r="D212" s="44"/>
       <c r="E212" s="20">
         <v>4</v>
       </c>
@@ -6780,7 +6915,7 @@
     </row>
     <row r="213" spans="1:12" ht="30">
       <c r="B213" s="19"/>
-      <c r="D213" s="42"/>
+      <c r="D213" s="44"/>
       <c r="E213" s="20">
         <v>5</v>
       </c>
@@ -6795,7 +6930,7 @@
     </row>
     <row r="214" spans="1:12" ht="30">
       <c r="B214" s="19"/>
-      <c r="D214" s="42"/>
+      <c r="D214" s="44"/>
       <c r="E214" s="20">
         <v>6</v>
       </c>
@@ -6810,7 +6945,7 @@
     </row>
     <row r="215" spans="1:12" ht="30">
       <c r="B215" s="19"/>
-      <c r="D215" s="42"/>
+      <c r="D215" s="44"/>
       <c r="E215" s="20">
         <v>7</v>
       </c>
@@ -6825,7 +6960,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="B216" s="19"/>
-      <c r="D216" s="42"/>
+      <c r="D216" s="44"/>
       <c r="E216" s="20">
         <v>8</v>
       </c>
@@ -6840,7 +6975,7 @@
     </row>
     <row r="217" spans="1:12" ht="30">
       <c r="B217" s="19"/>
-      <c r="D217" s="42"/>
+      <c r="D217" s="44"/>
       <c r="E217" s="20">
         <v>9</v>
       </c>
@@ -6855,7 +6990,7 @@
     </row>
     <row r="218" spans="1:12" ht="30">
       <c r="B218" s="19"/>
-      <c r="D218" s="42"/>
+      <c r="D218" s="44"/>
       <c r="E218" s="20">
         <v>10</v>
       </c>
@@ -6870,7 +7005,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="B219" s="19"/>
-      <c r="D219" s="42"/>
+      <c r="D219" s="44"/>
       <c r="E219" s="20">
         <v>11</v>
       </c>
@@ -6885,7 +7020,7 @@
     </row>
     <row r="220" spans="1:12" ht="30">
       <c r="B220" s="19"/>
-      <c r="D220" s="42"/>
+      <c r="D220" s="44"/>
       <c r="E220" s="20">
         <v>12</v>
       </c>
@@ -6900,7 +7035,7 @@
     </row>
     <row r="221" spans="1:12" ht="30">
       <c r="B221" s="19"/>
-      <c r="D221" s="42"/>
+      <c r="D221" s="44"/>
       <c r="E221" s="20">
         <v>13</v>
       </c>
@@ -6915,7 +7050,7 @@
     </row>
     <row r="222" spans="1:12" ht="63" customHeight="1">
       <c r="B222" s="19"/>
-      <c r="D222" s="42"/>
+      <c r="D222" s="44"/>
       <c r="E222" s="20">
         <v>14</v>
       </c>
@@ -6930,7 +7065,7 @@
     </row>
     <row r="223" spans="1:12" ht="63" customHeight="1">
       <c r="B223" s="19"/>
-      <c r="D223" s="42"/>
+      <c r="D223" s="44"/>
       <c r="E223" s="20">
         <v>15</v>
       </c>
@@ -6949,7 +7084,7 @@
       <c r="L224" s="2"/>
     </row>
     <row r="225" spans="1:12" ht="30" customHeight="1">
-      <c r="A225" s="37" t="s">
+      <c r="A225" s="48" t="s">
         <v>266</v>
       </c>
       <c r="B225" s="19" t="s">
@@ -6958,7 +7093,7 @@
       <c r="C225" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D225" s="42" t="s">
+      <c r="D225" s="44" t="s">
         <v>254</v>
       </c>
       <c r="E225" s="20">
@@ -6975,7 +7110,7 @@
     </row>
     <row r="226" spans="1:12" ht="30">
       <c r="B226" s="19"/>
-      <c r="D226" s="42"/>
+      <c r="D226" s="44"/>
       <c r="E226" s="20">
         <v>2</v>
       </c>
@@ -6990,7 +7125,7 @@
     </row>
     <row r="227" spans="1:12" ht="30">
       <c r="B227" s="19"/>
-      <c r="D227" s="42"/>
+      <c r="D227" s="44"/>
       <c r="E227" s="20">
         <v>3</v>
       </c>
@@ -7005,7 +7140,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="B228" s="19"/>
-      <c r="D228" s="42"/>
+      <c r="D228" s="44"/>
       <c r="E228" s="20">
         <v>4</v>
       </c>
@@ -7020,7 +7155,7 @@
     </row>
     <row r="229" spans="1:12" ht="30">
       <c r="B229" s="19"/>
-      <c r="D229" s="42"/>
+      <c r="D229" s="44"/>
       <c r="E229" s="20">
         <v>5</v>
       </c>
@@ -7035,7 +7170,7 @@
     </row>
     <row r="230" spans="1:12" ht="30">
       <c r="B230" s="19"/>
-      <c r="D230" s="42"/>
+      <c r="D230" s="44"/>
       <c r="E230" s="20">
         <v>6</v>
       </c>
@@ -7050,7 +7185,7 @@
     </row>
     <row r="231" spans="1:12" ht="30">
       <c r="B231" s="19"/>
-      <c r="D231" s="42"/>
+      <c r="D231" s="44"/>
       <c r="E231" s="20">
         <v>7</v>
       </c>
@@ -7065,7 +7200,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="B232" s="19"/>
-      <c r="D232" s="42"/>
+      <c r="D232" s="44"/>
       <c r="E232" s="20">
         <v>8</v>
       </c>
@@ -7080,7 +7215,7 @@
     </row>
     <row r="233" spans="1:12" ht="30">
       <c r="B233" s="19"/>
-      <c r="D233" s="42"/>
+      <c r="D233" s="44"/>
       <c r="E233" s="20">
         <v>9</v>
       </c>
@@ -7095,7 +7230,7 @@
     </row>
     <row r="234" spans="1:12" ht="30">
       <c r="B234" s="19"/>
-      <c r="D234" s="42"/>
+      <c r="D234" s="44"/>
       <c r="E234" s="20">
         <v>10</v>
       </c>
@@ -7110,7 +7245,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="B235" s="19"/>
-      <c r="D235" s="42"/>
+      <c r="D235" s="44"/>
       <c r="E235" s="20">
         <v>11</v>
       </c>
@@ -7125,7 +7260,7 @@
     </row>
     <row r="236" spans="1:12" ht="30">
       <c r="B236" s="19"/>
-      <c r="D236" s="42"/>
+      <c r="D236" s="44"/>
       <c r="E236" s="20">
         <v>12</v>
       </c>
@@ -7140,7 +7275,7 @@
     </row>
     <row r="237" spans="1:12" ht="30">
       <c r="B237" s="19"/>
-      <c r="D237" s="42"/>
+      <c r="D237" s="44"/>
       <c r="E237" s="20">
         <v>13</v>
       </c>
@@ -7155,7 +7290,7 @@
     </row>
     <row r="238" spans="1:12" ht="30">
       <c r="B238" s="19"/>
-      <c r="D238" s="42"/>
+      <c r="D238" s="44"/>
       <c r="E238" s="20">
         <v>14</v>
       </c>
@@ -7170,7 +7305,7 @@
     </row>
     <row r="239" spans="1:12" ht="30">
       <c r="B239" s="19"/>
-      <c r="D239" s="42"/>
+      <c r="D239" s="44"/>
       <c r="E239" s="20">
         <v>15</v>
       </c>
@@ -7185,7 +7320,7 @@
     </row>
     <row r="240" spans="1:12" ht="30">
       <c r="B240" s="19"/>
-      <c r="D240" s="42"/>
+      <c r="D240" s="44"/>
       <c r="E240" s="20">
         <v>16</v>
       </c>
@@ -7204,7 +7339,7 @@
       <c r="L241" s="2"/>
     </row>
     <row r="242" spans="1:12" ht="30" customHeight="1">
-      <c r="A242" s="37" t="s">
+      <c r="A242" s="48" t="s">
         <v>267</v>
       </c>
       <c r="B242" s="19" t="s">
@@ -7213,7 +7348,7 @@
       <c r="C242" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D242" s="42" t="s">
+      <c r="D242" s="44" t="s">
         <v>260</v>
       </c>
       <c r="E242" s="20">
@@ -7230,7 +7365,7 @@
     </row>
     <row r="243" spans="1:12" ht="30">
       <c r="B243" s="19"/>
-      <c r="D243" s="42"/>
+      <c r="D243" s="44"/>
       <c r="E243" s="20">
         <v>2</v>
       </c>
@@ -7245,7 +7380,7 @@
     </row>
     <row r="244" spans="1:12" ht="30">
       <c r="B244" s="19"/>
-      <c r="D244" s="42"/>
+      <c r="D244" s="44"/>
       <c r="E244" s="20">
         <v>3</v>
       </c>
@@ -7260,7 +7395,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="B245" s="19"/>
-      <c r="D245" s="42"/>
+      <c r="D245" s="44"/>
       <c r="E245" s="20">
         <v>4</v>
       </c>
@@ -7275,7 +7410,7 @@
     </row>
     <row r="246" spans="1:12" ht="30">
       <c r="B246" s="19"/>
-      <c r="D246" s="42"/>
+      <c r="D246" s="44"/>
       <c r="E246" s="20">
         <v>5</v>
       </c>
@@ -7290,7 +7425,7 @@
     </row>
     <row r="247" spans="1:12" ht="30">
       <c r="B247" s="19"/>
-      <c r="D247" s="42"/>
+      <c r="D247" s="44"/>
       <c r="E247" s="20">
         <v>6</v>
       </c>
@@ -7305,7 +7440,7 @@
     </row>
     <row r="248" spans="1:12" ht="30">
       <c r="B248" s="19"/>
-      <c r="D248" s="42"/>
+      <c r="D248" s="44"/>
       <c r="E248" s="20">
         <v>7</v>
       </c>
@@ -7320,7 +7455,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="B249" s="19"/>
-      <c r="D249" s="42"/>
+      <c r="D249" s="44"/>
       <c r="E249" s="20">
         <v>8</v>
       </c>
@@ -7335,7 +7470,7 @@
     </row>
     <row r="250" spans="1:12" ht="30">
       <c r="B250" s="19"/>
-      <c r="D250" s="42"/>
+      <c r="D250" s="44"/>
       <c r="E250" s="20">
         <v>9</v>
       </c>
@@ -7350,7 +7485,7 @@
     </row>
     <row r="251" spans="1:12" ht="30">
       <c r="B251" s="19"/>
-      <c r="D251" s="42"/>
+      <c r="D251" s="44"/>
       <c r="E251" s="20">
         <v>10</v>
       </c>
@@ -7365,7 +7500,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="B252" s="19"/>
-      <c r="D252" s="42"/>
+      <c r="D252" s="44"/>
       <c r="E252" s="20">
         <v>11</v>
       </c>
@@ -7380,7 +7515,7 @@
     </row>
     <row r="253" spans="1:12" ht="30">
       <c r="B253" s="19"/>
-      <c r="D253" s="42"/>
+      <c r="D253" s="44"/>
       <c r="E253" s="20">
         <v>12</v>
       </c>
@@ -7395,7 +7530,7 @@
     </row>
     <row r="254" spans="1:12" ht="30">
       <c r="B254" s="19"/>
-      <c r="D254" s="42"/>
+      <c r="D254" s="44"/>
       <c r="E254" s="20">
         <v>13</v>
       </c>
@@ -7410,7 +7545,7 @@
     </row>
     <row r="255" spans="1:12" ht="30">
       <c r="B255" s="19"/>
-      <c r="D255" s="42"/>
+      <c r="D255" s="44"/>
       <c r="E255" s="20">
         <v>14</v>
       </c>
@@ -7425,7 +7560,7 @@
     </row>
     <row r="256" spans="1:12" ht="30">
       <c r="B256" s="19"/>
-      <c r="D256" s="42"/>
+      <c r="D256" s="44"/>
       <c r="E256" s="20">
         <v>15</v>
       </c>
@@ -7440,7 +7575,7 @@
     </row>
     <row r="257" spans="1:12" ht="30">
       <c r="B257" s="19"/>
-      <c r="D257" s="42"/>
+      <c r="D257" s="44"/>
       <c r="E257" s="20">
         <v>16</v>
       </c>
@@ -7455,7 +7590,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="B258" s="19"/>
-      <c r="D258" s="42"/>
+      <c r="D258" s="44"/>
       <c r="E258" s="20">
         <v>17</v>
       </c>
@@ -7474,7 +7609,7 @@
       <c r="L259" s="2"/>
     </row>
     <row r="260" spans="1:12" ht="30" customHeight="1">
-      <c r="A260" s="37" t="s">
+      <c r="A260" s="48" t="s">
         <v>273</v>
       </c>
       <c r="B260" s="19" t="s">
@@ -7483,7 +7618,7 @@
       <c r="C260" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D260" s="42" t="s">
+      <c r="D260" s="44" t="s">
         <v>223</v>
       </c>
       <c r="E260" s="20">
@@ -7500,7 +7635,7 @@
     </row>
     <row r="261" spans="1:12" ht="30">
       <c r="B261" s="19"/>
-      <c r="D261" s="42"/>
+      <c r="D261" s="44"/>
       <c r="E261" s="20">
         <v>2</v>
       </c>
@@ -7515,7 +7650,7 @@
     </row>
     <row r="262" spans="1:12" ht="30">
       <c r="B262" s="19"/>
-      <c r="D262" s="42"/>
+      <c r="D262" s="44"/>
       <c r="E262" s="20">
         <v>3</v>
       </c>
@@ -7530,7 +7665,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="B263" s="19"/>
-      <c r="D263" s="42"/>
+      <c r="D263" s="44"/>
       <c r="E263" s="20">
         <v>4</v>
       </c>
@@ -7545,7 +7680,7 @@
     </row>
     <row r="264" spans="1:12" ht="30">
       <c r="B264" s="19"/>
-      <c r="D264" s="42"/>
+      <c r="D264" s="44"/>
       <c r="E264" s="20">
         <v>5</v>
       </c>
@@ -7560,7 +7695,7 @@
     </row>
     <row r="265" spans="1:12" ht="30">
       <c r="B265" s="19"/>
-      <c r="D265" s="42"/>
+      <c r="D265" s="44"/>
       <c r="E265" s="20">
         <v>6</v>
       </c>
@@ -7575,7 +7710,7 @@
     </row>
     <row r="266" spans="1:12" ht="30">
       <c r="B266" s="19"/>
-      <c r="D266" s="42"/>
+      <c r="D266" s="44"/>
       <c r="E266" s="20">
         <v>7</v>
       </c>
@@ -7590,7 +7725,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="B267" s="19"/>
-      <c r="D267" s="42"/>
+      <c r="D267" s="44"/>
       <c r="E267" s="20">
         <v>8</v>
       </c>
@@ -7605,7 +7740,7 @@
     </row>
     <row r="268" spans="1:12" ht="30">
       <c r="B268" s="19"/>
-      <c r="D268" s="42"/>
+      <c r="D268" s="44"/>
       <c r="E268" s="20">
         <v>9</v>
       </c>
@@ -7620,7 +7755,7 @@
     </row>
     <row r="269" spans="1:12" ht="30">
       <c r="B269" s="19"/>
-      <c r="D269" s="42"/>
+      <c r="D269" s="44"/>
       <c r="E269" s="20">
         <v>10</v>
       </c>
@@ -7635,7 +7770,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="B270" s="19"/>
-      <c r="D270" s="42"/>
+      <c r="D270" s="44"/>
       <c r="E270" s="20">
         <v>11</v>
       </c>
@@ -7650,7 +7785,7 @@
     </row>
     <row r="271" spans="1:12" ht="30">
       <c r="B271" s="19"/>
-      <c r="D271" s="42"/>
+      <c r="D271" s="44"/>
       <c r="E271" s="20">
         <v>12</v>
       </c>
@@ -7665,7 +7800,7 @@
     </row>
     <row r="272" spans="1:12" ht="30">
       <c r="B272" s="19"/>
-      <c r="D272" s="42"/>
+      <c r="D272" s="44"/>
       <c r="E272" s="20">
         <v>13</v>
       </c>
@@ -7680,7 +7815,7 @@
     </row>
     <row r="273" spans="1:12" ht="30">
       <c r="B273" s="19"/>
-      <c r="D273" s="42"/>
+      <c r="D273" s="44"/>
       <c r="E273" s="20">
         <v>14</v>
       </c>
@@ -7695,7 +7830,7 @@
     </row>
     <row r="274" spans="1:12" ht="45">
       <c r="B274" s="19"/>
-      <c r="D274" s="42"/>
+      <c r="D274" s="44"/>
       <c r="E274" s="20">
         <v>15</v>
       </c>
@@ -7714,7 +7849,7 @@
       <c r="L275" s="2"/>
     </row>
     <row r="276" spans="1:12">
-      <c r="A276" s="37" t="s">
+      <c r="A276" s="48" t="s">
         <v>279</v>
       </c>
       <c r="B276" s="19" t="s">
@@ -7723,7 +7858,7 @@
       <c r="C276" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D276" s="42" t="s">
+      <c r="D276" s="44" t="s">
         <v>272</v>
       </c>
       <c r="E276" s="20">
@@ -7740,7 +7875,7 @@
     </row>
     <row r="277" spans="1:12" ht="30">
       <c r="B277" s="19"/>
-      <c r="D277" s="42"/>
+      <c r="D277" s="44"/>
       <c r="E277" s="20">
         <v>2</v>
       </c>
@@ -7755,7 +7890,7 @@
     </row>
     <row r="278" spans="1:12" ht="255">
       <c r="B278" s="19"/>
-      <c r="D278" s="42"/>
+      <c r="D278" s="44"/>
       <c r="E278" s="20">
         <v>3</v>
       </c>
@@ -7786,7 +7921,7 @@
       <c r="C280" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D280" s="42" t="s">
+      <c r="D280" s="44" t="s">
         <v>274</v>
       </c>
       <c r="E280" s="20">
@@ -7803,7 +7938,7 @@
     </row>
     <row r="281" spans="1:12" ht="30">
       <c r="B281" s="19"/>
-      <c r="D281" s="42"/>
+      <c r="D281" s="44"/>
       <c r="E281" s="20">
         <v>2</v>
       </c>
@@ -7818,7 +7953,7 @@
     </row>
     <row r="282" spans="1:12" ht="255">
       <c r="B282" s="19"/>
-      <c r="D282" s="42"/>
+      <c r="D282" s="44"/>
       <c r="E282" s="20">
         <v>3</v>
       </c>
@@ -7836,7 +7971,7 @@
     </row>
     <row r="283" spans="1:12" ht="30">
       <c r="B283" s="19"/>
-      <c r="D283" s="42"/>
+      <c r="D283" s="44"/>
       <c r="E283" s="20">
         <v>4</v>
       </c>
@@ -7855,7 +7990,7 @@
       <c r="L284" s="2"/>
     </row>
     <row r="285" spans="1:12" ht="30" customHeight="1">
-      <c r="A285" s="37" t="s">
+      <c r="A285" s="48" t="s">
         <v>292</v>
       </c>
       <c r="B285" s="19" t="s">
@@ -7864,7 +7999,7 @@
       <c r="C285" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D285" s="42" t="s">
+      <c r="D285" s="44" t="s">
         <v>275</v>
       </c>
       <c r="E285" s="20">
@@ -7881,7 +8016,7 @@
     </row>
     <row r="286" spans="1:12" ht="30">
       <c r="B286" s="19"/>
-      <c r="D286" s="42"/>
+      <c r="D286" s="44"/>
       <c r="E286" s="20">
         <v>2</v>
       </c>
@@ -7896,7 +8031,7 @@
     </row>
     <row r="287" spans="1:12" ht="255">
       <c r="B287" s="19"/>
-      <c r="D287" s="42"/>
+      <c r="D287" s="44"/>
       <c r="E287" s="20">
         <v>3</v>
       </c>
@@ -7914,7 +8049,7 @@
     </row>
     <row r="288" spans="1:12" ht="30">
       <c r="B288" s="19"/>
-      <c r="D288" s="42"/>
+      <c r="D288" s="44"/>
       <c r="E288" s="20">
         <v>4</v>
       </c>
@@ -7929,7 +8064,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="B289" s="19"/>
-      <c r="D289" s="42"/>
+      <c r="D289" s="44"/>
       <c r="E289" s="20">
         <v>5</v>
       </c>
@@ -7948,7 +8083,7 @@
       <c r="L290" s="2"/>
     </row>
     <row r="291" spans="1:12">
-      <c r="A291" s="37" t="s">
+      <c r="A291" s="48" t="s">
         <v>296</v>
       </c>
       <c r="B291" s="19" t="s">
@@ -7957,7 +8092,7 @@
       <c r="C291" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D291" s="42" t="s">
+      <c r="D291" s="44" t="s">
         <v>278</v>
       </c>
       <c r="E291" s="20">
@@ -7974,7 +8109,7 @@
     </row>
     <row r="292" spans="1:12" ht="30">
       <c r="B292" s="19"/>
-      <c r="D292" s="42"/>
+      <c r="D292" s="44"/>
       <c r="E292" s="20">
         <v>2</v>
       </c>
@@ -7989,7 +8124,7 @@
     </row>
     <row r="293" spans="1:12" ht="255">
       <c r="B293" s="19"/>
-      <c r="D293" s="42"/>
+      <c r="D293" s="44"/>
       <c r="E293" s="20">
         <v>3</v>
       </c>
@@ -8007,7 +8142,7 @@
     </row>
     <row r="294" spans="1:12" ht="30">
       <c r="B294" s="19"/>
-      <c r="D294" s="42"/>
+      <c r="D294" s="44"/>
       <c r="E294" s="20">
         <v>4</v>
       </c>
@@ -8022,7 +8157,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="B295" s="19"/>
-      <c r="D295" s="42"/>
+      <c r="D295" s="44"/>
       <c r="E295" s="20">
         <v>5</v>
       </c>
@@ -8041,7 +8176,7 @@
       <c r="L296" s="2"/>
     </row>
     <row r="297" spans="1:12" ht="45" customHeight="1">
-      <c r="A297" s="37" t="s">
+      <c r="A297" s="48" t="s">
         <v>298</v>
       </c>
       <c r="B297" s="19" t="s">
@@ -8050,7 +8185,7 @@
       <c r="C297" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D297" s="42" t="s">
+      <c r="D297" s="44" t="s">
         <v>282</v>
       </c>
       <c r="E297" s="20">
@@ -8067,7 +8202,7 @@
     </row>
     <row r="298" spans="1:12" ht="30">
       <c r="B298" s="19"/>
-      <c r="D298" s="42"/>
+      <c r="D298" s="44"/>
       <c r="E298" s="20">
         <v>2</v>
       </c>
@@ -8082,7 +8217,7 @@
     </row>
     <row r="299" spans="1:12" ht="30">
       <c r="B299" s="19"/>
-      <c r="D299" s="42"/>
+      <c r="D299" s="44"/>
       <c r="E299" s="20">
         <v>3</v>
       </c>
@@ -8097,7 +8232,7 @@
     </row>
     <row r="300" spans="1:12" ht="30">
       <c r="B300" s="19"/>
-      <c r="D300" s="42"/>
+      <c r="D300" s="44"/>
       <c r="E300" s="20">
         <v>4</v>
       </c>
@@ -8112,7 +8247,7 @@
     </row>
     <row r="301" spans="1:12" ht="30">
       <c r="B301" s="19"/>
-      <c r="D301" s="42"/>
+      <c r="D301" s="44"/>
       <c r="E301" s="20">
         <v>5</v>
       </c>
@@ -8127,7 +8262,7 @@
     </row>
     <row r="302" spans="1:12" ht="30">
       <c r="B302" s="19"/>
-      <c r="D302" s="42"/>
+      <c r="D302" s="44"/>
       <c r="E302" s="20">
         <v>6</v>
       </c>
@@ -8146,7 +8281,7 @@
       <c r="L303" s="2"/>
     </row>
     <row r="304" spans="1:12" ht="30" customHeight="1">
-      <c r="A304" s="37" t="s">
+      <c r="A304" s="48" t="s">
         <v>309</v>
       </c>
       <c r="B304" s="19" t="s">
@@ -8155,7 +8290,7 @@
       <c r="C304" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D304" s="42" t="s">
+      <c r="D304" s="44" t="s">
         <v>293</v>
       </c>
       <c r="E304" s="20">
@@ -8172,7 +8307,7 @@
     </row>
     <row r="305" spans="1:12" ht="30">
       <c r="B305" s="19"/>
-      <c r="D305" s="42"/>
+      <c r="D305" s="44"/>
       <c r="E305" s="20">
         <v>2</v>
       </c>
@@ -8187,7 +8322,7 @@
     </row>
     <row r="306" spans="1:12" ht="30">
       <c r="B306" s="19"/>
-      <c r="D306" s="42"/>
+      <c r="D306" s="44"/>
       <c r="E306" s="20">
         <v>3</v>
       </c>
@@ -8202,7 +8337,7 @@
     </row>
     <row r="307" spans="1:12" ht="30">
       <c r="B307" s="19"/>
-      <c r="D307" s="42"/>
+      <c r="D307" s="44"/>
       <c r="E307" s="20">
         <v>4</v>
       </c>
@@ -8217,7 +8352,7 @@
     </row>
     <row r="308" spans="1:12" ht="30">
       <c r="B308" s="19"/>
-      <c r="D308" s="42"/>
+      <c r="D308" s="44"/>
       <c r="E308" s="20">
         <v>5</v>
       </c>
@@ -8232,7 +8367,7 @@
     </row>
     <row r="309" spans="1:12" ht="30">
       <c r="B309" s="19"/>
-      <c r="D309" s="42"/>
+      <c r="D309" s="44"/>
       <c r="E309" s="20">
         <v>6</v>
       </c>
@@ -8247,7 +8382,7 @@
     </row>
     <row r="310" spans="1:12" ht="30">
       <c r="B310" s="19"/>
-      <c r="D310" s="42"/>
+      <c r="D310" s="44"/>
       <c r="E310" s="20">
         <v>7</v>
       </c>
@@ -8266,7 +8401,7 @@
       <c r="L311" s="2"/>
     </row>
     <row r="312" spans="1:12" ht="30" customHeight="1">
-      <c r="A312" s="37" t="s">
+      <c r="A312" s="48" t="s">
         <v>310</v>
       </c>
       <c r="B312" s="19" t="s">
@@ -8275,7 +8410,7 @@
       <c r="C312" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D312" s="42" t="s">
+      <c r="D312" s="44" t="s">
         <v>297</v>
       </c>
       <c r="E312" s="20">
@@ -8292,7 +8427,7 @@
     </row>
     <row r="313" spans="1:12" ht="30">
       <c r="B313" s="19"/>
-      <c r="D313" s="42"/>
+      <c r="D313" s="44"/>
       <c r="E313" s="20">
         <v>2</v>
       </c>
@@ -8307,7 +8442,7 @@
     </row>
     <row r="314" spans="1:12" ht="30">
       <c r="B314" s="19"/>
-      <c r="D314" s="42"/>
+      <c r="D314" s="44"/>
       <c r="E314" s="20">
         <v>3</v>
       </c>
@@ -8322,7 +8457,7 @@
     </row>
     <row r="315" spans="1:12" ht="30">
       <c r="B315" s="19"/>
-      <c r="D315" s="42"/>
+      <c r="D315" s="44"/>
       <c r="E315" s="20">
         <v>4</v>
       </c>
@@ -8337,7 +8472,7 @@
     </row>
     <row r="316" spans="1:12" ht="30">
       <c r="B316" s="19"/>
-      <c r="D316" s="42"/>
+      <c r="D316" s="44"/>
       <c r="E316" s="20">
         <v>5</v>
       </c>
@@ -8352,7 +8487,7 @@
     </row>
     <row r="317" spans="1:12" ht="30">
       <c r="B317" s="19"/>
-      <c r="D317" s="42"/>
+      <c r="D317" s="44"/>
       <c r="E317" s="20">
         <v>6</v>
       </c>
@@ -8367,7 +8502,7 @@
     </row>
     <row r="318" spans="1:12" ht="30">
       <c r="B318" s="19"/>
-      <c r="D318" s="42"/>
+      <c r="D318" s="44"/>
       <c r="E318" s="20">
         <v>7</v>
       </c>
@@ -8382,7 +8517,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="B319" s="19"/>
-      <c r="D319" s="42"/>
+      <c r="D319" s="44"/>
       <c r="E319" s="20">
         <v>8</v>
       </c>
@@ -8401,7 +8536,7 @@
       <c r="L320" s="2"/>
     </row>
     <row r="321" spans="1:12" ht="30" customHeight="1">
-      <c r="A321" s="37" t="s">
+      <c r="A321" s="48" t="s">
         <v>314</v>
       </c>
       <c r="B321" s="19" t="s">
@@ -8410,7 +8545,7 @@
       <c r="C321" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D321" s="42" t="s">
+      <c r="D321" s="44" t="s">
         <v>299</v>
       </c>
       <c r="E321" s="20">
@@ -8427,7 +8562,7 @@
     </row>
     <row r="322" spans="1:12" ht="30">
       <c r="B322" s="19"/>
-      <c r="D322" s="42"/>
+      <c r="D322" s="44"/>
       <c r="E322" s="20">
         <v>2</v>
       </c>
@@ -8442,7 +8577,7 @@
     </row>
     <row r="323" spans="1:12" ht="30">
       <c r="B323" s="19"/>
-      <c r="D323" s="42"/>
+      <c r="D323" s="44"/>
       <c r="E323" s="20">
         <v>3</v>
       </c>
@@ -8457,7 +8592,7 @@
     </row>
     <row r="324" spans="1:12" ht="30">
       <c r="B324" s="19"/>
-      <c r="D324" s="42"/>
+      <c r="D324" s="44"/>
       <c r="E324" s="20">
         <v>4</v>
       </c>
@@ -8472,7 +8607,7 @@
     </row>
     <row r="325" spans="1:12" ht="30">
       <c r="B325" s="19"/>
-      <c r="D325" s="42"/>
+      <c r="D325" s="44"/>
       <c r="E325" s="20">
         <v>5</v>
       </c>
@@ -8487,7 +8622,7 @@
     </row>
     <row r="326" spans="1:12" ht="30">
       <c r="B326" s="19"/>
-      <c r="D326" s="42"/>
+      <c r="D326" s="44"/>
       <c r="E326" s="20">
         <v>6</v>
       </c>
@@ -8502,7 +8637,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="B327" s="19"/>
-      <c r="D327" s="42"/>
+      <c r="D327" s="44"/>
       <c r="E327" s="20">
         <v>7</v>
       </c>
@@ -8521,7 +8656,7 @@
       <c r="L328" s="2"/>
     </row>
     <row r="329" spans="1:12" ht="30" customHeight="1">
-      <c r="A329" s="37" t="s">
+      <c r="A329" s="48" t="s">
         <v>317</v>
       </c>
       <c r="B329" s="19" t="s">
@@ -8530,7 +8665,7 @@
       <c r="C329" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D329" s="42" t="s">
+      <c r="D329" s="44" t="s">
         <v>300</v>
       </c>
       <c r="E329" s="20">
@@ -8547,7 +8682,7 @@
     </row>
     <row r="330" spans="1:12" ht="30">
       <c r="B330" s="19"/>
-      <c r="D330" s="42"/>
+      <c r="D330" s="44"/>
       <c r="E330" s="20">
         <v>2</v>
       </c>
@@ -8562,7 +8697,7 @@
     </row>
     <row r="331" spans="1:12" ht="30">
       <c r="B331" s="19"/>
-      <c r="D331" s="42"/>
+      <c r="D331" s="44"/>
       <c r="E331" s="20">
         <v>3</v>
       </c>
@@ -8577,7 +8712,7 @@
     </row>
     <row r="332" spans="1:12" ht="30">
       <c r="B332" s="19"/>
-      <c r="D332" s="42"/>
+      <c r="D332" s="44"/>
       <c r="E332" s="20">
         <v>4</v>
       </c>
@@ -8592,7 +8727,7 @@
     </row>
     <row r="333" spans="1:12" ht="30">
       <c r="B333" s="19"/>
-      <c r="D333" s="42"/>
+      <c r="D333" s="44"/>
       <c r="E333" s="20">
         <v>5</v>
       </c>
@@ -8611,7 +8746,7 @@
       <c r="L334" s="2"/>
     </row>
     <row r="335" spans="1:12" ht="30" customHeight="1">
-      <c r="A335" s="37" t="s">
+      <c r="A335" s="48" t="s">
         <v>318</v>
       </c>
       <c r="B335" s="19" t="s">
@@ -8620,7 +8755,7 @@
       <c r="C335" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D335" s="42" t="s">
+      <c r="D335" s="44" t="s">
         <v>311</v>
       </c>
       <c r="E335" s="20">
@@ -8637,7 +8772,7 @@
     </row>
     <row r="336" spans="1:12" ht="30">
       <c r="B336" s="19"/>
-      <c r="D336" s="42"/>
+      <c r="D336" s="44"/>
       <c r="E336" s="20">
         <v>2</v>
       </c>
@@ -8652,7 +8787,7 @@
     </row>
     <row r="337" spans="1:12" ht="30">
       <c r="B337" s="19"/>
-      <c r="D337" s="42"/>
+      <c r="D337" s="44"/>
       <c r="E337" s="20">
         <v>3</v>
       </c>
@@ -8667,7 +8802,7 @@
     </row>
     <row r="338" spans="1:12" ht="30">
       <c r="B338" s="19"/>
-      <c r="D338" s="42"/>
+      <c r="D338" s="44"/>
       <c r="E338" s="20">
         <v>4</v>
       </c>
@@ -8682,7 +8817,7 @@
     </row>
     <row r="339" spans="1:12" ht="30">
       <c r="B339" s="19"/>
-      <c r="D339" s="42"/>
+      <c r="D339" s="44"/>
       <c r="E339" s="20">
         <v>5</v>
       </c>
@@ -8697,7 +8832,7 @@
     </row>
     <row r="340" spans="1:12" ht="30">
       <c r="B340" s="19"/>
-      <c r="D340" s="42"/>
+      <c r="D340" s="44"/>
       <c r="E340" s="20">
         <v>6</v>
       </c>
@@ -8716,7 +8851,7 @@
       <c r="L341" s="2"/>
     </row>
     <row r="342" spans="1:12" ht="30" customHeight="1">
-      <c r="A342" s="37" t="s">
+      <c r="A342" s="48" t="s">
         <v>325</v>
       </c>
       <c r="B342" s="19" t="s">
@@ -8725,7 +8860,7 @@
       <c r="C342" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D342" s="42" t="s">
+      <c r="D342" s="44" t="s">
         <v>316</v>
       </c>
       <c r="E342" s="20">
@@ -8742,7 +8877,7 @@
     </row>
     <row r="343" spans="1:12" ht="30">
       <c r="B343" s="19"/>
-      <c r="D343" s="42"/>
+      <c r="D343" s="44"/>
       <c r="E343" s="20">
         <v>2</v>
       </c>
@@ -8757,7 +8892,7 @@
     </row>
     <row r="344" spans="1:12" ht="30">
       <c r="B344" s="19"/>
-      <c r="D344" s="42"/>
+      <c r="D344" s="44"/>
       <c r="E344" s="20">
         <v>3</v>
       </c>
@@ -8772,7 +8907,7 @@
     </row>
     <row r="345" spans="1:12" ht="30">
       <c r="B345" s="19"/>
-      <c r="D345" s="42"/>
+      <c r="D345" s="44"/>
       <c r="E345" s="20">
         <v>4</v>
       </c>
@@ -8787,7 +8922,7 @@
     </row>
     <row r="346" spans="1:12" ht="30">
       <c r="B346" s="19"/>
-      <c r="D346" s="42"/>
+      <c r="D346" s="44"/>
       <c r="E346" s="20">
         <v>5</v>
       </c>
@@ -8802,7 +8937,7 @@
     </row>
     <row r="347" spans="1:12" ht="30">
       <c r="B347" s="19"/>
-      <c r="D347" s="42"/>
+      <c r="D347" s="44"/>
       <c r="E347" s="20">
         <v>6</v>
       </c>
@@ -8817,7 +8952,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="B348" s="19"/>
-      <c r="D348" s="42"/>
+      <c r="D348" s="44"/>
       <c r="E348" s="20">
         <v>7</v>
       </c>
@@ -8836,7 +8971,7 @@
       <c r="L349" s="2"/>
     </row>
     <row r="350" spans="1:12" ht="30" customHeight="1">
-      <c r="A350" s="37" t="s">
+      <c r="A350" s="48" t="s">
         <v>330</v>
       </c>
       <c r="B350" s="19" t="s">
@@ -8845,7 +8980,7 @@
       <c r="C350" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D350" s="42" t="s">
+      <c r="D350" s="44" t="s">
         <v>315</v>
       </c>
       <c r="E350" s="20">
@@ -8862,7 +8997,7 @@
     </row>
     <row r="351" spans="1:12" ht="30">
       <c r="B351" s="19"/>
-      <c r="D351" s="42"/>
+      <c r="D351" s="44"/>
       <c r="E351" s="20">
         <v>2</v>
       </c>
@@ -8877,7 +9012,7 @@
     </row>
     <row r="352" spans="1:12" ht="30">
       <c r="B352" s="19"/>
-      <c r="D352" s="42"/>
+      <c r="D352" s="44"/>
       <c r="E352" s="20">
         <v>3</v>
       </c>
@@ -8892,7 +9027,7 @@
     </row>
     <row r="353" spans="1:12" ht="30">
       <c r="B353" s="19"/>
-      <c r="D353" s="42"/>
+      <c r="D353" s="44"/>
       <c r="E353" s="20">
         <v>4</v>
       </c>
@@ -8907,7 +9042,7 @@
     </row>
     <row r="354" spans="1:12" ht="30">
       <c r="B354" s="19"/>
-      <c r="D354" s="42"/>
+      <c r="D354" s="44"/>
       <c r="E354" s="20">
         <v>5</v>
       </c>
@@ -8922,7 +9057,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="B355" s="19"/>
-      <c r="D355" s="42"/>
+      <c r="D355" s="44"/>
       <c r="E355" s="20">
         <v>6</v>
       </c>
@@ -8941,7 +9076,7 @@
       <c r="L356" s="2"/>
     </row>
     <row r="357" spans="1:12">
-      <c r="A357" s="37" t="s">
+      <c r="A357" s="48" t="s">
         <v>331</v>
       </c>
       <c r="B357" s="19" t="s">
@@ -8950,7 +9085,7 @@
       <c r="C357" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D357" s="42" t="s">
+      <c r="D357" s="44" t="s">
         <v>319</v>
       </c>
       <c r="E357" s="20">
@@ -8967,7 +9102,7 @@
     </row>
     <row r="358" spans="1:12" ht="48" customHeight="1">
       <c r="B358" s="19"/>
-      <c r="D358" s="42"/>
+      <c r="D358" s="44"/>
       <c r="E358" s="20">
         <v>2</v>
       </c>
@@ -8982,7 +9117,7 @@
     </row>
     <row r="359" spans="1:12" ht="105">
       <c r="B359" s="19"/>
-      <c r="D359" s="42"/>
+      <c r="D359" s="44"/>
       <c r="E359" s="20">
         <v>3</v>
       </c>
@@ -9000,7 +9135,7 @@
     </row>
     <row r="360" spans="1:12" ht="30">
       <c r="B360" s="19"/>
-      <c r="D360" s="42"/>
+      <c r="D360" s="44"/>
       <c r="E360" s="20">
         <v>4</v>
       </c>
@@ -9019,7 +9154,7 @@
       <c r="L361" s="2"/>
     </row>
     <row r="362" spans="1:12" ht="30" customHeight="1">
-      <c r="A362" s="37" t="s">
+      <c r="A362" s="48" t="s">
         <v>333</v>
       </c>
       <c r="B362" s="19" t="s">
@@ -9028,7 +9163,7 @@
       <c r="C362" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D362" s="42" t="s">
+      <c r="D362" s="44" t="s">
         <v>326</v>
       </c>
       <c r="E362" s="20">
@@ -9045,7 +9180,7 @@
     </row>
     <row r="363" spans="1:12" ht="30">
       <c r="B363" s="19"/>
-      <c r="D363" s="42"/>
+      <c r="D363" s="44"/>
       <c r="E363" s="20">
         <v>2</v>
       </c>
@@ -9060,7 +9195,7 @@
     </row>
     <row r="364" spans="1:12" ht="105">
       <c r="B364" s="19"/>
-      <c r="D364" s="42"/>
+      <c r="D364" s="44"/>
       <c r="E364" s="20">
         <v>3</v>
       </c>
@@ -9078,7 +9213,7 @@
     </row>
     <row r="365" spans="1:12" ht="30">
       <c r="B365" s="19"/>
-      <c r="D365" s="42"/>
+      <c r="D365" s="44"/>
       <c r="E365" s="20">
         <v>4</v>
       </c>
@@ -9093,7 +9228,7 @@
     </row>
     <row r="366" spans="1:12" ht="30">
       <c r="B366" s="19"/>
-      <c r="D366" s="42"/>
+      <c r="D366" s="44"/>
       <c r="E366" s="20">
         <v>5</v>
       </c>
@@ -9112,7 +9247,7 @@
       <c r="L367" s="2"/>
     </row>
     <row r="368" spans="1:12" ht="30" customHeight="1">
-      <c r="A368" s="37" t="s">
+      <c r="A368" s="48" t="s">
         <v>343</v>
       </c>
       <c r="B368" s="19" t="s">
@@ -9121,7 +9256,7 @@
       <c r="C368" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D368" s="42" t="s">
+      <c r="D368" s="44" t="s">
         <v>329</v>
       </c>
       <c r="E368" s="20">
@@ -9138,7 +9273,7 @@
     </row>
     <row r="369" spans="1:12" ht="30">
       <c r="B369" s="19"/>
-      <c r="D369" s="42"/>
+      <c r="D369" s="44"/>
       <c r="E369" s="20">
         <v>2</v>
       </c>
@@ -9153,7 +9288,7 @@
     </row>
     <row r="370" spans="1:12" ht="105">
       <c r="B370" s="19"/>
-      <c r="D370" s="42"/>
+      <c r="D370" s="44"/>
       <c r="E370" s="20">
         <v>3</v>
       </c>
@@ -9171,7 +9306,7 @@
     </row>
     <row r="371" spans="1:12" ht="30">
       <c r="B371" s="19"/>
-      <c r="D371" s="42"/>
+      <c r="D371" s="44"/>
       <c r="E371" s="20">
         <v>4</v>
       </c>
@@ -9186,7 +9321,7 @@
     </row>
     <row r="372" spans="1:12" ht="30">
       <c r="B372" s="19"/>
-      <c r="D372" s="42"/>
+      <c r="D372" s="44"/>
       <c r="E372" s="20">
         <v>5</v>
       </c>
@@ -9201,7 +9336,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="B373" s="19"/>
-      <c r="D373" s="42"/>
+      <c r="D373" s="44"/>
       <c r="E373" s="20">
         <v>6</v>
       </c>
@@ -9220,7 +9355,7 @@
       <c r="L374" s="2"/>
     </row>
     <row r="375" spans="1:12">
-      <c r="A375" s="37" t="s">
+      <c r="A375" s="48" t="s">
         <v>349</v>
       </c>
       <c r="B375" s="19" t="s">
@@ -9229,7 +9364,7 @@
       <c r="C375" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D375" s="42" t="s">
+      <c r="D375" s="44" t="s">
         <v>332</v>
       </c>
       <c r="E375" s="20">
@@ -9246,7 +9381,7 @@
     </row>
     <row r="376" spans="1:12" ht="30">
       <c r="B376" s="19"/>
-      <c r="D376" s="42"/>
+      <c r="D376" s="44"/>
       <c r="E376" s="20">
         <v>2</v>
       </c>
@@ -9261,7 +9396,7 @@
     </row>
     <row r="377" spans="1:12" ht="105">
       <c r="B377" s="19"/>
-      <c r="D377" s="42"/>
+      <c r="D377" s="44"/>
       <c r="E377" s="20">
         <v>3</v>
       </c>
@@ -9279,7 +9414,7 @@
     </row>
     <row r="378" spans="1:12" ht="30">
       <c r="B378" s="19"/>
-      <c r="D378" s="42"/>
+      <c r="D378" s="44"/>
       <c r="E378" s="20">
         <v>4</v>
       </c>
@@ -9294,7 +9429,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="B379" s="19"/>
-      <c r="D379" s="42"/>
+      <c r="D379" s="44"/>
       <c r="E379" s="20">
         <v>5</v>
       </c>
@@ -9322,7 +9457,7 @@
       <c r="C381" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D381" s="42" t="s">
+      <c r="D381" s="44" t="s">
         <v>342</v>
       </c>
       <c r="E381" s="20">
@@ -9339,7 +9474,7 @@
     </row>
     <row r="382" spans="1:12" ht="30">
       <c r="B382" s="27"/>
-      <c r="D382" s="42"/>
+      <c r="D382" s="44"/>
       <c r="E382" s="20">
         <v>2</v>
       </c>
@@ -9349,12 +9484,15 @@
       <c r="G382" s="20" t="s">
         <v>335</v>
       </c>
+      <c r="H382" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K382" s="28"/>
       <c r="L382" s="2"/>
     </row>
     <row r="383" spans="1:12">
       <c r="B383" s="27"/>
-      <c r="D383" s="42"/>
+      <c r="D383" s="44"/>
       <c r="E383" s="20">
         <v>3</v>
       </c>
@@ -9364,6 +9502,9 @@
       <c r="G383" s="20" t="s">
         <v>338</v>
       </c>
+      <c r="H383" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I383" s="20" t="s">
         <v>339</v>
       </c>
@@ -9372,7 +9513,7 @@
     </row>
     <row r="384" spans="1:12" ht="180">
       <c r="B384" s="27"/>
-      <c r="D384" s="42"/>
+      <c r="D384" s="44"/>
       <c r="E384" s="20">
         <v>4</v>
       </c>
@@ -9382,12 +9523,15 @@
       <c r="G384" s="20" t="s">
         <v>336</v>
       </c>
+      <c r="H384" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K384" s="28"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" ht="30">
       <c r="B385" s="27"/>
-      <c r="D385" s="42"/>
+      <c r="D385" s="44"/>
       <c r="E385" s="20">
         <v>5</v>
       </c>
@@ -9397,8 +9541,15 @@
       <c r="G385" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="K385" s="28"/>
-      <c r="L385" s="2"/>
+      <c r="H385" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K385" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L385" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="386" spans="1:12">
       <c r="B386" s="19"/>
@@ -9415,7 +9566,7 @@
       <c r="C387" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D387" s="42" t="s">
+      <c r="D387" s="44" t="s">
         <v>342</v>
       </c>
       <c r="E387" s="20">
@@ -9432,7 +9583,7 @@
     </row>
     <row r="388" spans="1:12" ht="30">
       <c r="B388" s="27"/>
-      <c r="D388" s="42"/>
+      <c r="D388" s="44"/>
       <c r="E388" s="20">
         <v>2</v>
       </c>
@@ -9442,12 +9593,15 @@
       <c r="G388" s="20" t="s">
         <v>335</v>
       </c>
+      <c r="H388" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K388" s="28"/>
       <c r="L388" s="2"/>
     </row>
     <row r="389" spans="1:12">
       <c r="B389" s="27"/>
-      <c r="D389" s="42"/>
+      <c r="D389" s="44"/>
       <c r="E389" s="20">
         <v>3</v>
       </c>
@@ -9457,6 +9611,9 @@
       <c r="G389" s="20" t="s">
         <v>338</v>
       </c>
+      <c r="H389" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I389" s="20" t="s">
         <v>339</v>
       </c>
@@ -9465,31 +9622,29 @@
     </row>
     <row r="390" spans="1:12" ht="180">
       <c r="B390" s="27"/>
-      <c r="D390" s="42"/>
+      <c r="D390" s="44"/>
       <c r="E390" s="20">
         <v>4</v>
       </c>
       <c r="F390" s="20" t="s">
-        <v>340</v>
+        <v>575</v>
       </c>
       <c r="G390" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="K390" s="28"/>
-      <c r="L390" s="2"/>
+      <c r="H390" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K390" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L390" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="391" spans="1:12">
       <c r="B391" s="27"/>
-      <c r="D391" s="42"/>
-      <c r="E391" s="20">
-        <v>5</v>
-      </c>
-      <c r="F391" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="G391" s="20" t="s">
-        <v>341</v>
-      </c>
+      <c r="D391" s="44"/>
       <c r="K391" s="28"/>
       <c r="L391" s="2"/>
     </row>
@@ -9508,7 +9663,7 @@
       <c r="C393" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D393" s="42" t="s">
+      <c r="D393" s="44" t="s">
         <v>350</v>
       </c>
       <c r="E393" s="20">
@@ -9525,7 +9680,7 @@
     </row>
     <row r="394" spans="1:12" ht="30">
       <c r="B394" s="27"/>
-      <c r="D394" s="42"/>
+      <c r="D394" s="44"/>
       <c r="E394" s="20">
         <v>2</v>
       </c>
@@ -9535,12 +9690,15 @@
       <c r="G394" s="20" t="s">
         <v>335</v>
       </c>
+      <c r="H394" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K394" s="28"/>
       <c r="L394" s="2"/>
     </row>
     <row r="395" spans="1:12">
       <c r="B395" s="27"/>
-      <c r="D395" s="42"/>
+      <c r="D395" s="44"/>
       <c r="E395" s="20">
         <v>3</v>
       </c>
@@ -9550,6 +9708,9 @@
       <c r="G395" s="20" t="s">
         <v>338</v>
       </c>
+      <c r="H395" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I395" s="20" t="s">
         <v>339</v>
       </c>
@@ -9558,7 +9719,7 @@
     </row>
     <row r="396" spans="1:12" ht="45">
       <c r="B396" s="27"/>
-      <c r="D396" s="42"/>
+      <c r="D396" s="44"/>
       <c r="E396" s="20">
         <v>4</v>
       </c>
@@ -9568,12 +9729,15 @@
       <c r="G396" s="20" t="s">
         <v>336</v>
       </c>
+      <c r="H396" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K396" s="28"/>
       <c r="L396" s="2"/>
     </row>
     <row r="397" spans="1:12">
       <c r="B397" s="27"/>
-      <c r="D397" s="42"/>
+      <c r="D397" s="44"/>
       <c r="E397" s="20">
         <v>5</v>
       </c>
@@ -9583,12 +9747,15 @@
       <c r="G397" s="20" t="s">
         <v>341</v>
       </c>
+      <c r="H397" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K397" s="28"/>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" ht="30">
       <c r="B398" s="19"/>
-      <c r="D398" s="42"/>
+      <c r="D398" s="44"/>
       <c r="E398" s="20">
         <v>6</v>
       </c>
@@ -9598,8 +9765,15 @@
       <c r="G398" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="K398" s="28"/>
-      <c r="L398" s="2"/>
+      <c r="H398" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K398" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L398" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="399" spans="1:12">
       <c r="B399" s="19"/>
@@ -9616,7 +9790,7 @@
       <c r="C400" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="42" t="s">
+      <c r="D400" s="44" t="s">
         <v>352</v>
       </c>
       <c r="E400" s="20">
@@ -9633,7 +9807,7 @@
     </row>
     <row r="401" spans="1:12" ht="30">
       <c r="B401" s="27"/>
-      <c r="D401" s="42"/>
+      <c r="D401" s="44"/>
       <c r="E401" s="20">
         <v>2</v>
       </c>
@@ -9643,12 +9817,15 @@
       <c r="G401" s="20" t="s">
         <v>335</v>
       </c>
+      <c r="H401" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K401" s="28"/>
       <c r="L401" s="2"/>
     </row>
     <row r="402" spans="1:12">
       <c r="B402" s="27"/>
-      <c r="D402" s="42"/>
+      <c r="D402" s="44"/>
       <c r="E402" s="20">
         <v>3</v>
       </c>
@@ -9658,6 +9835,9 @@
       <c r="G402" s="20" t="s">
         <v>338</v>
       </c>
+      <c r="H402" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I402" s="20" t="s">
         <v>339</v>
       </c>
@@ -9666,7 +9846,7 @@
     </row>
     <row r="403" spans="1:12" ht="45">
       <c r="B403" s="27"/>
-      <c r="D403" s="42"/>
+      <c r="D403" s="44"/>
       <c r="E403" s="20">
         <v>4</v>
       </c>
@@ -9676,12 +9856,15 @@
       <c r="G403" s="20" t="s">
         <v>336</v>
       </c>
+      <c r="H403" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K403" s="28"/>
       <c r="L403" s="2"/>
     </row>
     <row r="404" spans="1:12">
       <c r="B404" s="27"/>
-      <c r="D404" s="42"/>
+      <c r="D404" s="44"/>
       <c r="E404" s="20">
         <v>5</v>
       </c>
@@ -9691,12 +9874,15 @@
       <c r="G404" s="20" t="s">
         <v>341</v>
       </c>
+      <c r="H404" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K404" s="28"/>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" ht="30">
       <c r="B405" s="27"/>
-      <c r="D405" s="42"/>
+      <c r="D405" s="44"/>
       <c r="E405" s="20">
         <v>6</v>
       </c>
@@ -9706,8 +9892,15 @@
       <c r="G405" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="K405" s="28"/>
-      <c r="L405" s="2"/>
+      <c r="H405" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K405" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L405" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="406" spans="1:12">
       <c r="B406" s="19"/>
@@ -9724,7 +9917,7 @@
       <c r="C407" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D407" s="42" t="s">
+      <c r="D407" s="44" t="s">
         <v>353</v>
       </c>
       <c r="E407" s="20">
@@ -9741,7 +9934,7 @@
     </row>
     <row r="408" spans="1:12" ht="30">
       <c r="B408" s="27"/>
-      <c r="D408" s="42"/>
+      <c r="D408" s="44"/>
       <c r="E408" s="20">
         <v>2</v>
       </c>
@@ -9751,12 +9944,15 @@
       <c r="G408" s="20" t="s">
         <v>335</v>
       </c>
+      <c r="H408" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K408" s="28"/>
       <c r="L408" s="2"/>
     </row>
     <row r="409" spans="1:12">
       <c r="B409" s="27"/>
-      <c r="D409" s="42"/>
+      <c r="D409" s="44"/>
       <c r="E409" s="20">
         <v>3</v>
       </c>
@@ -9766,6 +9962,9 @@
       <c r="G409" s="20" t="s">
         <v>338</v>
       </c>
+      <c r="H409" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I409" s="20" t="s">
         <v>339</v>
       </c>
@@ -9774,7 +9973,7 @@
     </row>
     <row r="410" spans="1:12" ht="30">
       <c r="B410" s="27"/>
-      <c r="D410" s="42"/>
+      <c r="D410" s="44"/>
       <c r="E410" s="20">
         <v>4</v>
       </c>
@@ -9784,12 +9983,15 @@
       <c r="G410" s="20" t="s">
         <v>336</v>
       </c>
+      <c r="H410" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K410" s="28"/>
       <c r="L410" s="2"/>
     </row>
     <row r="411" spans="1:12">
       <c r="B411" s="27"/>
-      <c r="D411" s="42"/>
+      <c r="D411" s="44"/>
       <c r="E411" s="20">
         <v>5</v>
       </c>
@@ -9799,12 +10001,15 @@
       <c r="G411" s="20" t="s">
         <v>341</v>
       </c>
+      <c r="H411" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K411" s="28"/>
       <c r="L411" s="2"/>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" ht="30">
       <c r="B412" s="27"/>
-      <c r="D412" s="42"/>
+      <c r="D412" s="44"/>
       <c r="E412" s="20">
         <v>6</v>
       </c>
@@ -9814,8 +10019,15 @@
       <c r="G412" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="K412" s="28"/>
-      <c r="L412" s="2"/>
+      <c r="H412" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K412" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L412" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="413" spans="1:12">
       <c r="B413" s="19"/>
@@ -9832,7 +10044,7 @@
       <c r="C414" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D414" s="42" t="s">
+      <c r="D414" s="44" t="s">
         <v>365</v>
       </c>
       <c r="E414" s="20">
@@ -9849,7 +10061,7 @@
     </row>
     <row r="415" spans="1:12" ht="30">
       <c r="B415" s="31"/>
-      <c r="D415" s="42"/>
+      <c r="D415" s="44"/>
       <c r="E415" s="20">
         <v>2</v>
       </c>
@@ -9859,12 +10071,15 @@
       <c r="G415" s="20" t="s">
         <v>360</v>
       </c>
+      <c r="H415" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K415" s="28"/>
       <c r="L415" s="2"/>
     </row>
     <row r="416" spans="1:12">
       <c r="B416" s="31"/>
-      <c r="D416" s="42"/>
+      <c r="D416" s="44"/>
       <c r="E416" s="20">
         <v>3</v>
       </c>
@@ -9874,12 +10089,15 @@
       <c r="G416" s="20" t="s">
         <v>362</v>
       </c>
+      <c r="H416" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K416" s="28"/>
       <c r="L416" s="2"/>
     </row>
     <row r="417" spans="1:12" ht="30">
       <c r="B417" s="31"/>
-      <c r="D417" s="42"/>
+      <c r="D417" s="44"/>
       <c r="E417" s="20">
         <v>4</v>
       </c>
@@ -9889,8 +10107,15 @@
       <c r="G417" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="K417" s="28"/>
-      <c r="L417" s="2"/>
+      <c r="H417" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K417" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L417" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="418" spans="1:12">
       <c r="B418" s="19"/>
@@ -9907,7 +10132,7 @@
       <c r="C419" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D419" s="42" t="s">
+      <c r="D419" s="44" t="s">
         <v>387</v>
       </c>
       <c r="E419" s="20">
@@ -9916,6 +10141,9 @@
       <c r="F419" s="20" t="s">
         <v>390</v>
       </c>
+      <c r="H419" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I419" s="20" t="s">
         <v>32</v>
       </c>
@@ -9924,7 +10152,7 @@
     </row>
     <row r="420" spans="1:12" ht="30.75" customHeight="1">
       <c r="B420" s="31"/>
-      <c r="D420" s="42"/>
+      <c r="D420" s="44"/>
       <c r="E420" s="20">
         <v>2</v>
       </c>
@@ -9934,8 +10162,15 @@
       <c r="G420" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="K420" s="28"/>
-      <c r="L420" s="2"/>
+      <c r="H420" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K420" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L420" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="421" spans="1:12">
       <c r="B421" s="19"/>
@@ -9952,7 +10187,7 @@
       <c r="C422" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D422" s="42" t="s">
+      <c r="D422" s="44" t="s">
         <v>391</v>
       </c>
       <c r="E422" s="20">
@@ -9969,7 +10204,7 @@
     </row>
     <row r="423" spans="1:12" ht="30">
       <c r="B423" s="31"/>
-      <c r="D423" s="42"/>
+      <c r="D423" s="44"/>
       <c r="E423" s="20">
         <v>2</v>
       </c>
@@ -10002,7 +10237,7 @@
       <c r="C426" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D426" s="42" t="s">
+      <c r="D426" s="44" t="s">
         <v>367</v>
       </c>
       <c r="E426" s="20">
@@ -10019,7 +10254,7 @@
     </row>
     <row r="427" spans="1:12" ht="30">
       <c r="B427" s="31"/>
-      <c r="D427" s="42"/>
+      <c r="D427" s="44"/>
       <c r="E427" s="20">
         <v>2</v>
       </c>
@@ -10034,7 +10269,7 @@
     </row>
     <row r="428" spans="1:12" ht="45">
       <c r="B428" s="31"/>
-      <c r="D428" s="42"/>
+      <c r="D428" s="44"/>
       <c r="E428" s="20">
         <v>3</v>
       </c>
@@ -10052,7 +10287,7 @@
     </row>
     <row r="429" spans="1:12" ht="45">
       <c r="B429" s="19"/>
-      <c r="D429" s="42"/>
+      <c r="D429" s="44"/>
       <c r="E429" s="20">
         <v>4</v>
       </c>
@@ -10080,7 +10315,7 @@
       <c r="C431" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D431" s="42" t="s">
+      <c r="D431" s="44" t="s">
         <v>373</v>
       </c>
       <c r="E431" s="20">
@@ -10097,7 +10332,7 @@
     </row>
     <row r="432" spans="1:12" ht="30">
       <c r="B432" s="31"/>
-      <c r="D432" s="42"/>
+      <c r="D432" s="44"/>
       <c r="E432" s="20">
         <v>2</v>
       </c>
@@ -10112,7 +10347,7 @@
     </row>
     <row r="433" spans="1:12" ht="30">
       <c r="B433" s="31"/>
-      <c r="D433" s="42"/>
+      <c r="D433" s="44"/>
       <c r="E433" s="20">
         <v>3</v>
       </c>
@@ -10143,7 +10378,7 @@
       <c r="C435" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D435" s="42" t="s">
+      <c r="D435" s="44" t="s">
         <v>367</v>
       </c>
       <c r="E435" s="20">
@@ -10163,7 +10398,7 @@
         <v>385</v>
       </c>
       <c r="B436" s="31"/>
-      <c r="D436" s="42"/>
+      <c r="D436" s="44"/>
       <c r="E436" s="20">
         <v>2</v>
       </c>
@@ -10178,7 +10413,7 @@
     </row>
     <row r="437" spans="1:12" ht="30">
       <c r="B437" s="19"/>
-      <c r="D437" s="42"/>
+      <c r="D437" s="44"/>
       <c r="E437" s="20">
         <v>3</v>
       </c>
@@ -10196,7 +10431,7 @@
     </row>
     <row r="438" spans="1:12" ht="30">
       <c r="B438" s="19"/>
-      <c r="D438" s="42"/>
+      <c r="D438" s="44"/>
       <c r="E438" s="20">
         <v>4</v>
       </c>
@@ -10216,7 +10451,7 @@
     </row>
     <row r="440" spans="1:12">
       <c r="B440" s="19"/>
-      <c r="D440" s="42" t="s">
+      <c r="D440" s="44" t="s">
         <v>382</v>
       </c>
       <c r="E440" s="20">
@@ -10241,7 +10476,7 @@
       <c r="C441" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D441" s="42"/>
+      <c r="D441" s="44"/>
       <c r="E441" s="20">
         <v>2</v>
       </c>
@@ -10256,7 +10491,7 @@
     </row>
     <row r="442" spans="1:12" ht="30">
       <c r="B442" s="19"/>
-      <c r="D442" s="42"/>
+      <c r="D442" s="44"/>
       <c r="E442" s="20">
         <v>3</v>
       </c>
@@ -10274,7 +10509,7 @@
     </row>
     <row r="443" spans="1:12" ht="30">
       <c r="B443" s="19"/>
-      <c r="D443" s="42"/>
+      <c r="D443" s="44"/>
       <c r="E443" s="20">
         <v>4</v>
       </c>
@@ -10302,7 +10537,7 @@
       <c r="C445" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D445" s="42" t="s">
+      <c r="D445" s="44" t="s">
         <v>383</v>
       </c>
       <c r="E445" s="20">
@@ -10319,7 +10554,7 @@
     </row>
     <row r="446" spans="1:12" ht="30" customHeight="1">
       <c r="B446" s="19"/>
-      <c r="D446" s="42"/>
+      <c r="D446" s="44"/>
       <c r="E446" s="20">
         <v>2</v>
       </c>
@@ -10334,7 +10569,7 @@
     </row>
     <row r="447" spans="1:12" ht="30">
       <c r="B447" s="19"/>
-      <c r="D447" s="42"/>
+      <c r="D447" s="44"/>
       <c r="E447" s="20">
         <v>3</v>
       </c>
@@ -10352,7 +10587,7 @@
     </row>
     <row r="448" spans="1:12" ht="30">
       <c r="B448" s="19"/>
-      <c r="D448" s="42"/>
+      <c r="D448" s="44"/>
       <c r="E448" s="20">
         <v>4</v>
       </c>
@@ -10380,7 +10615,7 @@
       <c r="C450" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D450" s="42" t="s">
+      <c r="D450" s="44" t="s">
         <v>401</v>
       </c>
       <c r="E450" s="20">
@@ -10397,7 +10632,7 @@
     </row>
     <row r="451" spans="1:12" ht="30">
       <c r="B451" s="33"/>
-      <c r="D451" s="42"/>
+      <c r="D451" s="44"/>
       <c r="E451" s="20">
         <v>2</v>
       </c>
@@ -10412,7 +10647,7 @@
     </row>
     <row r="452" spans="1:12">
       <c r="B452" s="33"/>
-      <c r="D452" s="42"/>
+      <c r="D452" s="44"/>
       <c r="E452" s="20">
         <v>3</v>
       </c>
@@ -10427,7 +10662,7 @@
     </row>
     <row r="453" spans="1:12">
       <c r="B453" s="33"/>
-      <c r="D453" s="42"/>
+      <c r="D453" s="44"/>
       <c r="E453" s="20">
         <v>4</v>
       </c>
@@ -10455,7 +10690,7 @@
       <c r="C455" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D455" s="42" t="s">
+      <c r="D455" s="44" t="s">
         <v>409</v>
       </c>
       <c r="E455" s="20">
@@ -10472,7 +10707,7 @@
     </row>
     <row r="456" spans="1:12" ht="30">
       <c r="B456" s="33"/>
-      <c r="D456" s="42"/>
+      <c r="D456" s="44"/>
       <c r="E456" s="20">
         <v>2</v>
       </c>
@@ -10487,7 +10722,7 @@
     </row>
     <row r="457" spans="1:12">
       <c r="B457" s="33"/>
-      <c r="D457" s="42"/>
+      <c r="D457" s="44"/>
       <c r="E457" s="20">
         <v>3</v>
       </c>
@@ -10502,7 +10737,7 @@
     </row>
     <row r="458" spans="1:12">
       <c r="B458" s="33"/>
-      <c r="D458" s="42"/>
+      <c r="D458" s="44"/>
       <c r="E458" s="20">
         <v>4</v>
       </c>
@@ -10517,7 +10752,7 @@
     </row>
     <row r="459" spans="1:12" ht="30">
       <c r="B459" s="19"/>
-      <c r="D459" s="42"/>
+      <c r="D459" s="44"/>
       <c r="E459" s="20">
         <v>5</v>
       </c>
@@ -10545,7 +10780,7 @@
       <c r="C461" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D461" s="42" t="s">
+      <c r="D461" s="44" t="s">
         <v>413</v>
       </c>
       <c r="E461" s="20">
@@ -10565,7 +10800,7 @@
     </row>
     <row r="462" spans="1:12" ht="30">
       <c r="B462" s="34"/>
-      <c r="D462" s="42"/>
+      <c r="D462" s="44"/>
       <c r="E462" s="20">
         <v>2</v>
       </c>
@@ -10580,7 +10815,7 @@
     </row>
     <row r="463" spans="1:12" ht="30">
       <c r="B463" s="34"/>
-      <c r="D463" s="42"/>
+      <c r="D463" s="44"/>
       <c r="E463" s="20">
         <v>3</v>
       </c>
@@ -10611,7 +10846,7 @@
       <c r="C465" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D465" s="42" t="s">
+      <c r="D465" s="44" t="s">
         <v>421</v>
       </c>
       <c r="E465" s="20">
@@ -10631,7 +10866,7 @@
     </row>
     <row r="466" spans="1:12" ht="30">
       <c r="B466" s="34"/>
-      <c r="D466" s="42"/>
+      <c r="D466" s="44"/>
       <c r="E466" s="20">
         <v>2</v>
       </c>
@@ -10646,7 +10881,7 @@
     </row>
     <row r="467" spans="1:12" ht="30">
       <c r="B467" s="34"/>
-      <c r="D467" s="42"/>
+      <c r="D467" s="44"/>
       <c r="E467" s="20">
         <v>3</v>
       </c>
@@ -10664,7 +10899,7 @@
     </row>
     <row r="468" spans="1:12">
       <c r="B468" s="19"/>
-      <c r="D468" s="42"/>
+      <c r="D468" s="44"/>
       <c r="E468" s="20">
         <v>4</v>
       </c>
@@ -10692,7 +10927,7 @@
       <c r="C470" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D470" s="42" t="s">
+      <c r="D470" s="44" t="s">
         <v>431</v>
       </c>
       <c r="E470" s="20">
@@ -10712,7 +10947,7 @@
     </row>
     <row r="471" spans="1:12" ht="30">
       <c r="B471" s="34"/>
-      <c r="D471" s="42"/>
+      <c r="D471" s="44"/>
       <c r="E471" s="20">
         <v>2</v>
       </c>
@@ -10727,7 +10962,7 @@
     </row>
     <row r="472" spans="1:12" ht="30">
       <c r="B472" s="34"/>
-      <c r="D472" s="42"/>
+      <c r="D472" s="44"/>
       <c r="E472" s="20">
         <v>3</v>
       </c>
@@ -10742,7 +10977,7 @@
     </row>
     <row r="473" spans="1:12" ht="30">
       <c r="B473" s="34"/>
-      <c r="D473" s="42"/>
+      <c r="D473" s="44"/>
       <c r="E473" s="20">
         <v>4</v>
       </c>
@@ -10770,7 +11005,7 @@
       <c r="C475" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D475" s="42" t="s">
+      <c r="D475" s="44" t="s">
         <v>432</v>
       </c>
       <c r="E475" s="20">
@@ -10790,7 +11025,7 @@
     </row>
     <row r="476" spans="1:12" ht="30">
       <c r="B476" s="34"/>
-      <c r="D476" s="42"/>
+      <c r="D476" s="44"/>
       <c r="E476" s="20">
         <v>2</v>
       </c>
@@ -10805,7 +11040,7 @@
     </row>
     <row r="477" spans="1:12" ht="30">
       <c r="B477" s="34"/>
-      <c r="D477" s="42"/>
+      <c r="D477" s="44"/>
       <c r="E477" s="20">
         <v>3</v>
       </c>
@@ -10820,7 +11055,7 @@
     </row>
     <row r="478" spans="1:12">
       <c r="B478" s="34"/>
-      <c r="D478" s="42"/>
+      <c r="D478" s="44"/>
       <c r="E478" s="20">
         <v>4</v>
       </c>
@@ -10848,7 +11083,7 @@
       <c r="C480" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D480" s="42" t="s">
+      <c r="D480" s="44" t="s">
         <v>436</v>
       </c>
       <c r="E480" s="20">
@@ -10868,7 +11103,7 @@
     </row>
     <row r="481" spans="1:12" ht="30">
       <c r="B481" s="34"/>
-      <c r="D481" s="42"/>
+      <c r="D481" s="44"/>
       <c r="E481" s="20">
         <v>2</v>
       </c>
@@ -10883,7 +11118,7 @@
     </row>
     <row r="482" spans="1:12" ht="30">
       <c r="B482" s="34"/>
-      <c r="D482" s="42"/>
+      <c r="D482" s="44"/>
       <c r="E482" s="20">
         <v>3</v>
       </c>
@@ -10898,7 +11133,7 @@
     </row>
     <row r="483" spans="1:12" ht="30">
       <c r="B483" s="34"/>
-      <c r="D483" s="42"/>
+      <c r="D483" s="44"/>
       <c r="E483" s="20">
         <v>4</v>
       </c>
@@ -10926,7 +11161,7 @@
       <c r="C485" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D485" s="42" t="s">
+      <c r="D485" s="44" t="s">
         <v>438</v>
       </c>
       <c r="E485" s="20">
@@ -10946,7 +11181,7 @@
     </row>
     <row r="486" spans="1:12" ht="30">
       <c r="B486" s="34"/>
-      <c r="D486" s="42"/>
+      <c r="D486" s="44"/>
       <c r="E486" s="20">
         <v>2</v>
       </c>
@@ -10961,7 +11196,7 @@
     </row>
     <row r="487" spans="1:12" ht="30">
       <c r="B487" s="34"/>
-      <c r="D487" s="42"/>
+      <c r="D487" s="44"/>
       <c r="E487" s="20">
         <v>3</v>
       </c>
@@ -10976,7 +11211,7 @@
     </row>
     <row r="488" spans="1:12">
       <c r="B488" s="34"/>
-      <c r="D488" s="42"/>
+      <c r="D488" s="44"/>
       <c r="E488" s="20">
         <v>4</v>
       </c>
@@ -11004,7 +11239,7 @@
       <c r="C490" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D490" s="42" t="s">
+      <c r="D490" s="44" t="s">
         <v>449</v>
       </c>
       <c r="E490" s="20">
@@ -11024,7 +11259,7 @@
     </row>
     <row r="491" spans="1:12" ht="30">
       <c r="B491" s="39"/>
-      <c r="D491" s="42"/>
+      <c r="D491" s="44"/>
       <c r="E491" s="20">
         <v>2</v>
       </c>
@@ -11039,7 +11274,7 @@
     </row>
     <row r="492" spans="1:12" ht="30">
       <c r="B492" s="39"/>
-      <c r="D492" s="42"/>
+      <c r="D492" s="44"/>
       <c r="E492" s="20">
         <v>3</v>
       </c>
@@ -11057,7 +11292,7 @@
     </row>
     <row r="493" spans="1:12">
       <c r="B493" s="39"/>
-      <c r="D493" s="42"/>
+      <c r="D493" s="44"/>
       <c r="E493" s="20">
         <v>4</v>
       </c>
@@ -11085,7 +11320,7 @@
       <c r="C495" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D495" s="42" t="s">
+      <c r="D495" s="44" t="s">
         <v>448</v>
       </c>
       <c r="E495" s="20">
@@ -11105,7 +11340,7 @@
     </row>
     <row r="496" spans="1:12" ht="30">
       <c r="B496" s="39"/>
-      <c r="D496" s="42"/>
+      <c r="D496" s="44"/>
       <c r="E496" s="20">
         <v>2</v>
       </c>
@@ -11120,7 +11355,7 @@
     </row>
     <row r="497" spans="1:12" ht="30">
       <c r="B497" s="39"/>
-      <c r="D497" s="42"/>
+      <c r="D497" s="44"/>
       <c r="E497" s="20">
         <v>3</v>
       </c>
@@ -11138,7 +11373,7 @@
     </row>
     <row r="498" spans="1:12">
       <c r="B498" s="39"/>
-      <c r="D498" s="42"/>
+      <c r="D498" s="44"/>
       <c r="E498" s="20">
         <v>4</v>
       </c>
@@ -11166,7 +11401,7 @@
       <c r="C500" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D500" s="42" t="s">
+      <c r="D500" s="44" t="s">
         <v>460</v>
       </c>
       <c r="E500" s="20">
@@ -11186,7 +11421,7 @@
     </row>
     <row r="501" spans="1:12" ht="30">
       <c r="B501" s="39"/>
-      <c r="D501" s="42"/>
+      <c r="D501" s="44"/>
       <c r="E501" s="20">
         <v>2</v>
       </c>
@@ -11201,7 +11436,7 @@
     </row>
     <row r="502" spans="1:12">
       <c r="B502" s="39"/>
-      <c r="D502" s="42"/>
+      <c r="D502" s="44"/>
       <c r="E502" s="20">
         <v>3</v>
       </c>
@@ -11219,7 +11454,7 @@
     </row>
     <row r="503" spans="1:12" ht="90">
       <c r="B503" s="39"/>
-      <c r="D503" s="42"/>
+      <c r="D503" s="44"/>
       <c r="E503" s="20">
         <v>4</v>
       </c>
@@ -11247,7 +11482,7 @@
       <c r="C505" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D505" s="42" t="s">
+      <c r="D505" s="44" t="s">
         <v>464</v>
       </c>
       <c r="E505" s="20">
@@ -11267,7 +11502,7 @@
     </row>
     <row r="506" spans="1:12" ht="30">
       <c r="B506" s="39"/>
-      <c r="D506" s="42"/>
+      <c r="D506" s="44"/>
       <c r="E506" s="20">
         <v>2</v>
       </c>
@@ -11282,7 +11517,7 @@
     </row>
     <row r="507" spans="1:12">
       <c r="B507" s="39"/>
-      <c r="D507" s="42"/>
+      <c r="D507" s="44"/>
       <c r="E507" s="20">
         <v>3</v>
       </c>
@@ -11300,7 +11535,7 @@
     </row>
     <row r="508" spans="1:12" ht="30">
       <c r="B508" s="39"/>
-      <c r="D508" s="42"/>
+      <c r="D508" s="44"/>
       <c r="E508" s="20">
         <v>4</v>
       </c>
@@ -11328,7 +11563,7 @@
       <c r="C510" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D510" s="42" t="s">
+      <c r="D510" s="44" t="s">
         <v>469</v>
       </c>
       <c r="E510" s="20">
@@ -11348,7 +11583,7 @@
     </row>
     <row r="511" spans="1:12" ht="30">
       <c r="B511" s="39"/>
-      <c r="D511" s="42"/>
+      <c r="D511" s="44"/>
       <c r="E511" s="20">
         <v>2</v>
       </c>
@@ -11363,7 +11598,7 @@
     </row>
     <row r="512" spans="1:12">
       <c r="B512" s="39"/>
-      <c r="D512" s="42"/>
+      <c r="D512" s="44"/>
       <c r="E512" s="20">
         <v>3</v>
       </c>
@@ -11381,7 +11616,7 @@
     </row>
     <row r="513" spans="1:12">
       <c r="B513" s="39"/>
-      <c r="D513" s="42"/>
+      <c r="D513" s="44"/>
       <c r="E513" s="20">
         <v>4</v>
       </c>
@@ -11412,7 +11647,7 @@
       <c r="C515" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D515" s="42" t="s">
+      <c r="D515" s="44" t="s">
         <v>477</v>
       </c>
       <c r="E515" s="20">
@@ -11432,7 +11667,7 @@
     </row>
     <row r="516" spans="1:12" ht="30">
       <c r="B516" s="39"/>
-      <c r="D516" s="42"/>
+      <c r="D516" s="44"/>
       <c r="E516" s="20">
         <v>2</v>
       </c>
@@ -11447,7 +11682,7 @@
     </row>
     <row r="517" spans="1:12">
       <c r="B517" s="39"/>
-      <c r="D517" s="42"/>
+      <c r="D517" s="44"/>
       <c r="E517" s="20">
         <v>3</v>
       </c>
@@ -11478,7 +11713,7 @@
       <c r="C519" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D519" s="42" t="s">
+      <c r="D519" s="44" t="s">
         <v>476</v>
       </c>
       <c r="E519" s="20">
@@ -11498,7 +11733,7 @@
     </row>
     <row r="520" spans="1:12" ht="30">
       <c r="B520" s="39"/>
-      <c r="D520" s="42"/>
+      <c r="D520" s="44"/>
       <c r="E520" s="20">
         <v>2</v>
       </c>
@@ -11513,7 +11748,7 @@
     </row>
     <row r="521" spans="1:12">
       <c r="B521" s="39"/>
-      <c r="D521" s="42"/>
+      <c r="D521" s="44"/>
       <c r="E521" s="20">
         <v>3</v>
       </c>
@@ -11531,7 +11766,7 @@
     </row>
     <row r="522" spans="1:12" ht="27" customHeight="1">
       <c r="B522" s="39"/>
-      <c r="D522" s="42"/>
+      <c r="D522" s="44"/>
       <c r="E522" s="20">
         <v>4</v>
       </c>
@@ -11559,7 +11794,7 @@
       <c r="C524" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D524" s="42" t="s">
+      <c r="D524" s="44" t="s">
         <v>482</v>
       </c>
       <c r="E524" s="20">
@@ -11579,7 +11814,7 @@
     </row>
     <row r="525" spans="1:12" ht="30">
       <c r="B525" s="39"/>
-      <c r="D525" s="42"/>
+      <c r="D525" s="44"/>
       <c r="E525" s="20">
         <v>2</v>
       </c>
@@ -11594,7 +11829,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="B526" s="39"/>
-      <c r="D526" s="42"/>
+      <c r="D526" s="44"/>
       <c r="E526" s="20">
         <v>3</v>
       </c>
@@ -11612,7 +11847,7 @@
     </row>
     <row r="527" spans="1:12" ht="30.75" customHeight="1">
       <c r="B527" s="39"/>
-      <c r="D527" s="42"/>
+      <c r="D527" s="44"/>
       <c r="E527" s="20">
         <v>4</v>
       </c>
@@ -11640,7 +11875,7 @@
       <c r="C529" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D529" s="42" t="s">
+      <c r="D529" s="44" t="s">
         <v>486</v>
       </c>
       <c r="E529" s="20">
@@ -11660,7 +11895,7 @@
     </row>
     <row r="530" spans="1:12" ht="30">
       <c r="B530" s="39"/>
-      <c r="D530" s="42"/>
+      <c r="D530" s="44"/>
       <c r="E530" s="20">
         <v>2</v>
       </c>
@@ -11675,7 +11910,7 @@
     </row>
     <row r="531" spans="1:12">
       <c r="B531" s="39"/>
-      <c r="D531" s="42"/>
+      <c r="D531" s="44"/>
       <c r="E531" s="20">
         <v>3</v>
       </c>
@@ -11703,7 +11938,7 @@
       <c r="C533" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D533" s="42" t="s">
+      <c r="D533" s="44" t="s">
         <v>491</v>
       </c>
       <c r="E533" s="20">
@@ -11723,7 +11958,7 @@
     </row>
     <row r="534" spans="1:12" ht="30">
       <c r="B534" s="39"/>
-      <c r="D534" s="42"/>
+      <c r="D534" s="44"/>
       <c r="E534" s="20">
         <v>2</v>
       </c>
@@ -11738,7 +11973,7 @@
     </row>
     <row r="535" spans="1:12">
       <c r="B535" s="39"/>
-      <c r="D535" s="42"/>
+      <c r="D535" s="44"/>
       <c r="E535" s="20">
         <v>3</v>
       </c>
@@ -11766,7 +12001,7 @@
       <c r="C537" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D537" s="42" t="s">
+      <c r="D537" s="44" t="s">
         <v>505</v>
       </c>
       <c r="E537" s="20">
@@ -11786,7 +12021,7 @@
     </row>
     <row r="538" spans="1:12">
       <c r="B538" s="39"/>
-      <c r="D538" s="42"/>
+      <c r="D538" s="44"/>
       <c r="E538" s="20">
         <v>2</v>
       </c>
@@ -11801,7 +12036,7 @@
     </row>
     <row r="539" spans="1:12">
       <c r="B539" s="39"/>
-      <c r="D539" s="42"/>
+      <c r="D539" s="44"/>
       <c r="E539" s="20">
         <v>3</v>
       </c>
@@ -11816,7 +12051,7 @@
     </row>
     <row r="540" spans="1:12">
       <c r="B540" s="19"/>
-      <c r="D540" s="42"/>
+      <c r="D540" s="44"/>
       <c r="E540" s="20">
         <v>4</v>
       </c>
@@ -11844,7 +12079,7 @@
       <c r="C542" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D542" s="42" t="s">
+      <c r="D542" s="44" t="s">
         <v>506</v>
       </c>
       <c r="E542" s="20">
@@ -11864,7 +12099,7 @@
     </row>
     <row r="543" spans="1:12">
       <c r="B543" s="39"/>
-      <c r="D543" s="42"/>
+      <c r="D543" s="44"/>
       <c r="E543" s="20">
         <v>2</v>
       </c>
@@ -11879,7 +12114,7 @@
     </row>
     <row r="544" spans="1:12">
       <c r="B544" s="39"/>
-      <c r="D544" s="42"/>
+      <c r="D544" s="44"/>
       <c r="E544" s="20">
         <v>3</v>
       </c>
@@ -11907,7 +12142,7 @@
       <c r="C546" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D546" s="42" t="s">
+      <c r="D546" s="44" t="s">
         <v>512</v>
       </c>
       <c r="E546" s="20">
@@ -11927,7 +12162,7 @@
     </row>
     <row r="547" spans="1:12">
       <c r="B547" s="39"/>
-      <c r="D547" s="42"/>
+      <c r="D547" s="44"/>
       <c r="E547" s="20">
         <v>2</v>
       </c>
@@ -11942,7 +12177,7 @@
     </row>
     <row r="548" spans="1:12">
       <c r="B548" s="39"/>
-      <c r="D548" s="42"/>
+      <c r="D548" s="44"/>
       <c r="E548" s="20">
         <v>3</v>
       </c>
@@ -11957,7 +12192,7 @@
     </row>
     <row r="549" spans="1:12">
       <c r="B549" s="19"/>
-      <c r="D549" s="42"/>
+      <c r="D549" s="44"/>
       <c r="E549" s="20">
         <v>4</v>
       </c>
@@ -11985,7 +12220,7 @@
       <c r="C551" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D551" s="42" t="s">
+      <c r="D551" s="44" t="s">
         <v>515</v>
       </c>
       <c r="E551" s="20">
@@ -12005,7 +12240,7 @@
     </row>
     <row r="552" spans="1:12" ht="30">
       <c r="B552" s="39"/>
-      <c r="D552" s="42"/>
+      <c r="D552" s="44"/>
       <c r="E552" s="20">
         <v>2</v>
       </c>
@@ -12020,7 +12255,7 @@
     </row>
     <row r="553" spans="1:12" ht="30">
       <c r="B553" s="39"/>
-      <c r="D553" s="42"/>
+      <c r="D553" s="44"/>
       <c r="E553" s="20">
         <v>3</v>
       </c>
@@ -12048,7 +12283,7 @@
       <c r="C555" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D555" s="42" t="s">
+      <c r="D555" s="44" t="s">
         <v>520</v>
       </c>
       <c r="E555" s="20">
@@ -12068,7 +12303,7 @@
     </row>
     <row r="556" spans="1:12" ht="30">
       <c r="B556" s="39"/>
-      <c r="D556" s="42"/>
+      <c r="D556" s="44"/>
       <c r="E556" s="20">
         <v>2</v>
       </c>
@@ -12083,7 +12318,7 @@
     </row>
     <row r="557" spans="1:12" ht="30">
       <c r="B557" s="39"/>
-      <c r="D557" s="42"/>
+      <c r="D557" s="44"/>
       <c r="E557" s="20">
         <v>3</v>
       </c>
@@ -12111,7 +12346,7 @@
       <c r="C559" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D559" s="42" t="s">
+      <c r="D559" s="44" t="s">
         <v>531</v>
       </c>
       <c r="E559" s="20">
@@ -12131,7 +12366,7 @@
     </row>
     <row r="560" spans="1:12">
       <c r="B560" s="39"/>
-      <c r="D560" s="42"/>
+      <c r="D560" s="44"/>
       <c r="E560" s="20">
         <v>2</v>
       </c>
@@ -12146,7 +12381,7 @@
     </row>
     <row r="561" spans="1:12">
       <c r="B561" s="39"/>
-      <c r="D561" s="42"/>
+      <c r="D561" s="44"/>
       <c r="E561" s="20">
         <v>3</v>
       </c>
@@ -12161,7 +12396,7 @@
     </row>
     <row r="562" spans="1:12">
       <c r="B562" s="19"/>
-      <c r="D562" s="42"/>
+      <c r="D562" s="44"/>
       <c r="E562" s="20">
         <v>4</v>
       </c>
@@ -12189,7 +12424,7 @@
       <c r="C564" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D564" s="42" t="s">
+      <c r="D564" s="44" t="s">
         <v>532</v>
       </c>
       <c r="E564" s="20">
@@ -12209,7 +12444,7 @@
     </row>
     <row r="565" spans="1:12">
       <c r="B565" s="39"/>
-      <c r="D565" s="42"/>
+      <c r="D565" s="44"/>
       <c r="E565" s="20">
         <v>2</v>
       </c>
@@ -12224,7 +12459,7 @@
     </row>
     <row r="566" spans="1:12" ht="30">
       <c r="B566" s="39"/>
-      <c r="D566" s="42"/>
+      <c r="D566" s="44"/>
       <c r="E566" s="20">
         <v>3</v>
       </c>
@@ -12239,7 +12474,7 @@
     </row>
     <row r="567" spans="1:12">
       <c r="B567" s="39"/>
-      <c r="D567" s="42"/>
+      <c r="D567" s="44"/>
       <c r="E567" s="20">
         <v>4</v>
       </c>
@@ -12267,7 +12502,7 @@
       <c r="C569" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D569" s="42" t="s">
+      <c r="D569" s="44" t="s">
         <v>544</v>
       </c>
       <c r="E569" s="20">
@@ -12287,7 +12522,7 @@
     </row>
     <row r="570" spans="1:12" ht="30">
       <c r="B570" s="39"/>
-      <c r="D570" s="42"/>
+      <c r="D570" s="44"/>
       <c r="E570" s="20">
         <v>2</v>
       </c>
@@ -12302,7 +12537,7 @@
     </row>
     <row r="571" spans="1:12">
       <c r="B571" s="39"/>
-      <c r="D571" s="42"/>
+      <c r="D571" s="44"/>
       <c r="E571" s="20">
         <v>3</v>
       </c>
@@ -12317,7 +12552,7 @@
     </row>
     <row r="572" spans="1:12" ht="30">
       <c r="B572" s="39"/>
-      <c r="D572" s="42"/>
+      <c r="D572" s="44"/>
       <c r="E572" s="20">
         <v>4</v>
       </c>
@@ -12345,7 +12580,7 @@
       <c r="C574" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D574" s="42" t="s">
+      <c r="D574" s="44" t="s">
         <v>547</v>
       </c>
       <c r="E574" s="20">
@@ -12359,7 +12594,7 @@
     </row>
     <row r="575" spans="1:12" ht="33" customHeight="1">
       <c r="B575" s="40"/>
-      <c r="D575" s="42"/>
+      <c r="D575" s="44"/>
       <c r="E575" s="20">
         <v>2</v>
       </c>
@@ -12374,7 +12609,7 @@
     </row>
     <row r="576" spans="1:12" ht="30">
       <c r="B576" s="40"/>
-      <c r="D576" s="42"/>
+      <c r="D576" s="44"/>
       <c r="E576" s="20">
         <v>3</v>
       </c>
@@ -12389,7 +12624,7 @@
     </row>
     <row r="577" spans="1:12">
       <c r="B577" s="40"/>
-      <c r="D577" s="42"/>
+      <c r="D577" s="44"/>
       <c r="E577" s="20">
         <v>4</v>
       </c>
@@ -12417,7 +12652,7 @@
       <c r="C579" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D579" s="42" t="s">
+      <c r="D579" s="44" t="s">
         <v>553</v>
       </c>
       <c r="E579" s="20">
@@ -12431,7 +12666,7 @@
     </row>
     <row r="580" spans="1:12">
       <c r="B580" s="40"/>
-      <c r="D580" s="42"/>
+      <c r="D580" s="44"/>
       <c r="E580" s="20">
         <v>2</v>
       </c>
@@ -12446,7 +12681,7 @@
     </row>
     <row r="581" spans="1:12" ht="30">
       <c r="B581" s="40"/>
-      <c r="D581" s="42"/>
+      <c r="D581" s="44"/>
       <c r="E581" s="20">
         <v>3</v>
       </c>
@@ -12461,7 +12696,7 @@
     </row>
     <row r="582" spans="1:12">
       <c r="B582" s="40"/>
-      <c r="D582" s="42"/>
+      <c r="D582" s="44"/>
       <c r="E582" s="20">
         <v>4</v>
       </c>
@@ -12476,7 +12711,7 @@
     </row>
     <row r="583" spans="1:12" ht="30">
       <c r="B583" s="19"/>
-      <c r="D583" s="42"/>
+      <c r="D583" s="44"/>
       <c r="E583" s="20">
         <v>5</v>
       </c>
@@ -12504,7 +12739,7 @@
       <c r="C585" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D585" s="42" t="s">
+      <c r="D585" s="44" t="s">
         <v>556</v>
       </c>
       <c r="E585" s="20">
@@ -12518,7 +12753,7 @@
     </row>
     <row r="586" spans="1:12">
       <c r="B586" s="40"/>
-      <c r="D586" s="42"/>
+      <c r="D586" s="44"/>
       <c r="E586" s="20">
         <v>2</v>
       </c>
@@ -12533,7 +12768,7 @@
     </row>
     <row r="587" spans="1:12" ht="30">
       <c r="B587" s="40"/>
-      <c r="D587" s="42"/>
+      <c r="D587" s="44"/>
       <c r="E587" s="20">
         <v>3</v>
       </c>
@@ -12548,7 +12783,7 @@
     </row>
     <row r="588" spans="1:12">
       <c r="B588" s="40"/>
-      <c r="D588" s="42"/>
+      <c r="D588" s="44"/>
       <c r="E588" s="20">
         <v>4</v>
       </c>
@@ -12576,7 +12811,7 @@
       <c r="C590" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D590" s="42" t="s">
+      <c r="D590" s="44" t="s">
         <v>561</v>
       </c>
       <c r="E590" s="20">
@@ -12590,7 +12825,7 @@
     </row>
     <row r="591" spans="1:12">
       <c r="B591" s="40"/>
-      <c r="D591" s="42"/>
+      <c r="D591" s="44"/>
       <c r="E591" s="20">
         <v>2</v>
       </c>
@@ -12605,7 +12840,7 @@
     </row>
     <row r="592" spans="1:12" ht="30">
       <c r="B592" s="40"/>
-      <c r="D592" s="42"/>
+      <c r="D592" s="44"/>
       <c r="E592" s="20">
         <v>3</v>
       </c>
@@ -12620,7 +12855,7 @@
     </row>
     <row r="593" spans="1:12">
       <c r="B593" s="40"/>
-      <c r="D593" s="42"/>
+      <c r="D593" s="44"/>
       <c r="E593" s="20">
         <v>4</v>
       </c>
@@ -12648,7 +12883,7 @@
       <c r="C595" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D595" s="42" t="s">
+      <c r="D595" s="44" t="s">
         <v>568</v>
       </c>
       <c r="E595" s="20">
@@ -12662,7 +12897,7 @@
     </row>
     <row r="596" spans="1:12" ht="28.5" customHeight="1">
       <c r="B596" s="40"/>
-      <c r="D596" s="42"/>
+      <c r="D596" s="44"/>
       <c r="E596" s="20">
         <v>2</v>
       </c>
@@ -12677,7 +12912,7 @@
     </row>
     <row r="597" spans="1:12" ht="30">
       <c r="B597" s="40"/>
-      <c r="D597" s="42"/>
+      <c r="D597" s="44"/>
       <c r="E597" s="20">
         <v>3</v>
       </c>
@@ -12692,7 +12927,7 @@
     </row>
     <row r="598" spans="1:12">
       <c r="B598" s="40"/>
-      <c r="D598" s="42"/>
+      <c r="D598" s="44"/>
       <c r="E598" s="20">
         <v>4</v>
       </c>
@@ -12706,7 +12941,7 @@
       <c r="L598" s="2"/>
     </row>
     <row r="599" spans="1:12" ht="30.75" customHeight="1">
-      <c r="D599" s="42"/>
+      <c r="D599" s="44"/>
       <c r="E599" s="20">
         <v>5</v>
       </c>
@@ -13164,30 +13399,66 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="D595:D599"/>
-    <mergeCell ref="D574:D577"/>
-    <mergeCell ref="D579:D583"/>
-    <mergeCell ref="D585:D588"/>
-    <mergeCell ref="D590:D593"/>
-    <mergeCell ref="D407:D412"/>
-    <mergeCell ref="D381:D385"/>
-    <mergeCell ref="D387:D391"/>
-    <mergeCell ref="D393:D398"/>
-    <mergeCell ref="D400:D405"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D569:D572"/>
+    <mergeCell ref="D551:D553"/>
+    <mergeCell ref="D555:D557"/>
+    <mergeCell ref="D559:D562"/>
+    <mergeCell ref="D564:D567"/>
+    <mergeCell ref="D533:D535"/>
+    <mergeCell ref="D537:D540"/>
+    <mergeCell ref="D542:D544"/>
+    <mergeCell ref="D546:D549"/>
+    <mergeCell ref="D510:D513"/>
+    <mergeCell ref="D515:D517"/>
+    <mergeCell ref="D519:D522"/>
+    <mergeCell ref="D524:D527"/>
+    <mergeCell ref="D529:D531"/>
+    <mergeCell ref="D490:D493"/>
+    <mergeCell ref="D495:D498"/>
+    <mergeCell ref="D500:D503"/>
+    <mergeCell ref="D505:D508"/>
+    <mergeCell ref="D450:D453"/>
+    <mergeCell ref="D455:D459"/>
+    <mergeCell ref="D480:D483"/>
+    <mergeCell ref="D485:D488"/>
+    <mergeCell ref="D461:D463"/>
+    <mergeCell ref="D465:D468"/>
+    <mergeCell ref="D470:D473"/>
+    <mergeCell ref="D475:D478"/>
+    <mergeCell ref="D440:D443"/>
+    <mergeCell ref="D445:D448"/>
+    <mergeCell ref="D414:D417"/>
+    <mergeCell ref="D419:D420"/>
+    <mergeCell ref="D422:D423"/>
+    <mergeCell ref="D426:D429"/>
+    <mergeCell ref="D431:D433"/>
+    <mergeCell ref="D435:D438"/>
+    <mergeCell ref="D368:D373"/>
+    <mergeCell ref="D375:D379"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D355"/>
+    <mergeCell ref="D357:D360"/>
+    <mergeCell ref="D362:D366"/>
+    <mergeCell ref="D321:D327"/>
+    <mergeCell ref="D329:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="D297:D302"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D319"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="D280:D283"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="D209:D223"/>
+    <mergeCell ref="D225:D240"/>
+    <mergeCell ref="D242:D258"/>
+    <mergeCell ref="D260:D274"/>
+    <mergeCell ref="D197:D201"/>
+    <mergeCell ref="D203:D207"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="D177:D186"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="D192:D195"/>
     <mergeCell ref="D142:D146"/>
     <mergeCell ref="D157:D165"/>
     <mergeCell ref="D148:D155"/>
@@ -13204,66 +13475,30 @@
     <mergeCell ref="D92:D96"/>
     <mergeCell ref="D98:D102"/>
     <mergeCell ref="D46:D52"/>
-    <mergeCell ref="D197:D201"/>
-    <mergeCell ref="D203:D207"/>
-    <mergeCell ref="D167:D175"/>
-    <mergeCell ref="D177:D186"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="D280:D283"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="D209:D223"/>
-    <mergeCell ref="D225:D240"/>
-    <mergeCell ref="D242:D258"/>
-    <mergeCell ref="D260:D274"/>
-    <mergeCell ref="D321:D327"/>
-    <mergeCell ref="D329:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="D297:D302"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D319"/>
-    <mergeCell ref="D368:D373"/>
-    <mergeCell ref="D375:D379"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D355"/>
-    <mergeCell ref="D357:D360"/>
-    <mergeCell ref="D362:D366"/>
-    <mergeCell ref="D440:D443"/>
-    <mergeCell ref="D445:D448"/>
-    <mergeCell ref="D414:D417"/>
-    <mergeCell ref="D419:D420"/>
-    <mergeCell ref="D422:D423"/>
-    <mergeCell ref="D426:D429"/>
-    <mergeCell ref="D431:D433"/>
-    <mergeCell ref="D435:D438"/>
-    <mergeCell ref="D490:D493"/>
-    <mergeCell ref="D495:D498"/>
-    <mergeCell ref="D500:D503"/>
-    <mergeCell ref="D505:D508"/>
-    <mergeCell ref="D450:D453"/>
-    <mergeCell ref="D455:D459"/>
-    <mergeCell ref="D480:D483"/>
-    <mergeCell ref="D485:D488"/>
-    <mergeCell ref="D461:D463"/>
-    <mergeCell ref="D465:D468"/>
-    <mergeCell ref="D470:D473"/>
-    <mergeCell ref="D475:D478"/>
-    <mergeCell ref="D533:D535"/>
-    <mergeCell ref="D537:D540"/>
-    <mergeCell ref="D542:D544"/>
-    <mergeCell ref="D546:D549"/>
-    <mergeCell ref="D510:D513"/>
-    <mergeCell ref="D515:D517"/>
-    <mergeCell ref="D519:D522"/>
-    <mergeCell ref="D524:D527"/>
-    <mergeCell ref="D529:D531"/>
-    <mergeCell ref="D569:D572"/>
-    <mergeCell ref="D551:D553"/>
-    <mergeCell ref="D555:D557"/>
-    <mergeCell ref="D559:D562"/>
-    <mergeCell ref="D564:D567"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D407:D412"/>
+    <mergeCell ref="D381:D385"/>
+    <mergeCell ref="D387:D391"/>
+    <mergeCell ref="D393:D398"/>
+    <mergeCell ref="D400:D405"/>
+    <mergeCell ref="D595:D599"/>
+    <mergeCell ref="D574:D577"/>
+    <mergeCell ref="D579:D583"/>
+    <mergeCell ref="D585:D588"/>
+    <mergeCell ref="D590:D593"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K479">

--- a/Test Execution/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Execution/Rijo/Test Case - Nursing Station.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="601">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1899,6 +1899,66 @@
   </si>
   <si>
     <t>Save is not wokring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result is not displaying in lab result </t>
+  </si>
+  <si>
+    <t>Result is not displaying in Radiology</t>
+  </si>
+  <si>
+    <t>Patient Search is not working</t>
+  </si>
+  <si>
+    <t>Navigate to Nursing Station&gt;&gt;Discharge&gt;&gt;Discharge Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge Request form should be displayed </t>
+  </si>
+  <si>
+    <t>Select Discharge Date</t>
+  </si>
+  <si>
+    <t>User should be able to select the future date</t>
+  </si>
+  <si>
+    <t>Click on Send Discharge Request</t>
+  </si>
+  <si>
+    <t>Data saved message pop-up showing</t>
+  </si>
+  <si>
+    <t>User is not able to Save the data. Not able to Authenticate in Double Verification pop-up</t>
+  </si>
+  <si>
+    <t>Sama as expected</t>
+  </si>
+  <si>
+    <t>Search with the patient Id with selecting radio button All</t>
+  </si>
+  <si>
+    <t>Something Went wrong page should be displayed</t>
+  </si>
+  <si>
+    <t>Search with the patient Id &gt;&gt;Add medicine</t>
+  </si>
+  <si>
+    <t>Patient should be listed based on the search criteria.And should be able to add medicine</t>
+  </si>
+  <si>
+    <t>User is not able to add medicine.Drop down is cleared while selecting the medicine drop down</t>
+  </si>
+  <si>
+    <t>Stock Consumption page is not displaying</t>
+  </si>
+  <si>
+    <t>No data found issue in Item Alias and Item drop down</t>
+  </si>
+  <si>
+    <t>Insurance page is not navigate to back</t>
+  </si>
+  <si>
+    <t>While clicking save shows messages with respect to billtype</t>
   </si>
 </sst>
 </file>
@@ -2167,6 +2227,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2181,12 +2247,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2345,7 +2405,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2409,7 +2469,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2473,7 +2533,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2620,11 +2680,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="71141248"/>
-        <c:axId val="71142784"/>
+        <c:axId val="63539072"/>
+        <c:axId val="63540608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71141248"/>
+        <c:axId val="63539072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,14 +2692,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71142784"/>
+        <c:crossAx val="63540608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71142784"/>
+        <c:axId val="63540608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,7 +2708,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71141248"/>
+        <c:crossAx val="63539072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2661,7 +2721,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2687,7 +2747,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,15 +3200,15 @@
       </c>
       <c r="C2" s="18">
         <f>'Nursing Station'!P3</f>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D2" s="18">
         <f>'Nursing Station'!S2</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E2" s="18">
         <f>'Nursing Station'!S3</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F2" s="18">
         <f>'Nursing Station'!S4</f>
@@ -3198,15 +3258,15 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
@@ -3230,16 +3290,16 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3253,11 +3313,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S721"/>
+  <dimension ref="A1:S720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L420" sqref="L420"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L525" sqref="L525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3335,7 +3395,7 @@
       <c r="C2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="47" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="20">
@@ -3365,14 +3425,14 @@
       </c>
       <c r="S2" s="30">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="30">
       <c r="A3" s="36"/>
       <c r="B3" s="19"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="46"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -3395,21 +3455,21 @@
       </c>
       <c r="P3" s="17">
         <f>COUNTA(L:L)-1</f>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="30">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="30">
       <c r="A4" s="36"/>
       <c r="B4" s="19"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="20">
         <v>3</v>
       </c>
@@ -3442,7 +3502,7 @@
     <row r="5" spans="1:19" ht="45">
       <c r="A5" s="36"/>
       <c r="B5" s="19"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="20">
         <v>4</v>
       </c>
@@ -3475,7 +3535,7 @@
     <row r="6" spans="1:19" ht="30">
       <c r="A6" s="36"/>
       <c r="B6" s="19"/>
-      <c r="D6" s="46"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="20">
         <v>5</v>
       </c>
@@ -3503,7 +3563,7 @@
       <c r="C8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="20">
@@ -3520,7 +3580,7 @@
     </row>
     <row r="9" spans="1:19" ht="30">
       <c r="B9" s="19"/>
-      <c r="D9" s="44"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="20">
         <v>2</v>
       </c>
@@ -3538,7 +3598,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="19"/>
-      <c r="D10" s="44"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="20">
         <v>3</v>
       </c>
@@ -3559,7 +3619,7 @@
     </row>
     <row r="11" spans="1:19" ht="45">
       <c r="B11" s="19"/>
-      <c r="D11" s="44"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="20">
         <v>4</v>
       </c>
@@ -3597,7 +3657,7 @@
       <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="46" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="20">
@@ -3617,7 +3677,7 @@
     </row>
     <row r="14" spans="1:19" ht="30">
       <c r="B14" s="19"/>
-      <c r="D14" s="44"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="20">
         <v>2</v>
       </c>
@@ -3635,7 +3695,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="19"/>
-      <c r="D15" s="44"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="20">
         <v>3</v>
       </c>
@@ -3653,7 +3713,7 @@
     </row>
     <row r="16" spans="1:19" ht="30">
       <c r="B16" s="19"/>
-      <c r="D16" s="44"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="20">
         <v>3</v>
       </c>
@@ -3688,7 +3748,7 @@
       <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="46" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="20">
@@ -3708,7 +3768,7 @@
     </row>
     <row r="19" spans="1:12" ht="30">
       <c r="B19" s="19"/>
-      <c r="D19" s="44"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="20">
         <v>2</v>
       </c>
@@ -3726,7 +3786,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="19"/>
-      <c r="D20" s="44"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="20">
         <v>3</v>
       </c>
@@ -3744,7 +3804,7 @@
     </row>
     <row r="21" spans="1:12" ht="30">
       <c r="B21" s="19"/>
-      <c r="D21" s="44"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="20">
         <v>4</v>
       </c>
@@ -3779,7 +3839,7 @@
       <c r="C23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="46" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="20">
@@ -3796,7 +3856,7 @@
     </row>
     <row r="24" spans="1:12" ht="30">
       <c r="B24" s="19"/>
-      <c r="D24" s="44"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="20">
         <v>2</v>
       </c>
@@ -3814,7 +3874,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="19"/>
-      <c r="D25" s="44"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="20">
         <v>3</v>
       </c>
@@ -3832,7 +3892,7 @@
     </row>
     <row r="26" spans="1:12" ht="60">
       <c r="B26" s="19"/>
-      <c r="D26" s="44"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="20">
         <v>4</v>
       </c>
@@ -3870,7 +3930,7 @@
       <c r="C28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="46" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="20">
@@ -3887,7 +3947,7 @@
     </row>
     <row r="29" spans="1:12" ht="30">
       <c r="B29" s="19"/>
-      <c r="D29" s="44"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="20">
         <v>2</v>
       </c>
@@ -3905,7 +3965,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="19"/>
-      <c r="D30" s="44"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="20">
         <v>3</v>
       </c>
@@ -3923,7 +3983,7 @@
     </row>
     <row r="31" spans="1:12" ht="60">
       <c r="B31" s="19"/>
-      <c r="D31" s="44"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="20">
         <v>4</v>
       </c>
@@ -3961,7 +4021,7 @@
       <c r="C33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="46" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="20">
@@ -3978,7 +4038,7 @@
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="B34" s="19"/>
-      <c r="D34" s="44"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="20">
         <v>2</v>
       </c>
@@ -3996,7 +4056,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="19"/>
-      <c r="D35" s="44"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="20">
         <v>3</v>
       </c>
@@ -4014,7 +4074,7 @@
     </row>
     <row r="36" spans="1:12" ht="60">
       <c r="B36" s="19"/>
-      <c r="D36" s="44"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="20">
         <v>4</v>
       </c>
@@ -4035,7 +4095,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="B37" s="19"/>
-      <c r="D37" s="44"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="20">
         <v>5</v>
       </c>
@@ -4053,7 +4113,7 @@
     </row>
     <row r="38" spans="1:12" ht="30">
       <c r="B38" s="19"/>
-      <c r="D38" s="44"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="20">
         <v>6</v>
       </c>
@@ -4088,7 +4148,7 @@
       <c r="C40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="46" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="20">
@@ -4105,7 +4165,7 @@
     </row>
     <row r="41" spans="1:12" ht="30">
       <c r="B41" s="19"/>
-      <c r="D41" s="44"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="20">
         <v>2</v>
       </c>
@@ -4123,7 +4183,7 @@
     </row>
     <row r="42" spans="1:12" ht="30">
       <c r="B42" s="19"/>
-      <c r="D42" s="44"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="20">
         <v>3</v>
       </c>
@@ -4141,7 +4201,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="B43" s="19"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="20">
         <v>4</v>
       </c>
@@ -4159,7 +4219,7 @@
     </row>
     <row r="44" spans="1:12" ht="45">
       <c r="B44" s="19"/>
-      <c r="D44" s="44"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="20">
         <v>5</v>
       </c>
@@ -4197,7 +4257,7 @@
       <c r="C46" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="46" t="s">
         <v>88</v>
       </c>
       <c r="E46" s="20">
@@ -4214,7 +4274,7 @@
     </row>
     <row r="47" spans="1:12" ht="30">
       <c r="B47" s="19"/>
-      <c r="D47" s="44"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="20">
         <v>2</v>
       </c>
@@ -4232,7 +4292,7 @@
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="B48" s="19"/>
-      <c r="D48" s="44"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="20">
         <v>3</v>
       </c>
@@ -4250,7 +4310,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="B49" s="19"/>
-      <c r="D49" s="44"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="20">
         <v>4</v>
       </c>
@@ -4268,7 +4328,7 @@
     </row>
     <row r="50" spans="1:12" ht="45">
       <c r="B50" s="19"/>
-      <c r="D50" s="44"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="20">
         <v>5</v>
       </c>
@@ -4289,7 +4349,7 @@
     </row>
     <row r="51" spans="1:12" ht="30">
       <c r="B51" s="19"/>
-      <c r="D51" s="44"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="20">
         <v>6</v>
       </c>
@@ -4307,7 +4367,7 @@
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="B52" s="19"/>
-      <c r="D52" s="44"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="20">
         <v>7</v>
       </c>
@@ -4342,7 +4402,7 @@
       <c r="C54" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="46" t="s">
         <v>94</v>
       </c>
       <c r="E54" s="20">
@@ -4359,7 +4419,7 @@
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="B55" s="19"/>
-      <c r="D55" s="44"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="20">
         <v>2</v>
       </c>
@@ -4377,7 +4437,7 @@
     </row>
     <row r="56" spans="1:12" ht="45">
       <c r="B56" s="19"/>
-      <c r="D56" s="44"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="20">
         <v>3</v>
       </c>
@@ -4398,7 +4458,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="B57" s="19"/>
-      <c r="D57" s="44"/>
+      <c r="D57" s="46"/>
       <c r="E57" s="20">
         <v>4</v>
       </c>
@@ -4433,7 +4493,7 @@
       <c r="C59" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E59" s="20">
@@ -4450,7 +4510,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="B60" s="19"/>
-      <c r="D60" s="44"/>
+      <c r="D60" s="46"/>
       <c r="E60" s="20">
         <v>2</v>
       </c>
@@ -4468,7 +4528,7 @@
     </row>
     <row r="61" spans="1:12" ht="120">
       <c r="B61" s="19"/>
-      <c r="D61" s="44"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="20">
         <v>3</v>
       </c>
@@ -4506,7 +4566,7 @@
       <c r="C63" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="46" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="20">
@@ -4523,7 +4583,7 @@
     </row>
     <row r="64" spans="1:12" ht="30">
       <c r="B64" s="19"/>
-      <c r="D64" s="44"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="20">
         <v>2</v>
       </c>
@@ -4541,7 +4601,7 @@
     </row>
     <row r="65" spans="1:12" ht="120">
       <c r="B65" s="19"/>
-      <c r="D65" s="44"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="20">
         <v>3</v>
       </c>
@@ -4579,7 +4639,7 @@
       <c r="C67" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="46" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="20">
@@ -4596,7 +4656,7 @@
     </row>
     <row r="68" spans="1:12" ht="30">
       <c r="B68" s="19"/>
-      <c r="D68" s="44"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="20">
         <v>2</v>
       </c>
@@ -4614,7 +4674,7 @@
     </row>
     <row r="69" spans="1:12" ht="30">
       <c r="B69" s="19"/>
-      <c r="D69" s="44"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="20">
         <v>3</v>
       </c>
@@ -4632,7 +4692,7 @@
     </row>
     <row r="70" spans="1:12" ht="30">
       <c r="B70" s="19"/>
-      <c r="D70" s="44"/>
+      <c r="D70" s="46"/>
       <c r="E70" s="20">
         <v>4</v>
       </c>
@@ -4667,7 +4727,7 @@
       <c r="C72" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="46" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="20">
@@ -4684,7 +4744,7 @@
     </row>
     <row r="73" spans="1:12" ht="30">
       <c r="B73" s="19"/>
-      <c r="D73" s="44"/>
+      <c r="D73" s="46"/>
       <c r="E73" s="20">
         <v>2</v>
       </c>
@@ -4702,7 +4762,7 @@
     </row>
     <row r="74" spans="1:12" ht="30">
       <c r="B74" s="19"/>
-      <c r="D74" s="44"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="20">
         <v>3</v>
       </c>
@@ -4720,7 +4780,7 @@
     </row>
     <row r="75" spans="1:12" ht="45">
       <c r="B75" s="19"/>
-      <c r="D75" s="44"/>
+      <c r="D75" s="46"/>
       <c r="E75" s="20">
         <v>4</v>
       </c>
@@ -4746,7 +4806,7 @@
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="45" customHeight="1">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="44" t="s">
         <v>122</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -4755,7 +4815,7 @@
       <c r="C77" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="46" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="20">
@@ -4772,7 +4832,7 @@
     </row>
     <row r="78" spans="1:12" ht="30">
       <c r="B78" s="19"/>
-      <c r="D78" s="44"/>
+      <c r="D78" s="46"/>
       <c r="E78" s="20">
         <v>2</v>
       </c>
@@ -4790,7 +4850,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="B79" s="19"/>
-      <c r="D79" s="44"/>
+      <c r="D79" s="46"/>
       <c r="E79" s="20">
         <v>3</v>
       </c>
@@ -4808,7 +4868,7 @@
     </row>
     <row r="80" spans="1:12" ht="45">
       <c r="B80" s="19"/>
-      <c r="D80" s="44"/>
+      <c r="D80" s="46"/>
       <c r="E80" s="20">
         <v>4</v>
       </c>
@@ -4846,7 +4906,7 @@
       <c r="C82" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D82" s="49" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="20">
@@ -4863,7 +4923,7 @@
     </row>
     <row r="83" spans="1:12" ht="30">
       <c r="B83" s="19"/>
-      <c r="D83" s="47"/>
+      <c r="D83" s="49"/>
       <c r="E83" s="20">
         <v>2</v>
       </c>
@@ -4881,7 +4941,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="B84" s="19"/>
-      <c r="D84" s="47"/>
+      <c r="D84" s="49"/>
       <c r="E84" s="20">
         <v>3</v>
       </c>
@@ -4899,7 +4959,7 @@
     </row>
     <row r="85" spans="1:12" ht="45">
       <c r="B85" s="19"/>
-      <c r="D85" s="47"/>
+      <c r="D85" s="49"/>
       <c r="E85" s="20">
         <v>4</v>
       </c>
@@ -4928,7 +4988,7 @@
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="45" customHeight="1">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="44" t="s">
         <v>132</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -4937,7 +4997,7 @@
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="46" t="s">
         <v>133</v>
       </c>
       <c r="E87" s="20">
@@ -4954,7 +5014,7 @@
     </row>
     <row r="88" spans="1:12" ht="30">
       <c r="B88" s="19"/>
-      <c r="D88" s="44"/>
+      <c r="D88" s="46"/>
       <c r="E88" s="20">
         <v>2</v>
       </c>
@@ -4972,7 +5032,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="19"/>
-      <c r="D89" s="44"/>
+      <c r="D89" s="46"/>
       <c r="E89" s="20">
         <v>3</v>
       </c>
@@ -4990,7 +5050,7 @@
     </row>
     <row r="90" spans="1:12" ht="45">
       <c r="B90" s="19"/>
-      <c r="D90" s="44"/>
+      <c r="D90" s="46"/>
       <c r="E90" s="20">
         <v>4</v>
       </c>
@@ -5028,7 +5088,7 @@
       <c r="C92" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="44" t="s">
+      <c r="D92" s="46" t="s">
         <v>139</v>
       </c>
       <c r="E92" s="20">
@@ -5045,7 +5105,7 @@
     </row>
     <row r="93" spans="1:12" ht="30">
       <c r="B93" s="19"/>
-      <c r="D93" s="44"/>
+      <c r="D93" s="46"/>
       <c r="E93" s="20">
         <v>2</v>
       </c>
@@ -5063,7 +5123,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="B94" s="19"/>
-      <c r="D94" s="44"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="20">
         <v>3</v>
       </c>
@@ -5081,7 +5141,7 @@
     </row>
     <row r="95" spans="1:12" ht="45">
       <c r="B95" s="19"/>
-      <c r="D95" s="44"/>
+      <c r="D95" s="46"/>
       <c r="E95" s="20">
         <v>4</v>
       </c>
@@ -5102,7 +5162,7 @@
     </row>
     <row r="96" spans="1:12" ht="30">
       <c r="B96" s="19"/>
-      <c r="D96" s="44"/>
+      <c r="D96" s="46"/>
       <c r="E96" s="20">
         <v>5</v>
       </c>
@@ -5128,7 +5188,7 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" ht="45" customHeight="1">
-      <c r="A98" s="49" t="s">
+      <c r="A98" s="44" t="s">
         <v>142</v>
       </c>
       <c r="B98" s="19" t="s">
@@ -5137,7 +5197,7 @@
       <c r="C98" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="44" t="s">
+      <c r="D98" s="46" t="s">
         <v>139</v>
       </c>
       <c r="E98" s="20">
@@ -5154,7 +5214,7 @@
     </row>
     <row r="99" spans="1:12" ht="30">
       <c r="B99" s="19"/>
-      <c r="D99" s="44"/>
+      <c r="D99" s="46"/>
       <c r="E99" s="20">
         <v>2</v>
       </c>
@@ -5172,7 +5232,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="B100" s="19"/>
-      <c r="D100" s="44"/>
+      <c r="D100" s="46"/>
       <c r="E100" s="20">
         <v>3</v>
       </c>
@@ -5190,7 +5250,7 @@
     </row>
     <row r="101" spans="1:12" ht="45">
       <c r="B101" s="19"/>
-      <c r="D101" s="44"/>
+      <c r="D101" s="46"/>
       <c r="E101" s="20">
         <v>4</v>
       </c>
@@ -5211,7 +5271,7 @@
     </row>
     <row r="102" spans="1:12" ht="30">
       <c r="B102" s="19"/>
-      <c r="D102" s="44"/>
+      <c r="D102" s="46"/>
       <c r="E102" s="20">
         <v>5</v>
       </c>
@@ -5237,7 +5297,7 @@
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="75" customHeight="1">
-      <c r="A104" s="49" t="s">
+      <c r="A104" s="44" t="s">
         <v>149</v>
       </c>
       <c r="B104" s="19" t="s">
@@ -5246,7 +5306,7 @@
       <c r="C104" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="D104" s="46" t="s">
         <v>146</v>
       </c>
       <c r="E104" s="20">
@@ -5263,7 +5323,7 @@
     </row>
     <row r="105" spans="1:12" ht="30">
       <c r="B105" s="19"/>
-      <c r="D105" s="44"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="20">
         <v>2</v>
       </c>
@@ -5281,7 +5341,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="B106" s="19"/>
-      <c r="D106" s="44"/>
+      <c r="D106" s="46"/>
       <c r="E106" s="20">
         <v>3</v>
       </c>
@@ -5299,7 +5359,7 @@
     </row>
     <row r="107" spans="1:12" ht="45">
       <c r="B107" s="19"/>
-      <c r="D107" s="44"/>
+      <c r="D107" s="46"/>
       <c r="E107" s="20">
         <v>4</v>
       </c>
@@ -5324,7 +5384,7 @@
     </row>
     <row r="108" spans="1:12" ht="43.5" customHeight="1">
       <c r="B108" s="19"/>
-      <c r="D108" s="44"/>
+      <c r="D108" s="46"/>
       <c r="E108" s="20">
         <v>5</v>
       </c>
@@ -5352,7 +5412,7 @@
       <c r="C110" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="44" t="s">
+      <c r="D110" s="46" t="s">
         <v>150</v>
       </c>
       <c r="E110" s="20">
@@ -5369,7 +5429,7 @@
     </row>
     <row r="111" spans="1:12" ht="51.75" customHeight="1">
       <c r="B111" s="19"/>
-      <c r="D111" s="44"/>
+      <c r="D111" s="46"/>
       <c r="E111" s="20">
         <v>2</v>
       </c>
@@ -5387,7 +5447,7 @@
     </row>
     <row r="112" spans="1:12" ht="75">
       <c r="B112" s="19"/>
-      <c r="D112" s="44"/>
+      <c r="D112" s="46"/>
       <c r="E112" s="20">
         <v>3</v>
       </c>
@@ -5413,7 +5473,7 @@
       <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" ht="45" customHeight="1">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="43" t="s">
         <v>161</v>
       </c>
       <c r="B114" s="19" t="s">
@@ -5422,7 +5482,7 @@
       <c r="C114" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="44" t="s">
+      <c r="D114" s="46" t="s">
         <v>163</v>
       </c>
       <c r="E114" s="20">
@@ -5439,7 +5499,7 @@
     </row>
     <row r="115" spans="1:12" ht="30">
       <c r="B115" s="19"/>
-      <c r="D115" s="44"/>
+      <c r="D115" s="46"/>
       <c r="E115" s="20">
         <v>2</v>
       </c>
@@ -5454,7 +5514,7 @@
     </row>
     <row r="116" spans="1:12" ht="225">
       <c r="B116" s="19"/>
-      <c r="D116" s="44"/>
+      <c r="D116" s="46"/>
       <c r="E116" s="20">
         <v>3</v>
       </c>
@@ -5476,7 +5536,7 @@
       <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="30" customHeight="1">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="43" t="s">
         <v>166</v>
       </c>
       <c r="B118" s="19" t="s">
@@ -5485,7 +5545,7 @@
       <c r="C118" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="44" t="s">
+      <c r="D118" s="46" t="s">
         <v>162</v>
       </c>
       <c r="E118" s="20">
@@ -5502,7 +5562,7 @@
     </row>
     <row r="119" spans="1:12" ht="30">
       <c r="B119" s="19"/>
-      <c r="D119" s="44"/>
+      <c r="D119" s="46"/>
       <c r="E119" s="20">
         <v>2</v>
       </c>
@@ -5517,7 +5577,7 @@
     </row>
     <row r="120" spans="1:12" ht="225">
       <c r="B120" s="19"/>
-      <c r="D120" s="44"/>
+      <c r="D120" s="46"/>
       <c r="E120" s="20">
         <v>3</v>
       </c>
@@ -5532,7 +5592,7 @@
     </row>
     <row r="121" spans="1:12" ht="30">
       <c r="B121" s="19"/>
-      <c r="D121" s="44"/>
+      <c r="D121" s="46"/>
       <c r="E121" s="20">
         <v>4</v>
       </c>
@@ -5551,7 +5611,7 @@
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" ht="30" customHeight="1">
-      <c r="A123" s="48" t="s">
+      <c r="A123" s="43" t="s">
         <v>170</v>
       </c>
       <c r="B123" s="19" t="s">
@@ -5560,7 +5620,7 @@
       <c r="C123" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D123" s="44" t="s">
+      <c r="D123" s="46" t="s">
         <v>167</v>
       </c>
       <c r="E123" s="20">
@@ -5577,7 +5637,7 @@
     </row>
     <row r="124" spans="1:12" ht="30">
       <c r="B124" s="19"/>
-      <c r="D124" s="44"/>
+      <c r="D124" s="46"/>
       <c r="E124" s="20">
         <v>2</v>
       </c>
@@ -5592,7 +5652,7 @@
     </row>
     <row r="125" spans="1:12" ht="225">
       <c r="B125" s="19"/>
-      <c r="D125" s="44"/>
+      <c r="D125" s="46"/>
       <c r="E125" s="20">
         <v>3</v>
       </c>
@@ -5610,7 +5670,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="B126" s="19"/>
-      <c r="D126" s="44"/>
+      <c r="D126" s="46"/>
       <c r="E126" s="20">
         <v>4</v>
       </c>
@@ -5629,7 +5689,7 @@
       <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" ht="45" customHeight="1">
-      <c r="A128" s="48" t="s">
+      <c r="A128" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B128" s="19" t="s">
@@ -5638,7 +5698,7 @@
       <c r="C128" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="44" t="s">
+      <c r="D128" s="46" t="s">
         <v>171</v>
       </c>
       <c r="E128" s="20">
@@ -5655,7 +5715,7 @@
     </row>
     <row r="129" spans="1:12" ht="30">
       <c r="B129" s="19"/>
-      <c r="D129" s="44"/>
+      <c r="D129" s="46"/>
       <c r="E129" s="20">
         <v>2</v>
       </c>
@@ -5670,7 +5730,7 @@
     </row>
     <row r="130" spans="1:12" ht="165">
       <c r="B130" s="19"/>
-      <c r="D130" s="44"/>
+      <c r="D130" s="46"/>
       <c r="E130" s="20">
         <v>3</v>
       </c>
@@ -5689,7 +5749,7 @@
       <c r="L131" s="2"/>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1">
-      <c r="A132" s="48" t="s">
+      <c r="A132" s="43" t="s">
         <v>181</v>
       </c>
       <c r="B132" s="19" t="s">
@@ -5698,7 +5758,7 @@
       <c r="C132" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D132" s="44" t="s">
+      <c r="D132" s="46" t="s">
         <v>177</v>
       </c>
       <c r="E132" s="20">
@@ -5715,7 +5775,7 @@
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="B133" s="19"/>
-      <c r="D133" s="44"/>
+      <c r="D133" s="46"/>
       <c r="E133" s="20">
         <v>2</v>
       </c>
@@ -5730,7 +5790,7 @@
     </row>
     <row r="134" spans="1:12" ht="165">
       <c r="B134" s="19"/>
-      <c r="D134" s="44"/>
+      <c r="D134" s="46"/>
       <c r="E134" s="20">
         <v>3</v>
       </c>
@@ -5745,7 +5805,7 @@
     </row>
     <row r="135" spans="1:12" ht="30">
       <c r="B135" s="19"/>
-      <c r="D135" s="44"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="20">
         <v>4</v>
       </c>
@@ -5764,7 +5824,7 @@
       <c r="L136" s="2"/>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1">
-      <c r="A137" s="48" t="s">
+      <c r="A137" s="43" t="s">
         <v>182</v>
       </c>
       <c r="B137" s="19" t="s">
@@ -5773,7 +5833,7 @@
       <c r="C137" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D137" s="44" t="s">
+      <c r="D137" s="46" t="s">
         <v>180</v>
       </c>
       <c r="E137" s="20">
@@ -5790,7 +5850,7 @@
     </row>
     <row r="138" spans="1:12" ht="30">
       <c r="B138" s="19"/>
-      <c r="D138" s="44"/>
+      <c r="D138" s="46"/>
       <c r="E138" s="20">
         <v>2</v>
       </c>
@@ -5805,7 +5865,7 @@
     </row>
     <row r="139" spans="1:12" ht="165">
       <c r="B139" s="19"/>
-      <c r="D139" s="44"/>
+      <c r="D139" s="46"/>
       <c r="E139" s="20">
         <v>3</v>
       </c>
@@ -5820,7 +5880,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="B140" s="19"/>
-      <c r="D140" s="44"/>
+      <c r="D140" s="46"/>
       <c r="E140" s="20">
         <v>4</v>
       </c>
@@ -5839,7 +5899,7 @@
       <c r="L141" s="2"/>
     </row>
     <row r="142" spans="1:12" ht="30" customHeight="1">
-      <c r="A142" s="48" t="s">
+      <c r="A142" s="43" t="s">
         <v>186</v>
       </c>
       <c r="B142" s="19" t="s">
@@ -5848,7 +5908,7 @@
       <c r="C142" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="44" t="s">
+      <c r="D142" s="46" t="s">
         <v>183</v>
       </c>
       <c r="E142" s="20">
@@ -5865,7 +5925,7 @@
     </row>
     <row r="143" spans="1:12" ht="30">
       <c r="B143" s="19"/>
-      <c r="D143" s="44"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="20">
         <v>2</v>
       </c>
@@ -5880,7 +5940,7 @@
     </row>
     <row r="144" spans="1:12" ht="165">
       <c r="B144" s="19"/>
-      <c r="D144" s="44"/>
+      <c r="D144" s="46"/>
       <c r="E144" s="20">
         <v>3</v>
       </c>
@@ -5895,7 +5955,7 @@
     </row>
     <row r="145" spans="1:12" ht="30">
       <c r="B145" s="19"/>
-      <c r="D145" s="44"/>
+      <c r="D145" s="46"/>
       <c r="E145" s="20">
         <v>4</v>
       </c>
@@ -5910,7 +5970,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="B146" s="19"/>
-      <c r="D146" s="44"/>
+      <c r="D146" s="46"/>
       <c r="E146" s="20">
         <v>5</v>
       </c>
@@ -5929,7 +5989,7 @@
       <c r="L147" s="2"/>
     </row>
     <row r="148" spans="1:12" ht="45" customHeight="1">
-      <c r="A148" s="48" t="s">
+      <c r="A148" s="43" t="s">
         <v>199</v>
       </c>
       <c r="B148" s="19" t="s">
@@ -5938,7 +5998,7 @@
       <c r="C148" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="44" t="s">
+      <c r="D148" s="46" t="s">
         <v>189</v>
       </c>
       <c r="E148" s="20">
@@ -5955,7 +6015,7 @@
     </row>
     <row r="149" spans="1:12" ht="45" customHeight="1">
       <c r="B149" s="19"/>
-      <c r="D149" s="44"/>
+      <c r="D149" s="46"/>
       <c r="E149" s="20">
         <v>2</v>
       </c>
@@ -5970,7 +6030,7 @@
     </row>
     <row r="150" spans="1:12" ht="30">
       <c r="B150" s="19"/>
-      <c r="D150" s="44"/>
+      <c r="D150" s="46"/>
       <c r="E150" s="20">
         <v>3</v>
       </c>
@@ -5985,7 +6045,7 @@
     </row>
     <row r="151" spans="1:12" ht="30">
       <c r="B151" s="19"/>
-      <c r="D151" s="44"/>
+      <c r="D151" s="46"/>
       <c r="E151" s="20">
         <v>4</v>
       </c>
@@ -6000,7 +6060,7 @@
     </row>
     <row r="152" spans="1:12" ht="30">
       <c r="B152" s="19"/>
-      <c r="D152" s="44"/>
+      <c r="D152" s="46"/>
       <c r="E152" s="20">
         <v>5</v>
       </c>
@@ -6015,7 +6075,7 @@
     </row>
     <row r="153" spans="1:12" ht="30">
       <c r="B153" s="19"/>
-      <c r="D153" s="44"/>
+      <c r="D153" s="46"/>
       <c r="E153" s="20">
         <v>6</v>
       </c>
@@ -6030,7 +6090,7 @@
     </row>
     <row r="154" spans="1:12" ht="30">
       <c r="B154" s="19"/>
-      <c r="D154" s="44"/>
+      <c r="D154" s="46"/>
       <c r="E154" s="20">
         <v>7</v>
       </c>
@@ -6045,7 +6105,7 @@
     </row>
     <row r="155" spans="1:12" ht="30">
       <c r="B155" s="19"/>
-      <c r="D155" s="44"/>
+      <c r="D155" s="46"/>
       <c r="E155" s="20">
         <v>8</v>
       </c>
@@ -6064,7 +6124,7 @@
       <c r="L156" s="2"/>
     </row>
     <row r="157" spans="1:12" ht="45" customHeight="1">
-      <c r="A157" s="48" t="s">
+      <c r="A157" s="43" t="s">
         <v>205</v>
       </c>
       <c r="B157" s="19" t="s">
@@ -6073,7 +6133,7 @@
       <c r="C157" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D157" s="44" t="s">
+      <c r="D157" s="46" t="s">
         <v>200</v>
       </c>
       <c r="E157" s="20">
@@ -6090,7 +6150,7 @@
     </row>
     <row r="158" spans="1:12" ht="30">
       <c r="B158" s="19"/>
-      <c r="D158" s="44"/>
+      <c r="D158" s="46"/>
       <c r="E158" s="20">
         <v>2</v>
       </c>
@@ -6105,7 +6165,7 @@
     </row>
     <row r="159" spans="1:12" ht="30">
       <c r="B159" s="19"/>
-      <c r="D159" s="44"/>
+      <c r="D159" s="46"/>
       <c r="E159" s="20">
         <v>3</v>
       </c>
@@ -6120,7 +6180,7 @@
     </row>
     <row r="160" spans="1:12" ht="30">
       <c r="B160" s="19"/>
-      <c r="D160" s="44"/>
+      <c r="D160" s="46"/>
       <c r="E160" s="20">
         <v>4</v>
       </c>
@@ -6135,7 +6195,7 @@
     </row>
     <row r="161" spans="1:12" ht="30">
       <c r="B161" s="19"/>
-      <c r="D161" s="44"/>
+      <c r="D161" s="46"/>
       <c r="E161" s="20">
         <v>5</v>
       </c>
@@ -6150,7 +6210,7 @@
     </row>
     <row r="162" spans="1:12" ht="30">
       <c r="B162" s="19"/>
-      <c r="D162" s="44"/>
+      <c r="D162" s="46"/>
       <c r="E162" s="20">
         <v>6</v>
       </c>
@@ -6165,7 +6225,7 @@
     </row>
     <row r="163" spans="1:12" ht="30">
       <c r="B163" s="19"/>
-      <c r="D163" s="44"/>
+      <c r="D163" s="46"/>
       <c r="E163" s="20">
         <v>7</v>
       </c>
@@ -6180,7 +6240,7 @@
     </row>
     <row r="164" spans="1:12" ht="30">
       <c r="B164" s="19"/>
-      <c r="D164" s="44"/>
+      <c r="D164" s="46"/>
       <c r="E164" s="20">
         <v>8</v>
       </c>
@@ -6195,7 +6255,7 @@
     </row>
     <row r="165" spans="1:12" ht="30">
       <c r="B165" s="19"/>
-      <c r="D165" s="44"/>
+      <c r="D165" s="46"/>
       <c r="E165" s="20">
         <v>9</v>
       </c>
@@ -6214,7 +6274,7 @@
       <c r="L166" s="2"/>
     </row>
     <row r="167" spans="1:12" ht="45" customHeight="1">
-      <c r="A167" s="48" t="s">
+      <c r="A167" s="43" t="s">
         <v>207</v>
       </c>
       <c r="B167" s="19" t="s">
@@ -6223,7 +6283,7 @@
       <c r="C167" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D167" s="44" t="s">
+      <c r="D167" s="46" t="s">
         <v>206</v>
       </c>
       <c r="E167" s="20">
@@ -6240,7 +6300,7 @@
     </row>
     <row r="168" spans="1:12" ht="30">
       <c r="B168" s="19"/>
-      <c r="D168" s="44"/>
+      <c r="D168" s="46"/>
       <c r="E168" s="20">
         <v>2</v>
       </c>
@@ -6255,7 +6315,7 @@
     </row>
     <row r="169" spans="1:12" ht="30">
       <c r="B169" s="19"/>
-      <c r="D169" s="44"/>
+      <c r="D169" s="46"/>
       <c r="E169" s="20">
         <v>3</v>
       </c>
@@ -6270,7 +6330,7 @@
     </row>
     <row r="170" spans="1:12" ht="30">
       <c r="B170" s="19"/>
-      <c r="D170" s="44"/>
+      <c r="D170" s="46"/>
       <c r="E170" s="20">
         <v>4</v>
       </c>
@@ -6285,7 +6345,7 @@
     </row>
     <row r="171" spans="1:12" ht="30">
       <c r="B171" s="19"/>
-      <c r="D171" s="44"/>
+      <c r="D171" s="46"/>
       <c r="E171" s="20">
         <v>5</v>
       </c>
@@ -6300,7 +6360,7 @@
     </row>
     <row r="172" spans="1:12" ht="30">
       <c r="B172" s="19"/>
-      <c r="D172" s="44"/>
+      <c r="D172" s="46"/>
       <c r="E172" s="20">
         <v>6</v>
       </c>
@@ -6315,7 +6375,7 @@
     </row>
     <row r="173" spans="1:12" ht="30">
       <c r="B173" s="19"/>
-      <c r="D173" s="44"/>
+      <c r="D173" s="46"/>
       <c r="E173" s="20">
         <v>7</v>
       </c>
@@ -6330,7 +6390,7 @@
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="B174" s="19"/>
-      <c r="D174" s="44"/>
+      <c r="D174" s="46"/>
       <c r="E174" s="20">
         <v>8</v>
       </c>
@@ -6345,7 +6405,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="B175" s="19"/>
-      <c r="D175" s="44"/>
+      <c r="D175" s="46"/>
       <c r="E175" s="20">
         <v>9</v>
       </c>
@@ -6364,7 +6424,7 @@
       <c r="L176" s="2"/>
     </row>
     <row r="177" spans="1:12" ht="30" customHeight="1">
-      <c r="A177" s="48" t="s">
+      <c r="A177" s="43" t="s">
         <v>209</v>
       </c>
       <c r="B177" s="19" t="s">
@@ -6373,7 +6433,7 @@
       <c r="C177" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D177" s="44" t="s">
+      <c r="D177" s="46" t="s">
         <v>208</v>
       </c>
       <c r="E177" s="20">
@@ -6390,7 +6450,7 @@
     </row>
     <row r="178" spans="1:12" ht="30">
       <c r="B178" s="19"/>
-      <c r="D178" s="44"/>
+      <c r="D178" s="46"/>
       <c r="E178" s="20">
         <v>2</v>
       </c>
@@ -6405,7 +6465,7 @@
     </row>
     <row r="179" spans="1:12" ht="30">
       <c r="B179" s="19"/>
-      <c r="D179" s="44"/>
+      <c r="D179" s="46"/>
       <c r="E179" s="20">
         <v>3</v>
       </c>
@@ -6420,7 +6480,7 @@
     </row>
     <row r="180" spans="1:12" ht="30">
       <c r="B180" s="19"/>
-      <c r="D180" s="44"/>
+      <c r="D180" s="46"/>
       <c r="E180" s="20">
         <v>4</v>
       </c>
@@ -6435,7 +6495,7 @@
     </row>
     <row r="181" spans="1:12" ht="30">
       <c r="B181" s="19"/>
-      <c r="D181" s="44"/>
+      <c r="D181" s="46"/>
       <c r="E181" s="20">
         <v>5</v>
       </c>
@@ -6450,7 +6510,7 @@
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="B182" s="19"/>
-      <c r="D182" s="44"/>
+      <c r="D182" s="46"/>
       <c r="E182" s="20">
         <v>6</v>
       </c>
@@ -6465,7 +6525,7 @@
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="B183" s="19"/>
-      <c r="D183" s="44"/>
+      <c r="D183" s="46"/>
       <c r="E183" s="20">
         <v>7</v>
       </c>
@@ -6480,7 +6540,7 @@
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="B184" s="19"/>
-      <c r="D184" s="44"/>
+      <c r="D184" s="46"/>
       <c r="E184" s="20">
         <v>8</v>
       </c>
@@ -6495,7 +6555,7 @@
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="B185" s="19"/>
-      <c r="D185" s="44"/>
+      <c r="D185" s="46"/>
       <c r="E185" s="20">
         <v>9</v>
       </c>
@@ -6510,7 +6570,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="B186" s="19"/>
-      <c r="D186" s="44"/>
+      <c r="D186" s="46"/>
       <c r="E186" s="20">
         <v>10</v>
       </c>
@@ -6529,7 +6589,7 @@
       <c r="L187" s="2"/>
     </row>
     <row r="188" spans="1:12" ht="45" customHeight="1">
-      <c r="A188" s="48" t="s">
+      <c r="A188" s="43" t="s">
         <v>217</v>
       </c>
       <c r="B188" s="19" t="s">
@@ -6538,7 +6598,7 @@
       <c r="C188" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D188" s="44" t="s">
+      <c r="D188" s="46" t="s">
         <v>210</v>
       </c>
       <c r="E188" s="20">
@@ -6555,7 +6615,7 @@
     </row>
     <row r="189" spans="1:12" ht="30">
       <c r="B189" s="19"/>
-      <c r="D189" s="44"/>
+      <c r="D189" s="46"/>
       <c r="E189" s="20">
         <v>2</v>
       </c>
@@ -6570,7 +6630,7 @@
     </row>
     <row r="190" spans="1:12" ht="140.25" customHeight="1">
       <c r="B190" s="19"/>
-      <c r="D190" s="44"/>
+      <c r="D190" s="46"/>
       <c r="E190" s="20">
         <v>3</v>
       </c>
@@ -6589,7 +6649,7 @@
       <c r="L191" s="2"/>
     </row>
     <row r="192" spans="1:12" ht="30" customHeight="1">
-      <c r="A192" s="48" t="s">
+      <c r="A192" s="43" t="s">
         <v>218</v>
       </c>
       <c r="B192" s="19" t="s">
@@ -6598,7 +6658,7 @@
       <c r="C192" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D192" s="44" t="s">
+      <c r="D192" s="46" t="s">
         <v>214</v>
       </c>
       <c r="E192" s="20">
@@ -6615,7 +6675,7 @@
     </row>
     <row r="193" spans="1:12" ht="30">
       <c r="B193" s="19"/>
-      <c r="D193" s="44"/>
+      <c r="D193" s="46"/>
       <c r="E193" s="20">
         <v>2</v>
       </c>
@@ -6630,7 +6690,7 @@
     </row>
     <row r="194" spans="1:12" ht="135.75" customHeight="1">
       <c r="B194" s="19"/>
-      <c r="D194" s="44"/>
+      <c r="D194" s="46"/>
       <c r="E194" s="20">
         <v>3</v>
       </c>
@@ -6645,7 +6705,7 @@
     </row>
     <row r="195" spans="1:12" ht="30">
       <c r="B195" s="19"/>
-      <c r="D195" s="44"/>
+      <c r="D195" s="46"/>
       <c r="E195" s="20">
         <v>4</v>
       </c>
@@ -6664,7 +6724,7 @@
       <c r="L196" s="2"/>
     </row>
     <row r="197" spans="1:12" ht="30" customHeight="1">
-      <c r="A197" s="48" t="s">
+      <c r="A197" s="43" t="s">
         <v>222</v>
       </c>
       <c r="B197" s="19" t="s">
@@ -6673,7 +6733,7 @@
       <c r="C197" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D197" s="44" t="s">
+      <c r="D197" s="46" t="s">
         <v>219</v>
       </c>
       <c r="E197" s="20">
@@ -6690,7 +6750,7 @@
     </row>
     <row r="198" spans="1:12" ht="30">
       <c r="B198" s="19"/>
-      <c r="D198" s="44"/>
+      <c r="D198" s="46"/>
       <c r="E198" s="20">
         <v>2</v>
       </c>
@@ -6705,7 +6765,7 @@
     </row>
     <row r="199" spans="1:12" ht="135.75" customHeight="1">
       <c r="B199" s="19"/>
-      <c r="D199" s="44"/>
+      <c r="D199" s="46"/>
       <c r="E199" s="20">
         <v>3</v>
       </c>
@@ -6720,7 +6780,7 @@
     </row>
     <row r="200" spans="1:12" ht="30">
       <c r="B200" s="19"/>
-      <c r="D200" s="44"/>
+      <c r="D200" s="46"/>
       <c r="E200" s="20">
         <v>4</v>
       </c>
@@ -6735,7 +6795,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="B201" s="19"/>
-      <c r="D201" s="44"/>
+      <c r="D201" s="46"/>
       <c r="E201" s="20">
         <v>5</v>
       </c>
@@ -6754,7 +6814,7 @@
       <c r="L202" s="2"/>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="48" t="s">
+      <c r="A203" s="43" t="s">
         <v>259</v>
       </c>
       <c r="B203" s="19" t="s">
@@ -6763,7 +6823,7 @@
       <c r="C203" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="44" t="s">
+      <c r="D203" s="46" t="s">
         <v>220</v>
       </c>
       <c r="E203" s="20">
@@ -6780,7 +6840,7 @@
     </row>
     <row r="204" spans="1:12" ht="30">
       <c r="B204" s="19"/>
-      <c r="D204" s="44"/>
+      <c r="D204" s="46"/>
       <c r="E204" s="20">
         <v>2</v>
       </c>
@@ -6795,7 +6855,7 @@
     </row>
     <row r="205" spans="1:12" ht="141" customHeight="1">
       <c r="B205" s="19"/>
-      <c r="D205" s="44"/>
+      <c r="D205" s="46"/>
       <c r="E205" s="20">
         <v>3</v>
       </c>
@@ -6810,7 +6870,7 @@
     </row>
     <row r="206" spans="1:12" ht="30">
       <c r="B206" s="19"/>
-      <c r="D206" s="44"/>
+      <c r="D206" s="46"/>
       <c r="E206" s="20">
         <v>4</v>
       </c>
@@ -6825,7 +6885,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="B207" s="19"/>
-      <c r="D207" s="44"/>
+      <c r="D207" s="46"/>
       <c r="E207" s="20">
         <v>5</v>
       </c>
@@ -6844,7 +6904,7 @@
       <c r="L208" s="2"/>
     </row>
     <row r="209" spans="1:12" ht="30" customHeight="1">
-      <c r="A209" s="48" t="s">
+      <c r="A209" s="43" t="s">
         <v>265</v>
       </c>
       <c r="B209" s="19" t="s">
@@ -6853,7 +6913,7 @@
       <c r="C209" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D209" s="44" t="s">
+      <c r="D209" s="46" t="s">
         <v>223</v>
       </c>
       <c r="E209" s="20">
@@ -6870,7 +6930,7 @@
     </row>
     <row r="210" spans="1:12" ht="30">
       <c r="B210" s="19"/>
-      <c r="D210" s="44"/>
+      <c r="D210" s="46"/>
       <c r="E210" s="20">
         <v>2</v>
       </c>
@@ -6885,7 +6945,7 @@
     </row>
     <row r="211" spans="1:12" ht="30">
       <c r="B211" s="19"/>
-      <c r="D211" s="44"/>
+      <c r="D211" s="46"/>
       <c r="E211" s="20">
         <v>3</v>
       </c>
@@ -6900,7 +6960,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="B212" s="19"/>
-      <c r="D212" s="44"/>
+      <c r="D212" s="46"/>
       <c r="E212" s="20">
         <v>4</v>
       </c>
@@ -6915,7 +6975,7 @@
     </row>
     <row r="213" spans="1:12" ht="30">
       <c r="B213" s="19"/>
-      <c r="D213" s="44"/>
+      <c r="D213" s="46"/>
       <c r="E213" s="20">
         <v>5</v>
       </c>
@@ -6930,7 +6990,7 @@
     </row>
     <row r="214" spans="1:12" ht="30">
       <c r="B214" s="19"/>
-      <c r="D214" s="44"/>
+      <c r="D214" s="46"/>
       <c r="E214" s="20">
         <v>6</v>
       </c>
@@ -6945,7 +7005,7 @@
     </row>
     <row r="215" spans="1:12" ht="30">
       <c r="B215" s="19"/>
-      <c r="D215" s="44"/>
+      <c r="D215" s="46"/>
       <c r="E215" s="20">
         <v>7</v>
       </c>
@@ -6960,7 +7020,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="B216" s="19"/>
-      <c r="D216" s="44"/>
+      <c r="D216" s="46"/>
       <c r="E216" s="20">
         <v>8</v>
       </c>
@@ -6975,7 +7035,7 @@
     </row>
     <row r="217" spans="1:12" ht="30">
       <c r="B217" s="19"/>
-      <c r="D217" s="44"/>
+      <c r="D217" s="46"/>
       <c r="E217" s="20">
         <v>9</v>
       </c>
@@ -6990,7 +7050,7 @@
     </row>
     <row r="218" spans="1:12" ht="30">
       <c r="B218" s="19"/>
-      <c r="D218" s="44"/>
+      <c r="D218" s="46"/>
       <c r="E218" s="20">
         <v>10</v>
       </c>
@@ -7005,7 +7065,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="B219" s="19"/>
-      <c r="D219" s="44"/>
+      <c r="D219" s="46"/>
       <c r="E219" s="20">
         <v>11</v>
       </c>
@@ -7020,7 +7080,7 @@
     </row>
     <row r="220" spans="1:12" ht="30">
       <c r="B220" s="19"/>
-      <c r="D220" s="44"/>
+      <c r="D220" s="46"/>
       <c r="E220" s="20">
         <v>12</v>
       </c>
@@ -7035,7 +7095,7 @@
     </row>
     <row r="221" spans="1:12" ht="30">
       <c r="B221" s="19"/>
-      <c r="D221" s="44"/>
+      <c r="D221" s="46"/>
       <c r="E221" s="20">
         <v>13</v>
       </c>
@@ -7050,7 +7110,7 @@
     </row>
     <row r="222" spans="1:12" ht="63" customHeight="1">
       <c r="B222" s="19"/>
-      <c r="D222" s="44"/>
+      <c r="D222" s="46"/>
       <c r="E222" s="20">
         <v>14</v>
       </c>
@@ -7065,7 +7125,7 @@
     </row>
     <row r="223" spans="1:12" ht="63" customHeight="1">
       <c r="B223" s="19"/>
-      <c r="D223" s="44"/>
+      <c r="D223" s="46"/>
       <c r="E223" s="20">
         <v>15</v>
       </c>
@@ -7084,7 +7144,7 @@
       <c r="L224" s="2"/>
     </row>
     <row r="225" spans="1:12" ht="30" customHeight="1">
-      <c r="A225" s="48" t="s">
+      <c r="A225" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B225" s="19" t="s">
@@ -7093,7 +7153,7 @@
       <c r="C225" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D225" s="44" t="s">
+      <c r="D225" s="46" t="s">
         <v>254</v>
       </c>
       <c r="E225" s="20">
@@ -7110,7 +7170,7 @@
     </row>
     <row r="226" spans="1:12" ht="30">
       <c r="B226" s="19"/>
-      <c r="D226" s="44"/>
+      <c r="D226" s="46"/>
       <c r="E226" s="20">
         <v>2</v>
       </c>
@@ -7125,7 +7185,7 @@
     </row>
     <row r="227" spans="1:12" ht="30">
       <c r="B227" s="19"/>
-      <c r="D227" s="44"/>
+      <c r="D227" s="46"/>
       <c r="E227" s="20">
         <v>3</v>
       </c>
@@ -7140,7 +7200,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="B228" s="19"/>
-      <c r="D228" s="44"/>
+      <c r="D228" s="46"/>
       <c r="E228" s="20">
         <v>4</v>
       </c>
@@ -7155,7 +7215,7 @@
     </row>
     <row r="229" spans="1:12" ht="30">
       <c r="B229" s="19"/>
-      <c r="D229" s="44"/>
+      <c r="D229" s="46"/>
       <c r="E229" s="20">
         <v>5</v>
       </c>
@@ -7170,7 +7230,7 @@
     </row>
     <row r="230" spans="1:12" ht="30">
       <c r="B230" s="19"/>
-      <c r="D230" s="44"/>
+      <c r="D230" s="46"/>
       <c r="E230" s="20">
         <v>6</v>
       </c>
@@ -7185,7 +7245,7 @@
     </row>
     <row r="231" spans="1:12" ht="30">
       <c r="B231" s="19"/>
-      <c r="D231" s="44"/>
+      <c r="D231" s="46"/>
       <c r="E231" s="20">
         <v>7</v>
       </c>
@@ -7200,7 +7260,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="B232" s="19"/>
-      <c r="D232" s="44"/>
+      <c r="D232" s="46"/>
       <c r="E232" s="20">
         <v>8</v>
       </c>
@@ -7215,7 +7275,7 @@
     </row>
     <row r="233" spans="1:12" ht="30">
       <c r="B233" s="19"/>
-      <c r="D233" s="44"/>
+      <c r="D233" s="46"/>
       <c r="E233" s="20">
         <v>9</v>
       </c>
@@ -7230,7 +7290,7 @@
     </row>
     <row r="234" spans="1:12" ht="30">
       <c r="B234" s="19"/>
-      <c r="D234" s="44"/>
+      <c r="D234" s="46"/>
       <c r="E234" s="20">
         <v>10</v>
       </c>
@@ -7245,7 +7305,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="B235" s="19"/>
-      <c r="D235" s="44"/>
+      <c r="D235" s="46"/>
       <c r="E235" s="20">
         <v>11</v>
       </c>
@@ -7260,7 +7320,7 @@
     </row>
     <row r="236" spans="1:12" ht="30">
       <c r="B236" s="19"/>
-      <c r="D236" s="44"/>
+      <c r="D236" s="46"/>
       <c r="E236" s="20">
         <v>12</v>
       </c>
@@ -7275,7 +7335,7 @@
     </row>
     <row r="237" spans="1:12" ht="30">
       <c r="B237" s="19"/>
-      <c r="D237" s="44"/>
+      <c r="D237" s="46"/>
       <c r="E237" s="20">
         <v>13</v>
       </c>
@@ -7290,7 +7350,7 @@
     </row>
     <row r="238" spans="1:12" ht="30">
       <c r="B238" s="19"/>
-      <c r="D238" s="44"/>
+      <c r="D238" s="46"/>
       <c r="E238" s="20">
         <v>14</v>
       </c>
@@ -7305,7 +7365,7 @@
     </row>
     <row r="239" spans="1:12" ht="30">
       <c r="B239" s="19"/>
-      <c r="D239" s="44"/>
+      <c r="D239" s="46"/>
       <c r="E239" s="20">
         <v>15</v>
       </c>
@@ -7320,7 +7380,7 @@
     </row>
     <row r="240" spans="1:12" ht="30">
       <c r="B240" s="19"/>
-      <c r="D240" s="44"/>
+      <c r="D240" s="46"/>
       <c r="E240" s="20">
         <v>16</v>
       </c>
@@ -7339,7 +7399,7 @@
       <c r="L241" s="2"/>
     </row>
     <row r="242" spans="1:12" ht="30" customHeight="1">
-      <c r="A242" s="48" t="s">
+      <c r="A242" s="43" t="s">
         <v>267</v>
       </c>
       <c r="B242" s="19" t="s">
@@ -7348,7 +7408,7 @@
       <c r="C242" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D242" s="44" t="s">
+      <c r="D242" s="46" t="s">
         <v>260</v>
       </c>
       <c r="E242" s="20">
@@ -7365,7 +7425,7 @@
     </row>
     <row r="243" spans="1:12" ht="30">
       <c r="B243" s="19"/>
-      <c r="D243" s="44"/>
+      <c r="D243" s="46"/>
       <c r="E243" s="20">
         <v>2</v>
       </c>
@@ -7380,7 +7440,7 @@
     </row>
     <row r="244" spans="1:12" ht="30">
       <c r="B244" s="19"/>
-      <c r="D244" s="44"/>
+      <c r="D244" s="46"/>
       <c r="E244" s="20">
         <v>3</v>
       </c>
@@ -7395,7 +7455,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="B245" s="19"/>
-      <c r="D245" s="44"/>
+      <c r="D245" s="46"/>
       <c r="E245" s="20">
         <v>4</v>
       </c>
@@ -7410,7 +7470,7 @@
     </row>
     <row r="246" spans="1:12" ht="30">
       <c r="B246" s="19"/>
-      <c r="D246" s="44"/>
+      <c r="D246" s="46"/>
       <c r="E246" s="20">
         <v>5</v>
       </c>
@@ -7425,7 +7485,7 @@
     </row>
     <row r="247" spans="1:12" ht="30">
       <c r="B247" s="19"/>
-      <c r="D247" s="44"/>
+      <c r="D247" s="46"/>
       <c r="E247" s="20">
         <v>6</v>
       </c>
@@ -7440,7 +7500,7 @@
     </row>
     <row r="248" spans="1:12" ht="30">
       <c r="B248" s="19"/>
-      <c r="D248" s="44"/>
+      <c r="D248" s="46"/>
       <c r="E248" s="20">
         <v>7</v>
       </c>
@@ -7455,7 +7515,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="B249" s="19"/>
-      <c r="D249" s="44"/>
+      <c r="D249" s="46"/>
       <c r="E249" s="20">
         <v>8</v>
       </c>
@@ -7470,7 +7530,7 @@
     </row>
     <row r="250" spans="1:12" ht="30">
       <c r="B250" s="19"/>
-      <c r="D250" s="44"/>
+      <c r="D250" s="46"/>
       <c r="E250" s="20">
         <v>9</v>
       </c>
@@ -7485,7 +7545,7 @@
     </row>
     <row r="251" spans="1:12" ht="30">
       <c r="B251" s="19"/>
-      <c r="D251" s="44"/>
+      <c r="D251" s="46"/>
       <c r="E251" s="20">
         <v>10</v>
       </c>
@@ -7500,7 +7560,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="B252" s="19"/>
-      <c r="D252" s="44"/>
+      <c r="D252" s="46"/>
       <c r="E252" s="20">
         <v>11</v>
       </c>
@@ -7515,7 +7575,7 @@
     </row>
     <row r="253" spans="1:12" ht="30">
       <c r="B253" s="19"/>
-      <c r="D253" s="44"/>
+      <c r="D253" s="46"/>
       <c r="E253" s="20">
         <v>12</v>
       </c>
@@ -7530,7 +7590,7 @@
     </row>
     <row r="254" spans="1:12" ht="30">
       <c r="B254" s="19"/>
-      <c r="D254" s="44"/>
+      <c r="D254" s="46"/>
       <c r="E254" s="20">
         <v>13</v>
       </c>
@@ -7545,7 +7605,7 @@
     </row>
     <row r="255" spans="1:12" ht="30">
       <c r="B255" s="19"/>
-      <c r="D255" s="44"/>
+      <c r="D255" s="46"/>
       <c r="E255" s="20">
         <v>14</v>
       </c>
@@ -7560,7 +7620,7 @@
     </row>
     <row r="256" spans="1:12" ht="30">
       <c r="B256" s="19"/>
-      <c r="D256" s="44"/>
+      <c r="D256" s="46"/>
       <c r="E256" s="20">
         <v>15</v>
       </c>
@@ -7575,7 +7635,7 @@
     </row>
     <row r="257" spans="1:12" ht="30">
       <c r="B257" s="19"/>
-      <c r="D257" s="44"/>
+      <c r="D257" s="46"/>
       <c r="E257" s="20">
         <v>16</v>
       </c>
@@ -7590,7 +7650,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="B258" s="19"/>
-      <c r="D258" s="44"/>
+      <c r="D258" s="46"/>
       <c r="E258" s="20">
         <v>17</v>
       </c>
@@ -7609,7 +7669,7 @@
       <c r="L259" s="2"/>
     </row>
     <row r="260" spans="1:12" ht="30" customHeight="1">
-      <c r="A260" s="48" t="s">
+      <c r="A260" s="43" t="s">
         <v>273</v>
       </c>
       <c r="B260" s="19" t="s">
@@ -7618,7 +7678,7 @@
       <c r="C260" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D260" s="44" t="s">
+      <c r="D260" s="46" t="s">
         <v>223</v>
       </c>
       <c r="E260" s="20">
@@ -7635,7 +7695,7 @@
     </row>
     <row r="261" spans="1:12" ht="30">
       <c r="B261" s="19"/>
-      <c r="D261" s="44"/>
+      <c r="D261" s="46"/>
       <c r="E261" s="20">
         <v>2</v>
       </c>
@@ -7650,7 +7710,7 @@
     </row>
     <row r="262" spans="1:12" ht="30">
       <c r="B262" s="19"/>
-      <c r="D262" s="44"/>
+      <c r="D262" s="46"/>
       <c r="E262" s="20">
         <v>3</v>
       </c>
@@ -7665,7 +7725,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="B263" s="19"/>
-      <c r="D263" s="44"/>
+      <c r="D263" s="46"/>
       <c r="E263" s="20">
         <v>4</v>
       </c>
@@ -7680,7 +7740,7 @@
     </row>
     <row r="264" spans="1:12" ht="30">
       <c r="B264" s="19"/>
-      <c r="D264" s="44"/>
+      <c r="D264" s="46"/>
       <c r="E264" s="20">
         <v>5</v>
       </c>
@@ -7695,7 +7755,7 @@
     </row>
     <row r="265" spans="1:12" ht="30">
       <c r="B265" s="19"/>
-      <c r="D265" s="44"/>
+      <c r="D265" s="46"/>
       <c r="E265" s="20">
         <v>6</v>
       </c>
@@ -7710,7 +7770,7 @@
     </row>
     <row r="266" spans="1:12" ht="30">
       <c r="B266" s="19"/>
-      <c r="D266" s="44"/>
+      <c r="D266" s="46"/>
       <c r="E266" s="20">
         <v>7</v>
       </c>
@@ -7725,7 +7785,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="B267" s="19"/>
-      <c r="D267" s="44"/>
+      <c r="D267" s="46"/>
       <c r="E267" s="20">
         <v>8</v>
       </c>
@@ -7740,7 +7800,7 @@
     </row>
     <row r="268" spans="1:12" ht="30">
       <c r="B268" s="19"/>
-      <c r="D268" s="44"/>
+      <c r="D268" s="46"/>
       <c r="E268" s="20">
         <v>9</v>
       </c>
@@ -7755,7 +7815,7 @@
     </row>
     <row r="269" spans="1:12" ht="30">
       <c r="B269" s="19"/>
-      <c r="D269" s="44"/>
+      <c r="D269" s="46"/>
       <c r="E269" s="20">
         <v>10</v>
       </c>
@@ -7770,7 +7830,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="B270" s="19"/>
-      <c r="D270" s="44"/>
+      <c r="D270" s="46"/>
       <c r="E270" s="20">
         <v>11</v>
       </c>
@@ -7785,7 +7845,7 @@
     </row>
     <row r="271" spans="1:12" ht="30">
       <c r="B271" s="19"/>
-      <c r="D271" s="44"/>
+      <c r="D271" s="46"/>
       <c r="E271" s="20">
         <v>12</v>
       </c>
@@ -7800,7 +7860,7 @@
     </row>
     <row r="272" spans="1:12" ht="30">
       <c r="B272" s="19"/>
-      <c r="D272" s="44"/>
+      <c r="D272" s="46"/>
       <c r="E272" s="20">
         <v>13</v>
       </c>
@@ -7815,7 +7875,7 @@
     </row>
     <row r="273" spans="1:12" ht="30">
       <c r="B273" s="19"/>
-      <c r="D273" s="44"/>
+      <c r="D273" s="46"/>
       <c r="E273" s="20">
         <v>14</v>
       </c>
@@ -7830,7 +7890,7 @@
     </row>
     <row r="274" spans="1:12" ht="45">
       <c r="B274" s="19"/>
-      <c r="D274" s="44"/>
+      <c r="D274" s="46"/>
       <c r="E274" s="20">
         <v>15</v>
       </c>
@@ -7849,7 +7909,7 @@
       <c r="L275" s="2"/>
     </row>
     <row r="276" spans="1:12">
-      <c r="A276" s="48" t="s">
+      <c r="A276" s="43" t="s">
         <v>279</v>
       </c>
       <c r="B276" s="19" t="s">
@@ -7858,7 +7918,7 @@
       <c r="C276" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D276" s="44" t="s">
+      <c r="D276" s="46" t="s">
         <v>272</v>
       </c>
       <c r="E276" s="20">
@@ -7875,7 +7935,7 @@
     </row>
     <row r="277" spans="1:12" ht="30">
       <c r="B277" s="19"/>
-      <c r="D277" s="44"/>
+      <c r="D277" s="46"/>
       <c r="E277" s="20">
         <v>2</v>
       </c>
@@ -7890,7 +7950,7 @@
     </row>
     <row r="278" spans="1:12" ht="255">
       <c r="B278" s="19"/>
-      <c r="D278" s="44"/>
+      <c r="D278" s="46"/>
       <c r="E278" s="20">
         <v>3</v>
       </c>
@@ -7921,7 +7981,7 @@
       <c r="C280" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D280" s="44" t="s">
+      <c r="D280" s="46" t="s">
         <v>274</v>
       </c>
       <c r="E280" s="20">
@@ -7938,7 +7998,7 @@
     </row>
     <row r="281" spans="1:12" ht="30">
       <c r="B281" s="19"/>
-      <c r="D281" s="44"/>
+      <c r="D281" s="46"/>
       <c r="E281" s="20">
         <v>2</v>
       </c>
@@ -7953,7 +8013,7 @@
     </row>
     <row r="282" spans="1:12" ht="255">
       <c r="B282" s="19"/>
-      <c r="D282" s="44"/>
+      <c r="D282" s="46"/>
       <c r="E282" s="20">
         <v>3</v>
       </c>
@@ -7971,7 +8031,7 @@
     </row>
     <row r="283" spans="1:12" ht="30">
       <c r="B283" s="19"/>
-      <c r="D283" s="44"/>
+      <c r="D283" s="46"/>
       <c r="E283" s="20">
         <v>4</v>
       </c>
@@ -7990,7 +8050,7 @@
       <c r="L284" s="2"/>
     </row>
     <row r="285" spans="1:12" ht="30" customHeight="1">
-      <c r="A285" s="48" t="s">
+      <c r="A285" s="43" t="s">
         <v>292</v>
       </c>
       <c r="B285" s="19" t="s">
@@ -7999,7 +8059,7 @@
       <c r="C285" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D285" s="44" t="s">
+      <c r="D285" s="46" t="s">
         <v>275</v>
       </c>
       <c r="E285" s="20">
@@ -8016,7 +8076,7 @@
     </row>
     <row r="286" spans="1:12" ht="30">
       <c r="B286" s="19"/>
-      <c r="D286" s="44"/>
+      <c r="D286" s="46"/>
       <c r="E286" s="20">
         <v>2</v>
       </c>
@@ -8031,7 +8091,7 @@
     </row>
     <row r="287" spans="1:12" ht="255">
       <c r="B287" s="19"/>
-      <c r="D287" s="44"/>
+      <c r="D287" s="46"/>
       <c r="E287" s="20">
         <v>3</v>
       </c>
@@ -8049,7 +8109,7 @@
     </row>
     <row r="288" spans="1:12" ht="30">
       <c r="B288" s="19"/>
-      <c r="D288" s="44"/>
+      <c r="D288" s="46"/>
       <c r="E288" s="20">
         <v>4</v>
       </c>
@@ -8064,7 +8124,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="B289" s="19"/>
-      <c r="D289" s="44"/>
+      <c r="D289" s="46"/>
       <c r="E289" s="20">
         <v>5</v>
       </c>
@@ -8083,7 +8143,7 @@
       <c r="L290" s="2"/>
     </row>
     <row r="291" spans="1:12">
-      <c r="A291" s="48" t="s">
+      <c r="A291" s="43" t="s">
         <v>296</v>
       </c>
       <c r="B291" s="19" t="s">
@@ -8092,7 +8152,7 @@
       <c r="C291" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D291" s="44" t="s">
+      <c r="D291" s="46" t="s">
         <v>278</v>
       </c>
       <c r="E291" s="20">
@@ -8109,7 +8169,7 @@
     </row>
     <row r="292" spans="1:12" ht="30">
       <c r="B292" s="19"/>
-      <c r="D292" s="44"/>
+      <c r="D292" s="46"/>
       <c r="E292" s="20">
         <v>2</v>
       </c>
@@ -8124,7 +8184,7 @@
     </row>
     <row r="293" spans="1:12" ht="255">
       <c r="B293" s="19"/>
-      <c r="D293" s="44"/>
+      <c r="D293" s="46"/>
       <c r="E293" s="20">
         <v>3</v>
       </c>
@@ -8142,7 +8202,7 @@
     </row>
     <row r="294" spans="1:12" ht="30">
       <c r="B294" s="19"/>
-      <c r="D294" s="44"/>
+      <c r="D294" s="46"/>
       <c r="E294" s="20">
         <v>4</v>
       </c>
@@ -8157,7 +8217,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="B295" s="19"/>
-      <c r="D295" s="44"/>
+      <c r="D295" s="46"/>
       <c r="E295" s="20">
         <v>5</v>
       </c>
@@ -8176,7 +8236,7 @@
       <c r="L296" s="2"/>
     </row>
     <row r="297" spans="1:12" ht="45" customHeight="1">
-      <c r="A297" s="48" t="s">
+      <c r="A297" s="43" t="s">
         <v>298</v>
       </c>
       <c r="B297" s="19" t="s">
@@ -8185,7 +8245,7 @@
       <c r="C297" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D297" s="44" t="s">
+      <c r="D297" s="46" t="s">
         <v>282</v>
       </c>
       <c r="E297" s="20">
@@ -8202,7 +8262,7 @@
     </row>
     <row r="298" spans="1:12" ht="30">
       <c r="B298" s="19"/>
-      <c r="D298" s="44"/>
+      <c r="D298" s="46"/>
       <c r="E298" s="20">
         <v>2</v>
       </c>
@@ -8217,7 +8277,7 @@
     </row>
     <row r="299" spans="1:12" ht="30">
       <c r="B299" s="19"/>
-      <c r="D299" s="44"/>
+      <c r="D299" s="46"/>
       <c r="E299" s="20">
         <v>3</v>
       </c>
@@ -8232,7 +8292,7 @@
     </row>
     <row r="300" spans="1:12" ht="30">
       <c r="B300" s="19"/>
-      <c r="D300" s="44"/>
+      <c r="D300" s="46"/>
       <c r="E300" s="20">
         <v>4</v>
       </c>
@@ -8247,7 +8307,7 @@
     </row>
     <row r="301" spans="1:12" ht="30">
       <c r="B301" s="19"/>
-      <c r="D301" s="44"/>
+      <c r="D301" s="46"/>
       <c r="E301" s="20">
         <v>5</v>
       </c>
@@ -8262,7 +8322,7 @@
     </row>
     <row r="302" spans="1:12" ht="30">
       <c r="B302" s="19"/>
-      <c r="D302" s="44"/>
+      <c r="D302" s="46"/>
       <c r="E302" s="20">
         <v>6</v>
       </c>
@@ -8281,7 +8341,7 @@
       <c r="L303" s="2"/>
     </row>
     <row r="304" spans="1:12" ht="30" customHeight="1">
-      <c r="A304" s="48" t="s">
+      <c r="A304" s="43" t="s">
         <v>309</v>
       </c>
       <c r="B304" s="19" t="s">
@@ -8290,7 +8350,7 @@
       <c r="C304" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D304" s="44" t="s">
+      <c r="D304" s="46" t="s">
         <v>293</v>
       </c>
       <c r="E304" s="20">
@@ -8307,7 +8367,7 @@
     </row>
     <row r="305" spans="1:12" ht="30">
       <c r="B305" s="19"/>
-      <c r="D305" s="44"/>
+      <c r="D305" s="46"/>
       <c r="E305" s="20">
         <v>2</v>
       </c>
@@ -8322,7 +8382,7 @@
     </row>
     <row r="306" spans="1:12" ht="30">
       <c r="B306" s="19"/>
-      <c r="D306" s="44"/>
+      <c r="D306" s="46"/>
       <c r="E306" s="20">
         <v>3</v>
       </c>
@@ -8337,7 +8397,7 @@
     </row>
     <row r="307" spans="1:12" ht="30">
       <c r="B307" s="19"/>
-      <c r="D307" s="44"/>
+      <c r="D307" s="46"/>
       <c r="E307" s="20">
         <v>4</v>
       </c>
@@ -8352,7 +8412,7 @@
     </row>
     <row r="308" spans="1:12" ht="30">
       <c r="B308" s="19"/>
-      <c r="D308" s="44"/>
+      <c r="D308" s="46"/>
       <c r="E308" s="20">
         <v>5</v>
       </c>
@@ -8367,7 +8427,7 @@
     </row>
     <row r="309" spans="1:12" ht="30">
       <c r="B309" s="19"/>
-      <c r="D309" s="44"/>
+      <c r="D309" s="46"/>
       <c r="E309" s="20">
         <v>6</v>
       </c>
@@ -8382,7 +8442,7 @@
     </row>
     <row r="310" spans="1:12" ht="30">
       <c r="B310" s="19"/>
-      <c r="D310" s="44"/>
+      <c r="D310" s="46"/>
       <c r="E310" s="20">
         <v>7</v>
       </c>
@@ -8401,7 +8461,7 @@
       <c r="L311" s="2"/>
     </row>
     <row r="312" spans="1:12" ht="30" customHeight="1">
-      <c r="A312" s="48" t="s">
+      <c r="A312" s="43" t="s">
         <v>310</v>
       </c>
       <c r="B312" s="19" t="s">
@@ -8410,7 +8470,7 @@
       <c r="C312" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D312" s="44" t="s">
+      <c r="D312" s="46" t="s">
         <v>297</v>
       </c>
       <c r="E312" s="20">
@@ -8427,7 +8487,7 @@
     </row>
     <row r="313" spans="1:12" ht="30">
       <c r="B313" s="19"/>
-      <c r="D313" s="44"/>
+      <c r="D313" s="46"/>
       <c r="E313" s="20">
         <v>2</v>
       </c>
@@ -8442,7 +8502,7 @@
     </row>
     <row r="314" spans="1:12" ht="30">
       <c r="B314" s="19"/>
-      <c r="D314" s="44"/>
+      <c r="D314" s="46"/>
       <c r="E314" s="20">
         <v>3</v>
       </c>
@@ -8457,7 +8517,7 @@
     </row>
     <row r="315" spans="1:12" ht="30">
       <c r="B315" s="19"/>
-      <c r="D315" s="44"/>
+      <c r="D315" s="46"/>
       <c r="E315" s="20">
         <v>4</v>
       </c>
@@ -8472,7 +8532,7 @@
     </row>
     <row r="316" spans="1:12" ht="30">
       <c r="B316" s="19"/>
-      <c r="D316" s="44"/>
+      <c r="D316" s="46"/>
       <c r="E316" s="20">
         <v>5</v>
       </c>
@@ -8487,7 +8547,7 @@
     </row>
     <row r="317" spans="1:12" ht="30">
       <c r="B317" s="19"/>
-      <c r="D317" s="44"/>
+      <c r="D317" s="46"/>
       <c r="E317" s="20">
         <v>6</v>
       </c>
@@ -8502,7 +8562,7 @@
     </row>
     <row r="318" spans="1:12" ht="30">
       <c r="B318" s="19"/>
-      <c r="D318" s="44"/>
+      <c r="D318" s="46"/>
       <c r="E318" s="20">
         <v>7</v>
       </c>
@@ -8517,7 +8577,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="B319" s="19"/>
-      <c r="D319" s="44"/>
+      <c r="D319" s="46"/>
       <c r="E319" s="20">
         <v>8</v>
       </c>
@@ -8536,7 +8596,7 @@
       <c r="L320" s="2"/>
     </row>
     <row r="321" spans="1:12" ht="30" customHeight="1">
-      <c r="A321" s="48" t="s">
+      <c r="A321" s="43" t="s">
         <v>314</v>
       </c>
       <c r="B321" s="19" t="s">
@@ -8545,7 +8605,7 @@
       <c r="C321" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D321" s="44" t="s">
+      <c r="D321" s="46" t="s">
         <v>299</v>
       </c>
       <c r="E321" s="20">
@@ -8562,7 +8622,7 @@
     </row>
     <row r="322" spans="1:12" ht="30">
       <c r="B322" s="19"/>
-      <c r="D322" s="44"/>
+      <c r="D322" s="46"/>
       <c r="E322" s="20">
         <v>2</v>
       </c>
@@ -8577,7 +8637,7 @@
     </row>
     <row r="323" spans="1:12" ht="30">
       <c r="B323" s="19"/>
-      <c r="D323" s="44"/>
+      <c r="D323" s="46"/>
       <c r="E323" s="20">
         <v>3</v>
       </c>
@@ -8592,7 +8652,7 @@
     </row>
     <row r="324" spans="1:12" ht="30">
       <c r="B324" s="19"/>
-      <c r="D324" s="44"/>
+      <c r="D324" s="46"/>
       <c r="E324" s="20">
         <v>4</v>
       </c>
@@ -8607,7 +8667,7 @@
     </row>
     <row r="325" spans="1:12" ht="30">
       <c r="B325" s="19"/>
-      <c r="D325" s="44"/>
+      <c r="D325" s="46"/>
       <c r="E325" s="20">
         <v>5</v>
       </c>
@@ -8622,7 +8682,7 @@
     </row>
     <row r="326" spans="1:12" ht="30">
       <c r="B326" s="19"/>
-      <c r="D326" s="44"/>
+      <c r="D326" s="46"/>
       <c r="E326" s="20">
         <v>6</v>
       </c>
@@ -8637,7 +8697,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="B327" s="19"/>
-      <c r="D327" s="44"/>
+      <c r="D327" s="46"/>
       <c r="E327" s="20">
         <v>7</v>
       </c>
@@ -8656,7 +8716,7 @@
       <c r="L328" s="2"/>
     </row>
     <row r="329" spans="1:12" ht="30" customHeight="1">
-      <c r="A329" s="48" t="s">
+      <c r="A329" s="43" t="s">
         <v>317</v>
       </c>
       <c r="B329" s="19" t="s">
@@ -8665,7 +8725,7 @@
       <c r="C329" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D329" s="44" t="s">
+      <c r="D329" s="46" t="s">
         <v>300</v>
       </c>
       <c r="E329" s="20">
@@ -8682,7 +8742,7 @@
     </row>
     <row r="330" spans="1:12" ht="30">
       <c r="B330" s="19"/>
-      <c r="D330" s="44"/>
+      <c r="D330" s="46"/>
       <c r="E330" s="20">
         <v>2</v>
       </c>
@@ -8697,7 +8757,7 @@
     </row>
     <row r="331" spans="1:12" ht="30">
       <c r="B331" s="19"/>
-      <c r="D331" s="44"/>
+      <c r="D331" s="46"/>
       <c r="E331" s="20">
         <v>3</v>
       </c>
@@ -8712,7 +8772,7 @@
     </row>
     <row r="332" spans="1:12" ht="30">
       <c r="B332" s="19"/>
-      <c r="D332" s="44"/>
+      <c r="D332" s="46"/>
       <c r="E332" s="20">
         <v>4</v>
       </c>
@@ -8727,7 +8787,7 @@
     </row>
     <row r="333" spans="1:12" ht="30">
       <c r="B333" s="19"/>
-      <c r="D333" s="44"/>
+      <c r="D333" s="46"/>
       <c r="E333" s="20">
         <v>5</v>
       </c>
@@ -8746,7 +8806,7 @@
       <c r="L334" s="2"/>
     </row>
     <row r="335" spans="1:12" ht="30" customHeight="1">
-      <c r="A335" s="48" t="s">
+      <c r="A335" s="43" t="s">
         <v>318</v>
       </c>
       <c r="B335" s="19" t="s">
@@ -8755,7 +8815,7 @@
       <c r="C335" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D335" s="44" t="s">
+      <c r="D335" s="46" t="s">
         <v>311</v>
       </c>
       <c r="E335" s="20">
@@ -8772,7 +8832,7 @@
     </row>
     <row r="336" spans="1:12" ht="30">
       <c r="B336" s="19"/>
-      <c r="D336" s="44"/>
+      <c r="D336" s="46"/>
       <c r="E336" s="20">
         <v>2</v>
       </c>
@@ -8787,7 +8847,7 @@
     </row>
     <row r="337" spans="1:12" ht="30">
       <c r="B337" s="19"/>
-      <c r="D337" s="44"/>
+      <c r="D337" s="46"/>
       <c r="E337" s="20">
         <v>3</v>
       </c>
@@ -8802,7 +8862,7 @@
     </row>
     <row r="338" spans="1:12" ht="30">
       <c r="B338" s="19"/>
-      <c r="D338" s="44"/>
+      <c r="D338" s="46"/>
       <c r="E338" s="20">
         <v>4</v>
       </c>
@@ -8817,7 +8877,7 @@
     </row>
     <row r="339" spans="1:12" ht="30">
       <c r="B339" s="19"/>
-      <c r="D339" s="44"/>
+      <c r="D339" s="46"/>
       <c r="E339" s="20">
         <v>5</v>
       </c>
@@ -8832,7 +8892,7 @@
     </row>
     <row r="340" spans="1:12" ht="30">
       <c r="B340" s="19"/>
-      <c r="D340" s="44"/>
+      <c r="D340" s="46"/>
       <c r="E340" s="20">
         <v>6</v>
       </c>
@@ -8851,7 +8911,7 @@
       <c r="L341" s="2"/>
     </row>
     <row r="342" spans="1:12" ht="30" customHeight="1">
-      <c r="A342" s="48" t="s">
+      <c r="A342" s="43" t="s">
         <v>325</v>
       </c>
       <c r="B342" s="19" t="s">
@@ -8860,7 +8920,7 @@
       <c r="C342" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D342" s="44" t="s">
+      <c r="D342" s="46" t="s">
         <v>316</v>
       </c>
       <c r="E342" s="20">
@@ -8877,7 +8937,7 @@
     </row>
     <row r="343" spans="1:12" ht="30">
       <c r="B343" s="19"/>
-      <c r="D343" s="44"/>
+      <c r="D343" s="46"/>
       <c r="E343" s="20">
         <v>2</v>
       </c>
@@ -8892,7 +8952,7 @@
     </row>
     <row r="344" spans="1:12" ht="30">
       <c r="B344" s="19"/>
-      <c r="D344" s="44"/>
+      <c r="D344" s="46"/>
       <c r="E344" s="20">
         <v>3</v>
       </c>
@@ -8907,7 +8967,7 @@
     </row>
     <row r="345" spans="1:12" ht="30">
       <c r="B345" s="19"/>
-      <c r="D345" s="44"/>
+      <c r="D345" s="46"/>
       <c r="E345" s="20">
         <v>4</v>
       </c>
@@ -8922,7 +8982,7 @@
     </row>
     <row r="346" spans="1:12" ht="30">
       <c r="B346" s="19"/>
-      <c r="D346" s="44"/>
+      <c r="D346" s="46"/>
       <c r="E346" s="20">
         <v>5</v>
       </c>
@@ -8937,7 +8997,7 @@
     </row>
     <row r="347" spans="1:12" ht="30">
       <c r="B347" s="19"/>
-      <c r="D347" s="44"/>
+      <c r="D347" s="46"/>
       <c r="E347" s="20">
         <v>6</v>
       </c>
@@ -8952,7 +9012,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="B348" s="19"/>
-      <c r="D348" s="44"/>
+      <c r="D348" s="46"/>
       <c r="E348" s="20">
         <v>7</v>
       </c>
@@ -8971,7 +9031,7 @@
       <c r="L349" s="2"/>
     </row>
     <row r="350" spans="1:12" ht="30" customHeight="1">
-      <c r="A350" s="48" t="s">
+      <c r="A350" s="43" t="s">
         <v>330</v>
       </c>
       <c r="B350" s="19" t="s">
@@ -8980,7 +9040,7 @@
       <c r="C350" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D350" s="44" t="s">
+      <c r="D350" s="46" t="s">
         <v>315</v>
       </c>
       <c r="E350" s="20">
@@ -8997,7 +9057,7 @@
     </row>
     <row r="351" spans="1:12" ht="30">
       <c r="B351" s="19"/>
-      <c r="D351" s="44"/>
+      <c r="D351" s="46"/>
       <c r="E351" s="20">
         <v>2</v>
       </c>
@@ -9012,7 +9072,7 @@
     </row>
     <row r="352" spans="1:12" ht="30">
       <c r="B352" s="19"/>
-      <c r="D352" s="44"/>
+      <c r="D352" s="46"/>
       <c r="E352" s="20">
         <v>3</v>
       </c>
@@ -9027,7 +9087,7 @@
     </row>
     <row r="353" spans="1:12" ht="30">
       <c r="B353" s="19"/>
-      <c r="D353" s="44"/>
+      <c r="D353" s="46"/>
       <c r="E353" s="20">
         <v>4</v>
       </c>
@@ -9042,7 +9102,7 @@
     </row>
     <row r="354" spans="1:12" ht="30">
       <c r="B354" s="19"/>
-      <c r="D354" s="44"/>
+      <c r="D354" s="46"/>
       <c r="E354" s="20">
         <v>5</v>
       </c>
@@ -9057,7 +9117,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="B355" s="19"/>
-      <c r="D355" s="44"/>
+      <c r="D355" s="46"/>
       <c r="E355" s="20">
         <v>6</v>
       </c>
@@ -9076,7 +9136,7 @@
       <c r="L356" s="2"/>
     </row>
     <row r="357" spans="1:12">
-      <c r="A357" s="48" t="s">
+      <c r="A357" s="43" t="s">
         <v>331</v>
       </c>
       <c r="B357" s="19" t="s">
@@ -9085,7 +9145,7 @@
       <c r="C357" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D357" s="44" t="s">
+      <c r="D357" s="46" t="s">
         <v>319</v>
       </c>
       <c r="E357" s="20">
@@ -9102,7 +9162,7 @@
     </row>
     <row r="358" spans="1:12" ht="48" customHeight="1">
       <c r="B358" s="19"/>
-      <c r="D358" s="44"/>
+      <c r="D358" s="46"/>
       <c r="E358" s="20">
         <v>2</v>
       </c>
@@ -9117,7 +9177,7 @@
     </row>
     <row r="359" spans="1:12" ht="105">
       <c r="B359" s="19"/>
-      <c r="D359" s="44"/>
+      <c r="D359" s="46"/>
       <c r="E359" s="20">
         <v>3</v>
       </c>
@@ -9135,7 +9195,7 @@
     </row>
     <row r="360" spans="1:12" ht="30">
       <c r="B360" s="19"/>
-      <c r="D360" s="44"/>
+      <c r="D360" s="46"/>
       <c r="E360" s="20">
         <v>4</v>
       </c>
@@ -9154,7 +9214,7 @@
       <c r="L361" s="2"/>
     </row>
     <row r="362" spans="1:12" ht="30" customHeight="1">
-      <c r="A362" s="48" t="s">
+      <c r="A362" s="43" t="s">
         <v>333</v>
       </c>
       <c r="B362" s="19" t="s">
@@ -9163,7 +9223,7 @@
       <c r="C362" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D362" s="44" t="s">
+      <c r="D362" s="46" t="s">
         <v>326</v>
       </c>
       <c r="E362" s="20">
@@ -9180,7 +9240,7 @@
     </row>
     <row r="363" spans="1:12" ht="30">
       <c r="B363" s="19"/>
-      <c r="D363" s="44"/>
+      <c r="D363" s="46"/>
       <c r="E363" s="20">
         <v>2</v>
       </c>
@@ -9195,7 +9255,7 @@
     </row>
     <row r="364" spans="1:12" ht="105">
       <c r="B364" s="19"/>
-      <c r="D364" s="44"/>
+      <c r="D364" s="46"/>
       <c r="E364" s="20">
         <v>3</v>
       </c>
@@ -9213,7 +9273,7 @@
     </row>
     <row r="365" spans="1:12" ht="30">
       <c r="B365" s="19"/>
-      <c r="D365" s="44"/>
+      <c r="D365" s="46"/>
       <c r="E365" s="20">
         <v>4</v>
       </c>
@@ -9228,7 +9288,7 @@
     </row>
     <row r="366" spans="1:12" ht="30">
       <c r="B366" s="19"/>
-      <c r="D366" s="44"/>
+      <c r="D366" s="46"/>
       <c r="E366" s="20">
         <v>5</v>
       </c>
@@ -9247,7 +9307,7 @@
       <c r="L367" s="2"/>
     </row>
     <row r="368" spans="1:12" ht="30" customHeight="1">
-      <c r="A368" s="48" t="s">
+      <c r="A368" s="43" t="s">
         <v>343</v>
       </c>
       <c r="B368" s="19" t="s">
@@ -9256,7 +9316,7 @@
       <c r="C368" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D368" s="44" t="s">
+      <c r="D368" s="46" t="s">
         <v>329</v>
       </c>
       <c r="E368" s="20">
@@ -9273,7 +9333,7 @@
     </row>
     <row r="369" spans="1:12" ht="30">
       <c r="B369" s="19"/>
-      <c r="D369" s="44"/>
+      <c r="D369" s="46"/>
       <c r="E369" s="20">
         <v>2</v>
       </c>
@@ -9288,7 +9348,7 @@
     </row>
     <row r="370" spans="1:12" ht="105">
       <c r="B370" s="19"/>
-      <c r="D370" s="44"/>
+      <c r="D370" s="46"/>
       <c r="E370" s="20">
         <v>3</v>
       </c>
@@ -9306,7 +9366,7 @@
     </row>
     <row r="371" spans="1:12" ht="30">
       <c r="B371" s="19"/>
-      <c r="D371" s="44"/>
+      <c r="D371" s="46"/>
       <c r="E371" s="20">
         <v>4</v>
       </c>
@@ -9321,7 +9381,7 @@
     </row>
     <row r="372" spans="1:12" ht="30">
       <c r="B372" s="19"/>
-      <c r="D372" s="44"/>
+      <c r="D372" s="46"/>
       <c r="E372" s="20">
         <v>5</v>
       </c>
@@ -9336,7 +9396,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="B373" s="19"/>
-      <c r="D373" s="44"/>
+      <c r="D373" s="46"/>
       <c r="E373" s="20">
         <v>6</v>
       </c>
@@ -9355,7 +9415,7 @@
       <c r="L374" s="2"/>
     </row>
     <row r="375" spans="1:12">
-      <c r="A375" s="48" t="s">
+      <c r="A375" s="43" t="s">
         <v>349</v>
       </c>
       <c r="B375" s="19" t="s">
@@ -9364,7 +9424,7 @@
       <c r="C375" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D375" s="44" t="s">
+      <c r="D375" s="46" t="s">
         <v>332</v>
       </c>
       <c r="E375" s="20">
@@ -9381,7 +9441,7 @@
     </row>
     <row r="376" spans="1:12" ht="30">
       <c r="B376" s="19"/>
-      <c r="D376" s="44"/>
+      <c r="D376" s="46"/>
       <c r="E376" s="20">
         <v>2</v>
       </c>
@@ -9396,7 +9456,7 @@
     </row>
     <row r="377" spans="1:12" ht="105">
       <c r="B377" s="19"/>
-      <c r="D377" s="44"/>
+      <c r="D377" s="46"/>
       <c r="E377" s="20">
         <v>3</v>
       </c>
@@ -9414,7 +9474,7 @@
     </row>
     <row r="378" spans="1:12" ht="30">
       <c r="B378" s="19"/>
-      <c r="D378" s="44"/>
+      <c r="D378" s="46"/>
       <c r="E378" s="20">
         <v>4</v>
       </c>
@@ -9429,7 +9489,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="B379" s="19"/>
-      <c r="D379" s="44"/>
+      <c r="D379" s="46"/>
       <c r="E379" s="20">
         <v>5</v>
       </c>
@@ -9457,7 +9517,7 @@
       <c r="C381" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D381" s="44" t="s">
+      <c r="D381" s="46" t="s">
         <v>342</v>
       </c>
       <c r="E381" s="20">
@@ -9474,7 +9534,7 @@
     </row>
     <row r="382" spans="1:12" ht="30">
       <c r="B382" s="27"/>
-      <c r="D382" s="44"/>
+      <c r="D382" s="46"/>
       <c r="E382" s="20">
         <v>2</v>
       </c>
@@ -9492,7 +9552,7 @@
     </row>
     <row r="383" spans="1:12">
       <c r="B383" s="27"/>
-      <c r="D383" s="44"/>
+      <c r="D383" s="46"/>
       <c r="E383" s="20">
         <v>3</v>
       </c>
@@ -9513,7 +9573,7 @@
     </row>
     <row r="384" spans="1:12" ht="180">
       <c r="B384" s="27"/>
-      <c r="D384" s="44"/>
+      <c r="D384" s="46"/>
       <c r="E384" s="20">
         <v>4</v>
       </c>
@@ -9531,7 +9591,7 @@
     </row>
     <row r="385" spans="1:12" ht="30">
       <c r="B385" s="27"/>
-      <c r="D385" s="44"/>
+      <c r="D385" s="46"/>
       <c r="E385" s="20">
         <v>5</v>
       </c>
@@ -9566,7 +9626,7 @@
       <c r="C387" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D387" s="44" t="s">
+      <c r="D387" s="46" t="s">
         <v>342</v>
       </c>
       <c r="E387" s="20">
@@ -9583,7 +9643,7 @@
     </row>
     <row r="388" spans="1:12" ht="30">
       <c r="B388" s="27"/>
-      <c r="D388" s="44"/>
+      <c r="D388" s="46"/>
       <c r="E388" s="20">
         <v>2</v>
       </c>
@@ -9601,7 +9661,7 @@
     </row>
     <row r="389" spans="1:12">
       <c r="B389" s="27"/>
-      <c r="D389" s="44"/>
+      <c r="D389" s="46"/>
       <c r="E389" s="20">
         <v>3</v>
       </c>
@@ -9622,7 +9682,7 @@
     </row>
     <row r="390" spans="1:12" ht="180">
       <c r="B390" s="27"/>
-      <c r="D390" s="44"/>
+      <c r="D390" s="46"/>
       <c r="E390" s="20">
         <v>4</v>
       </c>
@@ -9644,7 +9704,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="B391" s="27"/>
-      <c r="D391" s="44"/>
+      <c r="D391" s="46"/>
       <c r="K391" s="28"/>
       <c r="L391" s="2"/>
     </row>
@@ -9663,7 +9723,7 @@
       <c r="C393" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D393" s="44" t="s">
+      <c r="D393" s="46" t="s">
         <v>350</v>
       </c>
       <c r="E393" s="20">
@@ -9680,7 +9740,7 @@
     </row>
     <row r="394" spans="1:12" ht="30">
       <c r="B394" s="27"/>
-      <c r="D394" s="44"/>
+      <c r="D394" s="46"/>
       <c r="E394" s="20">
         <v>2</v>
       </c>
@@ -9698,7 +9758,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="B395" s="27"/>
-      <c r="D395" s="44"/>
+      <c r="D395" s="46"/>
       <c r="E395" s="20">
         <v>3</v>
       </c>
@@ -9719,7 +9779,7 @@
     </row>
     <row r="396" spans="1:12" ht="45">
       <c r="B396" s="27"/>
-      <c r="D396" s="44"/>
+      <c r="D396" s="46"/>
       <c r="E396" s="20">
         <v>4</v>
       </c>
@@ -9737,7 +9797,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="B397" s="27"/>
-      <c r="D397" s="44"/>
+      <c r="D397" s="46"/>
       <c r="E397" s="20">
         <v>5</v>
       </c>
@@ -9755,7 +9815,7 @@
     </row>
     <row r="398" spans="1:12" ht="30">
       <c r="B398" s="19"/>
-      <c r="D398" s="44"/>
+      <c r="D398" s="46"/>
       <c r="E398" s="20">
         <v>6</v>
       </c>
@@ -9790,7 +9850,7 @@
       <c r="C400" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="44" t="s">
+      <c r="D400" s="46" t="s">
         <v>352</v>
       </c>
       <c r="E400" s="20">
@@ -9807,7 +9867,7 @@
     </row>
     <row r="401" spans="1:12" ht="30">
       <c r="B401" s="27"/>
-      <c r="D401" s="44"/>
+      <c r="D401" s="46"/>
       <c r="E401" s="20">
         <v>2</v>
       </c>
@@ -9825,7 +9885,7 @@
     </row>
     <row r="402" spans="1:12">
       <c r="B402" s="27"/>
-      <c r="D402" s="44"/>
+      <c r="D402" s="46"/>
       <c r="E402" s="20">
         <v>3</v>
       </c>
@@ -9846,7 +9906,7 @@
     </row>
     <row r="403" spans="1:12" ht="45">
       <c r="B403" s="27"/>
-      <c r="D403" s="44"/>
+      <c r="D403" s="46"/>
       <c r="E403" s="20">
         <v>4</v>
       </c>
@@ -9864,7 +9924,7 @@
     </row>
     <row r="404" spans="1:12">
       <c r="B404" s="27"/>
-      <c r="D404" s="44"/>
+      <c r="D404" s="46"/>
       <c r="E404" s="20">
         <v>5</v>
       </c>
@@ -9882,7 +9942,7 @@
     </row>
     <row r="405" spans="1:12" ht="30">
       <c r="B405" s="27"/>
-      <c r="D405" s="44"/>
+      <c r="D405" s="46"/>
       <c r="E405" s="20">
         <v>6</v>
       </c>
@@ -9917,7 +9977,7 @@
       <c r="C407" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D407" s="44" t="s">
+      <c r="D407" s="46" t="s">
         <v>353</v>
       </c>
       <c r="E407" s="20">
@@ -9934,7 +9994,7 @@
     </row>
     <row r="408" spans="1:12" ht="30">
       <c r="B408" s="27"/>
-      <c r="D408" s="44"/>
+      <c r="D408" s="46"/>
       <c r="E408" s="20">
         <v>2</v>
       </c>
@@ -9952,7 +10012,7 @@
     </row>
     <row r="409" spans="1:12">
       <c r="B409" s="27"/>
-      <c r="D409" s="44"/>
+      <c r="D409" s="46"/>
       <c r="E409" s="20">
         <v>3</v>
       </c>
@@ -9973,7 +10033,7 @@
     </row>
     <row r="410" spans="1:12" ht="30">
       <c r="B410" s="27"/>
-      <c r="D410" s="44"/>
+      <c r="D410" s="46"/>
       <c r="E410" s="20">
         <v>4</v>
       </c>
@@ -9991,7 +10051,7 @@
     </row>
     <row r="411" spans="1:12">
       <c r="B411" s="27"/>
-      <c r="D411" s="44"/>
+      <c r="D411" s="46"/>
       <c r="E411" s="20">
         <v>5</v>
       </c>
@@ -10009,7 +10069,7 @@
     </row>
     <row r="412" spans="1:12" ht="30">
       <c r="B412" s="27"/>
-      <c r="D412" s="44"/>
+      <c r="D412" s="46"/>
       <c r="E412" s="20">
         <v>6</v>
       </c>
@@ -10044,7 +10104,7 @@
       <c r="C414" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D414" s="44" t="s">
+      <c r="D414" s="46" t="s">
         <v>365</v>
       </c>
       <c r="E414" s="20">
@@ -10061,7 +10121,7 @@
     </row>
     <row r="415" spans="1:12" ht="30">
       <c r="B415" s="31"/>
-      <c r="D415" s="44"/>
+      <c r="D415" s="46"/>
       <c r="E415" s="20">
         <v>2</v>
       </c>
@@ -10079,7 +10139,7 @@
     </row>
     <row r="416" spans="1:12">
       <c r="B416" s="31"/>
-      <c r="D416" s="44"/>
+      <c r="D416" s="46"/>
       <c r="E416" s="20">
         <v>3</v>
       </c>
@@ -10097,7 +10157,7 @@
     </row>
     <row r="417" spans="1:12" ht="30">
       <c r="B417" s="31"/>
-      <c r="D417" s="44"/>
+      <c r="D417" s="46"/>
       <c r="E417" s="20">
         <v>4</v>
       </c>
@@ -10132,7 +10192,7 @@
       <c r="C419" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D419" s="44" t="s">
+      <c r="D419" s="46" t="s">
         <v>387</v>
       </c>
       <c r="E419" s="20">
@@ -10152,7 +10212,7 @@
     </row>
     <row r="420" spans="1:12" ht="30.75" customHeight="1">
       <c r="B420" s="31"/>
-      <c r="D420" s="44"/>
+      <c r="D420" s="46"/>
       <c r="E420" s="20">
         <v>2</v>
       </c>
@@ -10163,13 +10223,13 @@
         <v>389</v>
       </c>
       <c r="H420" s="20" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="K420" s="28" t="s">
         <v>572</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -10187,7 +10247,7 @@
       <c r="C422" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D422" s="44" t="s">
+      <c r="D422" s="46" t="s">
         <v>391</v>
       </c>
       <c r="E422" s="20">
@@ -10204,7 +10264,7 @@
     </row>
     <row r="423" spans="1:12" ht="30">
       <c r="B423" s="31"/>
-      <c r="D423" s="44"/>
+      <c r="D423" s="46"/>
       <c r="E423" s="20">
         <v>2</v>
       </c>
@@ -10214,8 +10274,15 @@
       <c r="G423" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="K423" s="28"/>
-      <c r="L423" s="2"/>
+      <c r="H423" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="K423" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L423" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="424" spans="1:12">
       <c r="B424" s="31"/>
@@ -10237,7 +10304,7 @@
       <c r="C426" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D426" s="44" t="s">
+      <c r="D426" s="46" t="s">
         <v>367</v>
       </c>
       <c r="E426" s="20">
@@ -10254,7 +10321,7 @@
     </row>
     <row r="427" spans="1:12" ht="30">
       <c r="B427" s="31"/>
-      <c r="D427" s="44"/>
+      <c r="D427" s="46"/>
       <c r="E427" s="20">
         <v>2</v>
       </c>
@@ -10264,12 +10331,15 @@
       <c r="G427" s="20" t="s">
         <v>369</v>
       </c>
+      <c r="H427" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K427" s="28"/>
       <c r="L427" s="2"/>
     </row>
     <row r="428" spans="1:12" ht="45">
       <c r="B428" s="31"/>
-      <c r="D428" s="44"/>
+      <c r="D428" s="46"/>
       <c r="E428" s="20">
         <v>3</v>
       </c>
@@ -10279,6 +10349,9 @@
       <c r="G428" s="20" t="s">
         <v>372</v>
       </c>
+      <c r="H428" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I428" s="20" t="s">
         <v>371</v>
       </c>
@@ -10287,7 +10360,7 @@
     </row>
     <row r="429" spans="1:12" ht="45">
       <c r="B429" s="19"/>
-      <c r="D429" s="44"/>
+      <c r="D429" s="46"/>
       <c r="E429" s="20">
         <v>4</v>
       </c>
@@ -10297,8 +10370,15 @@
       <c r="G429" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="K429" s="28"/>
-      <c r="L429" s="2"/>
+      <c r="H429" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K429" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L429" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="430" spans="1:12">
       <c r="B430" s="19"/>
@@ -10315,7 +10395,7 @@
       <c r="C431" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D431" s="44" t="s">
+      <c r="D431" s="46" t="s">
         <v>373</v>
       </c>
       <c r="E431" s="20">
@@ -10332,7 +10412,7 @@
     </row>
     <row r="432" spans="1:12" ht="30">
       <c r="B432" s="31"/>
-      <c r="D432" s="44"/>
+      <c r="D432" s="46"/>
       <c r="E432" s="20">
         <v>2</v>
       </c>
@@ -10342,12 +10422,15 @@
       <c r="G432" s="20" t="s">
         <v>369</v>
       </c>
+      <c r="H432" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K432" s="28"/>
       <c r="L432" s="2"/>
     </row>
     <row r="433" spans="1:12" ht="30">
       <c r="B433" s="31"/>
-      <c r="D433" s="44"/>
+      <c r="D433" s="46"/>
       <c r="E433" s="20">
         <v>3</v>
       </c>
@@ -10357,11 +10440,18 @@
       <c r="G433" s="20" t="s">
         <v>375</v>
       </c>
+      <c r="H433" s="20" t="s">
+        <v>583</v>
+      </c>
       <c r="I433" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="K433" s="28"/>
-      <c r="L433" s="2"/>
+      <c r="K433" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="434" spans="1:12">
       <c r="B434" s="31"/>
@@ -10378,7 +10468,7 @@
       <c r="C435" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D435" s="44" t="s">
+      <c r="D435" s="46" t="s">
         <v>367</v>
       </c>
       <c r="E435" s="20">
@@ -10398,7 +10488,7 @@
         <v>385</v>
       </c>
       <c r="B436" s="31"/>
-      <c r="D436" s="44"/>
+      <c r="D436" s="46"/>
       <c r="E436" s="20">
         <v>2</v>
       </c>
@@ -10408,12 +10498,15 @@
       <c r="G436" s="20" t="s">
         <v>369</v>
       </c>
+      <c r="H436" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K436" s="28"/>
       <c r="L436" s="2"/>
     </row>
     <row r="437" spans="1:12" ht="30">
       <c r="B437" s="19"/>
-      <c r="D437" s="44"/>
+      <c r="D437" s="46"/>
       <c r="E437" s="20">
         <v>3</v>
       </c>
@@ -10423,6 +10516,9 @@
       <c r="G437" s="20" t="s">
         <v>375</v>
       </c>
+      <c r="H437" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I437" s="20" t="s">
         <v>376</v>
       </c>
@@ -10431,7 +10527,7 @@
     </row>
     <row r="438" spans="1:12" ht="30">
       <c r="B438" s="19"/>
-      <c r="D438" s="44"/>
+      <c r="D438" s="46"/>
       <c r="E438" s="20">
         <v>4</v>
       </c>
@@ -10441,8 +10537,15 @@
       <c r="G438" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="K438" s="28"/>
-      <c r="L438" s="2"/>
+      <c r="H438" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K438" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L438" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="439" spans="1:12">
       <c r="B439" s="19"/>
@@ -10451,7 +10554,7 @@
     </row>
     <row r="440" spans="1:12">
       <c r="B440" s="19"/>
-      <c r="D440" s="44" t="s">
+      <c r="D440" s="46" t="s">
         <v>382</v>
       </c>
       <c r="E440" s="20">
@@ -10476,2481 +10579,2697 @@
       <c r="C441" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D441" s="44"/>
+      <c r="D441" s="46"/>
       <c r="E441" s="20">
         <v>2</v>
       </c>
       <c r="F441" s="20" t="s">
-        <v>368</v>
+        <v>584</v>
       </c>
       <c r="G441" s="20" t="s">
-        <v>369</v>
+        <v>585</v>
+      </c>
+      <c r="H441" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K441" s="28"/>
       <c r="L441" s="2"/>
     </row>
     <row r="442" spans="1:12" ht="30">
       <c r="B442" s="19"/>
-      <c r="D442" s="44"/>
+      <c r="D442" s="46"/>
       <c r="E442" s="20">
         <v>3</v>
       </c>
       <c r="F442" s="20" t="s">
-        <v>374</v>
+        <v>586</v>
       </c>
       <c r="G442" s="20" t="s">
-        <v>375</v>
+        <v>587</v>
+      </c>
+      <c r="H442" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="I442" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="K442" s="28"/>
-      <c r="L442" s="2"/>
-    </row>
-    <row r="443" spans="1:12" ht="30">
+      <c r="K442" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L442" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
       <c r="B443" s="19"/>
-      <c r="D443" s="44"/>
-      <c r="E443" s="20">
-        <v>4</v>
-      </c>
-      <c r="F443" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="G443" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="K443" s="28"/>
       <c r="L443" s="2"/>
     </row>
     <row r="444" spans="1:12">
-      <c r="B444" s="19"/>
+      <c r="A444" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="B444" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C444" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D444" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E444" s="20">
+        <v>1</v>
+      </c>
+      <c r="F444" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I444" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="K444" s="28"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="1:12">
-      <c r="A445" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="B445" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C445" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D445" s="44" t="s">
-        <v>383</v>
-      </c>
+    <row r="445" spans="1:12" ht="30" customHeight="1">
+      <c r="B445" s="19"/>
+      <c r="D445" s="46"/>
       <c r="E445" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F445" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I445" s="20" t="s">
-        <v>32</v>
+        <v>584</v>
+      </c>
+      <c r="G445" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="H445" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K445" s="28"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="1:12" ht="30" customHeight="1">
+    <row r="446" spans="1:12" ht="30">
       <c r="B446" s="19"/>
-      <c r="D446" s="44"/>
+      <c r="D446" s="46"/>
       <c r="E446" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F446" s="20" t="s">
-        <v>368</v>
+        <v>586</v>
       </c>
       <c r="G446" s="20" t="s">
-        <v>369</v>
+        <v>587</v>
+      </c>
+      <c r="H446" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I446" s="20" t="s">
+        <v>376</v>
       </c>
       <c r="K446" s="28"/>
       <c r="L446" s="2"/>
     </row>
     <row r="447" spans="1:12" ht="30">
       <c r="B447" s="19"/>
-      <c r="D447" s="44"/>
+      <c r="D447" s="46"/>
       <c r="E447" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F447" s="20" t="s">
-        <v>374</v>
+        <v>588</v>
       </c>
       <c r="G447" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="I447" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="K447" s="28"/>
-      <c r="L447" s="2"/>
-    </row>
-    <row r="448" spans="1:12" ht="30">
+        <v>589</v>
+      </c>
+      <c r="H447" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K447" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L447" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
       <c r="B448" s="19"/>
-      <c r="D448" s="44"/>
-      <c r="E448" s="20">
-        <v>4</v>
-      </c>
-      <c r="F448" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="G448" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="K448" s="28"/>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12">
-      <c r="B449" s="19"/>
+    <row r="449" spans="1:12" ht="51.75" customHeight="1">
+      <c r="A449" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="B449" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C449" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D449" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E449" s="20">
+        <v>1</v>
+      </c>
+      <c r="F449" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I449" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="K449" s="28"/>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12" ht="51.75" customHeight="1">
-      <c r="A450" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="B450" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C450" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D450" s="44" t="s">
-        <v>401</v>
-      </c>
+    <row r="450" spans="1:12" ht="30">
+      <c r="B450" s="33"/>
+      <c r="D450" s="46"/>
       <c r="E450" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F450" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I450" s="20" t="s">
-        <v>32</v>
+        <v>402</v>
+      </c>
+      <c r="G450" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="H450" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K450" s="28"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12" ht="30">
+    <row r="451" spans="1:12">
       <c r="B451" s="33"/>
-      <c r="D451" s="44"/>
+      <c r="D451" s="46"/>
       <c r="E451" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F451" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G451" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="H451" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K451" s="28"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" ht="45">
       <c r="B452" s="33"/>
-      <c r="D452" s="44"/>
+      <c r="D452" s="46"/>
       <c r="E452" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F452" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G452" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="K452" s="28"/>
-      <c r="L452" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="H452" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="K452" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L452" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="453" spans="1:12">
-      <c r="B453" s="33"/>
-      <c r="D453" s="44"/>
-      <c r="E453" s="20">
-        <v>4</v>
-      </c>
-      <c r="F453" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="G453" s="20" t="s">
-        <v>407</v>
-      </c>
+      <c r="B453" s="19"/>
       <c r="K453" s="28"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12">
-      <c r="B454" s="19"/>
+    <row r="454" spans="1:12" ht="15" customHeight="1">
+      <c r="A454" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="B454" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C454" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D454" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="E454" s="20">
+        <v>1</v>
+      </c>
+      <c r="F454" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I454" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="K454" s="28"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12" ht="15" customHeight="1">
-      <c r="A455" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="B455" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C455" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D455" s="44" t="s">
-        <v>409</v>
-      </c>
+    <row r="455" spans="1:12" ht="30">
+      <c r="B455" s="33"/>
+      <c r="D455" s="46"/>
       <c r="E455" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F455" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I455" s="20" t="s">
-        <v>32</v>
+        <v>402</v>
+      </c>
+      <c r="G455" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="H455" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K455" s="28"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12" ht="30">
+    <row r="456" spans="1:12">
       <c r="B456" s="33"/>
-      <c r="D456" s="44"/>
+      <c r="D456" s="46"/>
       <c r="E456" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F456" s="20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G456" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="H456" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K456" s="28"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" ht="45">
       <c r="B457" s="33"/>
-      <c r="D457" s="44"/>
+      <c r="D457" s="46"/>
       <c r="E457" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F457" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G457" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="K457" s="28"/>
-      <c r="L457" s="2"/>
-    </row>
-    <row r="458" spans="1:12">
-      <c r="B458" s="33"/>
-      <c r="D458" s="44"/>
+        <v>407</v>
+      </c>
+      <c r="H457" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="K457" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L457" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" ht="30">
+      <c r="B458" s="19"/>
+      <c r="D458" s="46"/>
       <c r="E458" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F458" s="20" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G458" s="20" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K458" s="28"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12" ht="30">
+    <row r="459" spans="1:12">
       <c r="B459" s="19"/>
-      <c r="D459" s="44"/>
-      <c r="E459" s="20">
-        <v>5</v>
-      </c>
-      <c r="F459" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="G459" s="20" t="s">
-        <v>411</v>
-      </c>
       <c r="K459" s="28"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12">
-      <c r="B460" s="19"/>
+    <row r="460" spans="1:12" ht="45">
+      <c r="A460" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="B460" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C460" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D460" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="E460" s="20">
+        <v>1</v>
+      </c>
+      <c r="F460" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G460" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H460" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="I460" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K460" s="28"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12" ht="45">
-      <c r="A461" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="B461" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C461" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D461" s="44" t="s">
-        <v>413</v>
-      </c>
+    <row r="461" spans="1:12" ht="30">
+      <c r="B461" s="34"/>
+      <c r="D461" s="46"/>
       <c r="E461" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F461" s="20" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="G461" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I461" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
+      </c>
+      <c r="H461" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="K461" s="28"/>
       <c r="L461" s="2"/>
     </row>
     <row r="462" spans="1:12" ht="30">
       <c r="B462" s="34"/>
-      <c r="D462" s="44"/>
+      <c r="D462" s="46"/>
       <c r="E462" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F462" s="20" t="s">
-        <v>447</v>
+        <v>592</v>
       </c>
       <c r="G462" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="K462" s="28"/>
-      <c r="L462" s="2"/>
-    </row>
-    <row r="463" spans="1:12" ht="30">
-      <c r="B463" s="34"/>
-      <c r="D463" s="44"/>
-      <c r="E463" s="20">
-        <v>3</v>
-      </c>
-      <c r="F463" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="G463" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="I463" s="20" t="s">
+      <c r="H462" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="I462" s="20" t="s">
         <v>419</v>
       </c>
+      <c r="K462" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L462" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="B463" s="19"/>
       <c r="K463" s="28"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12">
-      <c r="B464" s="19"/>
+    <row r="464" spans="1:12" ht="45" customHeight="1">
+      <c r="A464" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="B464" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C464" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D464" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="E464" s="20">
+        <v>1</v>
+      </c>
+      <c r="F464" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G464" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H464" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I464" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K464" s="28"/>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12" ht="45" customHeight="1">
-      <c r="A465" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="B465" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C465" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D465" s="44" t="s">
-        <v>421</v>
-      </c>
+    <row r="465" spans="1:12" ht="30">
+      <c r="B465" s="34"/>
+      <c r="D465" s="46"/>
       <c r="E465" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F465" s="20" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="G465" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I465" s="20" t="s">
-        <v>416</v>
+        <v>422</v>
+      </c>
+      <c r="H465" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K465" s="28"/>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12" ht="30">
+    <row r="466" spans="1:12" ht="45">
       <c r="B466" s="34"/>
-      <c r="D466" s="44"/>
+      <c r="D466" s="46"/>
       <c r="E466" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F466" s="20" t="s">
-        <v>446</v>
+        <v>594</v>
       </c>
       <c r="G466" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="K466" s="28"/>
-      <c r="L466" s="2"/>
-    </row>
-    <row r="467" spans="1:12" ht="30">
-      <c r="B467" s="34"/>
-      <c r="D467" s="44"/>
+        <v>595</v>
+      </c>
+      <c r="H466" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="I466" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="K466" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L466" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="B467" s="19"/>
+      <c r="D467" s="46"/>
       <c r="E467" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F467" s="20" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="G467" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="I467" s="20" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K467" s="28"/>
       <c r="L467" s="2"/>
     </row>
     <row r="468" spans="1:12">
       <c r="B468" s="19"/>
-      <c r="D468" s="44"/>
-      <c r="E468" s="20">
-        <v>4</v>
-      </c>
-      <c r="F468" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="G468" s="20" t="s">
-        <v>424</v>
-      </c>
       <c r="K468" s="28"/>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="1:12">
-      <c r="B469" s="19"/>
+    <row r="469" spans="1:12" ht="45">
+      <c r="A469" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="B469" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C469" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D469" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="E469" s="20">
+        <v>1</v>
+      </c>
+      <c r="F469" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G469" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H469" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I469" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K469" s="28"/>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12" ht="45">
-      <c r="A470" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="B470" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C470" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D470" s="44" t="s">
-        <v>431</v>
-      </c>
+    <row r="470" spans="1:12" ht="30">
+      <c r="B470" s="34"/>
+      <c r="D470" s="46"/>
       <c r="E470" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F470" s="20" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="G470" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I470" s="20" t="s">
-        <v>416</v>
+        <v>426</v>
+      </c>
+      <c r="H470" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K470" s="28"/>
       <c r="L470" s="2"/>
     </row>
     <row r="471" spans="1:12" ht="30">
       <c r="B471" s="34"/>
-      <c r="D471" s="44"/>
+      <c r="D471" s="46"/>
       <c r="E471" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F471" s="20" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G471" s="20" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K471" s="28"/>
       <c r="L471" s="2"/>
     </row>
     <row r="472" spans="1:12" ht="30">
       <c r="B472" s="34"/>
-      <c r="D472" s="44"/>
+      <c r="D472" s="46"/>
       <c r="E472" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F472" s="20" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G472" s="20" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K472" s="28"/>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="1:12" ht="30">
-      <c r="B473" s="34"/>
-      <c r="D473" s="44"/>
-      <c r="E473" s="20">
-        <v>4</v>
-      </c>
-      <c r="F473" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="G473" s="20" t="s">
-        <v>430</v>
-      </c>
+    <row r="473" spans="1:12">
+      <c r="B473" s="19"/>
       <c r="K473" s="28"/>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12">
-      <c r="B474" s="19"/>
+    <row r="474" spans="1:12" ht="45">
+      <c r="A474" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B474" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C474" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D474" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="E474" s="20">
+        <v>1</v>
+      </c>
+      <c r="F474" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G474" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H474" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I474" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K474" s="28"/>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="1:12" ht="45">
-      <c r="A475" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="B475" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C475" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D475" s="44" t="s">
-        <v>432</v>
-      </c>
+    <row r="475" spans="1:12" ht="30">
+      <c r="B475" s="34"/>
+      <c r="D475" s="46"/>
       <c r="E475" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F475" s="20" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="G475" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I475" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K475" s="28"/>
-      <c r="L475" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="H475" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="K475" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L475" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="476" spans="1:12" ht="30">
       <c r="B476" s="34"/>
-      <c r="D476" s="44"/>
+      <c r="D476" s="46"/>
       <c r="E476" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F476" s="20" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G476" s="20" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K476" s="28"/>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12" ht="30">
+    <row r="477" spans="1:12">
       <c r="B477" s="34"/>
-      <c r="D477" s="44"/>
+      <c r="D477" s="46"/>
       <c r="E477" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F477" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G477" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K477" s="28"/>
       <c r="L477" s="2"/>
     </row>
     <row r="478" spans="1:12">
-      <c r="B478" s="34"/>
-      <c r="D478" s="44"/>
-      <c r="E478" s="20">
-        <v>4</v>
-      </c>
-      <c r="F478" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="G478" s="20" t="s">
-        <v>424</v>
-      </c>
+      <c r="B478" s="19"/>
       <c r="K478" s="28"/>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="1:12">
-      <c r="B479" s="19"/>
-      <c r="K479" s="28"/>
+    <row r="479" spans="1:12" ht="45">
+      <c r="A479" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B479" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C479" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D479" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="E479" s="20">
+        <v>1</v>
+      </c>
+      <c r="F479" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G479" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H479" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I479" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="K479" s="2"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12" ht="45">
-      <c r="A480" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="B480" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C480" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D480" s="44" t="s">
-        <v>436</v>
-      </c>
+    <row r="480" spans="1:12" ht="30">
+      <c r="B480" s="34"/>
+      <c r="D480" s="46"/>
       <c r="E480" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F480" s="20" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="G480" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I480" s="20" t="s">
-        <v>416</v>
+        <v>455</v>
+      </c>
+      <c r="H480" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K480" s="2"/>
       <c r="L480" s="2"/>
     </row>
     <row r="481" spans="1:12" ht="30">
       <c r="B481" s="34"/>
-      <c r="D481" s="44"/>
+      <c r="D481" s="46"/>
       <c r="E481" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F481" s="20" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="G481" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="K481" s="2"/>
-      <c r="L481" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="H481" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="K481" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L481" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="482" spans="1:12" ht="30">
       <c r="B482" s="34"/>
-      <c r="D482" s="44"/>
+      <c r="D482" s="46"/>
       <c r="E482" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F482" s="20" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G482" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="1:12" ht="30">
+    <row r="483" spans="1:12">
       <c r="B483" s="34"/>
-      <c r="D483" s="44"/>
-      <c r="E483" s="20">
-        <v>4</v>
-      </c>
-      <c r="F483" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="G483" s="20" t="s">
-        <v>430</v>
-      </c>
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12">
-      <c r="B484" s="34"/>
+    <row r="484" spans="1:12" ht="45">
+      <c r="A484" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B484" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C484" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D484" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="E484" s="20">
+        <v>1</v>
+      </c>
+      <c r="F484" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G484" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H484" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I484" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12" ht="45">
-      <c r="A485" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="B485" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C485" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D485" s="44" t="s">
-        <v>438</v>
-      </c>
+    <row r="485" spans="1:12" ht="30">
+      <c r="B485" s="34"/>
+      <c r="D485" s="46"/>
       <c r="E485" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F485" s="20" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="G485" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I485" s="20" t="s">
-        <v>416</v>
+        <v>454</v>
+      </c>
+      <c r="H485" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
     <row r="486" spans="1:12" ht="30">
       <c r="B486" s="34"/>
-      <c r="D486" s="44"/>
+      <c r="D486" s="46"/>
       <c r="E486" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F486" s="20" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="G486" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="K486" s="2"/>
-      <c r="L486" s="2"/>
-    </row>
-    <row r="487" spans="1:12" ht="30">
+        <v>437</v>
+      </c>
+      <c r="H486" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="K486" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L486" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
       <c r="B487" s="34"/>
-      <c r="D487" s="44"/>
+      <c r="D487" s="46"/>
       <c r="E487" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F487" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G487" s="20" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
     </row>
     <row r="488" spans="1:12">
-      <c r="B488" s="34"/>
-      <c r="D488" s="44"/>
-      <c r="E488" s="20">
-        <v>4</v>
-      </c>
-      <c r="F488" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="G488" s="20" t="s">
-        <v>424</v>
-      </c>
+      <c r="B488" s="19"/>
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="1:12">
-      <c r="B489" s="19"/>
+    <row r="489" spans="1:12" ht="45">
+      <c r="A489" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="B489" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C489" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D489" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="E489" s="20">
+        <v>1</v>
+      </c>
+      <c r="F489" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G489" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H489" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I489" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12" ht="45">
-      <c r="A490" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="B490" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C490" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D490" s="44" t="s">
-        <v>449</v>
-      </c>
+    <row r="490" spans="1:12" ht="30">
+      <c r="B490" s="39"/>
+      <c r="D490" s="46"/>
       <c r="E490" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F490" s="20" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="G490" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I490" s="20" t="s">
-        <v>416</v>
+        <v>454</v>
+      </c>
+      <c r="H490" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K490" s="2"/>
       <c r="L490" s="2"/>
     </row>
     <row r="491" spans="1:12" ht="30">
       <c r="B491" s="39"/>
-      <c r="D491" s="44"/>
+      <c r="D491" s="46"/>
       <c r="E491" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F491" s="20" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G491" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
+      </c>
+      <c r="H491" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I491" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
     </row>
     <row r="492" spans="1:12" ht="30">
       <c r="B492" s="39"/>
-      <c r="D492" s="44"/>
+      <c r="D492" s="46"/>
       <c r="E492" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F492" s="20" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G492" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="I492" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="K492" s="2"/>
-      <c r="L492" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="H492" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K492" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L492" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="493" spans="1:12">
-      <c r="B493" s="39"/>
-      <c r="D493" s="44"/>
-      <c r="E493" s="20">
-        <v>4</v>
-      </c>
-      <c r="F493" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="G493" s="20" t="s">
-        <v>440</v>
-      </c>
+      <c r="B493" s="19"/>
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12">
-      <c r="B494" s="19"/>
+    <row r="494" spans="1:12" ht="45">
+      <c r="A494" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="B494" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C494" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D494" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="E494" s="20">
+        <v>1</v>
+      </c>
+      <c r="F494" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G494" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H494" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I494" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12" ht="45">
-      <c r="A495" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="B495" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C495" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D495" s="44" t="s">
-        <v>448</v>
-      </c>
+    <row r="495" spans="1:12" ht="30">
+      <c r="B495" s="39"/>
+      <c r="D495" s="46"/>
       <c r="E495" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F495" s="20" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="G495" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I495" s="20" t="s">
-        <v>416</v>
+        <v>454</v>
+      </c>
+      <c r="H495" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
     </row>
     <row r="496" spans="1:12" ht="30">
       <c r="B496" s="39"/>
-      <c r="D496" s="44"/>
+      <c r="D496" s="46"/>
       <c r="E496" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F496" s="20" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G496" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
+      </c>
+      <c r="H496" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I496" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
     </row>
     <row r="497" spans="1:12" ht="30">
       <c r="B497" s="39"/>
-      <c r="D497" s="44"/>
+      <c r="D497" s="46"/>
       <c r="E497" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F497" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G497" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="I497" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="K497" s="2"/>
-      <c r="L497" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="H497" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K497" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L497" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="498" spans="1:12">
-      <c r="B498" s="39"/>
-      <c r="D498" s="44"/>
-      <c r="E498" s="20">
-        <v>4</v>
-      </c>
-      <c r="F498" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="G498" s="20" t="s">
-        <v>440</v>
-      </c>
+      <c r="B498" s="19"/>
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12">
-      <c r="B499" s="19"/>
+    <row r="499" spans="1:12" ht="45">
+      <c r="A499" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B499" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C499" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D499" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="E499" s="20">
+        <v>1</v>
+      </c>
+      <c r="F499" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G499" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I499" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12" ht="45">
-      <c r="A500" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="B500" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C500" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D500" s="44" t="s">
-        <v>460</v>
-      </c>
+    <row r="500" spans="1:12" ht="30">
+      <c r="B500" s="39"/>
+      <c r="D500" s="46"/>
       <c r="E500" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F500" s="20" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="G500" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I500" s="20" t="s">
-        <v>416</v>
+        <v>457</v>
+      </c>
+      <c r="H500" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12" ht="30">
+    <row r="501" spans="1:12">
       <c r="B501" s="39"/>
-      <c r="D501" s="44"/>
+      <c r="D501" s="46"/>
       <c r="E501" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F501" s="20" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G501" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="H501" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I501" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" ht="90">
       <c r="B502" s="39"/>
-      <c r="D502" s="44"/>
+      <c r="D502" s="46"/>
       <c r="E502" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F502" s="20" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="G502" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="I502" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="K502" s="2"/>
-      <c r="L502" s="2"/>
-    </row>
-    <row r="503" spans="1:12" ht="90">
-      <c r="B503" s="39"/>
-      <c r="D503" s="44"/>
-      <c r="E503" s="20">
-        <v>4</v>
-      </c>
-      <c r="F503" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="G503" s="20" t="s">
         <v>462</v>
       </c>
+      <c r="H502" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="K502" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L502" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12">
+      <c r="B503" s="19"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12">
-      <c r="B504" s="19"/>
+    <row r="504" spans="1:12" ht="45">
+      <c r="A504" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="B504" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C504" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D504" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="E504" s="20">
+        <v>1</v>
+      </c>
+      <c r="F504" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G504" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H504" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I504" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12" ht="45">
-      <c r="A505" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="B505" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C505" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D505" s="44" t="s">
-        <v>464</v>
-      </c>
+    <row r="505" spans="1:12" ht="30">
+      <c r="B505" s="39"/>
+      <c r="D505" s="46"/>
       <c r="E505" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F505" s="20" t="s">
-        <v>414</v>
+        <v>498</v>
       </c>
       <c r="G505" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I505" s="20" t="s">
-        <v>416</v>
+        <v>467</v>
+      </c>
+      <c r="H505" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K505" s="2"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12" ht="30">
+    <row r="506" spans="1:12">
       <c r="B506" s="39"/>
-      <c r="D506" s="44"/>
+      <c r="D506" s="46"/>
       <c r="E506" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F506" s="20" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="G506" s="20" t="s">
-        <v>467</v>
+        <v>458</v>
+      </c>
+      <c r="H506" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I506" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" ht="30">
       <c r="B507" s="39"/>
-      <c r="D507" s="44"/>
+      <c r="D507" s="46"/>
       <c r="E507" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F507" s="20" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="G507" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="I507" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="K507" s="2"/>
-      <c r="L507" s="2"/>
-    </row>
-    <row r="508" spans="1:12" ht="30">
-      <c r="B508" s="39"/>
-      <c r="D508" s="44"/>
-      <c r="E508" s="20">
-        <v>4</v>
-      </c>
-      <c r="F508" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="G508" s="20" t="s">
         <v>466</v>
       </c>
+      <c r="H507" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K507" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L507" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12">
+      <c r="B508" s="19"/>
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12">
-      <c r="B509" s="19"/>
+    <row r="509" spans="1:12" ht="45">
+      <c r="A509" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B509" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C509" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D509" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="E509" s="20">
+        <v>1</v>
+      </c>
+      <c r="F509" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G509" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H509" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I509" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" ht="45">
-      <c r="A510" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="B510" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C510" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D510" s="44" t="s">
-        <v>469</v>
-      </c>
+    <row r="510" spans="1:12" ht="30">
+      <c r="B510" s="39"/>
+      <c r="D510" s="46"/>
       <c r="E510" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F510" s="20" t="s">
-        <v>414</v>
+        <v>499</v>
       </c>
       <c r="G510" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I510" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="K510" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="H510" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K510" s="28"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12" ht="30">
+    <row r="511" spans="1:12">
       <c r="B511" s="39"/>
-      <c r="D511" s="44"/>
+      <c r="D511" s="46"/>
       <c r="E511" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F511" s="20" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
       <c r="G511" s="20" t="s">
-        <v>468</v>
+        <v>458</v>
+      </c>
+      <c r="H511" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I511" s="20" t="s">
+        <v>419</v>
       </c>
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" ht="30">
       <c r="B512" s="39"/>
-      <c r="D512" s="44"/>
+      <c r="D512" s="46"/>
       <c r="E512" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="G512" s="20" t="s">
-        <v>458</v>
+        <v>471</v>
+      </c>
+      <c r="H512" s="20" t="s">
+        <v>600</v>
       </c>
       <c r="I512" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="K512" s="2"/>
-      <c r="L512" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="K512" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L512" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="513" spans="1:12">
-      <c r="B513" s="39"/>
-      <c r="D513" s="44"/>
-      <c r="E513" s="20">
-        <v>4</v>
-      </c>
-      <c r="F513" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="G513" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="I513" s="20" t="s">
-        <v>472</v>
-      </c>
+      <c r="B513" s="19"/>
       <c r="K513" s="2"/>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="1:12">
-      <c r="B514" s="19"/>
+    <row r="514" spans="1:12" ht="45">
+      <c r="A514" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="B514" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C514" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D514" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="E514" s="20">
+        <v>1</v>
+      </c>
+      <c r="F514" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G514" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="H514" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I514" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K514" s="2"/>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="1:12" ht="45">
-      <c r="A515" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="B515" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C515" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D515" s="44" t="s">
-        <v>477</v>
-      </c>
+    <row r="515" spans="1:12" ht="30">
+      <c r="B515" s="39"/>
+      <c r="D515" s="46"/>
       <c r="E515" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>414</v>
+        <v>499</v>
       </c>
       <c r="G515" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I515" s="20" t="s">
-        <v>416</v>
+        <v>468</v>
+      </c>
+      <c r="H515" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K515" s="2"/>
       <c r="L515" s="2"/>
     </row>
     <row r="516" spans="1:12" ht="30">
       <c r="B516" s="39"/>
-      <c r="D516" s="44"/>
+      <c r="D516" s="46"/>
       <c r="E516" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="G516" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="K516" s="2"/>
-      <c r="L516" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="H516" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="I516" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="K516" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L516" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="517" spans="1:12">
-      <c r="B517" s="39"/>
-      <c r="D517" s="44"/>
-      <c r="E517" s="20">
-        <v>3</v>
-      </c>
-      <c r="F517" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="G517" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="I517" s="20" t="s">
-        <v>472</v>
-      </c>
+      <c r="B517" s="19"/>
       <c r="K517" s="2"/>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="1:12">
-      <c r="B518" s="19"/>
+    <row r="518" spans="1:12" ht="45">
+      <c r="A518" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="B518" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C518" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D518" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="E518" s="20">
+        <v>1</v>
+      </c>
+      <c r="F518" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G518" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I518" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12" ht="45">
-      <c r="A519" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="B519" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C519" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D519" s="44" t="s">
-        <v>476</v>
-      </c>
+    <row r="519" spans="1:12" ht="30">
+      <c r="B519" s="39"/>
+      <c r="D519" s="46"/>
       <c r="E519" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F519" s="20" t="s">
-        <v>414</v>
+        <v>499</v>
       </c>
       <c r="G519" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I519" s="20" t="s">
-        <v>416</v>
+        <v>468</v>
+      </c>
+      <c r="H519" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K519" s="2"/>
       <c r="L519" s="2"/>
     </row>
     <row r="520" spans="1:12" ht="30">
       <c r="B520" s="39"/>
-      <c r="D520" s="44"/>
+      <c r="D520" s="46"/>
       <c r="E520" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="G520" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="K520" s="2"/>
-      <c r="L520" s="2"/>
-    </row>
-    <row r="521" spans="1:12">
+        <v>475</v>
+      </c>
+      <c r="H520" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="I520" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="K520" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L520" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" ht="27" customHeight="1">
       <c r="B521" s="39"/>
-      <c r="D521" s="44"/>
+      <c r="D521" s="46"/>
       <c r="E521" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F521" s="20" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G521" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="I521" s="20" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K521" s="2"/>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="1:12" ht="27" customHeight="1">
-      <c r="B522" s="39"/>
-      <c r="D522" s="44"/>
-      <c r="E522" s="20">
-        <v>4</v>
-      </c>
-      <c r="F522" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="G522" s="20" t="s">
-        <v>479</v>
-      </c>
+    <row r="522" spans="1:12">
+      <c r="B522" s="19"/>
       <c r="K522" s="2"/>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12">
-      <c r="B523" s="19"/>
+    <row r="523" spans="1:12" ht="45">
+      <c r="A523" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="B523" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C523" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D523" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="E523" s="20">
+        <v>1</v>
+      </c>
+      <c r="F523" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G523" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I523" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K523" s="2"/>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="1:12" ht="45">
-      <c r="A524" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="B524" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C524" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D524" s="44" t="s">
-        <v>482</v>
-      </c>
+    <row r="524" spans="1:12" ht="30">
+      <c r="B524" s="39"/>
+      <c r="D524" s="46"/>
       <c r="E524" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>414</v>
+        <v>499</v>
       </c>
       <c r="G524" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I524" s="20" t="s">
-        <v>416</v>
+        <v>468</v>
+      </c>
+      <c r="H524" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="K524" s="2"/>
       <c r="L524" s="2"/>
     </row>
     <row r="525" spans="1:12" ht="30">
       <c r="B525" s="39"/>
-      <c r="D525" s="44"/>
+      <c r="D525" s="46"/>
       <c r="E525" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F525" s="20" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="G525" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="K525" s="2"/>
-      <c r="L525" s="2"/>
-    </row>
-    <row r="526" spans="1:12">
+        <v>475</v>
+      </c>
+      <c r="H525" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="I525" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="K525" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L525" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" ht="30.75" customHeight="1">
       <c r="B526" s="39"/>
-      <c r="D526" s="44"/>
+      <c r="D526" s="46"/>
       <c r="E526" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F526" s="20" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="G526" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="I526" s="20" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="K526" s="2"/>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="1:12" ht="30.75" customHeight="1">
-      <c r="B527" s="39"/>
-      <c r="D527" s="44"/>
-      <c r="E527" s="20">
-        <v>4</v>
-      </c>
-      <c r="F527" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="G527" s="20" t="s">
-        <v>484</v>
-      </c>
+    <row r="527" spans="1:12">
+      <c r="B527" s="19"/>
       <c r="K527" s="2"/>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="1:12">
-      <c r="B528" s="19"/>
+    <row r="528" spans="1:12" ht="45">
+      <c r="A528" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="B528" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C528" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D528" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="E528" s="20">
+        <v>1</v>
+      </c>
+      <c r="F528" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G528" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I528" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K528" s="2"/>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="1:12" ht="45">
-      <c r="A529" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="B529" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C529" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D529" s="44" t="s">
-        <v>486</v>
-      </c>
+    <row r="529" spans="1:12" ht="30">
+      <c r="B529" s="39"/>
+      <c r="D529" s="46"/>
       <c r="E529" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F529" s="20" t="s">
-        <v>414</v>
+        <v>497</v>
       </c>
       <c r="G529" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I529" s="20" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="K529" s="2"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12" ht="30">
+    <row r="530" spans="1:12">
       <c r="B530" s="39"/>
-      <c r="D530" s="44"/>
+      <c r="D530" s="46"/>
       <c r="E530" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F530" s="20" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="G530" s="20" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K530" s="2"/>
       <c r="L530" s="2"/>
     </row>
     <row r="531" spans="1:12">
-      <c r="B531" s="39"/>
-      <c r="D531" s="44"/>
-      <c r="E531" s="20">
-        <v>3</v>
-      </c>
-      <c r="F531" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="G531" s="20" t="s">
-        <v>489</v>
-      </c>
+      <c r="B531" s="19"/>
       <c r="K531" s="2"/>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="1:12">
-      <c r="B532" s="19"/>
+    <row r="532" spans="1:12" ht="45">
+      <c r="A532" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="B532" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C532" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D532" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="E532" s="20">
+        <v>1</v>
+      </c>
+      <c r="F532" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G532" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I532" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K532" s="2"/>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="1:12" ht="45">
-      <c r="A533" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="B533" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C533" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D533" s="44" t="s">
-        <v>491</v>
-      </c>
+    <row r="533" spans="1:12" ht="30">
+      <c r="B533" s="39"/>
+      <c r="D533" s="46"/>
       <c r="E533" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F533" s="20" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="G533" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I533" s="20" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12" ht="30">
+    <row r="534" spans="1:12">
       <c r="B534" s="39"/>
-      <c r="D534" s="44"/>
+      <c r="D534" s="46"/>
       <c r="E534" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F534" s="20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G534" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K534" s="2"/>
       <c r="L534" s="2"/>
     </row>
     <row r="535" spans="1:12">
-      <c r="B535" s="39"/>
-      <c r="D535" s="44"/>
-      <c r="E535" s="20">
-        <v>3</v>
-      </c>
-      <c r="F535" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="G535" s="20" t="s">
-        <v>493</v>
-      </c>
+      <c r="B535" s="19"/>
       <c r="K535" s="2"/>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="1:12">
-      <c r="B536" s="19"/>
+    <row r="536" spans="1:12" ht="45">
+      <c r="A536" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B536" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C536" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D536" s="46" t="s">
+        <v>505</v>
+      </c>
+      <c r="E536" s="20">
+        <v>1</v>
+      </c>
+      <c r="F536" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G536" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I536" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K536" s="2"/>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="1:12" ht="45">
-      <c r="A537" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="B537" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C537" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D537" s="44" t="s">
-        <v>505</v>
-      </c>
+    <row r="537" spans="1:12">
+      <c r="B537" s="39"/>
+      <c r="D537" s="46"/>
       <c r="E537" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F537" s="20" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="G537" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I537" s="20" t="s">
-        <v>416</v>
+        <v>501</v>
       </c>
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
     </row>
     <row r="538" spans="1:12">
       <c r="B538" s="39"/>
-      <c r="D538" s="44"/>
+      <c r="D538" s="46"/>
       <c r="E538" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F538" s="20" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G538" s="20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
     <row r="539" spans="1:12">
-      <c r="B539" s="39"/>
-      <c r="D539" s="44"/>
+      <c r="B539" s="19"/>
+      <c r="D539" s="46"/>
       <c r="E539" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F539" s="20" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G539" s="20" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="K539" s="2"/>
       <c r="L539" s="2"/>
     </row>
     <row r="540" spans="1:12">
       <c r="B540" s="19"/>
-      <c r="D540" s="44"/>
-      <c r="E540" s="20">
-        <v>4</v>
-      </c>
-      <c r="F540" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="G540" s="20" t="s">
-        <v>509</v>
-      </c>
       <c r="K540" s="2"/>
       <c r="L540" s="2"/>
     </row>
-    <row r="541" spans="1:12">
-      <c r="B541" s="19"/>
+    <row r="541" spans="1:12" ht="45">
+      <c r="A541" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="B541" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C541" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D541" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="E541" s="20">
+        <v>1</v>
+      </c>
+      <c r="F541" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G541" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I541" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K541" s="2"/>
       <c r="L541" s="2"/>
     </row>
-    <row r="542" spans="1:12" ht="45">
-      <c r="A542" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="B542" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C542" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D542" s="44" t="s">
-        <v>506</v>
-      </c>
+    <row r="542" spans="1:12">
+      <c r="B542" s="39"/>
+      <c r="D542" s="46"/>
       <c r="E542" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F542" s="20" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="G542" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I542" s="20" t="s">
-        <v>416</v>
+        <v>501</v>
       </c>
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
     </row>
     <row r="543" spans="1:12">
       <c r="B543" s="39"/>
-      <c r="D543" s="44"/>
+      <c r="D543" s="46"/>
       <c r="E543" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F543" s="20" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G543" s="20" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
     <row r="544" spans="1:12">
-      <c r="B544" s="39"/>
-      <c r="D544" s="44"/>
-      <c r="E544" s="20">
-        <v>3</v>
-      </c>
-      <c r="F544" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="G544" s="20" t="s">
-        <v>510</v>
-      </c>
+      <c r="B544" s="19"/>
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="1:12">
-      <c r="B545" s="19"/>
+    <row r="545" spans="1:12" ht="45">
+      <c r="A545" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="B545" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C545" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D545" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="E545" s="20">
+        <v>1</v>
+      </c>
+      <c r="F545" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G545" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I545" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K545" s="2"/>
       <c r="L545" s="2"/>
     </row>
-    <row r="546" spans="1:12" ht="45">
-      <c r="A546" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="B546" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C546" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D546" s="44" t="s">
-        <v>512</v>
-      </c>
+    <row r="546" spans="1:12">
+      <c r="B546" s="39"/>
+      <c r="D546" s="46"/>
       <c r="E546" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F546" s="20" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="G546" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I546" s="20" t="s">
-        <v>416</v>
+        <v>501</v>
       </c>
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
     </row>
     <row r="547" spans="1:12">
       <c r="B547" s="39"/>
-      <c r="D547" s="44"/>
+      <c r="D547" s="46"/>
       <c r="E547" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F547" s="20" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G547" s="20" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
     <row r="548" spans="1:12">
-      <c r="B548" s="39"/>
-      <c r="D548" s="44"/>
+      <c r="B548" s="19"/>
+      <c r="D548" s="46"/>
       <c r="E548" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F548" s="20" t="s">
-        <v>507</v>
+        <v>280</v>
       </c>
       <c r="G548" s="20" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K548" s="2"/>
       <c r="L548" s="2"/>
     </row>
     <row r="549" spans="1:12">
       <c r="B549" s="19"/>
-      <c r="D549" s="44"/>
-      <c r="E549" s="20">
-        <v>4</v>
-      </c>
-      <c r="F549" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="G549" s="20" t="s">
-        <v>513</v>
-      </c>
       <c r="K549" s="2"/>
       <c r="L549" s="2"/>
     </row>
-    <row r="550" spans="1:12">
-      <c r="B550" s="19"/>
+    <row r="550" spans="1:12" ht="45">
+      <c r="A550" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="B550" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C550" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D550" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="E550" s="20">
+        <v>1</v>
+      </c>
+      <c r="F550" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G550" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I550" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="1:12" ht="45">
-      <c r="A551" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="B551" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C551" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D551" s="44" t="s">
-        <v>515</v>
-      </c>
+    <row r="551" spans="1:12" ht="30">
+      <c r="B551" s="39"/>
+      <c r="D551" s="46"/>
       <c r="E551" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F551" s="20" t="s">
-        <v>414</v>
+        <v>516</v>
       </c>
       <c r="G551" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I551" s="20" t="s">
-        <v>416</v>
+        <v>517</v>
       </c>
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
     </row>
     <row r="552" spans="1:12" ht="30">
       <c r="B552" s="39"/>
-      <c r="D552" s="44"/>
+      <c r="D552" s="46"/>
       <c r="E552" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F552" s="20" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G552" s="20" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K552" s="2"/>
       <c r="L552" s="2"/>
     </row>
-    <row r="553" spans="1:12" ht="30">
-      <c r="B553" s="39"/>
-      <c r="D553" s="44"/>
-      <c r="E553" s="20">
-        <v>3</v>
-      </c>
-      <c r="F553" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="G553" s="20" t="s">
-        <v>519</v>
-      </c>
+    <row r="553" spans="1:12">
+      <c r="B553" s="19"/>
       <c r="K553" s="2"/>
       <c r="L553" s="2"/>
     </row>
-    <row r="554" spans="1:12">
-      <c r="B554" s="19"/>
+    <row r="554" spans="1:12" ht="45">
+      <c r="A554" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="B554" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C554" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D554" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="E554" s="20">
+        <v>1</v>
+      </c>
+      <c r="F554" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G554" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I554" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K554" s="2"/>
       <c r="L554" s="2"/>
     </row>
-    <row r="555" spans="1:12" ht="45">
-      <c r="A555" s="38" t="s">
-        <v>524</v>
-      </c>
-      <c r="B555" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C555" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D555" s="44" t="s">
-        <v>520</v>
-      </c>
+    <row r="555" spans="1:12" ht="30">
+      <c r="B555" s="39"/>
+      <c r="D555" s="46"/>
       <c r="E555" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F555" s="20" t="s">
-        <v>414</v>
+        <v>522</v>
       </c>
       <c r="G555" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I555" s="20" t="s">
-        <v>416</v>
+        <v>521</v>
       </c>
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
     </row>
     <row r="556" spans="1:12" ht="30">
       <c r="B556" s="39"/>
-      <c r="D556" s="44"/>
+      <c r="D556" s="46"/>
       <c r="E556" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F556" s="20" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G556" s="20" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K556" s="2"/>
       <c r="L556" s="2"/>
     </row>
-    <row r="557" spans="1:12" ht="30">
-      <c r="B557" s="39"/>
-      <c r="D557" s="44"/>
-      <c r="E557" s="20">
-        <v>3</v>
-      </c>
-      <c r="F557" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="G557" s="20" t="s">
-        <v>523</v>
-      </c>
+    <row r="557" spans="1:12">
+      <c r="B557" s="19"/>
       <c r="K557" s="2"/>
       <c r="L557" s="2"/>
     </row>
-    <row r="558" spans="1:12">
-      <c r="B558" s="19"/>
+    <row r="558" spans="1:12" ht="45" customHeight="1">
+      <c r="A558" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="B558" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C558" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D558" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="E558" s="20">
+        <v>1</v>
+      </c>
+      <c r="F558" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G558" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I558" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K558" s="2"/>
       <c r="L558" s="2"/>
     </row>
-    <row r="559" spans="1:12" ht="45" customHeight="1">
-      <c r="A559" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="B559" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C559" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D559" s="44" t="s">
-        <v>531</v>
-      </c>
+    <row r="559" spans="1:12">
+      <c r="B559" s="39"/>
+      <c r="D559" s="46"/>
       <c r="E559" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F559" s="20" t="s">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="G559" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I559" s="20" t="s">
-        <v>416</v>
+        <v>526</v>
       </c>
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
     <row r="560" spans="1:12">
       <c r="B560" s="39"/>
-      <c r="D560" s="44"/>
+      <c r="D560" s="46"/>
       <c r="E560" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F560" s="20" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G560" s="20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K560" s="2"/>
       <c r="L560" s="2"/>
     </row>
     <row r="561" spans="1:12">
-      <c r="B561" s="39"/>
-      <c r="D561" s="44"/>
+      <c r="B561" s="19"/>
+      <c r="D561" s="46"/>
       <c r="E561" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F561" s="20" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G561" s="20" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K561" s="2"/>
       <c r="L561" s="2"/>
     </row>
     <row r="562" spans="1:12">
       <c r="B562" s="19"/>
-      <c r="D562" s="44"/>
-      <c r="E562" s="20">
-        <v>4</v>
-      </c>
-      <c r="F562" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="G562" s="20" t="s">
-        <v>530</v>
-      </c>
       <c r="K562" s="2"/>
       <c r="L562" s="2"/>
     </row>
-    <row r="563" spans="1:12">
-      <c r="B563" s="19"/>
+    <row r="563" spans="1:12" ht="45" customHeight="1">
+      <c r="A563" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B563" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C563" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D563" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="E563" s="20">
+        <v>1</v>
+      </c>
+      <c r="F563" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G563" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I563" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K563" s="2"/>
       <c r="L563" s="2"/>
     </row>
-    <row r="564" spans="1:12" ht="45" customHeight="1">
-      <c r="A564" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="B564" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C564" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D564" s="44" t="s">
-        <v>532</v>
-      </c>
+    <row r="564" spans="1:12">
+      <c r="B564" s="39"/>
+      <c r="D564" s="46"/>
       <c r="E564" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F564" s="20" t="s">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="G564" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I564" s="20" t="s">
-        <v>416</v>
+        <v>526</v>
       </c>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
     </row>
-    <row r="565" spans="1:12">
+    <row r="565" spans="1:12" ht="30">
       <c r="B565" s="39"/>
-      <c r="D565" s="44"/>
+      <c r="D565" s="46"/>
       <c r="E565" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F565" s="20" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="G565" s="20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="1:12" ht="30">
+    <row r="566" spans="1:12">
       <c r="B566" s="39"/>
-      <c r="D566" s="44"/>
+      <c r="D566" s="46"/>
       <c r="E566" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G566" s="20" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K566" s="2"/>
       <c r="L566" s="2"/>
     </row>
     <row r="567" spans="1:12">
-      <c r="B567" s="39"/>
-      <c r="D567" s="44"/>
-      <c r="E567" s="20">
-        <v>4</v>
-      </c>
-      <c r="F567" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="G567" s="20" t="s">
-        <v>534</v>
-      </c>
+      <c r="B567" s="19"/>
       <c r="K567" s="2"/>
       <c r="L567" s="2"/>
     </row>
-    <row r="568" spans="1:12">
-      <c r="B568" s="19"/>
+    <row r="568" spans="1:12" ht="45">
+      <c r="A568" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="B568" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C568" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D568" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="E568" s="20">
+        <v>1</v>
+      </c>
+      <c r="F568" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="G568" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="I568" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K568" s="2"/>
       <c r="L568" s="2"/>
     </row>
-    <row r="569" spans="1:12" ht="45">
-      <c r="A569" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="B569" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C569" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D569" s="44" t="s">
-        <v>544</v>
-      </c>
+    <row r="569" spans="1:12" ht="30">
+      <c r="B569" s="39"/>
+      <c r="D569" s="46"/>
       <c r="E569" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>414</v>
+        <v>539</v>
       </c>
       <c r="G569" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="I569" s="20" t="s">
-        <v>416</v>
+        <v>540</v>
       </c>
       <c r="K569" s="2"/>
       <c r="L569" s="2"/>
     </row>
-    <row r="570" spans="1:12" ht="30">
+    <row r="570" spans="1:12">
       <c r="B570" s="39"/>
-      <c r="D570" s="44"/>
+      <c r="D570" s="46"/>
       <c r="E570" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G570" s="20" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
     </row>
-    <row r="571" spans="1:12">
+    <row r="571" spans="1:12" ht="30">
       <c r="B571" s="39"/>
-      <c r="D571" s="44"/>
+      <c r="D571" s="46"/>
       <c r="E571" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G571" s="20" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="K571" s="2"/>
       <c r="L571" s="2"/>
     </row>
-    <row r="572" spans="1:12" ht="30">
-      <c r="B572" s="39"/>
-      <c r="D572" s="44"/>
-      <c r="E572" s="20">
-        <v>4</v>
-      </c>
-      <c r="F572" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="G572" s="20" t="s">
-        <v>543</v>
-      </c>
+    <row r="572" spans="1:12">
+      <c r="B572" s="19"/>
       <c r="K572" s="2"/>
       <c r="L572" s="2"/>
     </row>
     <row r="573" spans="1:12">
-      <c r="B573" s="19"/>
+      <c r="A573" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="B573" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C573" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D573" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="E573" s="20">
+        <v>1</v>
+      </c>
+      <c r="F573" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="K573" s="2"/>
       <c r="L573" s="2"/>
     </row>
-    <row r="574" spans="1:12">
-      <c r="A574" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="B574" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C574" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D574" s="44" t="s">
-        <v>547</v>
-      </c>
+    <row r="574" spans="1:12" ht="33" customHeight="1">
+      <c r="B574" s="40"/>
+      <c r="D574" s="46"/>
       <c r="E574" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F574" s="20" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="G574" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="K574" s="2"/>
       <c r="L574" s="2"/>
     </row>
-    <row r="575" spans="1:12" ht="33" customHeight="1">
+    <row r="575" spans="1:12" ht="30">
       <c r="B575" s="40"/>
-      <c r="D575" s="44"/>
+      <c r="D575" s="46"/>
       <c r="E575" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F575" s="20" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="G575" s="20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="1:12" ht="30">
+    <row r="576" spans="1:12">
       <c r="B576" s="40"/>
-      <c r="D576" s="44"/>
+      <c r="D576" s="46"/>
       <c r="E576" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F576" s="20" t="s">
-        <v>565</v>
+        <v>201</v>
       </c>
       <c r="G576" s="20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K576" s="2"/>
       <c r="L576" s="2"/>
     </row>
     <row r="577" spans="1:12">
-      <c r="B577" s="40"/>
-      <c r="D577" s="44"/>
-      <c r="E577" s="20">
-        <v>4</v>
-      </c>
-      <c r="F577" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="G577" s="20" t="s">
-        <v>550</v>
-      </c>
+      <c r="B577" s="19"/>
       <c r="K577" s="2"/>
       <c r="L577" s="2"/>
     </row>
-    <row r="578" spans="1:12">
-      <c r="B578" s="19"/>
+    <row r="578" spans="1:12" ht="15" customHeight="1">
+      <c r="A578" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="B578" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C578" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D578" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="E578" s="20">
+        <v>1</v>
+      </c>
+      <c r="F578" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="1:12" ht="15" customHeight="1">
-      <c r="A579" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="B579" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C579" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D579" s="44" t="s">
-        <v>553</v>
-      </c>
+    <row r="579" spans="1:12">
+      <c r="B579" s="40"/>
+      <c r="D579" s="46"/>
       <c r="E579" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F579" s="20" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="G579" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="K579" s="2"/>
       <c r="L579" s="2"/>
     </row>
-    <row r="580" spans="1:12">
+    <row r="580" spans="1:12" ht="30">
       <c r="B580" s="40"/>
-      <c r="D580" s="44"/>
+      <c r="D580" s="46"/>
       <c r="E580" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F580" s="20" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="G580" s="20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
     </row>
-    <row r="581" spans="1:12" ht="30">
+    <row r="581" spans="1:12">
       <c r="B581" s="40"/>
-      <c r="D581" s="44"/>
+      <c r="D581" s="46"/>
       <c r="E581" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F581" s="20" t="s">
-        <v>565</v>
+        <v>201</v>
       </c>
       <c r="G581" s="20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
     </row>
-    <row r="582" spans="1:12">
-      <c r="B582" s="40"/>
-      <c r="D582" s="44"/>
+    <row r="582" spans="1:12" ht="30">
+      <c r="B582" s="19"/>
+      <c r="D582" s="46"/>
       <c r="E582" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F582" s="20" t="s">
-        <v>201</v>
+        <v>554</v>
       </c>
       <c r="G582" s="20" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
     </row>
-    <row r="583" spans="1:12" ht="30">
+    <row r="583" spans="1:12">
       <c r="B583" s="19"/>
-      <c r="D583" s="44"/>
-      <c r="E583" s="20">
-        <v>5</v>
-      </c>
-      <c r="F583" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="G583" s="20" t="s">
-        <v>555</v>
-      </c>
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
     <row r="584" spans="1:12">
-      <c r="B584" s="19"/>
+      <c r="A584" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="B584" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C584" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D584" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="E584" s="20">
+        <v>1</v>
+      </c>
+      <c r="F584" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
     <row r="585" spans="1:12">
-      <c r="A585" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="B585" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C585" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D585" s="44" t="s">
-        <v>556</v>
-      </c>
+      <c r="B585" s="40"/>
+      <c r="D585" s="46"/>
       <c r="E585" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F585" s="20" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="G585" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
-    <row r="586" spans="1:12">
+    <row r="586" spans="1:12" ht="30">
       <c r="B586" s="40"/>
-      <c r="D586" s="44"/>
+      <c r="D586" s="46"/>
       <c r="E586" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F586" s="20" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="G586" s="20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="1:12" ht="30">
+    <row r="587" spans="1:12">
       <c r="B587" s="40"/>
-      <c r="D587" s="44"/>
+      <c r="D587" s="46"/>
       <c r="E587" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F587" s="20" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G587" s="20" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
     </row>
     <row r="588" spans="1:12">
-      <c r="B588" s="40"/>
-      <c r="D588" s="44"/>
-      <c r="E588" s="20">
-        <v>4</v>
-      </c>
-      <c r="F588" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="G588" s="20" t="s">
-        <v>558</v>
-      </c>
+      <c r="B588" s="19"/>
       <c r="K588" s="2"/>
       <c r="L588" s="2"/>
     </row>
     <row r="589" spans="1:12">
-      <c r="B589" s="19"/>
+      <c r="A589" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B589" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C589" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D589" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="E589" s="20">
+        <v>1</v>
+      </c>
+      <c r="F589" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
     </row>
     <row r="590" spans="1:12">
-      <c r="A590" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="B590" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C590" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D590" s="44" t="s">
-        <v>561</v>
-      </c>
+      <c r="B590" s="40"/>
+      <c r="D590" s="46"/>
       <c r="E590" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F590" s="20" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="G590" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="K590" s="2"/>
       <c r="L590" s="2"/>
     </row>
-    <row r="591" spans="1:12">
+    <row r="591" spans="1:12" ht="30">
       <c r="B591" s="40"/>
-      <c r="D591" s="44"/>
+      <c r="D591" s="46"/>
       <c r="E591" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F591" s="20" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="G591" s="20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K591" s="2"/>
       <c r="L591" s="2"/>
     </row>
-    <row r="592" spans="1:12" ht="30">
+    <row r="592" spans="1:12">
       <c r="B592" s="40"/>
-      <c r="D592" s="44"/>
+      <c r="D592" s="46"/>
       <c r="E592" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F592" s="20" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G592" s="20" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="K592" s="2"/>
       <c r="L592" s="2"/>
     </row>
     <row r="593" spans="1:12">
-      <c r="B593" s="40"/>
-      <c r="D593" s="44"/>
-      <c r="E593" s="20">
-        <v>4</v>
-      </c>
-      <c r="F593" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="G593" s="20" t="s">
-        <v>563</v>
-      </c>
+      <c r="B593" s="19"/>
       <c r="K593" s="2"/>
       <c r="L593" s="2"/>
     </row>
-    <row r="594" spans="1:12">
-      <c r="B594" s="19"/>
+    <row r="594" spans="1:12" ht="15" customHeight="1">
+      <c r="A594" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="B594" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C594" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D594" s="46" t="s">
+        <v>568</v>
+      </c>
+      <c r="E594" s="20">
+        <v>1</v>
+      </c>
+      <c r="F594" s="20" t="s">
+        <v>545</v>
+      </c>
       <c r="K594" s="2"/>
       <c r="L594" s="2"/>
     </row>
-    <row r="595" spans="1:12" ht="15" customHeight="1">
-      <c r="A595" s="38" t="s">
-        <v>564</v>
-      </c>
-      <c r="B595" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C595" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D595" s="44" t="s">
-        <v>568</v>
-      </c>
+    <row r="595" spans="1:12" ht="28.5" customHeight="1">
+      <c r="B595" s="40"/>
+      <c r="D595" s="46"/>
       <c r="E595" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F595" s="20" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="G595" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="K595" s="2"/>
       <c r="L595" s="2"/>
     </row>
-    <row r="596" spans="1:12" ht="28.5" customHeight="1">
+    <row r="596" spans="1:12" ht="30">
       <c r="B596" s="40"/>
-      <c r="D596" s="44"/>
+      <c r="D596" s="46"/>
       <c r="E596" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F596" s="20" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="G596" s="20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K596" s="2"/>
       <c r="L596" s="2"/>
     </row>
-    <row r="597" spans="1:12" ht="30">
+    <row r="597" spans="1:12">
       <c r="B597" s="40"/>
-      <c r="D597" s="44"/>
+      <c r="D597" s="46"/>
       <c r="E597" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F597" s="20" t="s">
-        <v>565</v>
+        <v>201</v>
       </c>
       <c r="G597" s="20" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K597" s="2"/>
       <c r="L597" s="2"/>
     </row>
-    <row r="598" spans="1:12">
-      <c r="B598" s="40"/>
-      <c r="D598" s="44"/>
+    <row r="598" spans="1:12" ht="30.75" customHeight="1">
+      <c r="D598" s="46"/>
       <c r="E598" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F598" s="20" t="s">
-        <v>201</v>
+        <v>566</v>
       </c>
       <c r="G598" s="20" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="K598" s="2"/>
       <c r="L598" s="2"/>
     </row>
-    <row r="599" spans="1:12" ht="30.75" customHeight="1">
-      <c r="D599" s="44"/>
-      <c r="E599" s="20">
-        <v>5</v>
-      </c>
-      <c r="F599" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="G599" s="20" t="s">
-        <v>567</v>
-      </c>
+    <row r="599" spans="1:12">
       <c r="K599" s="2"/>
       <c r="L599" s="2"/>
     </row>
@@ -13259,7 +13578,6 @@
       <c r="L675" s="2"/>
     </row>
     <row r="676" spans="11:12">
-      <c r="K676" s="2"/>
       <c r="L676" s="2"/>
     </row>
     <row r="677" spans="11:12">
@@ -13394,71 +13712,32 @@
     <row r="720" spans="12:12">
       <c r="L720" s="2"/>
     </row>
-    <row r="721" spans="12:12">
-      <c r="L721" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="D569:D572"/>
-    <mergeCell ref="D551:D553"/>
-    <mergeCell ref="D555:D557"/>
-    <mergeCell ref="D559:D562"/>
-    <mergeCell ref="D564:D567"/>
-    <mergeCell ref="D533:D535"/>
-    <mergeCell ref="D537:D540"/>
-    <mergeCell ref="D542:D544"/>
-    <mergeCell ref="D546:D549"/>
-    <mergeCell ref="D510:D513"/>
-    <mergeCell ref="D515:D517"/>
-    <mergeCell ref="D519:D522"/>
-    <mergeCell ref="D524:D527"/>
-    <mergeCell ref="D529:D531"/>
-    <mergeCell ref="D490:D493"/>
-    <mergeCell ref="D495:D498"/>
-    <mergeCell ref="D500:D503"/>
-    <mergeCell ref="D505:D508"/>
-    <mergeCell ref="D450:D453"/>
-    <mergeCell ref="D455:D459"/>
-    <mergeCell ref="D480:D483"/>
-    <mergeCell ref="D485:D488"/>
-    <mergeCell ref="D461:D463"/>
-    <mergeCell ref="D465:D468"/>
-    <mergeCell ref="D470:D473"/>
-    <mergeCell ref="D475:D478"/>
-    <mergeCell ref="D440:D443"/>
-    <mergeCell ref="D445:D448"/>
-    <mergeCell ref="D414:D417"/>
-    <mergeCell ref="D419:D420"/>
-    <mergeCell ref="D422:D423"/>
-    <mergeCell ref="D426:D429"/>
-    <mergeCell ref="D431:D433"/>
-    <mergeCell ref="D435:D438"/>
-    <mergeCell ref="D368:D373"/>
-    <mergeCell ref="D375:D379"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D355"/>
-    <mergeCell ref="D357:D360"/>
-    <mergeCell ref="D362:D366"/>
-    <mergeCell ref="D321:D327"/>
-    <mergeCell ref="D329:D333"/>
-    <mergeCell ref="D335:D340"/>
-    <mergeCell ref="D291:D295"/>
-    <mergeCell ref="D297:D302"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D319"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="D280:D283"/>
-    <mergeCell ref="D285:D289"/>
-    <mergeCell ref="D209:D223"/>
-    <mergeCell ref="D225:D240"/>
-    <mergeCell ref="D242:D258"/>
-    <mergeCell ref="D260:D274"/>
-    <mergeCell ref="D197:D201"/>
-    <mergeCell ref="D203:D207"/>
-    <mergeCell ref="D167:D175"/>
-    <mergeCell ref="D177:D186"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="D594:D598"/>
+    <mergeCell ref="D573:D576"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="D584:D587"/>
+    <mergeCell ref="D589:D592"/>
+    <mergeCell ref="D407:D412"/>
+    <mergeCell ref="D381:D385"/>
+    <mergeCell ref="D387:D391"/>
+    <mergeCell ref="D393:D398"/>
+    <mergeCell ref="D400:D405"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D72:D75"/>
     <mergeCell ref="D142:D146"/>
     <mergeCell ref="D157:D165"/>
     <mergeCell ref="D148:D155"/>
@@ -13475,42 +13754,78 @@
     <mergeCell ref="D92:D96"/>
     <mergeCell ref="D98:D102"/>
     <mergeCell ref="D46:D52"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D407:D412"/>
-    <mergeCell ref="D381:D385"/>
-    <mergeCell ref="D387:D391"/>
-    <mergeCell ref="D393:D398"/>
-    <mergeCell ref="D400:D405"/>
-    <mergeCell ref="D595:D599"/>
-    <mergeCell ref="D574:D577"/>
-    <mergeCell ref="D579:D583"/>
-    <mergeCell ref="D585:D588"/>
-    <mergeCell ref="D590:D593"/>
+    <mergeCell ref="D197:D201"/>
+    <mergeCell ref="D203:D207"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="D177:D186"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="D280:D283"/>
+    <mergeCell ref="D285:D289"/>
+    <mergeCell ref="D209:D223"/>
+    <mergeCell ref="D225:D240"/>
+    <mergeCell ref="D242:D258"/>
+    <mergeCell ref="D260:D274"/>
+    <mergeCell ref="D321:D327"/>
+    <mergeCell ref="D329:D333"/>
+    <mergeCell ref="D335:D340"/>
+    <mergeCell ref="D291:D295"/>
+    <mergeCell ref="D297:D302"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D319"/>
+    <mergeCell ref="D368:D373"/>
+    <mergeCell ref="D375:D379"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D355"/>
+    <mergeCell ref="D357:D360"/>
+    <mergeCell ref="D362:D366"/>
+    <mergeCell ref="D440:D442"/>
+    <mergeCell ref="D444:D447"/>
+    <mergeCell ref="D414:D417"/>
+    <mergeCell ref="D419:D420"/>
+    <mergeCell ref="D422:D423"/>
+    <mergeCell ref="D426:D429"/>
+    <mergeCell ref="D431:D433"/>
+    <mergeCell ref="D435:D438"/>
+    <mergeCell ref="D489:D492"/>
+    <mergeCell ref="D494:D497"/>
+    <mergeCell ref="D499:D502"/>
+    <mergeCell ref="D504:D507"/>
+    <mergeCell ref="D449:D452"/>
+    <mergeCell ref="D454:D458"/>
+    <mergeCell ref="D479:D482"/>
+    <mergeCell ref="D484:D487"/>
+    <mergeCell ref="D460:D462"/>
+    <mergeCell ref="D464:D467"/>
+    <mergeCell ref="D469:D472"/>
+    <mergeCell ref="D474:D477"/>
+    <mergeCell ref="D532:D534"/>
+    <mergeCell ref="D536:D539"/>
+    <mergeCell ref="D541:D543"/>
+    <mergeCell ref="D545:D548"/>
+    <mergeCell ref="D509:D512"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="D518:D521"/>
+    <mergeCell ref="D523:D526"/>
+    <mergeCell ref="D528:D530"/>
+    <mergeCell ref="D568:D571"/>
+    <mergeCell ref="D550:D552"/>
+    <mergeCell ref="D554:D556"/>
+    <mergeCell ref="D558:D561"/>
+    <mergeCell ref="D563:D566"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K479">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K480 K482:K485 K511 K508:K509 K503:K506 K498:K501 K493:K496 K487:K491 K513:K515 K517:K519 K521:K524 K526:K675">
+      <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 K512 K510 K507 K502 K497 K492 K486 K481 K516 K520 K525">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K480:K676">
-      <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L721">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L720">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B598">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B597">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">

--- a/Test Execution/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Execution/Rijo/Test Case - Nursing Station.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="615">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1959,6 +1959,48 @@
   </si>
   <si>
     <t>While clicking save shows messages with respect to billtype</t>
+  </si>
+  <si>
+    <t>Search functionality is not working properly.Also Clear button is not wokring</t>
+  </si>
+  <si>
+    <t>DefectId:EQ1-I449</t>
+  </si>
+  <si>
+    <t>Same  as expected</t>
+  </si>
+  <si>
+    <t>Click on Remarks and Enter remarks</t>
+  </si>
+  <si>
+    <t>MED_NURS_TC_101</t>
+  </si>
+  <si>
+    <t>Verify that the nurse is able to add investigations in verbal orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbal Order entry form should be displayed </t>
+  </si>
+  <si>
+    <t>Select the Doctor and click on "Re-checked with Doctor"</t>
+  </si>
+  <si>
+    <t>Doctor should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Add Investigation and Authenticate the user </t>
+  </si>
+  <si>
+    <t>User should be authenticated successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add investigation details </t>
+  </si>
+  <si>
+    <t>Investigations should be added successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to authenticate </t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2233,6 +2275,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2341,7 +2386,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2405,7 +2450,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2469,7 +2514,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2533,7 +2578,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2680,11 +2725,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="63539072"/>
-        <c:axId val="63540608"/>
+        <c:axId val="80516992"/>
+        <c:axId val="80518528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63539072"/>
+        <c:axId val="80516992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,14 +2737,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63540608"/>
+        <c:crossAx val="80518528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63540608"/>
+        <c:axId val="80518528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2753,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63539072"/>
+        <c:crossAx val="80516992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2721,7 +2766,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3196,19 +3241,19 @@
       </c>
       <c r="B2" s="18">
         <f>'Nursing Station'!P2</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="18">
         <f>'Nursing Station'!P3</f>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D2" s="18">
         <f>'Nursing Station'!S2</f>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E2" s="18">
         <f>'Nursing Station'!S3</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="18">
         <f>'Nursing Station'!S4</f>
@@ -3254,19 +3299,19 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" ref="B4:G4" si="0">SUM(B2:B3)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
@@ -3290,16 +3335,16 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3315,9 +3360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S720"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L525" sqref="L525"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J605" sqref="J605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3395,7 +3440,7 @@
       <c r="C2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="20">
@@ -3418,21 +3463,21 @@
       </c>
       <c r="P2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="30">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="30">
       <c r="A3" s="36"/>
       <c r="B3" s="19"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -3455,21 +3500,21 @@
       </c>
       <c r="P3" s="17">
         <f>COUNTA(L:L)-1</f>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="30">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="30">
       <c r="A4" s="36"/>
       <c r="B4" s="19"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="20">
         <v>3</v>
       </c>
@@ -3502,7 +3547,7 @@
     <row r="5" spans="1:19" ht="45">
       <c r="A5" s="36"/>
       <c r="B5" s="19"/>
-      <c r="D5" s="48"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="20">
         <v>4</v>
       </c>
@@ -3535,7 +3580,7 @@
     <row r="6" spans="1:19" ht="30">
       <c r="A6" s="36"/>
       <c r="B6" s="19"/>
-      <c r="D6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="20">
         <v>5</v>
       </c>
@@ -3563,7 +3608,7 @@
       <c r="C8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="47" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="20">
@@ -3580,7 +3625,7 @@
     </row>
     <row r="9" spans="1:19" ht="30">
       <c r="B9" s="19"/>
-      <c r="D9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="20">
         <v>2</v>
       </c>
@@ -3598,7 +3643,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="19"/>
-      <c r="D10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="20">
         <v>3</v>
       </c>
@@ -3619,7 +3664,7 @@
     </row>
     <row r="11" spans="1:19" ht="45">
       <c r="B11" s="19"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="20">
         <v>4</v>
       </c>
@@ -3657,7 +3702,7 @@
       <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="20">
@@ -3677,7 +3722,7 @@
     </row>
     <row r="14" spans="1:19" ht="30">
       <c r="B14" s="19"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="20">
         <v>2</v>
       </c>
@@ -3695,7 +3740,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="19"/>
-      <c r="D15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="20">
         <v>3</v>
       </c>
@@ -3713,7 +3758,7 @@
     </row>
     <row r="16" spans="1:19" ht="30">
       <c r="B16" s="19"/>
-      <c r="D16" s="46"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="20">
         <v>3</v>
       </c>
@@ -3748,7 +3793,7 @@
       <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="47" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="20">
@@ -3768,7 +3813,7 @@
     </row>
     <row r="19" spans="1:12" ht="30">
       <c r="B19" s="19"/>
-      <c r="D19" s="46"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="20">
         <v>2</v>
       </c>
@@ -3786,7 +3831,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="B20" s="19"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="20">
         <v>3</v>
       </c>
@@ -3804,7 +3849,7 @@
     </row>
     <row r="21" spans="1:12" ht="30">
       <c r="B21" s="19"/>
-      <c r="D21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="20">
         <v>4</v>
       </c>
@@ -3839,7 +3884,7 @@
       <c r="C23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="47" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="20">
@@ -3856,7 +3901,7 @@
     </row>
     <row r="24" spans="1:12" ht="30">
       <c r="B24" s="19"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="20">
         <v>2</v>
       </c>
@@ -3874,7 +3919,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="B25" s="19"/>
-      <c r="D25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="20">
         <v>3</v>
       </c>
@@ -3892,7 +3937,7 @@
     </row>
     <row r="26" spans="1:12" ht="60">
       <c r="B26" s="19"/>
-      <c r="D26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="20">
         <v>4</v>
       </c>
@@ -3930,7 +3975,7 @@
       <c r="C28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="47" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="20">
@@ -3947,7 +3992,7 @@
     </row>
     <row r="29" spans="1:12" ht="30">
       <c r="B29" s="19"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="20">
         <v>2</v>
       </c>
@@ -3965,7 +4010,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="19"/>
-      <c r="D30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="20">
         <v>3</v>
       </c>
@@ -3983,7 +4028,7 @@
     </row>
     <row r="31" spans="1:12" ht="60">
       <c r="B31" s="19"/>
-      <c r="D31" s="46"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="20">
         <v>4</v>
       </c>
@@ -4021,7 +4066,7 @@
       <c r="C33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="47" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="20">
@@ -4038,7 +4083,7 @@
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="B34" s="19"/>
-      <c r="D34" s="46"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="20">
         <v>2</v>
       </c>
@@ -4056,7 +4101,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="19"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="20">
         <v>3</v>
       </c>
@@ -4074,7 +4119,7 @@
     </row>
     <row r="36" spans="1:12" ht="60">
       <c r="B36" s="19"/>
-      <c r="D36" s="46"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="20">
         <v>4</v>
       </c>
@@ -4095,7 +4140,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="B37" s="19"/>
-      <c r="D37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="20">
         <v>5</v>
       </c>
@@ -4113,7 +4158,7 @@
     </row>
     <row r="38" spans="1:12" ht="30">
       <c r="B38" s="19"/>
-      <c r="D38" s="46"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="20">
         <v>6</v>
       </c>
@@ -4148,7 +4193,7 @@
       <c r="C40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="47" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="20">
@@ -4165,7 +4210,7 @@
     </row>
     <row r="41" spans="1:12" ht="30">
       <c r="B41" s="19"/>
-      <c r="D41" s="46"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="20">
         <v>2</v>
       </c>
@@ -4183,7 +4228,7 @@
     </row>
     <row r="42" spans="1:12" ht="30">
       <c r="B42" s="19"/>
-      <c r="D42" s="46"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="20">
         <v>3</v>
       </c>
@@ -4201,7 +4246,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="B43" s="19"/>
-      <c r="D43" s="46"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="20">
         <v>4</v>
       </c>
@@ -4219,7 +4264,7 @@
     </row>
     <row r="44" spans="1:12" ht="45">
       <c r="B44" s="19"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="20">
         <v>5</v>
       </c>
@@ -4257,7 +4302,7 @@
       <c r="C46" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="47" t="s">
         <v>88</v>
       </c>
       <c r="E46" s="20">
@@ -4274,7 +4319,7 @@
     </row>
     <row r="47" spans="1:12" ht="30">
       <c r="B47" s="19"/>
-      <c r="D47" s="46"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="20">
         <v>2</v>
       </c>
@@ -4292,7 +4337,7 @@
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="B48" s="19"/>
-      <c r="D48" s="46"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="20">
         <v>3</v>
       </c>
@@ -4310,7 +4355,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="B49" s="19"/>
-      <c r="D49" s="46"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="20">
         <v>4</v>
       </c>
@@ -4328,7 +4373,7 @@
     </row>
     <row r="50" spans="1:12" ht="45">
       <c r="B50" s="19"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="20">
         <v>5</v>
       </c>
@@ -4349,7 +4394,7 @@
     </row>
     <row r="51" spans="1:12" ht="30">
       <c r="B51" s="19"/>
-      <c r="D51" s="46"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="20">
         <v>6</v>
       </c>
@@ -4367,7 +4412,7 @@
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="B52" s="19"/>
-      <c r="D52" s="46"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="20">
         <v>7</v>
       </c>
@@ -4402,7 +4447,7 @@
       <c r="C54" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E54" s="20">
@@ -4419,7 +4464,7 @@
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="B55" s="19"/>
-      <c r="D55" s="46"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="20">
         <v>2</v>
       </c>
@@ -4437,7 +4482,7 @@
     </row>
     <row r="56" spans="1:12" ht="45">
       <c r="B56" s="19"/>
-      <c r="D56" s="46"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="20">
         <v>3</v>
       </c>
@@ -4458,7 +4503,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="B57" s="19"/>
-      <c r="D57" s="46"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="20">
         <v>4</v>
       </c>
@@ -4493,7 +4538,7 @@
       <c r="C59" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="47" t="s">
         <v>103</v>
       </c>
       <c r="E59" s="20">
@@ -4510,7 +4555,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="B60" s="19"/>
-      <c r="D60" s="46"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="20">
         <v>2</v>
       </c>
@@ -4528,7 +4573,7 @@
     </row>
     <row r="61" spans="1:12" ht="120">
       <c r="B61" s="19"/>
-      <c r="D61" s="46"/>
+      <c r="D61" s="47"/>
       <c r="E61" s="20">
         <v>3</v>
       </c>
@@ -4566,7 +4611,7 @@
       <c r="C63" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="47" t="s">
         <v>107</v>
       </c>
       <c r="E63" s="20">
@@ -4583,7 +4628,7 @@
     </row>
     <row r="64" spans="1:12" ht="30">
       <c r="B64" s="19"/>
-      <c r="D64" s="46"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="20">
         <v>2</v>
       </c>
@@ -4601,7 +4646,7 @@
     </row>
     <row r="65" spans="1:12" ht="120">
       <c r="B65" s="19"/>
-      <c r="D65" s="46"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="20">
         <v>3</v>
       </c>
@@ -4639,7 +4684,7 @@
       <c r="C67" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="47" t="s">
         <v>111</v>
       </c>
       <c r="E67" s="20">
@@ -4656,7 +4701,7 @@
     </row>
     <row r="68" spans="1:12" ht="30">
       <c r="B68" s="19"/>
-      <c r="D68" s="46"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="20">
         <v>2</v>
       </c>
@@ -4674,7 +4719,7 @@
     </row>
     <row r="69" spans="1:12" ht="30">
       <c r="B69" s="19"/>
-      <c r="D69" s="46"/>
+      <c r="D69" s="47"/>
       <c r="E69" s="20">
         <v>3</v>
       </c>
@@ -4692,7 +4737,7 @@
     </row>
     <row r="70" spans="1:12" ht="30">
       <c r="B70" s="19"/>
-      <c r="D70" s="46"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="20">
         <v>4</v>
       </c>
@@ -4727,7 +4772,7 @@
       <c r="C72" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="47" t="s">
         <v>118</v>
       </c>
       <c r="E72" s="20">
@@ -4744,7 +4789,7 @@
     </row>
     <row r="73" spans="1:12" ht="30">
       <c r="B73" s="19"/>
-      <c r="D73" s="46"/>
+      <c r="D73" s="47"/>
       <c r="E73" s="20">
         <v>2</v>
       </c>
@@ -4762,7 +4807,7 @@
     </row>
     <row r="74" spans="1:12" ht="30">
       <c r="B74" s="19"/>
-      <c r="D74" s="46"/>
+      <c r="D74" s="47"/>
       <c r="E74" s="20">
         <v>3</v>
       </c>
@@ -4780,7 +4825,7 @@
     </row>
     <row r="75" spans="1:12" ht="45">
       <c r="B75" s="19"/>
-      <c r="D75" s="46"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="20">
         <v>4</v>
       </c>
@@ -4815,7 +4860,7 @@
       <c r="C77" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="47" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="20">
@@ -4832,7 +4877,7 @@
     </row>
     <row r="78" spans="1:12" ht="30">
       <c r="B78" s="19"/>
-      <c r="D78" s="46"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="20">
         <v>2</v>
       </c>
@@ -4850,7 +4895,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="B79" s="19"/>
-      <c r="D79" s="46"/>
+      <c r="D79" s="47"/>
       <c r="E79" s="20">
         <v>3</v>
       </c>
@@ -4868,7 +4913,7 @@
     </row>
     <row r="80" spans="1:12" ht="45">
       <c r="B80" s="19"/>
-      <c r="D80" s="46"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="20">
         <v>4</v>
       </c>
@@ -4906,7 +4951,7 @@
       <c r="C82" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="49" t="s">
+      <c r="D82" s="50" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="20">
@@ -4923,7 +4968,7 @@
     </row>
     <row r="83" spans="1:12" ht="30">
       <c r="B83" s="19"/>
-      <c r="D83" s="49"/>
+      <c r="D83" s="50"/>
       <c r="E83" s="20">
         <v>2</v>
       </c>
@@ -4941,7 +4986,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="B84" s="19"/>
-      <c r="D84" s="49"/>
+      <c r="D84" s="50"/>
       <c r="E84" s="20">
         <v>3</v>
       </c>
@@ -4959,7 +5004,7 @@
     </row>
     <row r="85" spans="1:12" ht="45">
       <c r="B85" s="19"/>
-      <c r="D85" s="49"/>
+      <c r="D85" s="50"/>
       <c r="E85" s="20">
         <v>4</v>
       </c>
@@ -4997,7 +5042,7 @@
       <c r="C87" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D87" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E87" s="20">
@@ -5014,7 +5059,7 @@
     </row>
     <row r="88" spans="1:12" ht="30">
       <c r="B88" s="19"/>
-      <c r="D88" s="46"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="20">
         <v>2</v>
       </c>
@@ -5032,7 +5077,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="B89" s="19"/>
-      <c r="D89" s="46"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="20">
         <v>3</v>
       </c>
@@ -5050,7 +5095,7 @@
     </row>
     <row r="90" spans="1:12" ht="45">
       <c r="B90" s="19"/>
-      <c r="D90" s="46"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="20">
         <v>4</v>
       </c>
@@ -5088,7 +5133,7 @@
       <c r="C92" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="46" t="s">
+      <c r="D92" s="47" t="s">
         <v>139</v>
       </c>
       <c r="E92" s="20">
@@ -5105,7 +5150,7 @@
     </row>
     <row r="93" spans="1:12" ht="30">
       <c r="B93" s="19"/>
-      <c r="D93" s="46"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="20">
         <v>2</v>
       </c>
@@ -5123,7 +5168,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="B94" s="19"/>
-      <c r="D94" s="46"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="20">
         <v>3</v>
       </c>
@@ -5141,7 +5186,7 @@
     </row>
     <row r="95" spans="1:12" ht="45">
       <c r="B95" s="19"/>
-      <c r="D95" s="46"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="20">
         <v>4</v>
       </c>
@@ -5162,7 +5207,7 @@
     </row>
     <row r="96" spans="1:12" ht="30">
       <c r="B96" s="19"/>
-      <c r="D96" s="46"/>
+      <c r="D96" s="47"/>
       <c r="E96" s="20">
         <v>5</v>
       </c>
@@ -5197,7 +5242,7 @@
       <c r="C98" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="46" t="s">
+      <c r="D98" s="47" t="s">
         <v>139</v>
       </c>
       <c r="E98" s="20">
@@ -5214,7 +5259,7 @@
     </row>
     <row r="99" spans="1:12" ht="30">
       <c r="B99" s="19"/>
-      <c r="D99" s="46"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="20">
         <v>2</v>
       </c>
@@ -5232,7 +5277,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="B100" s="19"/>
-      <c r="D100" s="46"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="20">
         <v>3</v>
       </c>
@@ -5250,7 +5295,7 @@
     </row>
     <row r="101" spans="1:12" ht="45">
       <c r="B101" s="19"/>
-      <c r="D101" s="46"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="20">
         <v>4</v>
       </c>
@@ -5271,7 +5316,7 @@
     </row>
     <row r="102" spans="1:12" ht="30">
       <c r="B102" s="19"/>
-      <c r="D102" s="46"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="20">
         <v>5</v>
       </c>
@@ -5306,7 +5351,7 @@
       <c r="C104" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="46" t="s">
+      <c r="D104" s="47" t="s">
         <v>146</v>
       </c>
       <c r="E104" s="20">
@@ -5323,7 +5368,7 @@
     </row>
     <row r="105" spans="1:12" ht="30">
       <c r="B105" s="19"/>
-      <c r="D105" s="46"/>
+      <c r="D105" s="47"/>
       <c r="E105" s="20">
         <v>2</v>
       </c>
@@ -5341,7 +5386,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="B106" s="19"/>
-      <c r="D106" s="46"/>
+      <c r="D106" s="47"/>
       <c r="E106" s="20">
         <v>3</v>
       </c>
@@ -5359,7 +5404,7 @@
     </row>
     <row r="107" spans="1:12" ht="45">
       <c r="B107" s="19"/>
-      <c r="D107" s="46"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="20">
         <v>4</v>
       </c>
@@ -5384,7 +5429,7 @@
     </row>
     <row r="108" spans="1:12" ht="43.5" customHeight="1">
       <c r="B108" s="19"/>
-      <c r="D108" s="46"/>
+      <c r="D108" s="47"/>
       <c r="E108" s="20">
         <v>5</v>
       </c>
@@ -5412,7 +5457,7 @@
       <c r="C110" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D110" s="46" t="s">
+      <c r="D110" s="47" t="s">
         <v>150</v>
       </c>
       <c r="E110" s="20">
@@ -5429,7 +5474,7 @@
     </row>
     <row r="111" spans="1:12" ht="51.75" customHeight="1">
       <c r="B111" s="19"/>
-      <c r="D111" s="46"/>
+      <c r="D111" s="47"/>
       <c r="E111" s="20">
         <v>2</v>
       </c>
@@ -5447,7 +5492,7 @@
     </row>
     <row r="112" spans="1:12" ht="75">
       <c r="B112" s="19"/>
-      <c r="D112" s="46"/>
+      <c r="D112" s="47"/>
       <c r="E112" s="20">
         <v>3</v>
       </c>
@@ -5482,7 +5527,7 @@
       <c r="C114" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="46" t="s">
+      <c r="D114" s="47" t="s">
         <v>163</v>
       </c>
       <c r="E114" s="20">
@@ -5499,7 +5544,7 @@
     </row>
     <row r="115" spans="1:12" ht="30">
       <c r="B115" s="19"/>
-      <c r="D115" s="46"/>
+      <c r="D115" s="47"/>
       <c r="E115" s="20">
         <v>2</v>
       </c>
@@ -5514,7 +5559,7 @@
     </row>
     <row r="116" spans="1:12" ht="225">
       <c r="B116" s="19"/>
-      <c r="D116" s="46"/>
+      <c r="D116" s="47"/>
       <c r="E116" s="20">
         <v>3</v>
       </c>
@@ -5545,7 +5590,7 @@
       <c r="C118" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="46" t="s">
+      <c r="D118" s="47" t="s">
         <v>162</v>
       </c>
       <c r="E118" s="20">
@@ -5562,7 +5607,7 @@
     </row>
     <row r="119" spans="1:12" ht="30">
       <c r="B119" s="19"/>
-      <c r="D119" s="46"/>
+      <c r="D119" s="47"/>
       <c r="E119" s="20">
         <v>2</v>
       </c>
@@ -5577,7 +5622,7 @@
     </row>
     <row r="120" spans="1:12" ht="225">
       <c r="B120" s="19"/>
-      <c r="D120" s="46"/>
+      <c r="D120" s="47"/>
       <c r="E120" s="20">
         <v>3</v>
       </c>
@@ -5592,7 +5637,7 @@
     </row>
     <row r="121" spans="1:12" ht="30">
       <c r="B121" s="19"/>
-      <c r="D121" s="46"/>
+      <c r="D121" s="47"/>
       <c r="E121" s="20">
         <v>4</v>
       </c>
@@ -5620,7 +5665,7 @@
       <c r="C123" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D123" s="46" t="s">
+      <c r="D123" s="47" t="s">
         <v>167</v>
       </c>
       <c r="E123" s="20">
@@ -5637,7 +5682,7 @@
     </row>
     <row r="124" spans="1:12" ht="30">
       <c r="B124" s="19"/>
-      <c r="D124" s="46"/>
+      <c r="D124" s="47"/>
       <c r="E124" s="20">
         <v>2</v>
       </c>
@@ -5652,7 +5697,7 @@
     </row>
     <row r="125" spans="1:12" ht="225">
       <c r="B125" s="19"/>
-      <c r="D125" s="46"/>
+      <c r="D125" s="47"/>
       <c r="E125" s="20">
         <v>3</v>
       </c>
@@ -5670,7 +5715,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="B126" s="19"/>
-      <c r="D126" s="46"/>
+      <c r="D126" s="47"/>
       <c r="E126" s="20">
         <v>4</v>
       </c>
@@ -5698,7 +5743,7 @@
       <c r="C128" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="46" t="s">
+      <c r="D128" s="47" t="s">
         <v>171</v>
       </c>
       <c r="E128" s="20">
@@ -5715,7 +5760,7 @@
     </row>
     <row r="129" spans="1:12" ht="30">
       <c r="B129" s="19"/>
-      <c r="D129" s="46"/>
+      <c r="D129" s="47"/>
       <c r="E129" s="20">
         <v>2</v>
       </c>
@@ -5730,7 +5775,7 @@
     </row>
     <row r="130" spans="1:12" ht="165">
       <c r="B130" s="19"/>
-      <c r="D130" s="46"/>
+      <c r="D130" s="47"/>
       <c r="E130" s="20">
         <v>3</v>
       </c>
@@ -5758,7 +5803,7 @@
       <c r="C132" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D132" s="46" t="s">
+      <c r="D132" s="47" t="s">
         <v>177</v>
       </c>
       <c r="E132" s="20">
@@ -5775,7 +5820,7 @@
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="B133" s="19"/>
-      <c r="D133" s="46"/>
+      <c r="D133" s="47"/>
       <c r="E133" s="20">
         <v>2</v>
       </c>
@@ -5790,7 +5835,7 @@
     </row>
     <row r="134" spans="1:12" ht="165">
       <c r="B134" s="19"/>
-      <c r="D134" s="46"/>
+      <c r="D134" s="47"/>
       <c r="E134" s="20">
         <v>3</v>
       </c>
@@ -5805,7 +5850,7 @@
     </row>
     <row r="135" spans="1:12" ht="30">
       <c r="B135" s="19"/>
-      <c r="D135" s="46"/>
+      <c r="D135" s="47"/>
       <c r="E135" s="20">
         <v>4</v>
       </c>
@@ -5833,7 +5878,7 @@
       <c r="C137" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D137" s="46" t="s">
+      <c r="D137" s="47" t="s">
         <v>180</v>
       </c>
       <c r="E137" s="20">
@@ -5850,7 +5895,7 @@
     </row>
     <row r="138" spans="1:12" ht="30">
       <c r="B138" s="19"/>
-      <c r="D138" s="46"/>
+      <c r="D138" s="47"/>
       <c r="E138" s="20">
         <v>2</v>
       </c>
@@ -5865,7 +5910,7 @@
     </row>
     <row r="139" spans="1:12" ht="165">
       <c r="B139" s="19"/>
-      <c r="D139" s="46"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="20">
         <v>3</v>
       </c>
@@ -5880,7 +5925,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="B140" s="19"/>
-      <c r="D140" s="46"/>
+      <c r="D140" s="47"/>
       <c r="E140" s="20">
         <v>4</v>
       </c>
@@ -5908,7 +5953,7 @@
       <c r="C142" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D142" s="46" t="s">
+      <c r="D142" s="47" t="s">
         <v>183</v>
       </c>
       <c r="E142" s="20">
@@ -5925,7 +5970,7 @@
     </row>
     <row r="143" spans="1:12" ht="30">
       <c r="B143" s="19"/>
-      <c r="D143" s="46"/>
+      <c r="D143" s="47"/>
       <c r="E143" s="20">
         <v>2</v>
       </c>
@@ -5940,7 +5985,7 @@
     </row>
     <row r="144" spans="1:12" ht="165">
       <c r="B144" s="19"/>
-      <c r="D144" s="46"/>
+      <c r="D144" s="47"/>
       <c r="E144" s="20">
         <v>3</v>
       </c>
@@ -5955,7 +6000,7 @@
     </row>
     <row r="145" spans="1:12" ht="30">
       <c r="B145" s="19"/>
-      <c r="D145" s="46"/>
+      <c r="D145" s="47"/>
       <c r="E145" s="20">
         <v>4</v>
       </c>
@@ -5970,7 +6015,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="B146" s="19"/>
-      <c r="D146" s="46"/>
+      <c r="D146" s="47"/>
       <c r="E146" s="20">
         <v>5</v>
       </c>
@@ -5998,7 +6043,7 @@
       <c r="C148" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="46" t="s">
+      <c r="D148" s="47" t="s">
         <v>189</v>
       </c>
       <c r="E148" s="20">
@@ -6015,7 +6060,7 @@
     </row>
     <row r="149" spans="1:12" ht="45" customHeight="1">
       <c r="B149" s="19"/>
-      <c r="D149" s="46"/>
+      <c r="D149" s="47"/>
       <c r="E149" s="20">
         <v>2</v>
       </c>
@@ -6030,7 +6075,7 @@
     </row>
     <row r="150" spans="1:12" ht="30">
       <c r="B150" s="19"/>
-      <c r="D150" s="46"/>
+      <c r="D150" s="47"/>
       <c r="E150" s="20">
         <v>3</v>
       </c>
@@ -6045,7 +6090,7 @@
     </row>
     <row r="151" spans="1:12" ht="30">
       <c r="B151" s="19"/>
-      <c r="D151" s="46"/>
+      <c r="D151" s="47"/>
       <c r="E151" s="20">
         <v>4</v>
       </c>
@@ -6060,7 +6105,7 @@
     </row>
     <row r="152" spans="1:12" ht="30">
       <c r="B152" s="19"/>
-      <c r="D152" s="46"/>
+      <c r="D152" s="47"/>
       <c r="E152" s="20">
         <v>5</v>
       </c>
@@ -6075,7 +6120,7 @@
     </row>
     <row r="153" spans="1:12" ht="30">
       <c r="B153" s="19"/>
-      <c r="D153" s="46"/>
+      <c r="D153" s="47"/>
       <c r="E153" s="20">
         <v>6</v>
       </c>
@@ -6090,7 +6135,7 @@
     </row>
     <row r="154" spans="1:12" ht="30">
       <c r="B154" s="19"/>
-      <c r="D154" s="46"/>
+      <c r="D154" s="47"/>
       <c r="E154" s="20">
         <v>7</v>
       </c>
@@ -6105,7 +6150,7 @@
     </row>
     <row r="155" spans="1:12" ht="30">
       <c r="B155" s="19"/>
-      <c r="D155" s="46"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="20">
         <v>8</v>
       </c>
@@ -6133,7 +6178,7 @@
       <c r="C157" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D157" s="46" t="s">
+      <c r="D157" s="47" t="s">
         <v>200</v>
       </c>
       <c r="E157" s="20">
@@ -6150,7 +6195,7 @@
     </row>
     <row r="158" spans="1:12" ht="30">
       <c r="B158" s="19"/>
-      <c r="D158" s="46"/>
+      <c r="D158" s="47"/>
       <c r="E158" s="20">
         <v>2</v>
       </c>
@@ -6165,7 +6210,7 @@
     </row>
     <row r="159" spans="1:12" ht="30">
       <c r="B159" s="19"/>
-      <c r="D159" s="46"/>
+      <c r="D159" s="47"/>
       <c r="E159" s="20">
         <v>3</v>
       </c>
@@ -6180,7 +6225,7 @@
     </row>
     <row r="160" spans="1:12" ht="30">
       <c r="B160" s="19"/>
-      <c r="D160" s="46"/>
+      <c r="D160" s="47"/>
       <c r="E160" s="20">
         <v>4</v>
       </c>
@@ -6195,7 +6240,7 @@
     </row>
     <row r="161" spans="1:12" ht="30">
       <c r="B161" s="19"/>
-      <c r="D161" s="46"/>
+      <c r="D161" s="47"/>
       <c r="E161" s="20">
         <v>5</v>
       </c>
@@ -6210,7 +6255,7 @@
     </row>
     <row r="162" spans="1:12" ht="30">
       <c r="B162" s="19"/>
-      <c r="D162" s="46"/>
+      <c r="D162" s="47"/>
       <c r="E162" s="20">
         <v>6</v>
       </c>
@@ -6225,7 +6270,7 @@
     </row>
     <row r="163" spans="1:12" ht="30">
       <c r="B163" s="19"/>
-      <c r="D163" s="46"/>
+      <c r="D163" s="47"/>
       <c r="E163" s="20">
         <v>7</v>
       </c>
@@ -6240,7 +6285,7 @@
     </row>
     <row r="164" spans="1:12" ht="30">
       <c r="B164" s="19"/>
-      <c r="D164" s="46"/>
+      <c r="D164" s="47"/>
       <c r="E164" s="20">
         <v>8</v>
       </c>
@@ -6255,7 +6300,7 @@
     </row>
     <row r="165" spans="1:12" ht="30">
       <c r="B165" s="19"/>
-      <c r="D165" s="46"/>
+      <c r="D165" s="47"/>
       <c r="E165" s="20">
         <v>9</v>
       </c>
@@ -6283,7 +6328,7 @@
       <c r="C167" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D167" s="46" t="s">
+      <c r="D167" s="47" t="s">
         <v>206</v>
       </c>
       <c r="E167" s="20">
@@ -6300,7 +6345,7 @@
     </row>
     <row r="168" spans="1:12" ht="30">
       <c r="B168" s="19"/>
-      <c r="D168" s="46"/>
+      <c r="D168" s="47"/>
       <c r="E168" s="20">
         <v>2</v>
       </c>
@@ -6315,7 +6360,7 @@
     </row>
     <row r="169" spans="1:12" ht="30">
       <c r="B169" s="19"/>
-      <c r="D169" s="46"/>
+      <c r="D169" s="47"/>
       <c r="E169" s="20">
         <v>3</v>
       </c>
@@ -6330,7 +6375,7 @@
     </row>
     <row r="170" spans="1:12" ht="30">
       <c r="B170" s="19"/>
-      <c r="D170" s="46"/>
+      <c r="D170" s="47"/>
       <c r="E170" s="20">
         <v>4</v>
       </c>
@@ -6345,7 +6390,7 @@
     </row>
     <row r="171" spans="1:12" ht="30">
       <c r="B171" s="19"/>
-      <c r="D171" s="46"/>
+      <c r="D171" s="47"/>
       <c r="E171" s="20">
         <v>5</v>
       </c>
@@ -6360,7 +6405,7 @@
     </row>
     <row r="172" spans="1:12" ht="30">
       <c r="B172" s="19"/>
-      <c r="D172" s="46"/>
+      <c r="D172" s="47"/>
       <c r="E172" s="20">
         <v>6</v>
       </c>
@@ -6375,7 +6420,7 @@
     </row>
     <row r="173" spans="1:12" ht="30">
       <c r="B173" s="19"/>
-      <c r="D173" s="46"/>
+      <c r="D173" s="47"/>
       <c r="E173" s="20">
         <v>7</v>
       </c>
@@ -6390,7 +6435,7 @@
     </row>
     <row r="174" spans="1:12" ht="30">
       <c r="B174" s="19"/>
-      <c r="D174" s="46"/>
+      <c r="D174" s="47"/>
       <c r="E174" s="20">
         <v>8</v>
       </c>
@@ -6405,7 +6450,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="B175" s="19"/>
-      <c r="D175" s="46"/>
+      <c r="D175" s="47"/>
       <c r="E175" s="20">
         <v>9</v>
       </c>
@@ -6433,7 +6478,7 @@
       <c r="C177" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D177" s="46" t="s">
+      <c r="D177" s="47" t="s">
         <v>208</v>
       </c>
       <c r="E177" s="20">
@@ -6450,7 +6495,7 @@
     </row>
     <row r="178" spans="1:12" ht="30">
       <c r="B178" s="19"/>
-      <c r="D178" s="46"/>
+      <c r="D178" s="47"/>
       <c r="E178" s="20">
         <v>2</v>
       </c>
@@ -6465,7 +6510,7 @@
     </row>
     <row r="179" spans="1:12" ht="30">
       <c r="B179" s="19"/>
-      <c r="D179" s="46"/>
+      <c r="D179" s="47"/>
       <c r="E179" s="20">
         <v>3</v>
       </c>
@@ -6480,7 +6525,7 @@
     </row>
     <row r="180" spans="1:12" ht="30">
       <c r="B180" s="19"/>
-      <c r="D180" s="46"/>
+      <c r="D180" s="47"/>
       <c r="E180" s="20">
         <v>4</v>
       </c>
@@ -6495,7 +6540,7 @@
     </row>
     <row r="181" spans="1:12" ht="30">
       <c r="B181" s="19"/>
-      <c r="D181" s="46"/>
+      <c r="D181" s="47"/>
       <c r="E181" s="20">
         <v>5</v>
       </c>
@@ -6510,7 +6555,7 @@
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="B182" s="19"/>
-      <c r="D182" s="46"/>
+      <c r="D182" s="47"/>
       <c r="E182" s="20">
         <v>6</v>
       </c>
@@ -6525,7 +6570,7 @@
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="B183" s="19"/>
-      <c r="D183" s="46"/>
+      <c r="D183" s="47"/>
       <c r="E183" s="20">
         <v>7</v>
       </c>
@@ -6540,7 +6585,7 @@
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="B184" s="19"/>
-      <c r="D184" s="46"/>
+      <c r="D184" s="47"/>
       <c r="E184" s="20">
         <v>8</v>
       </c>
@@ -6555,7 +6600,7 @@
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="B185" s="19"/>
-      <c r="D185" s="46"/>
+      <c r="D185" s="47"/>
       <c r="E185" s="20">
         <v>9</v>
       </c>
@@ -6570,7 +6615,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="B186" s="19"/>
-      <c r="D186" s="46"/>
+      <c r="D186" s="47"/>
       <c r="E186" s="20">
         <v>10</v>
       </c>
@@ -6598,7 +6643,7 @@
       <c r="C188" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D188" s="46" t="s">
+      <c r="D188" s="47" t="s">
         <v>210</v>
       </c>
       <c r="E188" s="20">
@@ -6615,7 +6660,7 @@
     </row>
     <row r="189" spans="1:12" ht="30">
       <c r="B189" s="19"/>
-      <c r="D189" s="46"/>
+      <c r="D189" s="47"/>
       <c r="E189" s="20">
         <v>2</v>
       </c>
@@ -6630,7 +6675,7 @@
     </row>
     <row r="190" spans="1:12" ht="140.25" customHeight="1">
       <c r="B190" s="19"/>
-      <c r="D190" s="46"/>
+      <c r="D190" s="47"/>
       <c r="E190" s="20">
         <v>3</v>
       </c>
@@ -6658,7 +6703,7 @@
       <c r="C192" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D192" s="46" t="s">
+      <c r="D192" s="47" t="s">
         <v>214</v>
       </c>
       <c r="E192" s="20">
@@ -6675,7 +6720,7 @@
     </row>
     <row r="193" spans="1:12" ht="30">
       <c r="B193" s="19"/>
-      <c r="D193" s="46"/>
+      <c r="D193" s="47"/>
       <c r="E193" s="20">
         <v>2</v>
       </c>
@@ -6690,7 +6735,7 @@
     </row>
     <row r="194" spans="1:12" ht="135.75" customHeight="1">
       <c r="B194" s="19"/>
-      <c r="D194" s="46"/>
+      <c r="D194" s="47"/>
       <c r="E194" s="20">
         <v>3</v>
       </c>
@@ -6705,7 +6750,7 @@
     </row>
     <row r="195" spans="1:12" ht="30">
       <c r="B195" s="19"/>
-      <c r="D195" s="46"/>
+      <c r="D195" s="47"/>
       <c r="E195" s="20">
         <v>4</v>
       </c>
@@ -6733,7 +6778,7 @@
       <c r="C197" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D197" s="46" t="s">
+      <c r="D197" s="47" t="s">
         <v>219</v>
       </c>
       <c r="E197" s="20">
@@ -6750,7 +6795,7 @@
     </row>
     <row r="198" spans="1:12" ht="30">
       <c r="B198" s="19"/>
-      <c r="D198" s="46"/>
+      <c r="D198" s="47"/>
       <c r="E198" s="20">
         <v>2</v>
       </c>
@@ -6765,7 +6810,7 @@
     </row>
     <row r="199" spans="1:12" ht="135.75" customHeight="1">
       <c r="B199" s="19"/>
-      <c r="D199" s="46"/>
+      <c r="D199" s="47"/>
       <c r="E199" s="20">
         <v>3</v>
       </c>
@@ -6780,7 +6825,7 @@
     </row>
     <row r="200" spans="1:12" ht="30">
       <c r="B200" s="19"/>
-      <c r="D200" s="46"/>
+      <c r="D200" s="47"/>
       <c r="E200" s="20">
         <v>4</v>
       </c>
@@ -6795,7 +6840,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="B201" s="19"/>
-      <c r="D201" s="46"/>
+      <c r="D201" s="47"/>
       <c r="E201" s="20">
         <v>5</v>
       </c>
@@ -6823,7 +6868,7 @@
       <c r="C203" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D203" s="46" t="s">
+      <c r="D203" s="47" t="s">
         <v>220</v>
       </c>
       <c r="E203" s="20">
@@ -6840,7 +6885,7 @@
     </row>
     <row r="204" spans="1:12" ht="30">
       <c r="B204" s="19"/>
-      <c r="D204" s="46"/>
+      <c r="D204" s="47"/>
       <c r="E204" s="20">
         <v>2</v>
       </c>
@@ -6855,7 +6900,7 @@
     </row>
     <row r="205" spans="1:12" ht="141" customHeight="1">
       <c r="B205" s="19"/>
-      <c r="D205" s="46"/>
+      <c r="D205" s="47"/>
       <c r="E205" s="20">
         <v>3</v>
       </c>
@@ -6870,7 +6915,7 @@
     </row>
     <row r="206" spans="1:12" ht="30">
       <c r="B206" s="19"/>
-      <c r="D206" s="46"/>
+      <c r="D206" s="47"/>
       <c r="E206" s="20">
         <v>4</v>
       </c>
@@ -6885,7 +6930,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="B207" s="19"/>
-      <c r="D207" s="46"/>
+      <c r="D207" s="47"/>
       <c r="E207" s="20">
         <v>5</v>
       </c>
@@ -6913,7 +6958,7 @@
       <c r="C209" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D209" s="46" t="s">
+      <c r="D209" s="47" t="s">
         <v>223</v>
       </c>
       <c r="E209" s="20">
@@ -6930,7 +6975,7 @@
     </row>
     <row r="210" spans="1:12" ht="30">
       <c r="B210" s="19"/>
-      <c r="D210" s="46"/>
+      <c r="D210" s="47"/>
       <c r="E210" s="20">
         <v>2</v>
       </c>
@@ -6945,7 +6990,7 @@
     </row>
     <row r="211" spans="1:12" ht="30">
       <c r="B211" s="19"/>
-      <c r="D211" s="46"/>
+      <c r="D211" s="47"/>
       <c r="E211" s="20">
         <v>3</v>
       </c>
@@ -6960,7 +7005,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="B212" s="19"/>
-      <c r="D212" s="46"/>
+      <c r="D212" s="47"/>
       <c r="E212" s="20">
         <v>4</v>
       </c>
@@ -6975,7 +7020,7 @@
     </row>
     <row r="213" spans="1:12" ht="30">
       <c r="B213" s="19"/>
-      <c r="D213" s="46"/>
+      <c r="D213" s="47"/>
       <c r="E213" s="20">
         <v>5</v>
       </c>
@@ -6990,7 +7035,7 @@
     </row>
     <row r="214" spans="1:12" ht="30">
       <c r="B214" s="19"/>
-      <c r="D214" s="46"/>
+      <c r="D214" s="47"/>
       <c r="E214" s="20">
         <v>6</v>
       </c>
@@ -7005,7 +7050,7 @@
     </row>
     <row r="215" spans="1:12" ht="30">
       <c r="B215" s="19"/>
-      <c r="D215" s="46"/>
+      <c r="D215" s="47"/>
       <c r="E215" s="20">
         <v>7</v>
       </c>
@@ -7020,7 +7065,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="B216" s="19"/>
-      <c r="D216" s="46"/>
+      <c r="D216" s="47"/>
       <c r="E216" s="20">
         <v>8</v>
       </c>
@@ -7035,7 +7080,7 @@
     </row>
     <row r="217" spans="1:12" ht="30">
       <c r="B217" s="19"/>
-      <c r="D217" s="46"/>
+      <c r="D217" s="47"/>
       <c r="E217" s="20">
         <v>9</v>
       </c>
@@ -7050,7 +7095,7 @@
     </row>
     <row r="218" spans="1:12" ht="30">
       <c r="B218" s="19"/>
-      <c r="D218" s="46"/>
+      <c r="D218" s="47"/>
       <c r="E218" s="20">
         <v>10</v>
       </c>
@@ -7065,7 +7110,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="B219" s="19"/>
-      <c r="D219" s="46"/>
+      <c r="D219" s="47"/>
       <c r="E219" s="20">
         <v>11</v>
       </c>
@@ -7080,7 +7125,7 @@
     </row>
     <row r="220" spans="1:12" ht="30">
       <c r="B220" s="19"/>
-      <c r="D220" s="46"/>
+      <c r="D220" s="47"/>
       <c r="E220" s="20">
         <v>12</v>
       </c>
@@ -7095,7 +7140,7 @@
     </row>
     <row r="221" spans="1:12" ht="30">
       <c r="B221" s="19"/>
-      <c r="D221" s="46"/>
+      <c r="D221" s="47"/>
       <c r="E221" s="20">
         <v>13</v>
       </c>
@@ -7110,7 +7155,7 @@
     </row>
     <row r="222" spans="1:12" ht="63" customHeight="1">
       <c r="B222" s="19"/>
-      <c r="D222" s="46"/>
+      <c r="D222" s="47"/>
       <c r="E222" s="20">
         <v>14</v>
       </c>
@@ -7125,7 +7170,7 @@
     </row>
     <row r="223" spans="1:12" ht="63" customHeight="1">
       <c r="B223" s="19"/>
-      <c r="D223" s="46"/>
+      <c r="D223" s="47"/>
       <c r="E223" s="20">
         <v>15</v>
       </c>
@@ -7153,7 +7198,7 @@
       <c r="C225" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D225" s="46" t="s">
+      <c r="D225" s="47" t="s">
         <v>254</v>
       </c>
       <c r="E225" s="20">
@@ -7170,7 +7215,7 @@
     </row>
     <row r="226" spans="1:12" ht="30">
       <c r="B226" s="19"/>
-      <c r="D226" s="46"/>
+      <c r="D226" s="47"/>
       <c r="E226" s="20">
         <v>2</v>
       </c>
@@ -7185,7 +7230,7 @@
     </row>
     <row r="227" spans="1:12" ht="30">
       <c r="B227" s="19"/>
-      <c r="D227" s="46"/>
+      <c r="D227" s="47"/>
       <c r="E227" s="20">
         <v>3</v>
       </c>
@@ -7200,7 +7245,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="B228" s="19"/>
-      <c r="D228" s="46"/>
+      <c r="D228" s="47"/>
       <c r="E228" s="20">
         <v>4</v>
       </c>
@@ -7215,7 +7260,7 @@
     </row>
     <row r="229" spans="1:12" ht="30">
       <c r="B229" s="19"/>
-      <c r="D229" s="46"/>
+      <c r="D229" s="47"/>
       <c r="E229" s="20">
         <v>5</v>
       </c>
@@ -7230,7 +7275,7 @@
     </row>
     <row r="230" spans="1:12" ht="30">
       <c r="B230" s="19"/>
-      <c r="D230" s="46"/>
+      <c r="D230" s="47"/>
       <c r="E230" s="20">
         <v>6</v>
       </c>
@@ -7245,7 +7290,7 @@
     </row>
     <row r="231" spans="1:12" ht="30">
       <c r="B231" s="19"/>
-      <c r="D231" s="46"/>
+      <c r="D231" s="47"/>
       <c r="E231" s="20">
         <v>7</v>
       </c>
@@ -7260,7 +7305,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="B232" s="19"/>
-      <c r="D232" s="46"/>
+      <c r="D232" s="47"/>
       <c r="E232" s="20">
         <v>8</v>
       </c>
@@ -7275,7 +7320,7 @@
     </row>
     <row r="233" spans="1:12" ht="30">
       <c r="B233" s="19"/>
-      <c r="D233" s="46"/>
+      <c r="D233" s="47"/>
       <c r="E233" s="20">
         <v>9</v>
       </c>
@@ -7290,7 +7335,7 @@
     </row>
     <row r="234" spans="1:12" ht="30">
       <c r="B234" s="19"/>
-      <c r="D234" s="46"/>
+      <c r="D234" s="47"/>
       <c r="E234" s="20">
         <v>10</v>
       </c>
@@ -7305,7 +7350,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="B235" s="19"/>
-      <c r="D235" s="46"/>
+      <c r="D235" s="47"/>
       <c r="E235" s="20">
         <v>11</v>
       </c>
@@ -7320,7 +7365,7 @@
     </row>
     <row r="236" spans="1:12" ht="30">
       <c r="B236" s="19"/>
-      <c r="D236" s="46"/>
+      <c r="D236" s="47"/>
       <c r="E236" s="20">
         <v>12</v>
       </c>
@@ -7335,7 +7380,7 @@
     </row>
     <row r="237" spans="1:12" ht="30">
       <c r="B237" s="19"/>
-      <c r="D237" s="46"/>
+      <c r="D237" s="47"/>
       <c r="E237" s="20">
         <v>13</v>
       </c>
@@ -7350,7 +7395,7 @@
     </row>
     <row r="238" spans="1:12" ht="30">
       <c r="B238" s="19"/>
-      <c r="D238" s="46"/>
+      <c r="D238" s="47"/>
       <c r="E238" s="20">
         <v>14</v>
       </c>
@@ -7365,7 +7410,7 @@
     </row>
     <row r="239" spans="1:12" ht="30">
       <c r="B239" s="19"/>
-      <c r="D239" s="46"/>
+      <c r="D239" s="47"/>
       <c r="E239" s="20">
         <v>15</v>
       </c>
@@ -7380,7 +7425,7 @@
     </row>
     <row r="240" spans="1:12" ht="30">
       <c r="B240" s="19"/>
-      <c r="D240" s="46"/>
+      <c r="D240" s="47"/>
       <c r="E240" s="20">
         <v>16</v>
       </c>
@@ -7408,7 +7453,7 @@
       <c r="C242" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D242" s="46" t="s">
+      <c r="D242" s="47" t="s">
         <v>260</v>
       </c>
       <c r="E242" s="20">
@@ -7425,7 +7470,7 @@
     </row>
     <row r="243" spans="1:12" ht="30">
       <c r="B243" s="19"/>
-      <c r="D243" s="46"/>
+      <c r="D243" s="47"/>
       <c r="E243" s="20">
         <v>2</v>
       </c>
@@ -7440,7 +7485,7 @@
     </row>
     <row r="244" spans="1:12" ht="30">
       <c r="B244" s="19"/>
-      <c r="D244" s="46"/>
+      <c r="D244" s="47"/>
       <c r="E244" s="20">
         <v>3</v>
       </c>
@@ -7455,7 +7500,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="B245" s="19"/>
-      <c r="D245" s="46"/>
+      <c r="D245" s="47"/>
       <c r="E245" s="20">
         <v>4</v>
       </c>
@@ -7470,7 +7515,7 @@
     </row>
     <row r="246" spans="1:12" ht="30">
       <c r="B246" s="19"/>
-      <c r="D246" s="46"/>
+      <c r="D246" s="47"/>
       <c r="E246" s="20">
         <v>5</v>
       </c>
@@ -7485,7 +7530,7 @@
     </row>
     <row r="247" spans="1:12" ht="30">
       <c r="B247" s="19"/>
-      <c r="D247" s="46"/>
+      <c r="D247" s="47"/>
       <c r="E247" s="20">
         <v>6</v>
       </c>
@@ -7500,7 +7545,7 @@
     </row>
     <row r="248" spans="1:12" ht="30">
       <c r="B248" s="19"/>
-      <c r="D248" s="46"/>
+      <c r="D248" s="47"/>
       <c r="E248" s="20">
         <v>7</v>
       </c>
@@ -7515,7 +7560,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="B249" s="19"/>
-      <c r="D249" s="46"/>
+      <c r="D249" s="47"/>
       <c r="E249" s="20">
         <v>8</v>
       </c>
@@ -7530,7 +7575,7 @@
     </row>
     <row r="250" spans="1:12" ht="30">
       <c r="B250" s="19"/>
-      <c r="D250" s="46"/>
+      <c r="D250" s="47"/>
       <c r="E250" s="20">
         <v>9</v>
       </c>
@@ -7545,7 +7590,7 @@
     </row>
     <row r="251" spans="1:12" ht="30">
       <c r="B251" s="19"/>
-      <c r="D251" s="46"/>
+      <c r="D251" s="47"/>
       <c r="E251" s="20">
         <v>10</v>
       </c>
@@ -7560,7 +7605,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="B252" s="19"/>
-      <c r="D252" s="46"/>
+      <c r="D252" s="47"/>
       <c r="E252" s="20">
         <v>11</v>
       </c>
@@ -7575,7 +7620,7 @@
     </row>
     <row r="253" spans="1:12" ht="30">
       <c r="B253" s="19"/>
-      <c r="D253" s="46"/>
+      <c r="D253" s="47"/>
       <c r="E253" s="20">
         <v>12</v>
       </c>
@@ -7590,7 +7635,7 @@
     </row>
     <row r="254" spans="1:12" ht="30">
       <c r="B254" s="19"/>
-      <c r="D254" s="46"/>
+      <c r="D254" s="47"/>
       <c r="E254" s="20">
         <v>13</v>
       </c>
@@ -7605,7 +7650,7 @@
     </row>
     <row r="255" spans="1:12" ht="30">
       <c r="B255" s="19"/>
-      <c r="D255" s="46"/>
+      <c r="D255" s="47"/>
       <c r="E255" s="20">
         <v>14</v>
       </c>
@@ -7620,7 +7665,7 @@
     </row>
     <row r="256" spans="1:12" ht="30">
       <c r="B256" s="19"/>
-      <c r="D256" s="46"/>
+      <c r="D256" s="47"/>
       <c r="E256" s="20">
         <v>15</v>
       </c>
@@ -7635,7 +7680,7 @@
     </row>
     <row r="257" spans="1:12" ht="30">
       <c r="B257" s="19"/>
-      <c r="D257" s="46"/>
+      <c r="D257" s="47"/>
       <c r="E257" s="20">
         <v>16</v>
       </c>
@@ -7650,7 +7695,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="B258" s="19"/>
-      <c r="D258" s="46"/>
+      <c r="D258" s="47"/>
       <c r="E258" s="20">
         <v>17</v>
       </c>
@@ -7678,7 +7723,7 @@
       <c r="C260" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D260" s="46" t="s">
+      <c r="D260" s="47" t="s">
         <v>223</v>
       </c>
       <c r="E260" s="20">
@@ -7695,7 +7740,7 @@
     </row>
     <row r="261" spans="1:12" ht="30">
       <c r="B261" s="19"/>
-      <c r="D261" s="46"/>
+      <c r="D261" s="47"/>
       <c r="E261" s="20">
         <v>2</v>
       </c>
@@ -7710,7 +7755,7 @@
     </row>
     <row r="262" spans="1:12" ht="30">
       <c r="B262" s="19"/>
-      <c r="D262" s="46"/>
+      <c r="D262" s="47"/>
       <c r="E262" s="20">
         <v>3</v>
       </c>
@@ -7725,7 +7770,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="B263" s="19"/>
-      <c r="D263" s="46"/>
+      <c r="D263" s="47"/>
       <c r="E263" s="20">
         <v>4</v>
       </c>
@@ -7740,7 +7785,7 @@
     </row>
     <row r="264" spans="1:12" ht="30">
       <c r="B264" s="19"/>
-      <c r="D264" s="46"/>
+      <c r="D264" s="47"/>
       <c r="E264" s="20">
         <v>5</v>
       </c>
@@ -7755,7 +7800,7 @@
     </row>
     <row r="265" spans="1:12" ht="30">
       <c r="B265" s="19"/>
-      <c r="D265" s="46"/>
+      <c r="D265" s="47"/>
       <c r="E265" s="20">
         <v>6</v>
       </c>
@@ -7770,7 +7815,7 @@
     </row>
     <row r="266" spans="1:12" ht="30">
       <c r="B266" s="19"/>
-      <c r="D266" s="46"/>
+      <c r="D266" s="47"/>
       <c r="E266" s="20">
         <v>7</v>
       </c>
@@ -7785,7 +7830,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="B267" s="19"/>
-      <c r="D267" s="46"/>
+      <c r="D267" s="47"/>
       <c r="E267" s="20">
         <v>8</v>
       </c>
@@ -7800,7 +7845,7 @@
     </row>
     <row r="268" spans="1:12" ht="30">
       <c r="B268" s="19"/>
-      <c r="D268" s="46"/>
+      <c r="D268" s="47"/>
       <c r="E268" s="20">
         <v>9</v>
       </c>
@@ -7815,7 +7860,7 @@
     </row>
     <row r="269" spans="1:12" ht="30">
       <c r="B269" s="19"/>
-      <c r="D269" s="46"/>
+      <c r="D269" s="47"/>
       <c r="E269" s="20">
         <v>10</v>
       </c>
@@ -7830,7 +7875,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="B270" s="19"/>
-      <c r="D270" s="46"/>
+      <c r="D270" s="47"/>
       <c r="E270" s="20">
         <v>11</v>
       </c>
@@ -7845,7 +7890,7 @@
     </row>
     <row r="271" spans="1:12" ht="30">
       <c r="B271" s="19"/>
-      <c r="D271" s="46"/>
+      <c r="D271" s="47"/>
       <c r="E271" s="20">
         <v>12</v>
       </c>
@@ -7860,7 +7905,7 @@
     </row>
     <row r="272" spans="1:12" ht="30">
       <c r="B272" s="19"/>
-      <c r="D272" s="46"/>
+      <c r="D272" s="47"/>
       <c r="E272" s="20">
         <v>13</v>
       </c>
@@ -7875,7 +7920,7 @@
     </row>
     <row r="273" spans="1:12" ht="30">
       <c r="B273" s="19"/>
-      <c r="D273" s="46"/>
+      <c r="D273" s="47"/>
       <c r="E273" s="20">
         <v>14</v>
       </c>
@@ -7890,7 +7935,7 @@
     </row>
     <row r="274" spans="1:12" ht="45">
       <c r="B274" s="19"/>
-      <c r="D274" s="46"/>
+      <c r="D274" s="47"/>
       <c r="E274" s="20">
         <v>15</v>
       </c>
@@ -7918,7 +7963,7 @@
       <c r="C276" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D276" s="46" t="s">
+      <c r="D276" s="47" t="s">
         <v>272</v>
       </c>
       <c r="E276" s="20">
@@ -7935,7 +7980,7 @@
     </row>
     <row r="277" spans="1:12" ht="30">
       <c r="B277" s="19"/>
-      <c r="D277" s="46"/>
+      <c r="D277" s="47"/>
       <c r="E277" s="20">
         <v>2</v>
       </c>
@@ -7950,7 +7995,7 @@
     </row>
     <row r="278" spans="1:12" ht="255">
       <c r="B278" s="19"/>
-      <c r="D278" s="46"/>
+      <c r="D278" s="47"/>
       <c r="E278" s="20">
         <v>3</v>
       </c>
@@ -7981,7 +8026,7 @@
       <c r="C280" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D280" s="46" t="s">
+      <c r="D280" s="47" t="s">
         <v>274</v>
       </c>
       <c r="E280" s="20">
@@ -7998,7 +8043,7 @@
     </row>
     <row r="281" spans="1:12" ht="30">
       <c r="B281" s="19"/>
-      <c r="D281" s="46"/>
+      <c r="D281" s="47"/>
       <c r="E281" s="20">
         <v>2</v>
       </c>
@@ -8013,7 +8058,7 @@
     </row>
     <row r="282" spans="1:12" ht="255">
       <c r="B282" s="19"/>
-      <c r="D282" s="46"/>
+      <c r="D282" s="47"/>
       <c r="E282" s="20">
         <v>3</v>
       </c>
@@ -8031,7 +8076,7 @@
     </row>
     <row r="283" spans="1:12" ht="30">
       <c r="B283" s="19"/>
-      <c r="D283" s="46"/>
+      <c r="D283" s="47"/>
       <c r="E283" s="20">
         <v>4</v>
       </c>
@@ -8059,7 +8104,7 @@
       <c r="C285" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D285" s="46" t="s">
+      <c r="D285" s="47" t="s">
         <v>275</v>
       </c>
       <c r="E285" s="20">
@@ -8076,7 +8121,7 @@
     </row>
     <row r="286" spans="1:12" ht="30">
       <c r="B286" s="19"/>
-      <c r="D286" s="46"/>
+      <c r="D286" s="47"/>
       <c r="E286" s="20">
         <v>2</v>
       </c>
@@ -8091,7 +8136,7 @@
     </row>
     <row r="287" spans="1:12" ht="255">
       <c r="B287" s="19"/>
-      <c r="D287" s="46"/>
+      <c r="D287" s="47"/>
       <c r="E287" s="20">
         <v>3</v>
       </c>
@@ -8109,7 +8154,7 @@
     </row>
     <row r="288" spans="1:12" ht="30">
       <c r="B288" s="19"/>
-      <c r="D288" s="46"/>
+      <c r="D288" s="47"/>
       <c r="E288" s="20">
         <v>4</v>
       </c>
@@ -8124,7 +8169,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="B289" s="19"/>
-      <c r="D289" s="46"/>
+      <c r="D289" s="47"/>
       <c r="E289" s="20">
         <v>5</v>
       </c>
@@ -8152,7 +8197,7 @@
       <c r="C291" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D291" s="46" t="s">
+      <c r="D291" s="47" t="s">
         <v>278</v>
       </c>
       <c r="E291" s="20">
@@ -8169,7 +8214,7 @@
     </row>
     <row r="292" spans="1:12" ht="30">
       <c r="B292" s="19"/>
-      <c r="D292" s="46"/>
+      <c r="D292" s="47"/>
       <c r="E292" s="20">
         <v>2</v>
       </c>
@@ -8184,7 +8229,7 @@
     </row>
     <row r="293" spans="1:12" ht="255">
       <c r="B293" s="19"/>
-      <c r="D293" s="46"/>
+      <c r="D293" s="47"/>
       <c r="E293" s="20">
         <v>3</v>
       </c>
@@ -8202,7 +8247,7 @@
     </row>
     <row r="294" spans="1:12" ht="30">
       <c r="B294" s="19"/>
-      <c r="D294" s="46"/>
+      <c r="D294" s="47"/>
       <c r="E294" s="20">
         <v>4</v>
       </c>
@@ -8217,7 +8262,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="B295" s="19"/>
-      <c r="D295" s="46"/>
+      <c r="D295" s="47"/>
       <c r="E295" s="20">
         <v>5</v>
       </c>
@@ -8245,7 +8290,7 @@
       <c r="C297" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D297" s="46" t="s">
+      <c r="D297" s="47" t="s">
         <v>282</v>
       </c>
       <c r="E297" s="20">
@@ -8262,7 +8307,7 @@
     </row>
     <row r="298" spans="1:12" ht="30">
       <c r="B298" s="19"/>
-      <c r="D298" s="46"/>
+      <c r="D298" s="47"/>
       <c r="E298" s="20">
         <v>2</v>
       </c>
@@ -8277,7 +8322,7 @@
     </row>
     <row r="299" spans="1:12" ht="30">
       <c r="B299" s="19"/>
-      <c r="D299" s="46"/>
+      <c r="D299" s="47"/>
       <c r="E299" s="20">
         <v>3</v>
       </c>
@@ -8292,7 +8337,7 @@
     </row>
     <row r="300" spans="1:12" ht="30">
       <c r="B300" s="19"/>
-      <c r="D300" s="46"/>
+      <c r="D300" s="47"/>
       <c r="E300" s="20">
         <v>4</v>
       </c>
@@ -8307,7 +8352,7 @@
     </row>
     <row r="301" spans="1:12" ht="30">
       <c r="B301" s="19"/>
-      <c r="D301" s="46"/>
+      <c r="D301" s="47"/>
       <c r="E301" s="20">
         <v>5</v>
       </c>
@@ -8322,7 +8367,7 @@
     </row>
     <row r="302" spans="1:12" ht="30">
       <c r="B302" s="19"/>
-      <c r="D302" s="46"/>
+      <c r="D302" s="47"/>
       <c r="E302" s="20">
         <v>6</v>
       </c>
@@ -8350,7 +8395,7 @@
       <c r="C304" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D304" s="46" t="s">
+      <c r="D304" s="47" t="s">
         <v>293</v>
       </c>
       <c r="E304" s="20">
@@ -8367,7 +8412,7 @@
     </row>
     <row r="305" spans="1:12" ht="30">
       <c r="B305" s="19"/>
-      <c r="D305" s="46"/>
+      <c r="D305" s="47"/>
       <c r="E305" s="20">
         <v>2</v>
       </c>
@@ -8382,7 +8427,7 @@
     </row>
     <row r="306" spans="1:12" ht="30">
       <c r="B306" s="19"/>
-      <c r="D306" s="46"/>
+      <c r="D306" s="47"/>
       <c r="E306" s="20">
         <v>3</v>
       </c>
@@ -8397,7 +8442,7 @@
     </row>
     <row r="307" spans="1:12" ht="30">
       <c r="B307" s="19"/>
-      <c r="D307" s="46"/>
+      <c r="D307" s="47"/>
       <c r="E307" s="20">
         <v>4</v>
       </c>
@@ -8412,7 +8457,7 @@
     </row>
     <row r="308" spans="1:12" ht="30">
       <c r="B308" s="19"/>
-      <c r="D308" s="46"/>
+      <c r="D308" s="47"/>
       <c r="E308" s="20">
         <v>5</v>
       </c>
@@ -8427,7 +8472,7 @@
     </row>
     <row r="309" spans="1:12" ht="30">
       <c r="B309" s="19"/>
-      <c r="D309" s="46"/>
+      <c r="D309" s="47"/>
       <c r="E309" s="20">
         <v>6</v>
       </c>
@@ -8442,7 +8487,7 @@
     </row>
     <row r="310" spans="1:12" ht="30">
       <c r="B310" s="19"/>
-      <c r="D310" s="46"/>
+      <c r="D310" s="47"/>
       <c r="E310" s="20">
         <v>7</v>
       </c>
@@ -8470,7 +8515,7 @@
       <c r="C312" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D312" s="46" t="s">
+      <c r="D312" s="47" t="s">
         <v>297</v>
       </c>
       <c r="E312" s="20">
@@ -8487,7 +8532,7 @@
     </row>
     <row r="313" spans="1:12" ht="30">
       <c r="B313" s="19"/>
-      <c r="D313" s="46"/>
+      <c r="D313" s="47"/>
       <c r="E313" s="20">
         <v>2</v>
       </c>
@@ -8502,7 +8547,7 @@
     </row>
     <row r="314" spans="1:12" ht="30">
       <c r="B314" s="19"/>
-      <c r="D314" s="46"/>
+      <c r="D314" s="47"/>
       <c r="E314" s="20">
         <v>3</v>
       </c>
@@ -8517,7 +8562,7 @@
     </row>
     <row r="315" spans="1:12" ht="30">
       <c r="B315" s="19"/>
-      <c r="D315" s="46"/>
+      <c r="D315" s="47"/>
       <c r="E315" s="20">
         <v>4</v>
       </c>
@@ -8532,7 +8577,7 @@
     </row>
     <row r="316" spans="1:12" ht="30">
       <c r="B316" s="19"/>
-      <c r="D316" s="46"/>
+      <c r="D316" s="47"/>
       <c r="E316" s="20">
         <v>5</v>
       </c>
@@ -8547,7 +8592,7 @@
     </row>
     <row r="317" spans="1:12" ht="30">
       <c r="B317" s="19"/>
-      <c r="D317" s="46"/>
+      <c r="D317" s="47"/>
       <c r="E317" s="20">
         <v>6</v>
       </c>
@@ -8562,7 +8607,7 @@
     </row>
     <row r="318" spans="1:12" ht="30">
       <c r="B318" s="19"/>
-      <c r="D318" s="46"/>
+      <c r="D318" s="47"/>
       <c r="E318" s="20">
         <v>7</v>
       </c>
@@ -8577,7 +8622,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="B319" s="19"/>
-      <c r="D319" s="46"/>
+      <c r="D319" s="47"/>
       <c r="E319" s="20">
         <v>8</v>
       </c>
@@ -8605,7 +8650,7 @@
       <c r="C321" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D321" s="46" t="s">
+      <c r="D321" s="47" t="s">
         <v>299</v>
       </c>
       <c r="E321" s="20">
@@ -8622,7 +8667,7 @@
     </row>
     <row r="322" spans="1:12" ht="30">
       <c r="B322" s="19"/>
-      <c r="D322" s="46"/>
+      <c r="D322" s="47"/>
       <c r="E322" s="20">
         <v>2</v>
       </c>
@@ -8637,7 +8682,7 @@
     </row>
     <row r="323" spans="1:12" ht="30">
       <c r="B323" s="19"/>
-      <c r="D323" s="46"/>
+      <c r="D323" s="47"/>
       <c r="E323" s="20">
         <v>3</v>
       </c>
@@ -8652,7 +8697,7 @@
     </row>
     <row r="324" spans="1:12" ht="30">
       <c r="B324" s="19"/>
-      <c r="D324" s="46"/>
+      <c r="D324" s="47"/>
       <c r="E324" s="20">
         <v>4</v>
       </c>
@@ -8667,7 +8712,7 @@
     </row>
     <row r="325" spans="1:12" ht="30">
       <c r="B325" s="19"/>
-      <c r="D325" s="46"/>
+      <c r="D325" s="47"/>
       <c r="E325" s="20">
         <v>5</v>
       </c>
@@ -8682,7 +8727,7 @@
     </row>
     <row r="326" spans="1:12" ht="30">
       <c r="B326" s="19"/>
-      <c r="D326" s="46"/>
+      <c r="D326" s="47"/>
       <c r="E326" s="20">
         <v>6</v>
       </c>
@@ -8697,7 +8742,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="B327" s="19"/>
-      <c r="D327" s="46"/>
+      <c r="D327" s="47"/>
       <c r="E327" s="20">
         <v>7</v>
       </c>
@@ -8725,7 +8770,7 @@
       <c r="C329" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D329" s="46" t="s">
+      <c r="D329" s="47" t="s">
         <v>300</v>
       </c>
       <c r="E329" s="20">
@@ -8742,7 +8787,7 @@
     </row>
     <row r="330" spans="1:12" ht="30">
       <c r="B330" s="19"/>
-      <c r="D330" s="46"/>
+      <c r="D330" s="47"/>
       <c r="E330" s="20">
         <v>2</v>
       </c>
@@ -8757,7 +8802,7 @@
     </row>
     <row r="331" spans="1:12" ht="30">
       <c r="B331" s="19"/>
-      <c r="D331" s="46"/>
+      <c r="D331" s="47"/>
       <c r="E331" s="20">
         <v>3</v>
       </c>
@@ -8772,7 +8817,7 @@
     </row>
     <row r="332" spans="1:12" ht="30">
       <c r="B332" s="19"/>
-      <c r="D332" s="46"/>
+      <c r="D332" s="47"/>
       <c r="E332" s="20">
         <v>4</v>
       </c>
@@ -8787,7 +8832,7 @@
     </row>
     <row r="333" spans="1:12" ht="30">
       <c r="B333" s="19"/>
-      <c r="D333" s="46"/>
+      <c r="D333" s="47"/>
       <c r="E333" s="20">
         <v>5</v>
       </c>
@@ -8815,7 +8860,7 @@
       <c r="C335" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D335" s="46" t="s">
+      <c r="D335" s="47" t="s">
         <v>311</v>
       </c>
       <c r="E335" s="20">
@@ -8832,7 +8877,7 @@
     </row>
     <row r="336" spans="1:12" ht="30">
       <c r="B336" s="19"/>
-      <c r="D336" s="46"/>
+      <c r="D336" s="47"/>
       <c r="E336" s="20">
         <v>2</v>
       </c>
@@ -8847,7 +8892,7 @@
     </row>
     <row r="337" spans="1:12" ht="30">
       <c r="B337" s="19"/>
-      <c r="D337" s="46"/>
+      <c r="D337" s="47"/>
       <c r="E337" s="20">
         <v>3</v>
       </c>
@@ -8862,7 +8907,7 @@
     </row>
     <row r="338" spans="1:12" ht="30">
       <c r="B338" s="19"/>
-      <c r="D338" s="46"/>
+      <c r="D338" s="47"/>
       <c r="E338" s="20">
         <v>4</v>
       </c>
@@ -8877,7 +8922,7 @@
     </row>
     <row r="339" spans="1:12" ht="30">
       <c r="B339" s="19"/>
-      <c r="D339" s="46"/>
+      <c r="D339" s="47"/>
       <c r="E339" s="20">
         <v>5</v>
       </c>
@@ -8892,7 +8937,7 @@
     </row>
     <row r="340" spans="1:12" ht="30">
       <c r="B340" s="19"/>
-      <c r="D340" s="46"/>
+      <c r="D340" s="47"/>
       <c r="E340" s="20">
         <v>6</v>
       </c>
@@ -8920,7 +8965,7 @@
       <c r="C342" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D342" s="46" t="s">
+      <c r="D342" s="47" t="s">
         <v>316</v>
       </c>
       <c r="E342" s="20">
@@ -8937,7 +8982,7 @@
     </row>
     <row r="343" spans="1:12" ht="30">
       <c r="B343" s="19"/>
-      <c r="D343" s="46"/>
+      <c r="D343" s="47"/>
       <c r="E343" s="20">
         <v>2</v>
       </c>
@@ -8952,7 +8997,7 @@
     </row>
     <row r="344" spans="1:12" ht="30">
       <c r="B344" s="19"/>
-      <c r="D344" s="46"/>
+      <c r="D344" s="47"/>
       <c r="E344" s="20">
         <v>3</v>
       </c>
@@ -8967,7 +9012,7 @@
     </row>
     <row r="345" spans="1:12" ht="30">
       <c r="B345" s="19"/>
-      <c r="D345" s="46"/>
+      <c r="D345" s="47"/>
       <c r="E345" s="20">
         <v>4</v>
       </c>
@@ -8982,7 +9027,7 @@
     </row>
     <row r="346" spans="1:12" ht="30">
       <c r="B346" s="19"/>
-      <c r="D346" s="46"/>
+      <c r="D346" s="47"/>
       <c r="E346" s="20">
         <v>5</v>
       </c>
@@ -8997,7 +9042,7 @@
     </row>
     <row r="347" spans="1:12" ht="30">
       <c r="B347" s="19"/>
-      <c r="D347" s="46"/>
+      <c r="D347" s="47"/>
       <c r="E347" s="20">
         <v>6</v>
       </c>
@@ -9012,7 +9057,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="B348" s="19"/>
-      <c r="D348" s="46"/>
+      <c r="D348" s="47"/>
       <c r="E348" s="20">
         <v>7</v>
       </c>
@@ -9040,7 +9085,7 @@
       <c r="C350" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D350" s="46" t="s">
+      <c r="D350" s="47" t="s">
         <v>315</v>
       </c>
       <c r="E350" s="20">
@@ -9057,7 +9102,7 @@
     </row>
     <row r="351" spans="1:12" ht="30">
       <c r="B351" s="19"/>
-      <c r="D351" s="46"/>
+      <c r="D351" s="47"/>
       <c r="E351" s="20">
         <v>2</v>
       </c>
@@ -9072,7 +9117,7 @@
     </row>
     <row r="352" spans="1:12" ht="30">
       <c r="B352" s="19"/>
-      <c r="D352" s="46"/>
+      <c r="D352" s="47"/>
       <c r="E352" s="20">
         <v>3</v>
       </c>
@@ -9087,7 +9132,7 @@
     </row>
     <row r="353" spans="1:12" ht="30">
       <c r="B353" s="19"/>
-      <c r="D353" s="46"/>
+      <c r="D353" s="47"/>
       <c r="E353" s="20">
         <v>4</v>
       </c>
@@ -9102,7 +9147,7 @@
     </row>
     <row r="354" spans="1:12" ht="30">
       <c r="B354" s="19"/>
-      <c r="D354" s="46"/>
+      <c r="D354" s="47"/>
       <c r="E354" s="20">
         <v>5</v>
       </c>
@@ -9117,7 +9162,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="B355" s="19"/>
-      <c r="D355" s="46"/>
+      <c r="D355" s="47"/>
       <c r="E355" s="20">
         <v>6</v>
       </c>
@@ -9145,7 +9190,7 @@
       <c r="C357" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D357" s="46" t="s">
+      <c r="D357" s="47" t="s">
         <v>319</v>
       </c>
       <c r="E357" s="20">
@@ -9162,7 +9207,7 @@
     </row>
     <row r="358" spans="1:12" ht="48" customHeight="1">
       <c r="B358" s="19"/>
-      <c r="D358" s="46"/>
+      <c r="D358" s="47"/>
       <c r="E358" s="20">
         <v>2</v>
       </c>
@@ -9177,7 +9222,7 @@
     </row>
     <row r="359" spans="1:12" ht="105">
       <c r="B359" s="19"/>
-      <c r="D359" s="46"/>
+      <c r="D359" s="47"/>
       <c r="E359" s="20">
         <v>3</v>
       </c>
@@ -9195,7 +9240,7 @@
     </row>
     <row r="360" spans="1:12" ht="30">
       <c r="B360" s="19"/>
-      <c r="D360" s="46"/>
+      <c r="D360" s="47"/>
       <c r="E360" s="20">
         <v>4</v>
       </c>
@@ -9223,7 +9268,7 @@
       <c r="C362" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D362" s="46" t="s">
+      <c r="D362" s="47" t="s">
         <v>326</v>
       </c>
       <c r="E362" s="20">
@@ -9240,7 +9285,7 @@
     </row>
     <row r="363" spans="1:12" ht="30">
       <c r="B363" s="19"/>
-      <c r="D363" s="46"/>
+      <c r="D363" s="47"/>
       <c r="E363" s="20">
         <v>2</v>
       </c>
@@ -9255,7 +9300,7 @@
     </row>
     <row r="364" spans="1:12" ht="105">
       <c r="B364" s="19"/>
-      <c r="D364" s="46"/>
+      <c r="D364" s="47"/>
       <c r="E364" s="20">
         <v>3</v>
       </c>
@@ -9273,7 +9318,7 @@
     </row>
     <row r="365" spans="1:12" ht="30">
       <c r="B365" s="19"/>
-      <c r="D365" s="46"/>
+      <c r="D365" s="47"/>
       <c r="E365" s="20">
         <v>4</v>
       </c>
@@ -9288,7 +9333,7 @@
     </row>
     <row r="366" spans="1:12" ht="30">
       <c r="B366" s="19"/>
-      <c r="D366" s="46"/>
+      <c r="D366" s="47"/>
       <c r="E366" s="20">
         <v>5</v>
       </c>
@@ -9316,7 +9361,7 @@
       <c r="C368" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D368" s="46" t="s">
+      <c r="D368" s="47" t="s">
         <v>329</v>
       </c>
       <c r="E368" s="20">
@@ -9333,7 +9378,7 @@
     </row>
     <row r="369" spans="1:12" ht="30">
       <c r="B369" s="19"/>
-      <c r="D369" s="46"/>
+      <c r="D369" s="47"/>
       <c r="E369" s="20">
         <v>2</v>
       </c>
@@ -9348,7 +9393,7 @@
     </row>
     <row r="370" spans="1:12" ht="105">
       <c r="B370" s="19"/>
-      <c r="D370" s="46"/>
+      <c r="D370" s="47"/>
       <c r="E370" s="20">
         <v>3</v>
       </c>
@@ -9366,7 +9411,7 @@
     </row>
     <row r="371" spans="1:12" ht="30">
       <c r="B371" s="19"/>
-      <c r="D371" s="46"/>
+      <c r="D371" s="47"/>
       <c r="E371" s="20">
         <v>4</v>
       </c>
@@ -9381,7 +9426,7 @@
     </row>
     <row r="372" spans="1:12" ht="30">
       <c r="B372" s="19"/>
-      <c r="D372" s="46"/>
+      <c r="D372" s="47"/>
       <c r="E372" s="20">
         <v>5</v>
       </c>
@@ -9396,7 +9441,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="B373" s="19"/>
-      <c r="D373" s="46"/>
+      <c r="D373" s="47"/>
       <c r="E373" s="20">
         <v>6</v>
       </c>
@@ -9424,7 +9469,7 @@
       <c r="C375" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D375" s="46" t="s">
+      <c r="D375" s="47" t="s">
         <v>332</v>
       </c>
       <c r="E375" s="20">
@@ -9441,7 +9486,7 @@
     </row>
     <row r="376" spans="1:12" ht="30">
       <c r="B376" s="19"/>
-      <c r="D376" s="46"/>
+      <c r="D376" s="47"/>
       <c r="E376" s="20">
         <v>2</v>
       </c>
@@ -9456,7 +9501,7 @@
     </row>
     <row r="377" spans="1:12" ht="105">
       <c r="B377" s="19"/>
-      <c r="D377" s="46"/>
+      <c r="D377" s="47"/>
       <c r="E377" s="20">
         <v>3</v>
       </c>
@@ -9474,7 +9519,7 @@
     </row>
     <row r="378" spans="1:12" ht="30">
       <c r="B378" s="19"/>
-      <c r="D378" s="46"/>
+      <c r="D378" s="47"/>
       <c r="E378" s="20">
         <v>4</v>
       </c>
@@ -9489,7 +9534,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="B379" s="19"/>
-      <c r="D379" s="46"/>
+      <c r="D379" s="47"/>
       <c r="E379" s="20">
         <v>5</v>
       </c>
@@ -9517,7 +9562,7 @@
       <c r="C381" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D381" s="46" t="s">
+      <c r="D381" s="47" t="s">
         <v>342</v>
       </c>
       <c r="E381" s="20">
@@ -9534,7 +9579,7 @@
     </row>
     <row r="382" spans="1:12" ht="30">
       <c r="B382" s="27"/>
-      <c r="D382" s="46"/>
+      <c r="D382" s="47"/>
       <c r="E382" s="20">
         <v>2</v>
       </c>
@@ -9552,7 +9597,7 @@
     </row>
     <row r="383" spans="1:12">
       <c r="B383" s="27"/>
-      <c r="D383" s="46"/>
+      <c r="D383" s="47"/>
       <c r="E383" s="20">
         <v>3</v>
       </c>
@@ -9573,7 +9618,7 @@
     </row>
     <row r="384" spans="1:12" ht="180">
       <c r="B384" s="27"/>
-      <c r="D384" s="46"/>
+      <c r="D384" s="47"/>
       <c r="E384" s="20">
         <v>4</v>
       </c>
@@ -9591,7 +9636,7 @@
     </row>
     <row r="385" spans="1:12" ht="30">
       <c r="B385" s="27"/>
-      <c r="D385" s="46"/>
+      <c r="D385" s="47"/>
       <c r="E385" s="20">
         <v>5</v>
       </c>
@@ -9626,7 +9671,7 @@
       <c r="C387" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D387" s="46" t="s">
+      <c r="D387" s="47" t="s">
         <v>342</v>
       </c>
       <c r="E387" s="20">
@@ -9643,7 +9688,7 @@
     </row>
     <row r="388" spans="1:12" ht="30">
       <c r="B388" s="27"/>
-      <c r="D388" s="46"/>
+      <c r="D388" s="47"/>
       <c r="E388" s="20">
         <v>2</v>
       </c>
@@ -9661,7 +9706,7 @@
     </row>
     <row r="389" spans="1:12">
       <c r="B389" s="27"/>
-      <c r="D389" s="46"/>
+      <c r="D389" s="47"/>
       <c r="E389" s="20">
         <v>3</v>
       </c>
@@ -9682,7 +9727,7 @@
     </row>
     <row r="390" spans="1:12" ht="180">
       <c r="B390" s="27"/>
-      <c r="D390" s="46"/>
+      <c r="D390" s="47"/>
       <c r="E390" s="20">
         <v>4</v>
       </c>
@@ -9704,7 +9749,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="B391" s="27"/>
-      <c r="D391" s="46"/>
+      <c r="D391" s="47"/>
       <c r="K391" s="28"/>
       <c r="L391" s="2"/>
     </row>
@@ -9723,7 +9768,7 @@
       <c r="C393" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D393" s="46" t="s">
+      <c r="D393" s="47" t="s">
         <v>350</v>
       </c>
       <c r="E393" s="20">
@@ -9740,7 +9785,7 @@
     </row>
     <row r="394" spans="1:12" ht="30">
       <c r="B394" s="27"/>
-      <c r="D394" s="46"/>
+      <c r="D394" s="47"/>
       <c r="E394" s="20">
         <v>2</v>
       </c>
@@ -9758,7 +9803,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="B395" s="27"/>
-      <c r="D395" s="46"/>
+      <c r="D395" s="47"/>
       <c r="E395" s="20">
         <v>3</v>
       </c>
@@ -9779,7 +9824,7 @@
     </row>
     <row r="396" spans="1:12" ht="45">
       <c r="B396" s="27"/>
-      <c r="D396" s="46"/>
+      <c r="D396" s="47"/>
       <c r="E396" s="20">
         <v>4</v>
       </c>
@@ -9797,7 +9842,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="B397" s="27"/>
-      <c r="D397" s="46"/>
+      <c r="D397" s="47"/>
       <c r="E397" s="20">
         <v>5</v>
       </c>
@@ -9815,7 +9860,7 @@
     </row>
     <row r="398" spans="1:12" ht="30">
       <c r="B398" s="19"/>
-      <c r="D398" s="46"/>
+      <c r="D398" s="47"/>
       <c r="E398" s="20">
         <v>6</v>
       </c>
@@ -9850,7 +9895,7 @@
       <c r="C400" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D400" s="46" t="s">
+      <c r="D400" s="47" t="s">
         <v>352</v>
       </c>
       <c r="E400" s="20">
@@ -9867,7 +9912,7 @@
     </row>
     <row r="401" spans="1:12" ht="30">
       <c r="B401" s="27"/>
-      <c r="D401" s="46"/>
+      <c r="D401" s="47"/>
       <c r="E401" s="20">
         <v>2</v>
       </c>
@@ -9885,7 +9930,7 @@
     </row>
     <row r="402" spans="1:12">
       <c r="B402" s="27"/>
-      <c r="D402" s="46"/>
+      <c r="D402" s="47"/>
       <c r="E402" s="20">
         <v>3</v>
       </c>
@@ -9906,7 +9951,7 @@
     </row>
     <row r="403" spans="1:12" ht="45">
       <c r="B403" s="27"/>
-      <c r="D403" s="46"/>
+      <c r="D403" s="47"/>
       <c r="E403" s="20">
         <v>4</v>
       </c>
@@ -9924,7 +9969,7 @@
     </row>
     <row r="404" spans="1:12">
       <c r="B404" s="27"/>
-      <c r="D404" s="46"/>
+      <c r="D404" s="47"/>
       <c r="E404" s="20">
         <v>5</v>
       </c>
@@ -9942,7 +9987,7 @@
     </row>
     <row r="405" spans="1:12" ht="30">
       <c r="B405" s="27"/>
-      <c r="D405" s="46"/>
+      <c r="D405" s="47"/>
       <c r="E405" s="20">
         <v>6</v>
       </c>
@@ -9977,7 +10022,7 @@
       <c r="C407" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D407" s="46" t="s">
+      <c r="D407" s="47" t="s">
         <v>353</v>
       </c>
       <c r="E407" s="20">
@@ -9994,7 +10039,7 @@
     </row>
     <row r="408" spans="1:12" ht="30">
       <c r="B408" s="27"/>
-      <c r="D408" s="46"/>
+      <c r="D408" s="47"/>
       <c r="E408" s="20">
         <v>2</v>
       </c>
@@ -10012,7 +10057,7 @@
     </row>
     <row r="409" spans="1:12">
       <c r="B409" s="27"/>
-      <c r="D409" s="46"/>
+      <c r="D409" s="47"/>
       <c r="E409" s="20">
         <v>3</v>
       </c>
@@ -10033,7 +10078,7 @@
     </row>
     <row r="410" spans="1:12" ht="30">
       <c r="B410" s="27"/>
-      <c r="D410" s="46"/>
+      <c r="D410" s="47"/>
       <c r="E410" s="20">
         <v>4</v>
       </c>
@@ -10051,7 +10096,7 @@
     </row>
     <row r="411" spans="1:12">
       <c r="B411" s="27"/>
-      <c r="D411" s="46"/>
+      <c r="D411" s="47"/>
       <c r="E411" s="20">
         <v>5</v>
       </c>
@@ -10069,7 +10114,7 @@
     </row>
     <row r="412" spans="1:12" ht="30">
       <c r="B412" s="27"/>
-      <c r="D412" s="46"/>
+      <c r="D412" s="47"/>
       <c r="E412" s="20">
         <v>6</v>
       </c>
@@ -10104,7 +10149,7 @@
       <c r="C414" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D414" s="46" t="s">
+      <c r="D414" s="47" t="s">
         <v>365</v>
       </c>
       <c r="E414" s="20">
@@ -10121,7 +10166,7 @@
     </row>
     <row r="415" spans="1:12" ht="30">
       <c r="B415" s="31"/>
-      <c r="D415" s="46"/>
+      <c r="D415" s="47"/>
       <c r="E415" s="20">
         <v>2</v>
       </c>
@@ -10139,7 +10184,7 @@
     </row>
     <row r="416" spans="1:12">
       <c r="B416" s="31"/>
-      <c r="D416" s="46"/>
+      <c r="D416" s="47"/>
       <c r="E416" s="20">
         <v>3</v>
       </c>
@@ -10157,7 +10202,7 @@
     </row>
     <row r="417" spans="1:12" ht="30">
       <c r="B417" s="31"/>
-      <c r="D417" s="46"/>
+      <c r="D417" s="47"/>
       <c r="E417" s="20">
         <v>4</v>
       </c>
@@ -10192,7 +10237,7 @@
       <c r="C419" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D419" s="46" t="s">
+      <c r="D419" s="47" t="s">
         <v>387</v>
       </c>
       <c r="E419" s="20">
@@ -10212,7 +10257,7 @@
     </row>
     <row r="420" spans="1:12" ht="30.75" customHeight="1">
       <c r="B420" s="31"/>
-      <c r="D420" s="46"/>
+      <c r="D420" s="47"/>
       <c r="E420" s="20">
         <v>2</v>
       </c>
@@ -10247,7 +10292,7 @@
       <c r="C422" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D422" s="46" t="s">
+      <c r="D422" s="47" t="s">
         <v>391</v>
       </c>
       <c r="E422" s="20">
@@ -10264,7 +10309,7 @@
     </row>
     <row r="423" spans="1:12" ht="30">
       <c r="B423" s="31"/>
-      <c r="D423" s="46"/>
+      <c r="D423" s="47"/>
       <c r="E423" s="20">
         <v>2</v>
       </c>
@@ -10304,7 +10349,7 @@
       <c r="C426" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D426" s="46" t="s">
+      <c r="D426" s="47" t="s">
         <v>367</v>
       </c>
       <c r="E426" s="20">
@@ -10321,7 +10366,7 @@
     </row>
     <row r="427" spans="1:12" ht="30">
       <c r="B427" s="31"/>
-      <c r="D427" s="46"/>
+      <c r="D427" s="47"/>
       <c r="E427" s="20">
         <v>2</v>
       </c>
@@ -10339,7 +10384,7 @@
     </row>
     <row r="428" spans="1:12" ht="45">
       <c r="B428" s="31"/>
-      <c r="D428" s="46"/>
+      <c r="D428" s="47"/>
       <c r="E428" s="20">
         <v>3</v>
       </c>
@@ -10360,7 +10405,7 @@
     </row>
     <row r="429" spans="1:12" ht="45">
       <c r="B429" s="19"/>
-      <c r="D429" s="46"/>
+      <c r="D429" s="47"/>
       <c r="E429" s="20">
         <v>4</v>
       </c>
@@ -10395,7 +10440,7 @@
       <c r="C431" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D431" s="46" t="s">
+      <c r="D431" s="47" t="s">
         <v>373</v>
       </c>
       <c r="E431" s="20">
@@ -10412,7 +10457,7 @@
     </row>
     <row r="432" spans="1:12" ht="30">
       <c r="B432" s="31"/>
-      <c r="D432" s="46"/>
+      <c r="D432" s="47"/>
       <c r="E432" s="20">
         <v>2</v>
       </c>
@@ -10430,7 +10475,7 @@
     </row>
     <row r="433" spans="1:12" ht="30">
       <c r="B433" s="31"/>
-      <c r="D433" s="46"/>
+      <c r="D433" s="47"/>
       <c r="E433" s="20">
         <v>3</v>
       </c>
@@ -10468,7 +10513,7 @@
       <c r="C435" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D435" s="46" t="s">
+      <c r="D435" s="47" t="s">
         <v>367</v>
       </c>
       <c r="E435" s="20">
@@ -10488,7 +10533,7 @@
         <v>385</v>
       </c>
       <c r="B436" s="31"/>
-      <c r="D436" s="46"/>
+      <c r="D436" s="47"/>
       <c r="E436" s="20">
         <v>2</v>
       </c>
@@ -10506,7 +10551,7 @@
     </row>
     <row r="437" spans="1:12" ht="30">
       <c r="B437" s="19"/>
-      <c r="D437" s="46"/>
+      <c r="D437" s="47"/>
       <c r="E437" s="20">
         <v>3</v>
       </c>
@@ -10527,7 +10572,7 @@
     </row>
     <row r="438" spans="1:12" ht="30">
       <c r="B438" s="19"/>
-      <c r="D438" s="46"/>
+      <c r="D438" s="47"/>
       <c r="E438" s="20">
         <v>4</v>
       </c>
@@ -10554,7 +10599,7 @@
     </row>
     <row r="440" spans="1:12">
       <c r="B440" s="19"/>
-      <c r="D440" s="46" t="s">
+      <c r="D440" s="47" t="s">
         <v>382</v>
       </c>
       <c r="E440" s="20">
@@ -10579,7 +10624,7 @@
       <c r="C441" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D441" s="46"/>
+      <c r="D441" s="47"/>
       <c r="E441" s="20">
         <v>2</v>
       </c>
@@ -10597,7 +10642,7 @@
     </row>
     <row r="442" spans="1:12" ht="30">
       <c r="B442" s="19"/>
-      <c r="D442" s="46"/>
+      <c r="D442" s="47"/>
       <c r="E442" s="20">
         <v>3</v>
       </c>
@@ -10635,7 +10680,7 @@
       <c r="C444" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D444" s="46" t="s">
+      <c r="D444" s="47" t="s">
         <v>383</v>
       </c>
       <c r="E444" s="20">
@@ -10652,7 +10697,7 @@
     </row>
     <row r="445" spans="1:12" ht="30" customHeight="1">
       <c r="B445" s="19"/>
-      <c r="D445" s="46"/>
+      <c r="D445" s="47"/>
       <c r="E445" s="20">
         <v>2</v>
       </c>
@@ -10670,7 +10715,7 @@
     </row>
     <row r="446" spans="1:12" ht="30">
       <c r="B446" s="19"/>
-      <c r="D446" s="46"/>
+      <c r="D446" s="47"/>
       <c r="E446" s="20">
         <v>3</v>
       </c>
@@ -10691,7 +10736,7 @@
     </row>
     <row r="447" spans="1:12" ht="30">
       <c r="B447" s="19"/>
-      <c r="D447" s="46"/>
+      <c r="D447" s="47"/>
       <c r="E447" s="20">
         <v>4</v>
       </c>
@@ -10726,7 +10771,7 @@
       <c r="C449" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D449" s="46" t="s">
+      <c r="D449" s="47" t="s">
         <v>401</v>
       </c>
       <c r="E449" s="20">
@@ -10743,7 +10788,7 @@
     </row>
     <row r="450" spans="1:12" ht="30">
       <c r="B450" s="33"/>
-      <c r="D450" s="46"/>
+      <c r="D450" s="47"/>
       <c r="E450" s="20">
         <v>2</v>
       </c>
@@ -10761,7 +10806,7 @@
     </row>
     <row r="451" spans="1:12">
       <c r="B451" s="33"/>
-      <c r="D451" s="46"/>
+      <c r="D451" s="47"/>
       <c r="E451" s="20">
         <v>3</v>
       </c>
@@ -10779,7 +10824,7 @@
     </row>
     <row r="452" spans="1:12" ht="45">
       <c r="B452" s="33"/>
-      <c r="D452" s="46"/>
+      <c r="D452" s="47"/>
       <c r="E452" s="20">
         <v>4</v>
       </c>
@@ -10814,7 +10859,7 @@
       <c r="C454" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D454" s="46" t="s">
+      <c r="D454" s="47" t="s">
         <v>409</v>
       </c>
       <c r="E454" s="20">
@@ -10831,7 +10876,7 @@
     </row>
     <row r="455" spans="1:12" ht="30">
       <c r="B455" s="33"/>
-      <c r="D455" s="46"/>
+      <c r="D455" s="47"/>
       <c r="E455" s="20">
         <v>2</v>
       </c>
@@ -10849,7 +10894,7 @@
     </row>
     <row r="456" spans="1:12">
       <c r="B456" s="33"/>
-      <c r="D456" s="46"/>
+      <c r="D456" s="47"/>
       <c r="E456" s="20">
         <v>3</v>
       </c>
@@ -10867,7 +10912,7 @@
     </row>
     <row r="457" spans="1:12" ht="45">
       <c r="B457" s="33"/>
-      <c r="D457" s="46"/>
+      <c r="D457" s="47"/>
       <c r="E457" s="20">
         <v>4</v>
       </c>
@@ -10889,7 +10934,7 @@
     </row>
     <row r="458" spans="1:12" ht="30">
       <c r="B458" s="19"/>
-      <c r="D458" s="46"/>
+      <c r="D458" s="47"/>
       <c r="E458" s="20">
         <v>5</v>
       </c>
@@ -10917,7 +10962,7 @@
       <c r="C460" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D460" s="46" t="s">
+      <c r="D460" s="47" t="s">
         <v>413</v>
       </c>
       <c r="E460" s="20">
@@ -10940,7 +10985,7 @@
     </row>
     <row r="461" spans="1:12" ht="30">
       <c r="B461" s="34"/>
-      <c r="D461" s="46"/>
+      <c r="D461" s="47"/>
       <c r="E461" s="20">
         <v>2</v>
       </c>
@@ -10958,7 +11003,7 @@
     </row>
     <row r="462" spans="1:12" ht="30">
       <c r="B462" s="34"/>
-      <c r="D462" s="46"/>
+      <c r="D462" s="47"/>
       <c r="E462" s="20">
         <v>3</v>
       </c>
@@ -10996,7 +11041,7 @@
       <c r="C464" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D464" s="46" t="s">
+      <c r="D464" s="47" t="s">
         <v>421</v>
       </c>
       <c r="E464" s="20">
@@ -11019,7 +11064,7 @@
     </row>
     <row r="465" spans="1:12" ht="30">
       <c r="B465" s="34"/>
-      <c r="D465" s="46"/>
+      <c r="D465" s="47"/>
       <c r="E465" s="20">
         <v>2</v>
       </c>
@@ -11037,7 +11082,7 @@
     </row>
     <row r="466" spans="1:12" ht="45">
       <c r="B466" s="34"/>
-      <c r="D466" s="46"/>
+      <c r="D466" s="47"/>
       <c r="E466" s="20">
         <v>3</v>
       </c>
@@ -11062,7 +11107,7 @@
     </row>
     <row r="467" spans="1:12">
       <c r="B467" s="19"/>
-      <c r="D467" s="46"/>
+      <c r="D467" s="47"/>
       <c r="E467" s="20">
         <v>4</v>
       </c>
@@ -11090,7 +11135,7 @@
       <c r="C469" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D469" s="46" t="s">
+      <c r="D469" s="47" t="s">
         <v>431</v>
       </c>
       <c r="E469" s="20">
@@ -11113,7 +11158,7 @@
     </row>
     <row r="470" spans="1:12" ht="30">
       <c r="B470" s="34"/>
-      <c r="D470" s="46"/>
+      <c r="D470" s="47"/>
       <c r="E470" s="20">
         <v>2</v>
       </c>
@@ -11131,7 +11176,7 @@
     </row>
     <row r="471" spans="1:12" ht="30">
       <c r="B471" s="34"/>
-      <c r="D471" s="46"/>
+      <c r="D471" s="47"/>
       <c r="E471" s="20">
         <v>3</v>
       </c>
@@ -11146,7 +11191,7 @@
     </row>
     <row r="472" spans="1:12" ht="30">
       <c r="B472" s="34"/>
-      <c r="D472" s="46"/>
+      <c r="D472" s="47"/>
       <c r="E472" s="20">
         <v>4</v>
       </c>
@@ -11174,7 +11219,7 @@
       <c r="C474" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D474" s="46" t="s">
+      <c r="D474" s="47" t="s">
         <v>432</v>
       </c>
       <c r="E474" s="20">
@@ -11197,7 +11242,7 @@
     </row>
     <row r="475" spans="1:12" ht="30">
       <c r="B475" s="34"/>
-      <c r="D475" s="46"/>
+      <c r="D475" s="47"/>
       <c r="E475" s="20">
         <v>2</v>
       </c>
@@ -11219,7 +11264,7 @@
     </row>
     <row r="476" spans="1:12" ht="30">
       <c r="B476" s="34"/>
-      <c r="D476" s="46"/>
+      <c r="D476" s="47"/>
       <c r="E476" s="20">
         <v>3</v>
       </c>
@@ -11234,7 +11279,7 @@
     </row>
     <row r="477" spans="1:12">
       <c r="B477" s="34"/>
-      <c r="D477" s="46"/>
+      <c r="D477" s="47"/>
       <c r="E477" s="20">
         <v>4</v>
       </c>
@@ -11262,7 +11307,7 @@
       <c r="C479" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D479" s="46" t="s">
+      <c r="D479" s="47" t="s">
         <v>436</v>
       </c>
       <c r="E479" s="20">
@@ -11285,7 +11330,7 @@
     </row>
     <row r="480" spans="1:12" ht="30">
       <c r="B480" s="34"/>
-      <c r="D480" s="46"/>
+      <c r="D480" s="47"/>
       <c r="E480" s="20">
         <v>2</v>
       </c>
@@ -11303,7 +11348,7 @@
     </row>
     <row r="481" spans="1:12" ht="30">
       <c r="B481" s="34"/>
-      <c r="D481" s="46"/>
+      <c r="D481" s="47"/>
       <c r="E481" s="20">
         <v>3</v>
       </c>
@@ -11325,7 +11370,7 @@
     </row>
     <row r="482" spans="1:12" ht="30">
       <c r="B482" s="34"/>
-      <c r="D482" s="46"/>
+      <c r="D482" s="47"/>
       <c r="E482" s="20">
         <v>4</v>
       </c>
@@ -11353,7 +11398,7 @@
       <c r="C484" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D484" s="46" t="s">
+      <c r="D484" s="47" t="s">
         <v>438</v>
       </c>
       <c r="E484" s="20">
@@ -11376,7 +11421,7 @@
     </row>
     <row r="485" spans="1:12" ht="30">
       <c r="B485" s="34"/>
-      <c r="D485" s="46"/>
+      <c r="D485" s="47"/>
       <c r="E485" s="20">
         <v>2</v>
       </c>
@@ -11394,7 +11439,7 @@
     </row>
     <row r="486" spans="1:12" ht="30">
       <c r="B486" s="34"/>
-      <c r="D486" s="46"/>
+      <c r="D486" s="47"/>
       <c r="E486" s="20">
         <v>3</v>
       </c>
@@ -11416,7 +11461,7 @@
     </row>
     <row r="487" spans="1:12">
       <c r="B487" s="34"/>
-      <c r="D487" s="46"/>
+      <c r="D487" s="47"/>
       <c r="E487" s="20">
         <v>4</v>
       </c>
@@ -11444,7 +11489,7 @@
       <c r="C489" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D489" s="46" t="s">
+      <c r="D489" s="47" t="s">
         <v>449</v>
       </c>
       <c r="E489" s="20">
@@ -11467,7 +11512,7 @@
     </row>
     <row r="490" spans="1:12" ht="30">
       <c r="B490" s="39"/>
-      <c r="D490" s="46"/>
+      <c r="D490" s="47"/>
       <c r="E490" s="20">
         <v>2</v>
       </c>
@@ -11485,7 +11530,7 @@
     </row>
     <row r="491" spans="1:12" ht="30">
       <c r="B491" s="39"/>
-      <c r="D491" s="46"/>
+      <c r="D491" s="47"/>
       <c r="E491" s="20">
         <v>3</v>
       </c>
@@ -11506,7 +11551,7 @@
     </row>
     <row r="492" spans="1:12" ht="30">
       <c r="B492" s="39"/>
-      <c r="D492" s="46"/>
+      <c r="D492" s="47"/>
       <c r="E492" s="20">
         <v>4</v>
       </c>
@@ -11541,7 +11586,7 @@
       <c r="C494" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D494" s="46" t="s">
+      <c r="D494" s="47" t="s">
         <v>448</v>
       </c>
       <c r="E494" s="20">
@@ -11564,7 +11609,7 @@
     </row>
     <row r="495" spans="1:12" ht="30">
       <c r="B495" s="39"/>
-      <c r="D495" s="46"/>
+      <c r="D495" s="47"/>
       <c r="E495" s="20">
         <v>2</v>
       </c>
@@ -11582,7 +11627,7 @@
     </row>
     <row r="496" spans="1:12" ht="30">
       <c r="B496" s="39"/>
-      <c r="D496" s="46"/>
+      <c r="D496" s="47"/>
       <c r="E496" s="20">
         <v>3</v>
       </c>
@@ -11603,7 +11648,7 @@
     </row>
     <row r="497" spans="1:12" ht="30">
       <c r="B497" s="39"/>
-      <c r="D497" s="46"/>
+      <c r="D497" s="47"/>
       <c r="E497" s="20">
         <v>4</v>
       </c>
@@ -11638,7 +11683,7 @@
       <c r="C499" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D499" s="46" t="s">
+      <c r="D499" s="47" t="s">
         <v>460</v>
       </c>
       <c r="E499" s="20">
@@ -11658,7 +11703,7 @@
     </row>
     <row r="500" spans="1:12" ht="30">
       <c r="B500" s="39"/>
-      <c r="D500" s="46"/>
+      <c r="D500" s="47"/>
       <c r="E500" s="20">
         <v>2</v>
       </c>
@@ -11676,7 +11721,7 @@
     </row>
     <row r="501" spans="1:12">
       <c r="B501" s="39"/>
-      <c r="D501" s="46"/>
+      <c r="D501" s="47"/>
       <c r="E501" s="20">
         <v>3</v>
       </c>
@@ -11697,7 +11742,7 @@
     </row>
     <row r="502" spans="1:12" ht="90">
       <c r="B502" s="39"/>
-      <c r="D502" s="46"/>
+      <c r="D502" s="47"/>
       <c r="E502" s="20">
         <v>4</v>
       </c>
@@ -11732,7 +11777,7 @@
       <c r="C504" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D504" s="46" t="s">
+      <c r="D504" s="47" t="s">
         <v>464</v>
       </c>
       <c r="E504" s="20">
@@ -11755,7 +11800,7 @@
     </row>
     <row r="505" spans="1:12" ht="30">
       <c r="B505" s="39"/>
-      <c r="D505" s="46"/>
+      <c r="D505" s="47"/>
       <c r="E505" s="20">
         <v>2</v>
       </c>
@@ -11773,7 +11818,7 @@
     </row>
     <row r="506" spans="1:12">
       <c r="B506" s="39"/>
-      <c r="D506" s="46"/>
+      <c r="D506" s="47"/>
       <c r="E506" s="20">
         <v>3</v>
       </c>
@@ -11794,7 +11839,7 @@
     </row>
     <row r="507" spans="1:12" ht="30">
       <c r="B507" s="39"/>
-      <c r="D507" s="46"/>
+      <c r="D507" s="47"/>
       <c r="E507" s="20">
         <v>4</v>
       </c>
@@ -11829,7 +11874,7 @@
       <c r="C509" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D509" s="46" t="s">
+      <c r="D509" s="47" t="s">
         <v>469</v>
       </c>
       <c r="E509" s="20">
@@ -11852,7 +11897,7 @@
     </row>
     <row r="510" spans="1:12" ht="30">
       <c r="B510" s="39"/>
-      <c r="D510" s="46"/>
+      <c r="D510" s="47"/>
       <c r="E510" s="20">
         <v>2</v>
       </c>
@@ -11870,7 +11915,7 @@
     </row>
     <row r="511" spans="1:12">
       <c r="B511" s="39"/>
-      <c r="D511" s="46"/>
+      <c r="D511" s="47"/>
       <c r="E511" s="20">
         <v>3</v>
       </c>
@@ -11891,7 +11936,7 @@
     </row>
     <row r="512" spans="1:12" ht="30">
       <c r="B512" s="39"/>
-      <c r="D512" s="46"/>
+      <c r="D512" s="47"/>
       <c r="E512" s="20">
         <v>4</v>
       </c>
@@ -11929,7 +11974,7 @@
       <c r="C514" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D514" s="46" t="s">
+      <c r="D514" s="47" t="s">
         <v>477</v>
       </c>
       <c r="E514" s="20">
@@ -11952,7 +11997,7 @@
     </row>
     <row r="515" spans="1:12" ht="30">
       <c r="B515" s="39"/>
-      <c r="D515" s="46"/>
+      <c r="D515" s="47"/>
       <c r="E515" s="20">
         <v>2</v>
       </c>
@@ -11970,7 +12015,7 @@
     </row>
     <row r="516" spans="1:12" ht="30">
       <c r="B516" s="39"/>
-      <c r="D516" s="46"/>
+      <c r="D516" s="47"/>
       <c r="E516" s="20">
         <v>3</v>
       </c>
@@ -12008,7 +12053,7 @@
       <c r="C518" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D518" s="46" t="s">
+      <c r="D518" s="47" t="s">
         <v>476</v>
       </c>
       <c r="E518" s="20">
@@ -12028,7 +12073,7 @@
     </row>
     <row r="519" spans="1:12" ht="30">
       <c r="B519" s="39"/>
-      <c r="D519" s="46"/>
+      <c r="D519" s="47"/>
       <c r="E519" s="20">
         <v>2</v>
       </c>
@@ -12046,7 +12091,7 @@
     </row>
     <row r="520" spans="1:12" ht="30">
       <c r="B520" s="39"/>
-      <c r="D520" s="46"/>
+      <c r="D520" s="47"/>
       <c r="E520" s="20">
         <v>3</v>
       </c>
@@ -12071,7 +12116,7 @@
     </row>
     <row r="521" spans="1:12" ht="27" customHeight="1">
       <c r="B521" s="39"/>
-      <c r="D521" s="46"/>
+      <c r="D521" s="47"/>
       <c r="E521" s="20">
         <v>4</v>
       </c>
@@ -12099,7 +12144,7 @@
       <c r="C523" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D523" s="46" t="s">
+      <c r="D523" s="47" t="s">
         <v>482</v>
       </c>
       <c r="E523" s="20">
@@ -12119,7 +12164,7 @@
     </row>
     <row r="524" spans="1:12" ht="30">
       <c r="B524" s="39"/>
-      <c r="D524" s="46"/>
+      <c r="D524" s="47"/>
       <c r="E524" s="20">
         <v>2</v>
       </c>
@@ -12137,7 +12182,7 @@
     </row>
     <row r="525" spans="1:12" ht="30">
       <c r="B525" s="39"/>
-      <c r="D525" s="46"/>
+      <c r="D525" s="47"/>
       <c r="E525" s="20">
         <v>3</v>
       </c>
@@ -12162,7 +12207,7 @@
     </row>
     <row r="526" spans="1:12" ht="30.75" customHeight="1">
       <c r="B526" s="39"/>
-      <c r="D526" s="46"/>
+      <c r="D526" s="47"/>
       <c r="E526" s="20">
         <v>4</v>
       </c>
@@ -12190,7 +12235,7 @@
       <c r="C528" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D528" s="46" t="s">
+      <c r="D528" s="47" t="s">
         <v>486</v>
       </c>
       <c r="E528" s="20">
@@ -12210,7 +12255,7 @@
     </row>
     <row r="529" spans="1:12" ht="30">
       <c r="B529" s="39"/>
-      <c r="D529" s="46"/>
+      <c r="D529" s="47"/>
       <c r="E529" s="20">
         <v>2</v>
       </c>
@@ -12220,12 +12265,15 @@
       <c r="G529" s="20" t="s">
         <v>487</v>
       </c>
+      <c r="H529" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K529" s="2"/>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" ht="30">
       <c r="B530" s="39"/>
-      <c r="D530" s="46"/>
+      <c r="D530" s="47"/>
       <c r="E530" s="20">
         <v>3</v>
       </c>
@@ -12235,8 +12283,15 @@
       <c r="G530" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="K530" s="2"/>
-      <c r="L530" s="2"/>
+      <c r="H530" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K530" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L530" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="531" spans="1:12">
       <c r="B531" s="19"/>
@@ -12253,7 +12308,7 @@
       <c r="C532" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D532" s="46" t="s">
+      <c r="D532" s="47" t="s">
         <v>491</v>
       </c>
       <c r="E532" s="20">
@@ -12273,7 +12328,7 @@
     </row>
     <row r="533" spans="1:12" ht="30">
       <c r="B533" s="39"/>
-      <c r="D533" s="46"/>
+      <c r="D533" s="47"/>
       <c r="E533" s="20">
         <v>2</v>
       </c>
@@ -12283,12 +12338,15 @@
       <c r="G533" s="20" t="s">
         <v>494</v>
       </c>
+      <c r="H533" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K533" s="2"/>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" ht="30">
       <c r="B534" s="39"/>
-      <c r="D534" s="46"/>
+      <c r="D534" s="47"/>
       <c r="E534" s="20">
         <v>3</v>
       </c>
@@ -12298,8 +12356,15 @@
       <c r="G534" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="K534" s="2"/>
-      <c r="L534" s="2"/>
+      <c r="H534" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K534" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L534" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="535" spans="1:12">
       <c r="B535" s="19"/>
@@ -12316,7 +12381,7 @@
       <c r="C536" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D536" s="46" t="s">
+      <c r="D536" s="47" t="s">
         <v>505</v>
       </c>
       <c r="E536" s="20">
@@ -12336,7 +12401,7 @@
     </row>
     <row r="537" spans="1:12">
       <c r="B537" s="39"/>
-      <c r="D537" s="46"/>
+      <c r="D537" s="47"/>
       <c r="E537" s="20">
         <v>2</v>
       </c>
@@ -12346,12 +12411,15 @@
       <c r="G537" s="20" t="s">
         <v>501</v>
       </c>
+      <c r="H537" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K537" s="2"/>
       <c r="L537" s="2"/>
     </row>
     <row r="538" spans="1:12">
       <c r="B538" s="39"/>
-      <c r="D538" s="46"/>
+      <c r="D538" s="47"/>
       <c r="E538" s="20">
         <v>3</v>
       </c>
@@ -12361,12 +12429,15 @@
       <c r="G538" s="20" t="s">
         <v>503</v>
       </c>
+      <c r="H538" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K538" s="2"/>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" ht="30">
       <c r="B539" s="19"/>
-      <c r="D539" s="46"/>
+      <c r="D539" s="47"/>
       <c r="E539" s="20">
         <v>4</v>
       </c>
@@ -12376,8 +12447,15 @@
       <c r="G539" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="K539" s="2"/>
-      <c r="L539" s="2"/>
+      <c r="H539" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K539" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L539" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="540" spans="1:12">
       <c r="B540" s="19"/>
@@ -12394,7 +12472,7 @@
       <c r="C541" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D541" s="46" t="s">
+      <c r="D541" s="47" t="s">
         <v>506</v>
       </c>
       <c r="E541" s="20">
@@ -12406,6 +12484,9 @@
       <c r="G541" s="20" t="s">
         <v>415</v>
       </c>
+      <c r="H541" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I541" s="20" t="s">
         <v>416</v>
       </c>
@@ -12414,7 +12495,7 @@
     </row>
     <row r="542" spans="1:12">
       <c r="B542" s="39"/>
-      <c r="D542" s="46"/>
+      <c r="D542" s="47"/>
       <c r="E542" s="20">
         <v>2</v>
       </c>
@@ -12424,12 +12505,15 @@
       <c r="G542" s="20" t="s">
         <v>501</v>
       </c>
+      <c r="H542" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K542" s="2"/>
       <c r="L542" s="2"/>
     </row>
-    <row r="543" spans="1:12">
+    <row r="543" spans="1:12" ht="30">
       <c r="B543" s="39"/>
-      <c r="D543" s="46"/>
+      <c r="D543" s="47"/>
       <c r="E543" s="20">
         <v>3</v>
       </c>
@@ -12439,8 +12523,15 @@
       <c r="G543" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="K543" s="2"/>
-      <c r="L543" s="2"/>
+      <c r="H543" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K543" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L543" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="544" spans="1:12">
       <c r="B544" s="19"/>
@@ -12457,7 +12548,7 @@
       <c r="C545" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D545" s="46" t="s">
+      <c r="D545" s="47" t="s">
         <v>512</v>
       </c>
       <c r="E545" s="20">
@@ -12469,6 +12560,9 @@
       <c r="G545" s="20" t="s">
         <v>415</v>
       </c>
+      <c r="H545" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I545" s="20" t="s">
         <v>416</v>
       </c>
@@ -12477,7 +12571,7 @@
     </row>
     <row r="546" spans="1:12">
       <c r="B546" s="39"/>
-      <c r="D546" s="46"/>
+      <c r="D546" s="47"/>
       <c r="E546" s="20">
         <v>2</v>
       </c>
@@ -12487,12 +12581,15 @@
       <c r="G546" s="20" t="s">
         <v>501</v>
       </c>
+      <c r="H546" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
     </row>
     <row r="547" spans="1:12">
       <c r="B547" s="39"/>
-      <c r="D547" s="46"/>
+      <c r="D547" s="47"/>
       <c r="E547" s="20">
         <v>3</v>
       </c>
@@ -12502,12 +12599,15 @@
       <c r="G547" s="20" t="s">
         <v>510</v>
       </c>
+      <c r="H547" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="1:12">
+    <row r="548" spans="1:12" ht="30">
       <c r="B548" s="19"/>
-      <c r="D548" s="46"/>
+      <c r="D548" s="47"/>
       <c r="E548" s="20">
         <v>4</v>
       </c>
@@ -12517,8 +12617,15 @@
       <c r="G548" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="K548" s="2"/>
-      <c r="L548" s="2"/>
+      <c r="H548" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K548" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L548" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="549" spans="1:12">
       <c r="B549" s="19"/>
@@ -12535,7 +12642,7 @@
       <c r="C550" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D550" s="46" t="s">
+      <c r="D550" s="47" t="s">
         <v>515</v>
       </c>
       <c r="E550" s="20">
@@ -12555,7 +12662,7 @@
     </row>
     <row r="551" spans="1:12" ht="30">
       <c r="B551" s="39"/>
-      <c r="D551" s="46"/>
+      <c r="D551" s="47"/>
       <c r="E551" s="20">
         <v>2</v>
       </c>
@@ -12565,12 +12672,15 @@
       <c r="G551" s="20" t="s">
         <v>517</v>
       </c>
+      <c r="H551" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K551" s="2"/>
       <c r="L551" s="2"/>
     </row>
-    <row r="552" spans="1:12" ht="30">
+    <row r="552" spans="1:12" ht="45">
       <c r="B552" s="39"/>
-      <c r="D552" s="46"/>
+      <c r="D552" s="47"/>
       <c r="E552" s="20">
         <v>3</v>
       </c>
@@ -12580,8 +12690,18 @@
       <c r="G552" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="K552" s="2"/>
-      <c r="L552" s="2"/>
+      <c r="H552" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="J552" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="K552" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L552" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="553" spans="1:12">
       <c r="B553" s="19"/>
@@ -12598,7 +12718,7 @@
       <c r="C554" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D554" s="46" t="s">
+      <c r="D554" s="47" t="s">
         <v>520</v>
       </c>
       <c r="E554" s="20">
@@ -12618,7 +12738,7 @@
     </row>
     <row r="555" spans="1:12" ht="30">
       <c r="B555" s="39"/>
-      <c r="D555" s="46"/>
+      <c r="D555" s="47"/>
       <c r="E555" s="20">
         <v>2</v>
       </c>
@@ -12628,12 +12748,15 @@
       <c r="G555" s="20" t="s">
         <v>521</v>
       </c>
+      <c r="H555" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K555" s="2"/>
       <c r="L555" s="2"/>
     </row>
     <row r="556" spans="1:12" ht="30">
       <c r="B556" s="39"/>
-      <c r="D556" s="46"/>
+      <c r="D556" s="47"/>
       <c r="E556" s="20">
         <v>3</v>
       </c>
@@ -12643,8 +12766,15 @@
       <c r="G556" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="K556" s="2"/>
-      <c r="L556" s="2"/>
+      <c r="H556" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K556" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L556" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="557" spans="1:12">
       <c r="B557" s="19"/>
@@ -12661,7 +12791,7 @@
       <c r="C558" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D558" s="46" t="s">
+      <c r="D558" s="47" t="s">
         <v>531</v>
       </c>
       <c r="E558" s="20">
@@ -12673,6 +12803,9 @@
       <c r="G558" s="20" t="s">
         <v>415</v>
       </c>
+      <c r="H558" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="I558" s="20" t="s">
         <v>416</v>
       </c>
@@ -12681,7 +12814,7 @@
     </row>
     <row r="559" spans="1:12">
       <c r="B559" s="39"/>
-      <c r="D559" s="46"/>
+      <c r="D559" s="47"/>
       <c r="E559" s="20">
         <v>2</v>
       </c>
@@ -12691,12 +12824,15 @@
       <c r="G559" s="20" t="s">
         <v>526</v>
       </c>
+      <c r="H559" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
     </row>
     <row r="560" spans="1:12">
       <c r="B560" s="39"/>
-      <c r="D560" s="46"/>
+      <c r="D560" s="47"/>
       <c r="E560" s="20">
         <v>3</v>
       </c>
@@ -12706,12 +12842,15 @@
       <c r="G560" s="20" t="s">
         <v>528</v>
       </c>
+      <c r="H560" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K560" s="2"/>
       <c r="L560" s="2"/>
     </row>
-    <row r="561" spans="1:12">
+    <row r="561" spans="1:12" ht="30">
       <c r="B561" s="19"/>
-      <c r="D561" s="46"/>
+      <c r="D561" s="47"/>
       <c r="E561" s="20">
         <v>4</v>
       </c>
@@ -12721,8 +12860,15 @@
       <c r="G561" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="K561" s="2"/>
-      <c r="L561" s="2"/>
+      <c r="H561" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K561" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L561" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="562" spans="1:12">
       <c r="B562" s="19"/>
@@ -12739,7 +12885,7 @@
       <c r="C563" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D563" s="46" t="s">
+      <c r="D563" s="47" t="s">
         <v>532</v>
       </c>
       <c r="E563" s="20">
@@ -12759,7 +12905,7 @@
     </row>
     <row r="564" spans="1:12">
       <c r="B564" s="39"/>
-      <c r="D564" s="46"/>
+      <c r="D564" s="47"/>
       <c r="E564" s="20">
         <v>2</v>
       </c>
@@ -12769,12 +12915,15 @@
       <c r="G564" s="20" t="s">
         <v>526</v>
       </c>
+      <c r="H564" s="20" t="s">
+        <v>603</v>
+      </c>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
     </row>
     <row r="565" spans="1:12" ht="30">
       <c r="B565" s="39"/>
-      <c r="D565" s="46"/>
+      <c r="D565" s="47"/>
       <c r="E565" s="20">
         <v>3</v>
       </c>
@@ -12784,12 +12933,15 @@
       <c r="G565" s="20" t="s">
         <v>528</v>
       </c>
+      <c r="H565" s="20" t="s">
+        <v>603</v>
+      </c>
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
     </row>
-    <row r="566" spans="1:12">
+    <row r="566" spans="1:12" ht="30">
       <c r="B566" s="39"/>
-      <c r="D566" s="46"/>
+      <c r="D566" s="47"/>
       <c r="E566" s="20">
         <v>4</v>
       </c>
@@ -12799,8 +12951,15 @@
       <c r="G566" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="K566" s="2"/>
-      <c r="L566" s="2"/>
+      <c r="H566" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="K566" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L566" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="567" spans="1:12">
       <c r="B567" s="19"/>
@@ -12817,7 +12976,7 @@
       <c r="C568" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D568" s="46" t="s">
+      <c r="D568" s="47" t="s">
         <v>544</v>
       </c>
       <c r="E568" s="20">
@@ -12837,7 +12996,7 @@
     </row>
     <row r="569" spans="1:12" ht="30">
       <c r="B569" s="39"/>
-      <c r="D569" s="46"/>
+      <c r="D569" s="47"/>
       <c r="E569" s="20">
         <v>2</v>
       </c>
@@ -12847,12 +13006,15 @@
       <c r="G569" s="20" t="s">
         <v>540</v>
       </c>
+      <c r="H569" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K569" s="2"/>
       <c r="L569" s="2"/>
     </row>
     <row r="570" spans="1:12">
       <c r="B570" s="39"/>
-      <c r="D570" s="46"/>
+      <c r="D570" s="47"/>
       <c r="E570" s="20">
         <v>3</v>
       </c>
@@ -12862,12 +13024,15 @@
       <c r="G570" s="20" t="s">
         <v>503</v>
       </c>
+      <c r="H570" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K570" s="2"/>
       <c r="L570" s="2"/>
     </row>
     <row r="571" spans="1:12" ht="30">
       <c r="B571" s="39"/>
-      <c r="D571" s="46"/>
+      <c r="D571" s="47"/>
       <c r="E571" s="20">
         <v>4</v>
       </c>
@@ -12877,8 +13042,15 @@
       <c r="G571" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="K571" s="2"/>
-      <c r="L571" s="2"/>
+      <c r="H571" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K571" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L571" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="572" spans="1:12">
       <c r="B572" s="19"/>
@@ -12895,7 +13067,7 @@
       <c r="C573" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D573" s="46" t="s">
+      <c r="D573" s="47" t="s">
         <v>547</v>
       </c>
       <c r="E573" s="20">
@@ -12909,7 +13081,7 @@
     </row>
     <row r="574" spans="1:12" ht="33" customHeight="1">
       <c r="B574" s="40"/>
-      <c r="D574" s="46"/>
+      <c r="D574" s="47"/>
       <c r="E574" s="20">
         <v>2</v>
       </c>
@@ -12919,12 +13091,18 @@
       <c r="G574" s="20" t="s">
         <v>548</v>
       </c>
+      <c r="H574" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I574" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K574" s="2"/>
       <c r="L574" s="2"/>
     </row>
     <row r="575" spans="1:12" ht="30">
       <c r="B575" s="40"/>
-      <c r="D575" s="46"/>
+      <c r="D575" s="47"/>
       <c r="E575" s="20">
         <v>3</v>
       </c>
@@ -12934,12 +13112,15 @@
       <c r="G575" s="20" t="s">
         <v>549</v>
       </c>
+      <c r="H575" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K575" s="2"/>
       <c r="L575" s="2"/>
     </row>
-    <row r="576" spans="1:12">
+    <row r="576" spans="1:12" ht="30">
       <c r="B576" s="40"/>
-      <c r="D576" s="46"/>
+      <c r="D576" s="47"/>
       <c r="E576" s="20">
         <v>4</v>
       </c>
@@ -12949,8 +13130,15 @@
       <c r="G576" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="K576" s="2"/>
-      <c r="L576" s="2"/>
+      <c r="H576" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K576" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L576" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="577" spans="1:12">
       <c r="B577" s="19"/>
@@ -12967,7 +13155,7 @@
       <c r="C578" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D578" s="46" t="s">
+      <c r="D578" s="47" t="s">
         <v>553</v>
       </c>
       <c r="E578" s="20">
@@ -12979,9 +13167,9 @@
       <c r="K578" s="2"/>
       <c r="L578" s="2"/>
     </row>
-    <row r="579" spans="1:12">
+    <row r="579" spans="1:12" ht="45">
       <c r="B579" s="40"/>
-      <c r="D579" s="46"/>
+      <c r="D579" s="47"/>
       <c r="E579" s="20">
         <v>2</v>
       </c>
@@ -12991,27 +13179,36 @@
       <c r="G579" s="20" t="s">
         <v>548</v>
       </c>
+      <c r="H579" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I579" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K579" s="2"/>
       <c r="L579" s="2"/>
     </row>
     <row r="580" spans="1:12" ht="30">
       <c r="B580" s="40"/>
-      <c r="D580" s="46"/>
+      <c r="D580" s="47"/>
       <c r="E580" s="20">
         <v>3</v>
       </c>
       <c r="F580" s="20" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="G580" s="20" t="s">
         <v>549</v>
       </c>
+      <c r="H580" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K580" s="2"/>
       <c r="L580" s="2"/>
     </row>
     <row r="581" spans="1:12">
       <c r="B581" s="40"/>
-      <c r="D581" s="46"/>
+      <c r="D581" s="47"/>
       <c r="E581" s="20">
         <v>4</v>
       </c>
@@ -13021,12 +13218,15 @@
       <c r="G581" s="20" t="s">
         <v>550</v>
       </c>
+      <c r="H581" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K581" s="2"/>
       <c r="L581" s="2"/>
     </row>
     <row r="582" spans="1:12" ht="30">
       <c r="B582" s="19"/>
-      <c r="D582" s="46"/>
+      <c r="D582" s="47"/>
       <c r="E582" s="20">
         <v>5</v>
       </c>
@@ -13036,8 +13236,15 @@
       <c r="G582" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="K582" s="2"/>
-      <c r="L582" s="2"/>
+      <c r="H582" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K582" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L582" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="583" spans="1:12">
       <c r="B583" s="19"/>
@@ -13054,7 +13261,7 @@
       <c r="C584" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D584" s="46" t="s">
+      <c r="D584" s="47" t="s">
         <v>556</v>
       </c>
       <c r="E584" s="20">
@@ -13066,9 +13273,9 @@
       <c r="K584" s="2"/>
       <c r="L584" s="2"/>
     </row>
-    <row r="585" spans="1:12">
+    <row r="585" spans="1:12" ht="45">
       <c r="B585" s="40"/>
-      <c r="D585" s="46"/>
+      <c r="D585" s="47"/>
       <c r="E585" s="20">
         <v>2</v>
       </c>
@@ -13078,12 +13285,18 @@
       <c r="G585" s="20" t="s">
         <v>548</v>
       </c>
+      <c r="H585" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I585" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
     <row r="586" spans="1:12" ht="30">
       <c r="B586" s="40"/>
-      <c r="D586" s="46"/>
+      <c r="D586" s="47"/>
       <c r="E586" s="20">
         <v>3</v>
       </c>
@@ -13093,12 +13306,15 @@
       <c r="G586" s="20" t="s">
         <v>549</v>
       </c>
+      <c r="H586" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" spans="1:12" ht="30">
       <c r="B587" s="40"/>
-      <c r="D587" s="46"/>
+      <c r="D587" s="47"/>
       <c r="E587" s="20">
         <v>4</v>
       </c>
@@ -13108,8 +13324,15 @@
       <c r="G587" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="K587" s="2"/>
-      <c r="L587" s="2"/>
+      <c r="H587" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K587" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L587" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="588" spans="1:12">
       <c r="B588" s="19"/>
@@ -13126,7 +13349,7 @@
       <c r="C589" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D589" s="46" t="s">
+      <c r="D589" s="47" t="s">
         <v>561</v>
       </c>
       <c r="E589" s="20">
@@ -13138,9 +13361,9 @@
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
     </row>
-    <row r="590" spans="1:12">
+    <row r="590" spans="1:12" ht="45">
       <c r="B590" s="40"/>
-      <c r="D590" s="46"/>
+      <c r="D590" s="47"/>
       <c r="E590" s="20">
         <v>2</v>
       </c>
@@ -13150,12 +13373,18 @@
       <c r="G590" s="20" t="s">
         <v>548</v>
       </c>
+      <c r="H590" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I590" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K590" s="2"/>
       <c r="L590" s="2"/>
     </row>
     <row r="591" spans="1:12" ht="30">
       <c r="B591" s="40"/>
-      <c r="D591" s="46"/>
+      <c r="D591" s="47"/>
       <c r="E591" s="20">
         <v>3</v>
       </c>
@@ -13165,12 +13394,15 @@
       <c r="G591" s="20" t="s">
         <v>549</v>
       </c>
+      <c r="H591" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K591" s="2"/>
       <c r="L591" s="2"/>
     </row>
-    <row r="592" spans="1:12">
+    <row r="592" spans="1:12" ht="30">
       <c r="B592" s="40"/>
-      <c r="D592" s="46"/>
+      <c r="D592" s="47"/>
       <c r="E592" s="20">
         <v>4</v>
       </c>
@@ -13180,8 +13412,15 @@
       <c r="G592" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="K592" s="2"/>
-      <c r="L592" s="2"/>
+      <c r="H592" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K592" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L592" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="593" spans="1:12">
       <c r="B593" s="19"/>
@@ -13198,7 +13437,7 @@
       <c r="C594" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D594" s="46" t="s">
+      <c r="D594" s="47" t="s">
         <v>568</v>
       </c>
       <c r="E594" s="20">
@@ -13210,9 +13449,9 @@
       <c r="K594" s="2"/>
       <c r="L594" s="2"/>
     </row>
-    <row r="595" spans="1:12" ht="28.5" customHeight="1">
+    <row r="595" spans="1:12" ht="45.75" customHeight="1">
       <c r="B595" s="40"/>
-      <c r="D595" s="46"/>
+      <c r="D595" s="47"/>
       <c r="E595" s="20">
         <v>2</v>
       </c>
@@ -13222,12 +13461,18 @@
       <c r="G595" s="20" t="s">
         <v>548</v>
       </c>
+      <c r="H595" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="I595" s="20" t="s">
+        <v>416</v>
+      </c>
       <c r="K595" s="2"/>
       <c r="L595" s="2"/>
     </row>
     <row r="596" spans="1:12" ht="30">
       <c r="B596" s="40"/>
-      <c r="D596" s="46"/>
+      <c r="D596" s="47"/>
       <c r="E596" s="20">
         <v>3</v>
       </c>
@@ -13237,12 +13482,15 @@
       <c r="G596" s="20" t="s">
         <v>549</v>
       </c>
+      <c r="H596" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K596" s="2"/>
       <c r="L596" s="2"/>
     </row>
     <row r="597" spans="1:12">
       <c r="B597" s="40"/>
-      <c r="D597" s="46"/>
+      <c r="D597" s="47"/>
       <c r="E597" s="20">
         <v>4</v>
       </c>
@@ -13252,11 +13500,13 @@
       <c r="G597" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="K597" s="2"/>
+      <c r="H597" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="L597" s="2"/>
     </row>
     <row r="598" spans="1:12" ht="30.75" customHeight="1">
-      <c r="D598" s="46"/>
+      <c r="D598" s="47"/>
       <c r="E598" s="20">
         <v>5</v>
       </c>
@@ -13266,34 +13516,130 @@
       <c r="G598" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="K598" s="2"/>
-      <c r="L598" s="2"/>
+      <c r="H598" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K598" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L598" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="599" spans="1:12">
       <c r="K599" s="2"/>
       <c r="L599" s="2"/>
     </row>
-    <row r="600" spans="1:12">
+    <row r="600" spans="1:12" ht="60" customHeight="1">
+      <c r="A600" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="B600" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C600" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D600" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E600" s="20">
+        <v>1</v>
+      </c>
+      <c r="F600" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="H600" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="K600" s="2"/>
       <c r="L600" s="2"/>
     </row>
-    <row r="601" spans="1:12">
+    <row r="601" spans="1:12" ht="30">
+      <c r="B601" s="45"/>
+      <c r="D601" s="47"/>
+      <c r="E601" s="20">
+        <v>2</v>
+      </c>
+      <c r="F601" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="G601" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="H601" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K601" s="2"/>
       <c r="L601" s="2"/>
     </row>
     <row r="602" spans="1:12">
+      <c r="B602" s="45"/>
+      <c r="D602" s="47"/>
+      <c r="E602" s="20">
+        <v>3</v>
+      </c>
+      <c r="F602" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="G602" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="H602" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="K602" s="2"/>
       <c r="L602" s="2"/>
     </row>
-    <row r="603" spans="1:12">
-      <c r="K603" s="2"/>
-      <c r="L603" s="2"/>
-    </row>
-    <row r="604" spans="1:12">
+    <row r="603" spans="1:12" ht="30">
+      <c r="B603" s="45"/>
+      <c r="D603" s="47"/>
+      <c r="E603" s="20">
+        <v>4</v>
+      </c>
+      <c r="F603" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="G603" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="H603" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="K603" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L603" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" ht="30">
+      <c r="B604" s="45"/>
+      <c r="D604" s="47"/>
+      <c r="E604" s="20">
+        <v>5</v>
+      </c>
+      <c r="F604" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="G604" s="20" t="s">
+        <v>613</v>
+      </c>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
     </row>
     <row r="605" spans="1:12">
+      <c r="B605" s="45"/>
+      <c r="D605" s="47"/>
+      <c r="E605" s="20">
+        <v>6</v>
+      </c>
+      <c r="F605" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G605" s="20" t="s">
+        <v>550</v>
+      </c>
       <c r="K605" s="2"/>
       <c r="L605" s="2"/>
     </row>
@@ -13713,7 +14059,8 @@
       <c r="L720" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="101">
+    <mergeCell ref="D600:D605"/>
     <mergeCell ref="D594:D598"/>
     <mergeCell ref="D573:D576"/>
     <mergeCell ref="D578:D582"/>
@@ -13816,11 +14163,11 @@
     <mergeCell ref="D563:D566"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K480 K482:K485 K511 K508:K509 K503:K506 K498:K501 K493:K496 K487:K491 K513:K515 K517:K519 K521:K524 K526:K675">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K598 K592 K587 K582 K576 K571 K566 K561 K556 K552 K548 K543 K539 K534 K530 K525 K520 K516 K481 K486 K492 K497 K502 K507 K510 K512 K2:K478 K603">
+      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K480 K482:K485 K593:K596 K588:K591 K583:K586 K577:K581 K572:K575 K567:K570 K562:K565 K557:K560 K553:K555 K549:K551 K544:K547 K540:K542 K535:K538 K531:K533 K526:K529 K521:K524 K517:K519 K513:K515 K487:K491 K493:K496 K498:K501 K503:K506 K508:K509 K511 K599:K602 K604:K675">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K478 K512 K510 K507 K502 K497 K492 K486 K481 K516 K520 K525">
-      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L720">
       <formula1>"Pass, Fail, Blocked"</formula1>

--- a/Test Execution/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Execution/Rijo/Test Case - Nursing Station.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="626">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1949,9 +1949,6 @@
     <t>User is not able to add medicine.Drop down is cleared while selecting the medicine drop down</t>
   </si>
   <si>
-    <t>Stock Consumption page is not displaying</t>
-  </si>
-  <si>
     <t>No data found issue in Item Alias and Item drop down</t>
   </si>
   <si>
@@ -2001,6 +1998,42 @@
   </si>
   <si>
     <t xml:space="preserve">Unable to authenticate </t>
+  </si>
+  <si>
+    <t>EQ1-I441</t>
+  </si>
+  <si>
+    <t>EQ1-I587</t>
+  </si>
+  <si>
+    <t>EQ1-I581</t>
+  </si>
+  <si>
+    <t>EQ1-I512</t>
+  </si>
+  <si>
+    <t>EQ1-I575</t>
+  </si>
+  <si>
+    <t>EQ1-I510</t>
+  </si>
+  <si>
+    <t>Authentication should be successful</t>
+  </si>
+  <si>
+    <t>EQ1-I617</t>
+  </si>
+  <si>
+    <t>EQ1-I607</t>
+  </si>
+  <si>
+    <t>Page Consumption page is not displaying</t>
+  </si>
+  <si>
+    <t>EQ1-I555</t>
+  </si>
+  <si>
+    <t>EQ1-I632</t>
   </si>
 </sst>
 </file>
@@ -2706,7 +2739,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2725,11 +2758,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="80516992"/>
-        <c:axId val="80518528"/>
+        <c:axId val="59725312"/>
+        <c:axId val="59726848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80516992"/>
+        <c:axId val="59725312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,14 +2770,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80518528"/>
+        <c:crossAx val="59726848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80518528"/>
+        <c:axId val="59726848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2786,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80516992"/>
+        <c:crossAx val="59725312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2766,7 +2799,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3261,7 +3294,7 @@
       </c>
       <c r="G2" s="18">
         <f>'Nursing Station'!S5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3319,7 +3352,7 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="29.25" customHeight="1">
@@ -3360,9 +3393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J605" sqref="J605"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N546" sqref="N546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3569,12 +3602,15 @@
       <c r="L5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="M5" s="20" t="s">
+        <v>614</v>
+      </c>
       <c r="R5" s="22" t="s">
         <v>17</v>
       </c>
       <c r="S5" s="30">
         <f>COUNTA(M:M)-1</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30">
@@ -4353,7 +4389,7 @@
       <c r="K48" s="28"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="B49" s="19"/>
       <c r="D49" s="47"/>
       <c r="E49" s="20">
@@ -4371,7 +4407,7 @@
       <c r="K49" s="28"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="45">
+    <row r="50" spans="1:13" ht="45">
       <c r="B50" s="19"/>
       <c r="D50" s="47"/>
       <c r="E50" s="20">
@@ -4392,7 +4428,7 @@
       <c r="K50" s="28"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="30">
+    <row r="51" spans="1:13" ht="30">
       <c r="B51" s="19"/>
       <c r="D51" s="47"/>
       <c r="E51" s="20">
@@ -4410,7 +4446,7 @@
       <c r="K51" s="28"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="30">
+    <row r="52" spans="1:13" ht="30">
       <c r="B52" s="19"/>
       <c r="D52" s="47"/>
       <c r="E52" s="20">
@@ -4432,12 +4468,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="B53" s="19"/>
       <c r="K53" s="28"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="45" customHeight="1">
+    <row r="54" spans="1:13" ht="45" customHeight="1">
       <c r="A54" s="37" t="s">
         <v>93</v>
       </c>
@@ -4462,7 +4498,7 @@
       <c r="K54" s="28"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="30">
+    <row r="55" spans="1:13" ht="30">
       <c r="B55" s="19"/>
       <c r="D55" s="47"/>
       <c r="E55" s="20">
@@ -4480,7 +4516,7 @@
       <c r="K55" s="28"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="45">
+    <row r="56" spans="1:13" ht="45">
       <c r="B56" s="19"/>
       <c r="D56" s="47"/>
       <c r="E56" s="20">
@@ -4501,7 +4537,7 @@
       <c r="K56" s="28"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="30">
+    <row r="57" spans="1:13" ht="30">
       <c r="B57" s="19"/>
       <c r="D57" s="47"/>
       <c r="E57" s="20">
@@ -4522,13 +4558,16 @@
       <c r="L57" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="B58" s="19"/>
       <c r="K58" s="28"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="45" customHeight="1">
+    <row r="59" spans="1:13" ht="45" customHeight="1">
       <c r="A59" s="37" t="s">
         <v>99</v>
       </c>
@@ -4553,7 +4592,7 @@
       <c r="K59" s="28"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" ht="30">
+    <row r="60" spans="1:13" ht="30">
       <c r="B60" s="19"/>
       <c r="D60" s="47"/>
       <c r="E60" s="20">
@@ -4571,7 +4610,7 @@
       <c r="K60" s="28"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" ht="120">
+    <row r="61" spans="1:13" ht="120">
       <c r="B61" s="19"/>
       <c r="D61" s="47"/>
       <c r="E61" s="20">
@@ -4596,12 +4635,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="B62" s="19"/>
       <c r="K62" s="28"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="45" customHeight="1">
+    <row r="63" spans="1:13" ht="45" customHeight="1">
       <c r="A63" s="37" t="s">
         <v>106</v>
       </c>
@@ -4626,7 +4665,7 @@
       <c r="K63" s="28"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="30">
+    <row r="64" spans="1:13" ht="30">
       <c r="B64" s="19"/>
       <c r="D64" s="47"/>
       <c r="E64" s="20">
@@ -4936,12 +4975,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13">
       <c r="B81" s="19"/>
       <c r="K81" s="28"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="60" customHeight="1">
+    <row r="82" spans="1:13" ht="60" customHeight="1">
       <c r="A82" s="41" t="s">
         <v>145</v>
       </c>
@@ -4966,7 +5005,7 @@
       <c r="K82" s="28"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="30">
+    <row r="83" spans="1:13" ht="30">
       <c r="B83" s="19"/>
       <c r="D83" s="50"/>
       <c r="E83" s="20">
@@ -4984,7 +5023,7 @@
       <c r="K83" s="28"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="B84" s="19"/>
       <c r="D84" s="50"/>
       <c r="E84" s="20">
@@ -5002,7 +5041,7 @@
       <c r="K84" s="28"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="45">
+    <row r="85" spans="1:13" ht="45">
       <c r="B85" s="19"/>
       <c r="D85" s="50"/>
       <c r="E85" s="20">
@@ -5027,12 +5066,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="B86" s="19"/>
       <c r="K86" s="28"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="45" customHeight="1">
+    <row r="87" spans="1:13" ht="45" customHeight="1">
       <c r="A87" s="44" t="s">
         <v>132</v>
       </c>
@@ -5057,7 +5096,7 @@
       <c r="K87" s="28"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="30">
+    <row r="88" spans="1:13" ht="30">
       <c r="B88" s="19"/>
       <c r="D88" s="47"/>
       <c r="E88" s="20">
@@ -5075,7 +5114,7 @@
       <c r="K88" s="28"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:13">
       <c r="B89" s="19"/>
       <c r="D89" s="47"/>
       <c r="E89" s="20">
@@ -5093,7 +5132,7 @@
       <c r="K89" s="28"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="45">
+    <row r="90" spans="1:13" ht="45">
       <c r="B90" s="19"/>
       <c r="D90" s="47"/>
       <c r="E90" s="20">
@@ -5117,13 +5156,16 @@
       <c r="L90" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="B91" s="19"/>
       <c r="K91" s="28"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="30" customHeight="1">
+    <row r="92" spans="1:13" ht="30" customHeight="1">
       <c r="A92" s="42" t="s">
         <v>138</v>
       </c>
@@ -5148,7 +5190,7 @@
       <c r="K92" s="28"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="30">
+    <row r="93" spans="1:13" ht="30">
       <c r="B93" s="19"/>
       <c r="D93" s="47"/>
       <c r="E93" s="20">
@@ -5166,7 +5208,7 @@
       <c r="K93" s="28"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="B94" s="19"/>
       <c r="D94" s="47"/>
       <c r="E94" s="20">
@@ -5184,7 +5226,7 @@
       <c r="K94" s="28"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="45">
+    <row r="95" spans="1:13" ht="45">
       <c r="B95" s="19"/>
       <c r="D95" s="47"/>
       <c r="E95" s="20">
@@ -5205,7 +5247,7 @@
       <c r="K95" s="28"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="30">
+    <row r="96" spans="1:13" ht="30">
       <c r="B96" s="19"/>
       <c r="D96" s="47"/>
       <c r="E96" s="20">
@@ -5219,6 +5261,9 @@
       </c>
       <c r="H96" s="20" t="s">
         <v>579</v>
+      </c>
+      <c r="J96" s="20" t="s">
+        <v>616</v>
       </c>
       <c r="K96" s="28" t="s">
         <v>572</v>
@@ -5306,7 +5351,7 @@
         <v>153</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="I101" s="20" t="s">
         <v>129</v>
@@ -5326,14 +5371,14 @@
       <c r="G102" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="H102" s="20" t="s">
-        <v>570</v>
+      <c r="J102" s="20" t="s">
+        <v>616</v>
       </c>
       <c r="K102" s="28" t="s">
         <v>572</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5420,6 +5465,9 @@
       <c r="I107" s="20" t="s">
         <v>129</v>
       </c>
+      <c r="J107" s="20" t="s">
+        <v>616</v>
+      </c>
       <c r="K107" s="28" t="s">
         <v>572</v>
       </c>
@@ -9634,7 +9682,7 @@
       <c r="K384" s="28"/>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12" ht="30">
+    <row r="385" spans="1:13" ht="30">
       <c r="B385" s="27"/>
       <c r="D385" s="47"/>
       <c r="E385" s="20">
@@ -9656,12 +9704,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:13">
       <c r="B386" s="19"/>
       <c r="K386" s="28"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" ht="30" customHeight="1">
+    <row r="387" spans="1:13" ht="30" customHeight="1">
       <c r="A387" s="37" t="s">
         <v>357</v>
       </c>
@@ -9686,7 +9734,7 @@
       <c r="K387" s="28"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" ht="30">
+    <row r="388" spans="1:13" ht="30">
       <c r="B388" s="27"/>
       <c r="D388" s="47"/>
       <c r="E388" s="20">
@@ -9704,7 +9752,7 @@
       <c r="K388" s="28"/>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:13">
       <c r="B389" s="27"/>
       <c r="D389" s="47"/>
       <c r="E389" s="20">
@@ -9725,7 +9773,7 @@
       <c r="K389" s="28"/>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" ht="180">
+    <row r="390" spans="1:13" ht="180">
       <c r="B390" s="27"/>
       <c r="D390" s="47"/>
       <c r="E390" s="20">
@@ -9746,19 +9794,22 @@
       <c r="L390" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="391" spans="1:12">
+      <c r="M390" s="20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13">
       <c r="B391" s="27"/>
       <c r="D391" s="47"/>
       <c r="K391" s="28"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:13">
       <c r="B392" s="19"/>
       <c r="K392" s="28"/>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12" ht="30" customHeight="1">
+    <row r="393" spans="1:13" ht="30" customHeight="1">
       <c r="A393" s="37" t="s">
         <v>366</v>
       </c>
@@ -9783,7 +9834,7 @@
       <c r="K393" s="28"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" ht="30">
+    <row r="394" spans="1:13" ht="30">
       <c r="B394" s="27"/>
       <c r="D394" s="47"/>
       <c r="E394" s="20">
@@ -9801,7 +9852,7 @@
       <c r="K394" s="28"/>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:13">
       <c r="B395" s="27"/>
       <c r="D395" s="47"/>
       <c r="E395" s="20">
@@ -9822,7 +9873,7 @@
       <c r="K395" s="28"/>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12" ht="45">
+    <row r="396" spans="1:13" ht="45">
       <c r="B396" s="27"/>
       <c r="D396" s="47"/>
       <c r="E396" s="20">
@@ -9840,7 +9891,7 @@
       <c r="K396" s="28"/>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:13">
       <c r="B397" s="27"/>
       <c r="D397" s="47"/>
       <c r="E397" s="20">
@@ -9858,7 +9909,7 @@
       <c r="K397" s="28"/>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12" ht="30">
+    <row r="398" spans="1:13" ht="30">
       <c r="B398" s="19"/>
       <c r="D398" s="47"/>
       <c r="E398" s="20">
@@ -9880,12 +9931,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:13">
       <c r="B399" s="19"/>
       <c r="K399" s="28"/>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:13">
       <c r="A400" s="37" t="s">
         <v>380</v>
       </c>
@@ -10200,7 +10251,7 @@
       <c r="K416" s="28"/>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12" ht="30">
+    <row r="417" spans="1:13" ht="30">
       <c r="B417" s="31"/>
       <c r="D417" s="47"/>
       <c r="E417" s="20">
@@ -10222,12 +10273,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:13">
       <c r="B418" s="19"/>
       <c r="K418" s="28"/>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12" ht="60">
+    <row r="419" spans="1:13" ht="60">
       <c r="A419" s="37" t="s">
         <v>386</v>
       </c>
@@ -10255,7 +10306,7 @@
       <c r="K419" s="28"/>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12" ht="30.75" customHeight="1">
+    <row r="420" spans="1:13" ht="30.75" customHeight="1">
       <c r="B420" s="31"/>
       <c r="D420" s="47"/>
       <c r="E420" s="20">
@@ -10276,13 +10327,16 @@
       <c r="L420" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="421" spans="1:12">
+      <c r="M420" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13">
       <c r="B421" s="19"/>
       <c r="K421" s="28"/>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12" ht="60">
+    <row r="422" spans="1:13" ht="60">
       <c r="A422" s="37" t="s">
         <v>394</v>
       </c>
@@ -10307,7 +10361,7 @@
       <c r="K422" s="28"/>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12" ht="30">
+    <row r="423" spans="1:13" ht="30">
       <c r="B423" s="31"/>
       <c r="D423" s="47"/>
       <c r="E423" s="20">
@@ -10322,6 +10376,9 @@
       <c r="H423" s="20" t="s">
         <v>582</v>
       </c>
+      <c r="J423" s="20" t="s">
+        <v>618</v>
+      </c>
       <c r="K423" s="28" t="s">
         <v>572</v>
       </c>
@@ -10329,17 +10386,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:13">
       <c r="B424" s="31"/>
       <c r="K424" s="28"/>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:13">
       <c r="B425" s="19"/>
       <c r="K425" s="28"/>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12" ht="30" customHeight="1">
+    <row r="426" spans="1:13" ht="30" customHeight="1">
       <c r="A426" s="37" t="s">
         <v>395</v>
       </c>
@@ -10364,7 +10421,7 @@
       <c r="K426" s="28"/>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12" ht="30">
+    <row r="427" spans="1:13" ht="30">
       <c r="B427" s="31"/>
       <c r="D427" s="47"/>
       <c r="E427" s="20">
@@ -10382,7 +10439,7 @@
       <c r="K427" s="28"/>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12" ht="45">
+    <row r="428" spans="1:13" ht="45">
       <c r="B428" s="31"/>
       <c r="D428" s="47"/>
       <c r="E428" s="20">
@@ -10403,7 +10460,7 @@
       <c r="K428" s="28"/>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12" ht="45">
+    <row r="429" spans="1:13" ht="45">
       <c r="B429" s="19"/>
       <c r="D429" s="47"/>
       <c r="E429" s="20">
@@ -10425,12 +10482,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:13">
       <c r="B430" s="19"/>
       <c r="K430" s="28"/>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12" ht="45" customHeight="1">
+    <row r="431" spans="1:13" ht="45" customHeight="1">
       <c r="A431" s="38" t="s">
         <v>396</v>
       </c>
@@ -10455,7 +10512,7 @@
       <c r="K431" s="28"/>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12" ht="30">
+    <row r="432" spans="1:13" ht="30">
       <c r="B432" s="31"/>
       <c r="D432" s="47"/>
       <c r="E432" s="20">
@@ -10473,7 +10530,7 @@
       <c r="K432" s="28"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="1:12" ht="30">
+    <row r="433" spans="1:13" ht="30">
       <c r="B433" s="31"/>
       <c r="D433" s="47"/>
       <c r="E433" s="20">
@@ -10497,13 +10554,16 @@
       <c r="L433" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="434" spans="1:12">
+      <c r="M433" s="20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13">
       <c r="B434" s="31"/>
       <c r="K434" s="28"/>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="1:12" ht="45" customHeight="1">
+    <row r="435" spans="1:13" ht="45" customHeight="1">
       <c r="A435" s="38" t="s">
         <v>397</v>
       </c>
@@ -10528,7 +10588,7 @@
       <c r="K435" s="28"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12" ht="30">
+    <row r="436" spans="1:13" ht="30">
       <c r="A436" s="37" t="s">
         <v>385</v>
       </c>
@@ -10549,7 +10609,7 @@
       <c r="K436" s="28"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12" ht="30">
+    <row r="437" spans="1:13" ht="30">
       <c r="B437" s="19"/>
       <c r="D437" s="47"/>
       <c r="E437" s="20">
@@ -10570,7 +10630,7 @@
       <c r="K437" s="28"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12" ht="30">
+    <row r="438" spans="1:13" ht="30">
       <c r="B438" s="19"/>
       <c r="D438" s="47"/>
       <c r="E438" s="20">
@@ -10592,12 +10652,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:13">
       <c r="B439" s="19"/>
       <c r="K439" s="28"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:13">
       <c r="B440" s="19"/>
       <c r="D440" s="47" t="s">
         <v>382</v>
@@ -10614,7 +10674,7 @@
       <c r="K440" s="28"/>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="1:12" ht="30" customHeight="1">
+    <row r="441" spans="1:13" ht="30" customHeight="1">
       <c r="A441" s="38" t="s">
         <v>398</v>
       </c>
@@ -10640,7 +10700,7 @@
       <c r="K441" s="28"/>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12" ht="30">
+    <row r="442" spans="1:13" ht="30">
       <c r="B442" s="19"/>
       <c r="D442" s="47"/>
       <c r="E442" s="20">
@@ -10665,12 +10725,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:13">
       <c r="B443" s="19"/>
       <c r="K443" s="28"/>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:13">
       <c r="A444" s="38" t="s">
         <v>399</v>
       </c>
@@ -10695,7 +10755,7 @@
       <c r="K444" s="28"/>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="1:12" ht="30" customHeight="1">
+    <row r="445" spans="1:13" ht="30" customHeight="1">
       <c r="B445" s="19"/>
       <c r="D445" s="47"/>
       <c r="E445" s="20">
@@ -10713,7 +10773,7 @@
       <c r="K445" s="28"/>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="1:12" ht="30">
+    <row r="446" spans="1:13" ht="30">
       <c r="B446" s="19"/>
       <c r="D446" s="47"/>
       <c r="E446" s="20">
@@ -10734,7 +10794,7 @@
       <c r="K446" s="28"/>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="1:12" ht="30">
+    <row r="447" spans="1:13" ht="30">
       <c r="B447" s="19"/>
       <c r="D447" s="47"/>
       <c r="E447" s="20">
@@ -10756,12 +10816,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:13">
       <c r="B448" s="19"/>
       <c r="K448" s="28"/>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12" ht="51.75" customHeight="1">
+    <row r="449" spans="1:13" ht="51.75" customHeight="1">
       <c r="A449" s="38" t="s">
         <v>400</v>
       </c>
@@ -10786,7 +10846,7 @@
       <c r="K449" s="28"/>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12" ht="30">
+    <row r="450" spans="1:13" ht="30">
       <c r="B450" s="33"/>
       <c r="D450" s="47"/>
       <c r="E450" s="20">
@@ -10804,7 +10864,7 @@
       <c r="K450" s="28"/>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:13">
       <c r="B451" s="33"/>
       <c r="D451" s="47"/>
       <c r="E451" s="20">
@@ -10822,7 +10882,7 @@
       <c r="K451" s="28"/>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12" ht="45">
+    <row r="452" spans="1:13" ht="45">
       <c r="B452" s="33"/>
       <c r="D452" s="47"/>
       <c r="E452" s="20">
@@ -10832,7 +10892,7 @@
         <v>406</v>
       </c>
       <c r="G452" s="20" t="s">
-        <v>407</v>
+        <v>620</v>
       </c>
       <c r="H452" s="20" t="s">
         <v>590</v>
@@ -10843,13 +10903,16 @@
       <c r="L452" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="453" spans="1:12">
+      <c r="M452" s="20" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13">
       <c r="B453" s="19"/>
       <c r="K453" s="28"/>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12" ht="15" customHeight="1">
+    <row r="454" spans="1:13" ht="15" customHeight="1">
       <c r="A454" s="38" t="s">
         <v>408</v>
       </c>
@@ -10874,7 +10937,7 @@
       <c r="K454" s="28"/>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12" ht="30">
+    <row r="455" spans="1:13" ht="30">
       <c r="B455" s="33"/>
       <c r="D455" s="47"/>
       <c r="E455" s="20">
@@ -10892,7 +10955,7 @@
       <c r="K455" s="28"/>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:13">
       <c r="B456" s="33"/>
       <c r="D456" s="47"/>
       <c r="E456" s="20">
@@ -10910,7 +10973,7 @@
       <c r="K456" s="28"/>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12" ht="45">
+    <row r="457" spans="1:13" ht="45">
       <c r="B457" s="33"/>
       <c r="D457" s="47"/>
       <c r="E457" s="20">
@@ -10925,6 +10988,9 @@
       <c r="H457" s="20" t="s">
         <v>590</v>
       </c>
+      <c r="J457" s="20" t="s">
+        <v>621</v>
+      </c>
       <c r="K457" s="28" t="s">
         <v>572</v>
       </c>
@@ -10932,7 +10998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="30">
+    <row r="458" spans="1:13" ht="30">
       <c r="B458" s="19"/>
       <c r="D458" s="47"/>
       <c r="E458" s="20">
@@ -10947,12 +11013,12 @@
       <c r="K458" s="28"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:13">
       <c r="B459" s="19"/>
       <c r="K459" s="28"/>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12" ht="45">
+    <row r="460" spans="1:13" ht="45">
       <c r="A460" s="38" t="s">
         <v>412</v>
       </c>
@@ -10983,7 +11049,7 @@
       <c r="K460" s="28"/>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12" ht="30">
+    <row r="461" spans="1:13" ht="30">
       <c r="B461" s="34"/>
       <c r="D461" s="47"/>
       <c r="E461" s="20">
@@ -11001,7 +11067,7 @@
       <c r="K461" s="28"/>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12" ht="30">
+    <row r="462" spans="1:13" ht="30">
       <c r="B462" s="34"/>
       <c r="D462" s="47"/>
       <c r="E462" s="20">
@@ -11025,13 +11091,16 @@
       <c r="L462" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="463" spans="1:12">
+      <c r="M462" s="20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13">
       <c r="B463" s="19"/>
       <c r="K463" s="28"/>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12" ht="45" customHeight="1">
+    <row r="464" spans="1:13" ht="45" customHeight="1">
       <c r="A464" s="38" t="s">
         <v>420</v>
       </c>
@@ -11098,6 +11167,9 @@
       <c r="I466" s="20" t="s">
         <v>419</v>
       </c>
+      <c r="J466" s="20" t="s">
+        <v>615</v>
+      </c>
       <c r="K466" s="28" t="s">
         <v>572</v>
       </c>
@@ -11253,7 +11325,10 @@
         <v>426</v>
       </c>
       <c r="H475" s="20" t="s">
-        <v>597</v>
+        <v>623</v>
+      </c>
+      <c r="J475" s="20" t="s">
+        <v>624</v>
       </c>
       <c r="K475" s="28" t="s">
         <v>572</v>
@@ -11359,7 +11434,10 @@
         <v>437</v>
       </c>
       <c r="H481" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
+      </c>
+      <c r="J481" s="20" t="s">
+        <v>624</v>
       </c>
       <c r="K481" s="28" t="s">
         <v>572</v>
@@ -11450,16 +11528,12 @@
         <v>437</v>
       </c>
       <c r="H486" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="K486" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="L486" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="487" spans="1:12">
+        <v>570</v>
+      </c>
+      <c r="K486" s="28"/>
+      <c r="L486" s="2"/>
+    </row>
+    <row r="487" spans="1:12" ht="30">
       <c r="B487" s="34"/>
       <c r="D487" s="47"/>
       <c r="E487" s="20">
@@ -11471,8 +11545,15 @@
       <c r="G487" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="K487" s="2"/>
-      <c r="L487" s="2"/>
+      <c r="H487" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="K487" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L487" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="488" spans="1:12">
       <c r="B488" s="19"/>
@@ -11646,7 +11727,7 @@
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="1:12" ht="30">
+    <row r="497" spans="1:13" ht="30">
       <c r="B497" s="39"/>
       <c r="D497" s="47"/>
       <c r="E497" s="20">
@@ -11668,12 +11749,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:13">
       <c r="B498" s="19"/>
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12" ht="45">
+    <row r="499" spans="1:13" ht="45">
       <c r="A499" s="38" t="s">
         <v>453</v>
       </c>
@@ -11701,7 +11782,7 @@
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12" ht="30">
+    <row r="500" spans="1:13" ht="30">
       <c r="B500" s="39"/>
       <c r="D500" s="47"/>
       <c r="E500" s="20">
@@ -11719,7 +11800,7 @@
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:13">
       <c r="B501" s="39"/>
       <c r="D501" s="47"/>
       <c r="E501" s="20">
@@ -11740,7 +11821,7 @@
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12" ht="90">
+    <row r="502" spans="1:13" ht="90">
       <c r="B502" s="39"/>
       <c r="D502" s="47"/>
       <c r="E502" s="20">
@@ -11753,7 +11834,7 @@
         <v>462</v>
       </c>
       <c r="H502" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K502" s="28" t="s">
         <v>572</v>
@@ -11761,13 +11842,16 @@
       <c r="L502" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="503" spans="1:12">
+      <c r="M502" s="20" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13">
       <c r="B503" s="19"/>
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" ht="45">
+    <row r="504" spans="1:13" ht="45">
       <c r="A504" s="38" t="s">
         <v>459</v>
       </c>
@@ -11798,7 +11882,7 @@
       <c r="K504" s="2"/>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12" ht="30">
+    <row r="505" spans="1:13" ht="30">
       <c r="B505" s="39"/>
       <c r="D505" s="47"/>
       <c r="E505" s="20">
@@ -11816,7 +11900,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:13">
       <c r="B506" s="39"/>
       <c r="D506" s="47"/>
       <c r="E506" s="20">
@@ -11837,7 +11921,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12" ht="30">
+    <row r="507" spans="1:13" ht="30">
       <c r="B507" s="39"/>
       <c r="D507" s="47"/>
       <c r="E507" s="20">
@@ -11859,12 +11943,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:13">
       <c r="B508" s="19"/>
       <c r="K508" s="2"/>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12" ht="45">
+    <row r="509" spans="1:13" ht="45">
       <c r="A509" s="38" t="s">
         <v>463</v>
       </c>
@@ -11895,7 +11979,7 @@
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" ht="30">
+    <row r="510" spans="1:13" ht="30">
       <c r="B510" s="39"/>
       <c r="D510" s="47"/>
       <c r="E510" s="20">
@@ -11913,7 +11997,7 @@
       <c r="K510" s="28"/>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:13">
       <c r="B511" s="39"/>
       <c r="D511" s="47"/>
       <c r="E511" s="20">
@@ -11934,7 +12018,7 @@
       <c r="K511" s="2"/>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12" ht="30">
+    <row r="512" spans="1:13" ht="30">
       <c r="B512" s="39"/>
       <c r="D512" s="47"/>
       <c r="E512" s="20">
@@ -11947,7 +12031,7 @@
         <v>471</v>
       </c>
       <c r="H512" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I512" s="20" t="s">
         <v>472</v>
@@ -12026,7 +12110,7 @@
         <v>475</v>
       </c>
       <c r="H516" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I516" s="20" t="s">
         <v>472</v>
@@ -12102,7 +12186,7 @@
         <v>475</v>
       </c>
       <c r="H520" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I520" s="20" t="s">
         <v>472</v>
@@ -12193,7 +12277,7 @@
         <v>475</v>
       </c>
       <c r="H525" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I525" s="20" t="s">
         <v>472</v>
@@ -12691,10 +12775,10 @@
         <v>519</v>
       </c>
       <c r="H552" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="J552" s="20" t="s">
         <v>601</v>
-      </c>
-      <c r="J552" s="20" t="s">
-        <v>602</v>
       </c>
       <c r="K552" s="28" t="s">
         <v>572</v>
@@ -12916,7 +13000,7 @@
         <v>526</v>
       </c>
       <c r="H564" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K564" s="2"/>
       <c r="L564" s="2"/>
@@ -12934,7 +13018,7 @@
         <v>528</v>
       </c>
       <c r="H565" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K565" s="2"/>
       <c r="L565" s="2"/>
@@ -12952,7 +13036,7 @@
         <v>534</v>
       </c>
       <c r="H566" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K566" s="28" t="s">
         <v>572</v>
@@ -13195,7 +13279,7 @@
         <v>3</v>
       </c>
       <c r="F580" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G580" s="20" t="s">
         <v>549</v>
@@ -13532,7 +13616,7 @@
     </row>
     <row r="600" spans="1:12" ht="60" customHeight="1">
       <c r="A600" s="37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B600" s="45" t="s">
         <v>28</v>
@@ -13541,7 +13625,7 @@
         <v>30</v>
       </c>
       <c r="D600" s="47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E600" s="20">
         <v>1</v>
@@ -13565,7 +13649,7 @@
         <v>402</v>
       </c>
       <c r="G601" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H601" s="20" t="s">
         <v>570</v>
@@ -13580,10 +13664,10 @@
         <v>3</v>
       </c>
       <c r="F602" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="G602" s="20" t="s">
         <v>608</v>
-      </c>
-      <c r="G602" s="20" t="s">
-        <v>609</v>
       </c>
       <c r="H602" s="20" t="s">
         <v>570</v>
@@ -13598,13 +13682,13 @@
         <v>4</v>
       </c>
       <c r="F603" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="G603" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="G603" s="20" t="s">
-        <v>611</v>
-      </c>
       <c r="H603" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K603" s="28" t="s">
         <v>572</v>
@@ -13620,10 +13704,10 @@
         <v>5</v>
       </c>
       <c r="F604" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="G604" s="20" t="s">
         <v>612</v>
-      </c>
-      <c r="G604" s="20" t="s">
-        <v>613</v>
       </c>
       <c r="K604" s="2"/>
       <c r="L604" s="2"/>
@@ -14060,6 +14144,18 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="D435:D438"/>
+    <mergeCell ref="D489:D492"/>
+    <mergeCell ref="D494:D497"/>
+    <mergeCell ref="D499:D502"/>
+    <mergeCell ref="D504:D507"/>
+    <mergeCell ref="D449:D452"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="D77:D80"/>
     <mergeCell ref="D600:D605"/>
     <mergeCell ref="D594:D598"/>
     <mergeCell ref="D573:D576"/>
@@ -14071,15 +14167,13 @@
     <mergeCell ref="D387:D391"/>
     <mergeCell ref="D393:D398"/>
     <mergeCell ref="D400:D405"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D440:D442"/>
+    <mergeCell ref="D444:D447"/>
+    <mergeCell ref="D414:D417"/>
+    <mergeCell ref="D419:D420"/>
+    <mergeCell ref="D422:D423"/>
+    <mergeCell ref="D426:D429"/>
+    <mergeCell ref="D431:D433"/>
     <mergeCell ref="D54:D57"/>
     <mergeCell ref="D67:D70"/>
     <mergeCell ref="D63:D65"/>
@@ -14101,6 +14195,9 @@
     <mergeCell ref="D92:D96"/>
     <mergeCell ref="D98:D102"/>
     <mergeCell ref="D46:D52"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="D132:D135"/>
     <mergeCell ref="D197:D201"/>
     <mergeCell ref="D203:D207"/>
     <mergeCell ref="D167:D175"/>
@@ -14127,19 +14224,6 @@
     <mergeCell ref="D350:D355"/>
     <mergeCell ref="D357:D360"/>
     <mergeCell ref="D362:D366"/>
-    <mergeCell ref="D440:D442"/>
-    <mergeCell ref="D444:D447"/>
-    <mergeCell ref="D414:D417"/>
-    <mergeCell ref="D419:D420"/>
-    <mergeCell ref="D422:D423"/>
-    <mergeCell ref="D426:D429"/>
-    <mergeCell ref="D431:D433"/>
-    <mergeCell ref="D435:D438"/>
-    <mergeCell ref="D489:D492"/>
-    <mergeCell ref="D494:D497"/>
-    <mergeCell ref="D499:D502"/>
-    <mergeCell ref="D504:D507"/>
-    <mergeCell ref="D449:D452"/>
     <mergeCell ref="D454:D458"/>
     <mergeCell ref="D479:D482"/>
     <mergeCell ref="D484:D487"/>
@@ -14163,10 +14247,10 @@
     <mergeCell ref="D563:D566"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K598 K592 K587 K582 K576 K571 K566 K561 K556 K552 K548 K543 K539 K534 K530 K525 K520 K516 K481 K486 K492 K497 K502 K507 K510 K512 K2:K478 K603">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K598 K592 K587 K582 K576 K571 K566 K561 K556 K552 K548 K543 K539 K534 K530 K525 K520 K516 K481 K486:K487 K492 K497 K502 K507 K510 K512 K2:K478 K603">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K480 K482:K485 K593:K596 K588:K591 K583:K586 K577:K581 K572:K575 K567:K570 K562:K565 K557:K560 K553:K555 K549:K551 K544:K547 K540:K542 K535:K538 K531:K533 K526:K529 K521:K524 K517:K519 K513:K515 K487:K491 K493:K496 K498:K501 K503:K506 K508:K509 K511 K599:K602 K604:K675">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K479:K480 K482:K485 K593:K596 K588:K591 K583:K586 K577:K581 K572:K575 K567:K570 K562:K565 K557:K560 K553:K555 K549:K551 K544:K547 K540:K542 K535:K538 K531:K533 K526:K529 K521:K524 K517:K519 K513:K515 K604:K675 K493:K496 K498:K501 K503:K506 K508:K509 K511 K599:K602 K488:K491">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L720">

--- a/Test Execution/Rijo/Test Case - Nursing Station.xlsx
+++ b/Test Execution/Rijo/Test Case - Nursing Station.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="626">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2758,11 +2758,11 @@
         </c:dLbls>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="59725312"/>
-        <c:axId val="59726848"/>
+        <c:axId val="70690688"/>
+        <c:axId val="70692224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59725312"/>
+        <c:axId val="70690688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,14 +2770,14 @@
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59726848"/>
+        <c:crossAx val="70692224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59726848"/>
+        <c:axId val="70692224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2786,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59725312"/>
+        <c:crossAx val="70690688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2799,7 +2799,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2825,7 +2825,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,8 +3394,8 @@
   <dimension ref="A1:S720"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N546" sqref="N546"/>
+      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J604" sqref="J604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13690,6 +13690,9 @@
       <c r="H603" s="20" t="s">
         <v>613</v>
       </c>
+      <c r="J603" s="20" t="s">
+        <v>621</v>
+      </c>
       <c r="K603" s="28" t="s">
         <v>572</v>
       </c>
@@ -14144,36 +14147,35 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="D435:D438"/>
-    <mergeCell ref="D489:D492"/>
-    <mergeCell ref="D494:D497"/>
-    <mergeCell ref="D499:D502"/>
-    <mergeCell ref="D504:D507"/>
-    <mergeCell ref="D449:D452"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D600:D605"/>
-    <mergeCell ref="D594:D598"/>
-    <mergeCell ref="D573:D576"/>
-    <mergeCell ref="D578:D582"/>
-    <mergeCell ref="D584:D587"/>
-    <mergeCell ref="D589:D592"/>
-    <mergeCell ref="D407:D412"/>
-    <mergeCell ref="D381:D385"/>
-    <mergeCell ref="D387:D391"/>
-    <mergeCell ref="D393:D398"/>
-    <mergeCell ref="D400:D405"/>
-    <mergeCell ref="D440:D442"/>
-    <mergeCell ref="D444:D447"/>
-    <mergeCell ref="D414:D417"/>
-    <mergeCell ref="D419:D420"/>
-    <mergeCell ref="D422:D423"/>
-    <mergeCell ref="D426:D429"/>
-    <mergeCell ref="D431:D433"/>
+    <mergeCell ref="D545:D548"/>
+    <mergeCell ref="D509:D512"/>
+    <mergeCell ref="D514:D516"/>
+    <mergeCell ref="D518:D521"/>
+    <mergeCell ref="D523:D526"/>
+    <mergeCell ref="D528:D530"/>
+    <mergeCell ref="D568:D571"/>
+    <mergeCell ref="D550:D552"/>
+    <mergeCell ref="D554:D556"/>
+    <mergeCell ref="D558:D561"/>
+    <mergeCell ref="D563:D566"/>
+    <mergeCell ref="D479:D482"/>
+    <mergeCell ref="D484:D487"/>
+    <mergeCell ref="D460:D462"/>
+    <mergeCell ref="D464:D467"/>
+    <mergeCell ref="D469:D472"/>
+    <mergeCell ref="D474:D477"/>
+    <mergeCell ref="D532:D534"/>
+    <mergeCell ref="D536:D539"/>
+    <mergeCell ref="D541:D543"/>
+    <mergeCell ref="D304:D310"/>
+    <mergeCell ref="D312:D319"/>
+    <mergeCell ref="D368:D373"/>
+    <mergeCell ref="D375:D379"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D350:D355"/>
+    <mergeCell ref="D357:D360"/>
+    <mergeCell ref="D362:D366"/>
+    <mergeCell ref="D454:D458"/>
     <mergeCell ref="D54:D57"/>
     <mergeCell ref="D67:D70"/>
     <mergeCell ref="D63:D65"/>
@@ -14198,11 +14200,41 @@
     <mergeCell ref="D128:D130"/>
     <mergeCell ref="D123:D126"/>
     <mergeCell ref="D132:D135"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D600:D605"/>
+    <mergeCell ref="D594:D598"/>
+    <mergeCell ref="D573:D576"/>
+    <mergeCell ref="D578:D582"/>
+    <mergeCell ref="D584:D587"/>
+    <mergeCell ref="D589:D592"/>
+    <mergeCell ref="D407:D412"/>
+    <mergeCell ref="D381:D385"/>
+    <mergeCell ref="D387:D391"/>
+    <mergeCell ref="D393:D398"/>
+    <mergeCell ref="D400:D405"/>
+    <mergeCell ref="D440:D442"/>
+    <mergeCell ref="D444:D447"/>
+    <mergeCell ref="D414:D417"/>
+    <mergeCell ref="D419:D420"/>
+    <mergeCell ref="D422:D423"/>
+    <mergeCell ref="D426:D429"/>
+    <mergeCell ref="D431:D433"/>
     <mergeCell ref="D197:D201"/>
     <mergeCell ref="D203:D207"/>
     <mergeCell ref="D167:D175"/>
     <mergeCell ref="D177:D186"/>
     <mergeCell ref="D188:D190"/>
+    <mergeCell ref="D435:D438"/>
+    <mergeCell ref="D489:D492"/>
+    <mergeCell ref="D494:D497"/>
+    <mergeCell ref="D499:D502"/>
+    <mergeCell ref="D504:D507"/>
+    <mergeCell ref="D449:D452"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="D118:D121"/>
     <mergeCell ref="D192:D195"/>
     <mergeCell ref="D276:D278"/>
     <mergeCell ref="D280:D283"/>
@@ -14216,35 +14248,6 @@
     <mergeCell ref="D335:D340"/>
     <mergeCell ref="D291:D295"/>
     <mergeCell ref="D297:D302"/>
-    <mergeCell ref="D304:D310"/>
-    <mergeCell ref="D312:D319"/>
-    <mergeCell ref="D368:D373"/>
-    <mergeCell ref="D375:D379"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D350:D355"/>
-    <mergeCell ref="D357:D360"/>
-    <mergeCell ref="D362:D366"/>
-    <mergeCell ref="D454:D458"/>
-    <mergeCell ref="D479:D482"/>
-    <mergeCell ref="D484:D487"/>
-    <mergeCell ref="D460:D462"/>
-    <mergeCell ref="D464:D467"/>
-    <mergeCell ref="D469:D472"/>
-    <mergeCell ref="D474:D477"/>
-    <mergeCell ref="D532:D534"/>
-    <mergeCell ref="D536:D539"/>
-    <mergeCell ref="D541:D543"/>
-    <mergeCell ref="D545:D548"/>
-    <mergeCell ref="D509:D512"/>
-    <mergeCell ref="D514:D516"/>
-    <mergeCell ref="D518:D521"/>
-    <mergeCell ref="D523:D526"/>
-    <mergeCell ref="D528:D530"/>
-    <mergeCell ref="D568:D571"/>
-    <mergeCell ref="D550:D552"/>
-    <mergeCell ref="D554:D556"/>
-    <mergeCell ref="D558:D561"/>
-    <mergeCell ref="D563:D566"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K598 K592 K587 K582 K576 K571 K566 K561 K556 K552 K548 K543 K539 K534 K530 K525 K520 K516 K481 K486:K487 K492 K497 K502 K507 K510 K512 K2:K478 K603">
